--- a/tickets/OmegaT_issues_nopw.xlsx
+++ b/tickets/OmegaT_issues_nopw.xlsx
@@ -13,7 +13,7 @@
     <sheet name="ETS" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'2022'!$A$1:$F$99</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'2022'!$A$1:$F$100</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">#REF!</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Sheet_Title" vbProcedure="false">"Devs"</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">#REF!</definedName>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="236">
   <si>
     <t xml:space="preserve">#</t>
   </si>
@@ -138,6 +138,15 @@
     <t xml:space="preserve">The COMPILE event is fired *after* the target commit</t>
   </si>
   <si>
+    <t xml:space="preserve">#1171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enforced translations lose background color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open</t>
+  </si>
+  <si>
     <t xml:space="preserve">#1164</t>
   </si>
   <si>
@@ -157,9 +166,6 @@
   </si>
   <si>
     <t xml:space="preserve">RFE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open</t>
   </si>
   <si>
     <t xml:space="preserve">#1163</t>
@@ -1363,7 +1369,7 @@
   <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ101"/>
+  <dimension ref="A1:AMJ102"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1472,7 +1478,7 @@
     </row>
     <row r="6" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="n">
-        <v>45049</v>
+        <v>45064</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>35</v>
@@ -1500,17 +1506,17 @@
       <c r="B7" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="E7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>40</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>42</v>
       </c>
       <c r="AMH7" s="0"/>
       <c r="AMI7" s="0"/>
@@ -1518,22 +1524,22 @@
     </row>
     <row r="8" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="n">
-        <v>45044</v>
+        <v>45049</v>
       </c>
       <c r="B8" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="9" t="s">
+      <c r="E8" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>9</v>
-      </c>
       <c r="F8" s="9" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AMH8" s="0"/>
       <c r="AMI8" s="0"/>
@@ -1541,7 +1547,7 @@
     </row>
     <row r="9" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="n">
-        <v>45040</v>
+        <v>45044</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>45</v>
@@ -1556,7 +1562,7 @@
         <v>9</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="AMH9" s="0"/>
       <c r="AMI9" s="0"/>
@@ -1564,7 +1570,7 @@
     </row>
     <row r="10" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="n">
-        <v>45028</v>
+        <v>45040</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>47</v>
@@ -1576,10 +1582,10 @@
         <v>48</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="AMH10" s="0"/>
       <c r="AMI10" s="0"/>
@@ -1587,16 +1593,22 @@
     </row>
     <row r="11" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="n">
-        <v>44996</v>
+        <v>45028</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="C11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="E11" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>51</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>49</v>
       </c>
       <c r="AMH11" s="0"/>
       <c r="AMI11" s="0"/>
@@ -1604,22 +1616,16 @@
     </row>
     <row r="12" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="n">
-        <v>45007</v>
-      </c>
-      <c r="B12" s="11" t="s">
+        <v>44996</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>7</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="9" t="s">
-        <v>9</v>
-      </c>
       <c r="F12" s="9" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="AMH12" s="0"/>
       <c r="AMI12" s="0"/>
@@ -1627,7 +1633,7 @@
     </row>
     <row r="13" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="n">
-        <v>44993</v>
+        <v>45007</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>54</v>
@@ -1642,7 +1648,7 @@
         <v>9</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AMH13" s="0"/>
       <c r="AMI13" s="0"/>
@@ -1673,13 +1679,13 @@
     </row>
     <row r="15" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="n">
-        <v>44991</v>
+        <v>44993</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>58</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>59</v>
@@ -1688,7 +1694,7 @@
         <v>9</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="AMH15" s="0"/>
       <c r="AMI15" s="0"/>
@@ -1696,22 +1702,22 @@
     </row>
     <row r="16" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="10" t="n">
-        <v>44981</v>
+        <v>44991</v>
       </c>
       <c r="B16" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="9" t="s">
+      <c r="E16" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>42</v>
       </c>
       <c r="AMH16" s="0"/>
       <c r="AMI16" s="0"/>
@@ -1719,7 +1725,7 @@
     </row>
     <row r="17" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="n">
-        <v>44972</v>
+        <v>44981</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>63</v>
@@ -1731,33 +1737,33 @@
         <v>64</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AMH17" s="0"/>
       <c r="AMI17" s="0"/>
       <c r="AMJ17" s="0"/>
     </row>
-    <row r="18" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13" t="n">
-        <v>44970</v>
-      </c>
-      <c r="B18" s="14" t="s">
+    <row r="18" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="10" t="n">
+        <v>44972</v>
+      </c>
+      <c r="B18" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="12" t="s">
+      <c r="C18" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>42</v>
+      <c r="E18" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="AMH18" s="0"/>
       <c r="AMI18" s="0"/>
@@ -1765,22 +1771,22 @@
     </row>
     <row r="19" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="13" t="n">
-        <v>44967</v>
+        <v>44970</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>67</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>68</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="AMH19" s="0"/>
       <c r="AMI19" s="0"/>
@@ -1788,22 +1794,22 @@
     </row>
     <row r="20" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="13" t="n">
-        <v>44964</v>
+        <v>44967</v>
       </c>
       <c r="B20" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="12" t="s">
+      <c r="E20" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="12" t="s">
         <v>71</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>32</v>
       </c>
       <c r="AMH20" s="0"/>
       <c r="AMI20" s="0"/>
@@ -1811,7 +1817,7 @@
     </row>
     <row r="21" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="13" t="n">
-        <v>44952</v>
+        <v>44964</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>72</v>
@@ -1823,7 +1829,7 @@
         <v>73</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F21" s="12" t="s">
         <v>32</v>
@@ -1846,10 +1852,10 @@
         <v>75</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="AMH22" s="0"/>
       <c r="AMI22" s="0"/>
@@ -1857,22 +1863,22 @@
     </row>
     <row r="23" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="13" t="n">
-        <v>44949</v>
+        <v>44952</v>
       </c>
       <c r="B23" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="C23" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="12" t="s">
+      <c r="E23" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="12" t="s">
         <v>78</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>69</v>
       </c>
       <c r="AMH23" s="0"/>
       <c r="AMI23" s="0"/>
@@ -1880,22 +1886,22 @@
     </row>
     <row r="24" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="13" t="n">
-        <v>44948</v>
+        <v>44949</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>79</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>80</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="AMH24" s="0"/>
       <c r="AMI24" s="0"/>
@@ -1903,125 +1909,125 @@
     </row>
     <row r="25" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="13" t="n">
-        <v>44946</v>
+        <v>44948</v>
       </c>
       <c r="B25" s="14" t="s">
         <v>81</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>82</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AMH25" s="0"/>
       <c r="AMI25" s="0"/>
       <c r="AMJ25" s="0"/>
     </row>
-    <row r="26" s="12" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="13" t="n">
-        <v>44929</v>
-      </c>
-      <c r="B26" s="16" t="s">
+        <v>44946</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C26" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>85</v>
-      </c>
       <c r="E26" s="12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="AMH26" s="0"/>
       <c r="AMI26" s="0"/>
       <c r="AMJ26" s="0"/>
     </row>
-    <row r="27" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="8" t="s">
+    <row r="27" s="12" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="13" t="n">
+        <v>44929</v>
+      </c>
+      <c r="B27" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="F27" s="8" t="s">
-        <v>29</v>
+      <c r="C27" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="AMH27" s="0"/>
       <c r="AMI27" s="0"/>
       <c r="AMJ27" s="0"/>
     </row>
-    <row r="28" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="13" t="n">
-        <v>44879</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="5" t="s">
+    <row r="28" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="E28" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>42</v>
+      <c r="F28" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="AMH28" s="0"/>
       <c r="AMI28" s="0"/>
       <c r="AMJ28" s="0"/>
     </row>
-    <row r="29" s="12" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="13" t="n">
-        <v>44858</v>
-      </c>
-      <c r="B29" s="14" t="s">
+        <v>44879</v>
+      </c>
+      <c r="B29" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="C29" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="12" t="s">
+      <c r="C29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E29" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>42</v>
+      <c r="E29" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="AMH29" s="0"/>
       <c r="AMI29" s="0"/>
       <c r="AMJ29" s="0"/>
     </row>
-    <row r="30" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" s="12" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="13" t="n">
-        <v>44855</v>
-      </c>
-      <c r="B30" s="17" t="s">
+        <v>44858</v>
+      </c>
+      <c r="B30" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="5" t="s">
+      <c r="C30" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E30" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>32</v>
+      <c r="E30" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="AMH30" s="0"/>
       <c r="AMI30" s="0"/>
@@ -2029,7 +2035,7 @@
     </row>
     <row r="31" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="13" t="n">
-        <v>44844</v>
+        <v>44855</v>
       </c>
       <c r="B31" s="17" t="s">
         <v>93</v>
@@ -2041,112 +2047,115 @@
         <v>94</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="AMH31" s="0"/>
       <c r="AMI31" s="0"/>
       <c r="AMJ31" s="0"/>
     </row>
-    <row r="32" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="13" t="n">
-        <v>44757</v>
-      </c>
-      <c r="B32" s="18" t="s">
+        <v>44844</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="E32" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F32" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>76</v>
-      </c>
+      <c r="AMH32" s="0"/>
+      <c r="AMI32" s="0"/>
+      <c r="AMJ32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="13" t="n">
-        <v>373466</v>
-      </c>
-      <c r="B33" s="17" t="s">
+        <v>44757</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>7</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>100</v>
       </c>
       <c r="E33" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="13" t="n">
+        <v>373466</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E34" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F33" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="13" t="n">
-        <v>44743</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>101</v>
-      </c>
       <c r="F34" s="5" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="13" t="n">
-        <v>44740</v>
-      </c>
-      <c r="B35" s="19" t="s">
-        <v>102</v>
+        <v>44743</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>97</v>
+        <v>7</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="E35" s="5" t="s">
-        <v>83</v>
-      </c>
       <c r="F35" s="5" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="13" t="n">
-        <v>44739</v>
-      </c>
-      <c r="B36" s="20" t="s">
+        <v>44740</v>
+      </c>
+      <c r="B36" s="19" t="s">
         <v>104</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>105</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="13" t="n">
-        <v>44693</v>
+        <v>44739</v>
       </c>
       <c r="B37" s="20" t="s">
         <v>106</v>
@@ -2158,90 +2167,90 @@
         <v>107</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="13" t="n">
-        <v>44695</v>
-      </c>
-      <c r="B38" s="21" t="s">
+        <v>44693</v>
+      </c>
+      <c r="B38" s="20" t="s">
         <v>108</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>97</v>
+        <v>7</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>109</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="13" t="n">
-        <v>44659</v>
+        <v>44695</v>
       </c>
       <c r="B39" s="21" t="s">
         <v>110</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>111</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="13" t="n">
-        <v>44712</v>
-      </c>
-      <c r="B40" s="20" t="s">
+        <v>44659</v>
+      </c>
+      <c r="B40" s="21" t="s">
         <v>112</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>113</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>114</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="13" t="n">
-        <v>44705</v>
-      </c>
-      <c r="B41" s="17" t="s">
+        <v>44712</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C41" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D41" s="5" t="s">
+      <c r="E41" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" s="5" t="s">
         <v>116</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2258,15 +2267,15 @@
         <v>118</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="13" t="n">
-        <v>44693</v>
+        <v>44705</v>
       </c>
       <c r="B43" s="17" t="s">
         <v>119</v>
@@ -2278,15 +2287,15 @@
         <v>120</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="13" t="n">
-        <v>44622</v>
+        <v>44693</v>
       </c>
       <c r="B44" s="17" t="s">
         <v>121</v>
@@ -2298,57 +2307,57 @@
         <v>122</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="13" t="n">
-        <v>44614</v>
+        <v>44622</v>
       </c>
       <c r="B45" s="17" t="s">
         <v>123</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>124</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="13" t="n">
-        <v>44613</v>
+        <v>44614</v>
       </c>
       <c r="B46" s="17" t="s">
         <v>125</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>126</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="13" t="n">
-        <v>44608</v>
-      </c>
-      <c r="B47" s="20" t="s">
+        <v>44613</v>
+      </c>
+      <c r="B47" s="17" t="s">
         <v>127</v>
       </c>
       <c r="C47" s="5" t="s">
@@ -2358,60 +2367,60 @@
         <v>128</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="13" t="n">
-        <v>44580</v>
-      </c>
-      <c r="B48" s="17" t="s">
+        <v>44608</v>
+      </c>
+      <c r="B48" s="20" t="s">
         <v>129</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>97</v>
+        <v>7</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>130</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="13" t="n">
+        <v>44580</v>
+      </c>
+      <c r="B49" s="17" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="13" t="n">
-        <v>44463</v>
-      </c>
-      <c r="B50" s="17" t="s">
+      <c r="C49" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D49" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C50" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D50" s="5" t="s">
+      <c r="E49" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="5" t="s">
         <v>133</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="13" t="n">
-        <v>44460</v>
+        <v>44463</v>
       </c>
       <c r="B51" s="17" t="s">
         <v>134</v>
@@ -2423,10 +2432,10 @@
         <v>135</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>136</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2434,24 +2443,24 @@
         <v>44460</v>
       </c>
       <c r="B52" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C52" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D52" s="5" t="s">
+      <c r="E52" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="13" t="n">
-        <v>44372</v>
+        <v>44460</v>
       </c>
       <c r="B53" s="17" t="s">
         <v>139</v>
@@ -2466,72 +2475,72 @@
         <v>23</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="13" t="n">
-        <v>44326</v>
+        <v>44372</v>
       </c>
       <c r="B54" s="17" t="s">
         <v>141</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>97</v>
+        <v>7</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>142</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="13" t="n">
-        <v>44325</v>
-      </c>
-      <c r="B55" s="21" t="s">
+        <v>44326</v>
+      </c>
+      <c r="B55" s="17" t="s">
         <v>143</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>144</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="13" t="n">
         <v>44325</v>
       </c>
-      <c r="B56" s="17" t="s">
+      <c r="B56" s="21" t="s">
         <v>145</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>146</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="13" t="n">
-        <v>44321</v>
+        <v>44325</v>
       </c>
       <c r="B57" s="17" t="s">
         <v>147</v>
@@ -2543,15 +2552,15 @@
         <v>148</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="13" t="n">
-        <v>44316</v>
+        <v>44321</v>
       </c>
       <c r="B58" s="17" t="s">
         <v>149</v>
@@ -2563,37 +2572,37 @@
         <v>150</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>151</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="13" t="n">
-        <v>44279</v>
-      </c>
-      <c r="B59" s="5" t="s">
+        <v>44316</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="C59" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D59" s="5" t="s">
+      <c r="E59" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F59" s="5" t="s">
         <v>153</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="13" t="n">
-        <v>44257</v>
-      </c>
-      <c r="B60" s="17" t="s">
+        <v>44279</v>
+      </c>
+      <c r="B60" s="5" t="s">
         <v>154</v>
       </c>
       <c r="C60" s="5" t="s">
@@ -2603,15 +2612,15 @@
         <v>155</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="13" t="n">
-        <v>44243</v>
+        <v>44257</v>
       </c>
       <c r="B61" s="17" t="s">
         <v>156</v>
@@ -2623,57 +2632,57 @@
         <v>157</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="22" t="n">
+      <c r="A62" s="13" t="n">
+        <v>44243</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="22" t="n">
         <v>44231</v>
       </c>
-      <c r="B62" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="C62" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D62" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="E62" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="F62" s="24" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="13" t="n">
-        <v>44218</v>
-      </c>
-      <c r="B63" s="17" t="s">
+      <c r="B63" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="C63" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D63" s="5" t="s">
+      <c r="C63" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="E63" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="F63" s="24" t="s">
         <v>161</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="13" t="n">
-        <v>44216</v>
-      </c>
-      <c r="B64" s="20" t="s">
+        <v>44218</v>
+      </c>
+      <c r="B64" s="17" t="s">
         <v>162</v>
       </c>
       <c r="C64" s="5" t="s">
@@ -2683,17 +2692,17 @@
         <v>163</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="13" t="n">
-        <v>44175</v>
-      </c>
-      <c r="B65" s="17" t="s">
+        <v>44216</v>
+      </c>
+      <c r="B65" s="20" t="s">
         <v>164</v>
       </c>
       <c r="C65" s="5" t="s">
@@ -2703,10 +2712,10 @@
         <v>165</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2723,40 +2732,40 @@
         <v>167</v>
       </c>
       <c r="E66" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="13" t="n">
+        <v>44175</v>
+      </c>
+      <c r="B67" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E67" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F66" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="13" t="n">
-        <v>44162</v>
-      </c>
-      <c r="B68" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>42</v>
+      <c r="F67" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="5" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="13" t="n">
-        <v>44148</v>
+        <v>44162</v>
       </c>
       <c r="B69" s="17" t="s">
         <v>170</v>
@@ -2765,158 +2774,158 @@
         <v>7</v>
       </c>
       <c r="D69" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="13" t="n">
+        <v>44148</v>
+      </c>
+      <c r="B70" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E69" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="22" t="n">
+      <c r="E70" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="22" t="n">
         <v>44146</v>
       </c>
-      <c r="B70" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="C70" s="24" t="s">
+      <c r="B71" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="C71" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D70" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="E70" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="F70" s="24" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="13" t="n">
-        <v>44132</v>
-      </c>
-      <c r="B71" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D71" s="5" t="s">
+      <c r="D71" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="E71" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>42</v>
+      <c r="E71" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="F71" s="24" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="13" t="n">
-        <v>44103</v>
+        <v>44132</v>
       </c>
       <c r="B72" s="17" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D72" s="5" t="s">
         <v>176</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="22" t="n">
+      <c r="A73" s="13" t="n">
+        <v>44103</v>
+      </c>
+      <c r="B73" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="22" t="n">
         <v>44095</v>
       </c>
-      <c r="B73" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="C73" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D73" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="E73" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="F73" s="24" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="13" t="n">
-        <v>44095</v>
-      </c>
-      <c r="B74" s="17" t="s">
+      <c r="B74" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="C74" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D74" s="5" t="s">
+      <c r="C74" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="E74" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F74" s="5" t="s">
-        <v>42</v>
+      <c r="E74" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" s="24" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="13" t="n">
-        <v>44057</v>
+        <v>44095</v>
       </c>
       <c r="B75" s="17" t="s">
         <v>181</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>182</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>136</v>
+        <v>37</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="13" t="n">
-        <v>44028</v>
+        <v>44057</v>
       </c>
       <c r="B76" s="17" t="s">
         <v>183</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>184</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>76</v>
+        <v>138</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="13" t="n">
-        <v>44064</v>
+        <v>44028</v>
       </c>
       <c r="B77" s="17" t="s">
         <v>185</v>
@@ -2928,15 +2937,15 @@
         <v>186</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="13" t="n">
-        <v>44028</v>
+        <v>44064</v>
       </c>
       <c r="B78" s="17" t="s">
         <v>187</v>
@@ -2948,15 +2957,15 @@
         <v>188</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="13" t="n">
-        <v>44016</v>
+        <v>44028</v>
       </c>
       <c r="B79" s="17" t="s">
         <v>189</v>
@@ -2968,15 +2977,15 @@
         <v>190</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="13" t="n">
-        <v>44010</v>
+        <v>44016</v>
       </c>
       <c r="B80" s="17" t="s">
         <v>191</v>
@@ -2988,35 +2997,35 @@
         <v>192</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="13" t="n">
-        <v>43995</v>
+        <v>44010</v>
       </c>
       <c r="B81" s="17" t="s">
         <v>193</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D81" s="5" t="s">
         <v>194</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="13" t="n">
-        <v>43948</v>
+        <v>43995</v>
       </c>
       <c r="B82" s="17" t="s">
         <v>195</v>
@@ -3028,15 +3037,15 @@
         <v>196</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="13" t="n">
-        <v>43947</v>
+        <v>43948</v>
       </c>
       <c r="B83" s="17" t="s">
         <v>197</v>
@@ -3048,15 +3057,15 @@
         <v>198</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="13" t="n">
-        <v>43936</v>
+        <v>43947</v>
       </c>
       <c r="B84" s="17" t="s">
         <v>199</v>
@@ -3068,35 +3077,35 @@
         <v>200</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="13" t="n">
-        <v>43929</v>
+        <v>43936</v>
       </c>
       <c r="B85" s="17" t="s">
         <v>201</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D85" s="5" t="s">
         <v>202</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="13" t="n">
-        <v>43891</v>
+        <v>43929</v>
       </c>
       <c r="B86" s="17" t="s">
         <v>203</v>
@@ -3108,15 +3117,15 @@
         <v>204</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="13" t="n">
-        <v>43885</v>
+        <v>43891</v>
       </c>
       <c r="B87" s="17" t="s">
         <v>205</v>
@@ -3128,15 +3137,15 @@
         <v>206</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="13" t="n">
-        <v>43857</v>
+        <v>43885</v>
       </c>
       <c r="B88" s="17" t="s">
         <v>207</v>
@@ -3148,10 +3157,10 @@
         <v>208</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3168,15 +3177,15 @@
         <v>210</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="13" t="n">
-        <v>43852</v>
+        <v>43857</v>
       </c>
       <c r="B90" s="17" t="s">
         <v>211</v>
@@ -3188,15 +3197,15 @@
         <v>212</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="13" t="n">
-        <v>43584</v>
+        <v>43852</v>
       </c>
       <c r="B91" s="17" t="s">
         <v>213</v>
@@ -3208,10 +3217,10 @@
         <v>214</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3231,14 +3240,14 @@
         <v>23</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="13" t="n">
-        <v>43540</v>
-      </c>
-      <c r="B93" s="5" t="s">
+        <v>43584</v>
+      </c>
+      <c r="B93" s="17" t="s">
         <v>217</v>
       </c>
       <c r="C93" s="5" t="s">
@@ -3251,32 +3260,32 @@
         <v>23</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="13" t="n">
-        <v>43203</v>
-      </c>
-      <c r="B95" s="25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="13" t="n">
+        <v>43540</v>
+      </c>
+      <c r="B94" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="C95" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D95" s="5" t="s">
+      <c r="C94" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D94" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="E95" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F95" s="5" t="s">
-        <v>69</v>
+      <c r="E94" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="5" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3287,61 +3296,61 @@
         <v>221</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D96" s="5" t="s">
         <v>222</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>223</v>
+        <v>71</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="13" t="n">
-        <v>42842</v>
+        <v>43203</v>
       </c>
       <c r="B97" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D97" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="C97" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D97" s="5" t="s">
+      <c r="E97" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F97" s="5" t="s">
         <v>225</v>
-      </c>
-      <c r="E97" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F97" s="5" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="13" t="n">
-        <v>42457</v>
-      </c>
-      <c r="B98" s="5" t="s">
+        <v>42842</v>
+      </c>
+      <c r="B98" s="25" t="s">
         <v>226</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="D98" s="5" t="s">
         <v>227</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="13" t="n">
-        <v>39028</v>
+        <v>42457</v>
       </c>
       <c r="B99" s="5" t="s">
         <v>228</v>
@@ -3353,19 +3362,39 @@
         <v>229</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="101" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AMH101" s="0"/>
-      <c r="AMI101" s="0"/>
-      <c r="AMJ101" s="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="13" t="n">
+        <v>39028</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="102" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMH102" s="0"/>
+      <c r="AMI102" s="0"/>
+      <c r="AMJ102" s="0"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F99">
+  <autoFilter ref="A1:F100">
     <filterColumn colId="5">
       <filters>
         <filter val="Fixed?"/>
@@ -3388,94 +3417,95 @@
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" display="#1309"/>
     <hyperlink ref="B5" r:id="rId2" display="#1176"/>
-    <hyperlink ref="B6" r:id="rId3" display="#1164"/>
-    <hyperlink ref="B7" r:id="rId4" display="#9"/>
-    <hyperlink ref="B8" r:id="rId5" display="#1163"/>
-    <hyperlink ref="B9" r:id="rId6" display="#1161"/>
-    <hyperlink ref="B10" r:id="rId7" display="#1690"/>
-    <hyperlink ref="B12" r:id="rId8" display="#1155"/>
-    <hyperlink ref="B13" r:id="rId9" display="#1150"/>
-    <hyperlink ref="B14" r:id="rId10" display="#1151"/>
-    <hyperlink ref="B15" r:id="rId11" display="#1200"/>
-    <hyperlink ref="B16" r:id="rId12" display="#1681"/>
-    <hyperlink ref="B17" r:id="rId13" display="#1142"/>
-    <hyperlink ref="B18" r:id="rId14" display="#8"/>
-    <hyperlink ref="B19" r:id="rId15" display="#1674"/>
-    <hyperlink ref="B20" r:id="rId16" display="#1672"/>
-    <hyperlink ref="B21" r:id="rId17" display="#1669"/>
-    <hyperlink ref="B22" r:id="rId18" display="#1670"/>
-    <hyperlink ref="B23" r:id="rId19" display="#1184"/>
-    <hyperlink ref="B24" r:id="rId20" display="#49"/>
-    <hyperlink ref="B25" r:id="rId21" display="#1140"/>
-    <hyperlink ref="B26" r:id="rId22" display="#1132"/>
-    <hyperlink ref="B28" r:id="rId23" display="#1125"/>
-    <hyperlink ref="B29" r:id="rId24" display="#1641"/>
-    <hyperlink ref="B30" r:id="rId25" display="#1124"/>
-    <hyperlink ref="B31" r:id="rId26" display="#1122"/>
-    <hyperlink ref="B32" r:id="rId27" display="#43"/>
-    <hyperlink ref="B33" r:id="rId28" display="#1622"/>
-    <hyperlink ref="B35" r:id="rId29" display="#38"/>
-    <hyperlink ref="B36" r:id="rId30" display="#1621"/>
-    <hyperlink ref="B37" r:id="rId31" display="#1616"/>
-    <hyperlink ref="B38" r:id="rId32" display="#37"/>
-    <hyperlink ref="B39" r:id="rId33" display="#36"/>
-    <hyperlink ref="B40" r:id="rId34" display="#1101"/>
-    <hyperlink ref="B41" r:id="rId35" display="#1099"/>
-    <hyperlink ref="B42" r:id="rId36" display="#1098"/>
-    <hyperlink ref="B43" r:id="rId37" display="#1617"/>
-    <hyperlink ref="B44" r:id="rId38" display="#1092"/>
-    <hyperlink ref="B45" r:id="rId39" display="#1128"/>
-    <hyperlink ref="B46" r:id="rId40" display="#1090"/>
-    <hyperlink ref="B47" r:id="rId41" display="#1608"/>
-    <hyperlink ref="B48" r:id="rId42" display="#35"/>
-    <hyperlink ref="B50" r:id="rId43" display="#1070"/>
-    <hyperlink ref="B51" r:id="rId44" display="#1592"/>
-    <hyperlink ref="B52" r:id="rId45" display="#1591"/>
-    <hyperlink ref="B53" r:id="rId46" display="#1578"/>
-    <hyperlink ref="B54" r:id="rId47" display="#41"/>
-    <hyperlink ref="B55" r:id="rId48" display="#42"/>
-    <hyperlink ref="B56" r:id="rId49" display="#1566"/>
-    <hyperlink ref="B57" r:id="rId50" display="#1565"/>
-    <hyperlink ref="B58" r:id="rId51" display="#1046"/>
-    <hyperlink ref="B59" r:id="rId52" display="#1559"/>
-    <hyperlink ref="B60" r:id="rId53" display="#1038"/>
-    <hyperlink ref="B61" r:id="rId54" display="#1037"/>
-    <hyperlink ref="B62" r:id="rId55" display="#1020"/>
-    <hyperlink ref="B63" r:id="rId56" display="#1032"/>
-    <hyperlink ref="B64" r:id="rId57" display="#1546"/>
-    <hyperlink ref="B65" r:id="rId58" display="#1027"/>
-    <hyperlink ref="B66" r:id="rId59" display="#1529"/>
-    <hyperlink ref="B68" r:id="rId60" display="#1527"/>
-    <hyperlink ref="B69" r:id="rId61" display="#558"/>
-    <hyperlink ref="B70" r:id="rId62" display="#1005"/>
-    <hyperlink ref="B71" r:id="rId63" display="#1020"/>
-    <hyperlink ref="B72" r:id="rId64" display="#993"/>
-    <hyperlink ref="B73" r:id="rId65" display="#1520"/>
-    <hyperlink ref="B74" r:id="rId66" display="#1519"/>
-    <hyperlink ref="B75" r:id="rId67" display="#969"/>
-    <hyperlink ref="B76" r:id="rId68" display="#1003"/>
-    <hyperlink ref="B77" r:id="rId69" display="#1015"/>
-    <hyperlink ref="B78" r:id="rId70" display="#1002"/>
-    <hyperlink ref="B79" r:id="rId71" display="#1471"/>
-    <hyperlink ref="B80" r:id="rId72" display="#1497"/>
-    <hyperlink ref="B81" r:id="rId73" display="#947"/>
-    <hyperlink ref="B82" r:id="rId74" display="#933"/>
-    <hyperlink ref="B83" r:id="rId75" display="#932"/>
-    <hyperlink ref="B84" r:id="rId76" display="#931"/>
-    <hyperlink ref="B85" r:id="rId77" display="#987"/>
-    <hyperlink ref="B86" r:id="rId78" display="#988"/>
-    <hyperlink ref="B87" r:id="rId79" display="#982"/>
-    <hyperlink ref="B88" r:id="rId80" display="#979"/>
-    <hyperlink ref="B89" r:id="rId81" display="#977"/>
-    <hyperlink ref="B90" r:id="rId82" display="#975"/>
-    <hyperlink ref="B91" r:id="rId83" display="#1445"/>
-    <hyperlink ref="B92" r:id="rId84" display="#1444"/>
-    <hyperlink ref="B93" r:id="rId85" display="#1427"/>
-    <hyperlink ref="B95" r:id="rId86" display="#23"/>
-    <hyperlink ref="B96" r:id="rId87" display="#22"/>
-    <hyperlink ref="B97" r:id="rId88" display="#18"/>
-    <hyperlink ref="B98" r:id="rId89" display="#1207"/>
-    <hyperlink ref="B99" r:id="rId90" display="#245"/>
+    <hyperlink ref="B6" r:id="rId3" display="#1171"/>
+    <hyperlink ref="B7" r:id="rId4" display="#1164"/>
+    <hyperlink ref="B8" r:id="rId5" display="#9"/>
+    <hyperlink ref="B9" r:id="rId6" display="#1163"/>
+    <hyperlink ref="B10" r:id="rId7" display="#1161"/>
+    <hyperlink ref="B11" r:id="rId8" display="#1690"/>
+    <hyperlink ref="B13" r:id="rId9" display="#1155"/>
+    <hyperlink ref="B14" r:id="rId10" display="#1150"/>
+    <hyperlink ref="B15" r:id="rId11" display="#1151"/>
+    <hyperlink ref="B16" r:id="rId12" display="#1200"/>
+    <hyperlink ref="B17" r:id="rId13" display="#1681"/>
+    <hyperlink ref="B18" r:id="rId14" display="#1142"/>
+    <hyperlink ref="B19" r:id="rId15" display="#8"/>
+    <hyperlink ref="B20" r:id="rId16" display="#1674"/>
+    <hyperlink ref="B21" r:id="rId17" display="#1672"/>
+    <hyperlink ref="B22" r:id="rId18" display="#1669"/>
+    <hyperlink ref="B23" r:id="rId19" display="#1670"/>
+    <hyperlink ref="B24" r:id="rId20" display="#1184"/>
+    <hyperlink ref="B25" r:id="rId21" display="#49"/>
+    <hyperlink ref="B26" r:id="rId22" display="#1140"/>
+    <hyperlink ref="B27" r:id="rId23" display="#1132"/>
+    <hyperlink ref="B29" r:id="rId24" display="#1125"/>
+    <hyperlink ref="B30" r:id="rId25" display="#1641"/>
+    <hyperlink ref="B31" r:id="rId26" display="#1124"/>
+    <hyperlink ref="B32" r:id="rId27" display="#1122"/>
+    <hyperlink ref="B33" r:id="rId28" display="#43"/>
+    <hyperlink ref="B34" r:id="rId29" display="#1622"/>
+    <hyperlink ref="B36" r:id="rId30" display="#38"/>
+    <hyperlink ref="B37" r:id="rId31" display="#1621"/>
+    <hyperlink ref="B38" r:id="rId32" display="#1616"/>
+    <hyperlink ref="B39" r:id="rId33" display="#37"/>
+    <hyperlink ref="B40" r:id="rId34" display="#36"/>
+    <hyperlink ref="B41" r:id="rId35" display="#1101"/>
+    <hyperlink ref="B42" r:id="rId36" display="#1099"/>
+    <hyperlink ref="B43" r:id="rId37" display="#1098"/>
+    <hyperlink ref="B44" r:id="rId38" display="#1617"/>
+    <hyperlink ref="B45" r:id="rId39" display="#1092"/>
+    <hyperlink ref="B46" r:id="rId40" display="#1128"/>
+    <hyperlink ref="B47" r:id="rId41" display="#1090"/>
+    <hyperlink ref="B48" r:id="rId42" display="#1608"/>
+    <hyperlink ref="B49" r:id="rId43" display="#35"/>
+    <hyperlink ref="B51" r:id="rId44" display="#1070"/>
+    <hyperlink ref="B52" r:id="rId45" display="#1592"/>
+    <hyperlink ref="B53" r:id="rId46" display="#1591"/>
+    <hyperlink ref="B54" r:id="rId47" display="#1578"/>
+    <hyperlink ref="B55" r:id="rId48" display="#41"/>
+    <hyperlink ref="B56" r:id="rId49" display="#42"/>
+    <hyperlink ref="B57" r:id="rId50" display="#1566"/>
+    <hyperlink ref="B58" r:id="rId51" display="#1565"/>
+    <hyperlink ref="B59" r:id="rId52" display="#1046"/>
+    <hyperlink ref="B60" r:id="rId53" display="#1559"/>
+    <hyperlink ref="B61" r:id="rId54" display="#1038"/>
+    <hyperlink ref="B62" r:id="rId55" display="#1037"/>
+    <hyperlink ref="B63" r:id="rId56" display="#1020"/>
+    <hyperlink ref="B64" r:id="rId57" display="#1032"/>
+    <hyperlink ref="B65" r:id="rId58" display="#1546"/>
+    <hyperlink ref="B66" r:id="rId59" display="#1027"/>
+    <hyperlink ref="B67" r:id="rId60" display="#1529"/>
+    <hyperlink ref="B69" r:id="rId61" display="#1527"/>
+    <hyperlink ref="B70" r:id="rId62" display="#558"/>
+    <hyperlink ref="B71" r:id="rId63" display="#1005"/>
+    <hyperlink ref="B72" r:id="rId64" display="#1020"/>
+    <hyperlink ref="B73" r:id="rId65" display="#993"/>
+    <hyperlink ref="B74" r:id="rId66" display="#1520"/>
+    <hyperlink ref="B75" r:id="rId67" display="#1519"/>
+    <hyperlink ref="B76" r:id="rId68" display="#969"/>
+    <hyperlink ref="B77" r:id="rId69" display="#1003"/>
+    <hyperlink ref="B78" r:id="rId70" display="#1015"/>
+    <hyperlink ref="B79" r:id="rId71" display="#1002"/>
+    <hyperlink ref="B80" r:id="rId72" display="#1471"/>
+    <hyperlink ref="B81" r:id="rId73" display="#1497"/>
+    <hyperlink ref="B82" r:id="rId74" display="#947"/>
+    <hyperlink ref="B83" r:id="rId75" display="#933"/>
+    <hyperlink ref="B84" r:id="rId76" display="#932"/>
+    <hyperlink ref="B85" r:id="rId77" display="#931"/>
+    <hyperlink ref="B86" r:id="rId78" display="#987"/>
+    <hyperlink ref="B87" r:id="rId79" display="#988"/>
+    <hyperlink ref="B88" r:id="rId80" display="#982"/>
+    <hyperlink ref="B89" r:id="rId81" display="#979"/>
+    <hyperlink ref="B90" r:id="rId82" display="#977"/>
+    <hyperlink ref="B91" r:id="rId83" display="#975"/>
+    <hyperlink ref="B92" r:id="rId84" display="#1445"/>
+    <hyperlink ref="B93" r:id="rId85" display="#1444"/>
+    <hyperlink ref="B94" r:id="rId86" display="#1427"/>
+    <hyperlink ref="B96" r:id="rId87" display="#23"/>
+    <hyperlink ref="B97" r:id="rId88" display="#22"/>
+    <hyperlink ref="B98" r:id="rId89" display="#18"/>
+    <hyperlink ref="B99" r:id="rId90" display="#1207"/>
+    <hyperlink ref="B100" r:id="rId91" display="#245"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="1" right="1" top="1.66666666666667" bottom="1.66666666666667" header="1" footer="1"/>
@@ -3484,7 +3514,7 @@
     <oddHeader>&amp;C&amp;"Sans,Regular"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Sans,Regular"Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId91"/>
+  <drawing r:id="rId92"/>
 </worksheet>
 </file>
 
@@ -3517,10 +3547,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -3529,10 +3559,10 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/tickets/OmegaT_issues_nopw.xlsx
+++ b/tickets/OmegaT_issues_nopw.xlsx
@@ -138,6 +138,9 @@
     <t xml:space="preserve">The COMPILE event is fired *after* the target commit</t>
   </si>
   <si>
+    <t xml:space="preserve">Solved</t>
+  </si>
+  <si>
     <t xml:space="preserve">#1171</t>
   </si>
   <si>
@@ -184,9 +187,6 @@
   </si>
   <si>
     <t xml:space="preserve">"Commit target files" also commits stats file to repo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solved</t>
   </si>
   <si>
     <t xml:space="preserve">Okapi plugin</t>
@@ -1470,7 +1470,7 @@
         <v>9</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AMH5" s="0"/>
       <c r="AMI5" s="0"/>
@@ -1481,19 +1481,19 @@
         <v>45064</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AMH6" s="0"/>
       <c r="AMI6" s="0"/>
@@ -1504,19 +1504,19 @@
         <v>45049</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AMH7" s="0"/>
       <c r="AMI7" s="0"/>
@@ -1527,19 +1527,19 @@
         <v>45049</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AMH8" s="0"/>
       <c r="AMI8" s="0"/>
@@ -1550,13 +1550,13 @@
         <v>45044</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>9</v>
@@ -1573,19 +1573,19 @@
         <v>45040</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AMH10" s="0"/>
       <c r="AMI10" s="0"/>
@@ -1596,19 +1596,19 @@
         <v>45028</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="AMH11" s="0"/>
       <c r="AMI11" s="0"/>
@@ -1625,7 +1625,7 @@
         <v>53</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="AMH12" s="0"/>
       <c r="AMI12" s="0"/>
@@ -1648,7 +1648,7 @@
         <v>9</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AMH13" s="0"/>
       <c r="AMI13" s="0"/>
@@ -1737,10 +1737,10 @@
         <v>64</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AMH17" s="0"/>
       <c r="AMI17" s="0"/>
@@ -1763,7 +1763,7 @@
         <v>9</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AMH18" s="0"/>
       <c r="AMI18" s="0"/>
@@ -1777,16 +1777,16 @@
         <v>67</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>68</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AMH19" s="0"/>
       <c r="AMI19" s="0"/>
@@ -1806,7 +1806,7 @@
         <v>70</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>71</v>
@@ -1829,7 +1829,7 @@
         <v>73</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" s="12" t="s">
         <v>32</v>
@@ -1852,7 +1852,7 @@
         <v>75</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" s="12" t="s">
         <v>32</v>
@@ -1875,7 +1875,7 @@
         <v>77</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" s="12" t="s">
         <v>78</v>
@@ -1921,7 +1921,7 @@
         <v>82</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" s="12" t="s">
         <v>78</v>
@@ -2004,7 +2004,7 @@
         <v>85</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AMH29" s="0"/>
       <c r="AMI29" s="0"/>
@@ -2024,10 +2024,10 @@
         <v>92</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AMH30" s="0"/>
       <c r="AMI30" s="0"/>
@@ -2116,7 +2116,7 @@
         <v>23</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2187,7 +2187,7 @@
         <v>109</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>71</v>
@@ -2247,7 +2247,7 @@
         <v>115</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>116</v>
@@ -2307,10 +2307,10 @@
         <v>122</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2370,7 +2370,7 @@
         <v>85</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2407,7 +2407,7 @@
         <v>132</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>97</v>
@@ -2435,7 +2435,7 @@
         <v>85</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2452,7 +2452,7 @@
         <v>137</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>138</v>
@@ -2475,7 +2475,7 @@
         <v>23</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2495,7 +2495,7 @@
         <v>23</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2555,7 +2555,7 @@
         <v>23</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2572,7 +2572,7 @@
         <v>150</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>32</v>
@@ -2635,7 +2635,7 @@
         <v>85</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2655,7 +2655,7 @@
         <v>85</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2695,7 +2695,7 @@
         <v>85</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2735,7 +2735,7 @@
         <v>85</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2755,7 +2755,7 @@
         <v>23</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2777,10 +2777,10 @@
         <v>171</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2800,7 +2800,7 @@
         <v>85</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2840,7 +2840,7 @@
         <v>85</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2860,7 +2860,7 @@
         <v>85</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2877,7 +2877,7 @@
         <v>180</v>
       </c>
       <c r="E74" s="24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" s="24" t="s">
         <v>153</v>
@@ -2897,10 +2897,10 @@
         <v>182</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2917,7 +2917,7 @@
         <v>184</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" s="5" t="s">
         <v>138</v>
@@ -2960,7 +2960,7 @@
         <v>85</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2997,10 +2997,10 @@
         <v>192</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3020,7 +3020,7 @@
         <v>23</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3037,10 +3037,10 @@
         <v>196</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3097,10 +3097,10 @@
         <v>202</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3120,7 +3120,7 @@
         <v>85</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3160,7 +3160,7 @@
         <v>85</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3180,7 +3180,7 @@
         <v>85</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3200,7 +3200,7 @@
         <v>85</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3220,7 +3220,7 @@
         <v>85</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3240,7 +3240,7 @@
         <v>23</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3260,7 +3260,7 @@
         <v>23</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3280,7 +3280,7 @@
         <v>23</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3342,7 +3342,7 @@
         <v>227</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" s="5" t="s">
         <v>71</v>
@@ -3365,7 +3365,7 @@
         <v>23</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3382,10 +3382,10 @@
         <v>231</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="102" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/tickets/OmegaT_issues_nopw.xlsx
+++ b/tickets/OmegaT_issues_nopw.xlsx
@@ -13,7 +13,7 @@
     <sheet name="ETS" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'2022'!$A$1:$F$100</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'2022'!$A$1:$F$101</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">#REF!</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Sheet_Title" vbProcedure="false">"Devs"</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">#REF!</definedName>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="238">
   <si>
     <t xml:space="preserve">#</t>
   </si>
@@ -123,15 +123,24 @@
     <t xml:space="preserve">WIP</t>
   </si>
   <si>
+    <t xml:space="preserve">#11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plugin-omt-package</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NoClassDefFoundError when packing project in OmegaT 6.1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open!!</t>
+  </si>
+  <si>
     <t xml:space="preserve">#1309</t>
   </si>
   <si>
     <t xml:space="preserve">XML filter does not extract resname if unit contains HTML block-level tags</t>
   </si>
   <si>
-    <t xml:space="preserve">Open!!</t>
-  </si>
-  <si>
     <t xml:space="preserve">#1176</t>
   </si>
   <si>
@@ -160,9 +169,6 @@
   </si>
   <si>
     <t xml:space="preserve">#9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plugin-omt-package</t>
   </si>
   <si>
     <t xml:space="preserve">Add property in config to remove mappings (to pack as offline project)</t>
@@ -1369,7 +1375,7 @@
   <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ102"/>
+  <dimension ref="A1:AMJ103"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1432,22 +1438,22 @@
     </row>
     <row r="4" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="n">
-        <v>45069</v>
+        <v>45094</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>30</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AMH4" s="0"/>
       <c r="AMI4" s="0"/>
@@ -1458,19 +1464,19 @@
         <v>45069</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AMH5" s="0"/>
       <c r="AMI5" s="0"/>
@@ -1478,7 +1484,7 @@
     </row>
     <row r="6" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="n">
-        <v>45064</v>
+        <v>45069</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>36</v>
@@ -1501,7 +1507,7 @@
     </row>
     <row r="7" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="n">
-        <v>45049</v>
+        <v>45064</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>39</v>
@@ -1529,17 +1535,17 @@
       <c r="B8" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="E8" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>38</v>
       </c>
       <c r="AMH8" s="0"/>
       <c r="AMI8" s="0"/>
@@ -1547,22 +1553,22 @@
     </row>
     <row r="9" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="n">
-        <v>45044</v>
+        <v>45049</v>
       </c>
       <c r="B9" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="9" t="s">
+      <c r="E9" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>9</v>
-      </c>
       <c r="F9" s="9" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="AMH9" s="0"/>
       <c r="AMI9" s="0"/>
@@ -1570,7 +1576,7 @@
     </row>
     <row r="10" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="n">
-        <v>45040</v>
+        <v>45044</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>48</v>
@@ -1585,7 +1591,7 @@
         <v>9</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AMH10" s="0"/>
       <c r="AMI10" s="0"/>
@@ -1593,7 +1599,7 @@
     </row>
     <row r="11" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="n">
-        <v>45028</v>
+        <v>45040</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>50</v>
@@ -1605,10 +1611,10 @@
         <v>51</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="AMH11" s="0"/>
       <c r="AMI11" s="0"/>
@@ -1616,16 +1622,22 @@
     </row>
     <row r="12" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="n">
-        <v>44996</v>
+        <v>45028</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>53</v>
       </c>
+      <c r="E12" s="9" t="s">
+        <v>47</v>
+      </c>
       <c r="F12" s="9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="AMH12" s="0"/>
       <c r="AMI12" s="0"/>
@@ -1633,19 +1645,13 @@
     </row>
     <row r="13" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="n">
-        <v>45007</v>
-      </c>
-      <c r="B13" s="11" t="s">
+        <v>44996</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>7</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>55</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>9</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>38</v>
@@ -1656,7 +1662,7 @@
     </row>
     <row r="14" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="10" t="n">
-        <v>44993</v>
+        <v>45007</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>56</v>
@@ -1671,7 +1677,7 @@
         <v>9</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="AMH14" s="0"/>
       <c r="AMI14" s="0"/>
@@ -1694,7 +1700,7 @@
         <v>9</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AMH15" s="0"/>
       <c r="AMI15" s="0"/>
@@ -1702,13 +1708,13 @@
     </row>
     <row r="16" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="10" t="n">
-        <v>44991</v>
+        <v>44993</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>60</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>61</v>
@@ -1717,7 +1723,7 @@
         <v>9</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="AMH16" s="0"/>
       <c r="AMI16" s="0"/>
@@ -1725,22 +1731,22 @@
     </row>
     <row r="17" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="n">
-        <v>44981</v>
+        <v>44991</v>
       </c>
       <c r="B17" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="9" t="s">
+      <c r="E17" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="9" t="s">
         <v>64</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>38</v>
       </c>
       <c r="AMH17" s="0"/>
       <c r="AMI17" s="0"/>
@@ -1748,7 +1754,7 @@
     </row>
     <row r="18" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="10" t="n">
-        <v>44972</v>
+        <v>44981</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>65</v>
@@ -1760,33 +1766,33 @@
         <v>66</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AMH18" s="0"/>
       <c r="AMI18" s="0"/>
       <c r="AMJ18" s="0"/>
     </row>
-    <row r="19" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13" t="n">
-        <v>44970</v>
-      </c>
-      <c r="B19" s="14" t="s">
+    <row r="19" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="10" t="n">
+        <v>44972</v>
+      </c>
+      <c r="B19" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="12" t="s">
+      <c r="C19" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E19" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>38</v>
+      <c r="E19" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="AMH19" s="0"/>
       <c r="AMI19" s="0"/>
@@ -1794,22 +1800,22 @@
     </row>
     <row r="20" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="13" t="n">
-        <v>44967</v>
+        <v>44970</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>69</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>70</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="AMH20" s="0"/>
       <c r="AMI20" s="0"/>
@@ -1817,22 +1823,22 @@
     </row>
     <row r="21" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="13" t="n">
-        <v>44964</v>
+        <v>44967</v>
       </c>
       <c r="B21" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="12" t="s">
+      <c r="E21" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="12" t="s">
         <v>73</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>32</v>
       </c>
       <c r="AMH21" s="0"/>
       <c r="AMI21" s="0"/>
@@ -1840,7 +1846,7 @@
     </row>
     <row r="22" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="13" t="n">
-        <v>44952</v>
+        <v>44964</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>74</v>
@@ -1852,10 +1858,10 @@
         <v>75</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AMH22" s="0"/>
       <c r="AMI22" s="0"/>
@@ -1875,10 +1881,10 @@
         <v>77</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="AMH23" s="0"/>
       <c r="AMI23" s="0"/>
@@ -1886,22 +1892,22 @@
     </row>
     <row r="24" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="13" t="n">
-        <v>44949</v>
+        <v>44952</v>
       </c>
       <c r="B24" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="12" t="s">
+      <c r="E24" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="12" t="s">
         <v>80</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>71</v>
       </c>
       <c r="AMH24" s="0"/>
       <c r="AMI24" s="0"/>
@@ -1909,22 +1915,22 @@
     </row>
     <row r="25" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="13" t="n">
-        <v>44948</v>
+        <v>44949</v>
       </c>
       <c r="B25" s="14" t="s">
         <v>81</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>82</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AMH25" s="0"/>
       <c r="AMI25" s="0"/>
@@ -1932,125 +1938,125 @@
     </row>
     <row r="26" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="13" t="n">
-        <v>44946</v>
+        <v>44948</v>
       </c>
       <c r="B26" s="14" t="s">
         <v>83</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>84</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AMH26" s="0"/>
       <c r="AMI26" s="0"/>
       <c r="AMJ26" s="0"/>
     </row>
-    <row r="27" s="12" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="13" t="n">
-        <v>44929</v>
-      </c>
-      <c r="B27" s="16" t="s">
+        <v>44946</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C27" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>87</v>
-      </c>
       <c r="E27" s="12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="AMH27" s="0"/>
       <c r="AMI27" s="0"/>
       <c r="AMJ27" s="0"/>
     </row>
-    <row r="28" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="8" t="s">
+    <row r="28" s="12" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="13" t="n">
+        <v>44929</v>
+      </c>
+      <c r="B28" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="F28" s="8" t="s">
-        <v>29</v>
+      <c r="C28" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>73</v>
       </c>
       <c r="AMH28" s="0"/>
       <c r="AMI28" s="0"/>
       <c r="AMJ28" s="0"/>
     </row>
-    <row r="29" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="13" t="n">
-        <v>44879</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="5" t="s">
+    <row r="29" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E29" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>38</v>
+      <c r="F29" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="AMH29" s="0"/>
       <c r="AMI29" s="0"/>
       <c r="AMJ29" s="0"/>
     </row>
-    <row r="30" s="12" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="13" t="n">
-        <v>44858</v>
-      </c>
-      <c r="B30" s="14" t="s">
+        <v>44879</v>
+      </c>
+      <c r="B30" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="C30" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="12" t="s">
+      <c r="C30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E30" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>38</v>
+      <c r="E30" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="AMH30" s="0"/>
       <c r="AMI30" s="0"/>
       <c r="AMJ30" s="0"/>
     </row>
-    <row r="31" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" s="12" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="13" t="n">
-        <v>44855</v>
-      </c>
-      <c r="B31" s="17" t="s">
+        <v>44858</v>
+      </c>
+      <c r="B31" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="5" t="s">
+      <c r="C31" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="E31" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>32</v>
+      <c r="E31" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>41</v>
       </c>
       <c r="AMH31" s="0"/>
       <c r="AMI31" s="0"/>
@@ -2058,7 +2064,7 @@
     </row>
     <row r="32" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="13" t="n">
-        <v>44844</v>
+        <v>44855</v>
       </c>
       <c r="B32" s="17" t="s">
         <v>95</v>
@@ -2070,112 +2076,115 @@
         <v>96</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>97</v>
+        <v>33</v>
       </c>
       <c r="AMH32" s="0"/>
       <c r="AMI32" s="0"/>
       <c r="AMJ32" s="0"/>
     </row>
-    <row r="33" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="13" t="n">
-        <v>44757</v>
-      </c>
-      <c r="B33" s="18" t="s">
+        <v>44844</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="E33" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F33" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D33" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>78</v>
-      </c>
+      <c r="AMH33" s="0"/>
+      <c r="AMI33" s="0"/>
+      <c r="AMJ33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="13" t="n">
-        <v>373466</v>
-      </c>
-      <c r="B34" s="17" t="s">
+        <v>44757</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>7</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>102</v>
       </c>
       <c r="E34" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="13" t="n">
+        <v>373466</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E35" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F34" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="13" t="n">
-        <v>44743</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>103</v>
-      </c>
       <c r="F35" s="5" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="13" t="n">
-        <v>44740</v>
-      </c>
-      <c r="B36" s="19" t="s">
-        <v>104</v>
+        <v>44743</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="E36" s="5" t="s">
-        <v>85</v>
-      </c>
       <c r="F36" s="5" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="13" t="n">
-        <v>44739</v>
-      </c>
-      <c r="B37" s="20" t="s">
+        <v>44740</v>
+      </c>
+      <c r="B37" s="19" t="s">
         <v>106</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>107</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="13" t="n">
-        <v>44693</v>
+        <v>44739</v>
       </c>
       <c r="B38" s="20" t="s">
         <v>108</v>
@@ -2187,90 +2196,90 @@
         <v>109</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="13" t="n">
-        <v>44695</v>
-      </c>
-      <c r="B39" s="21" t="s">
+        <v>44693</v>
+      </c>
+      <c r="B39" s="20" t="s">
         <v>110</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>111</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="13" t="n">
-        <v>44659</v>
+        <v>44695</v>
       </c>
       <c r="B40" s="21" t="s">
         <v>112</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>113</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="13" t="n">
-        <v>44712</v>
-      </c>
-      <c r="B41" s="20" t="s">
+        <v>44659</v>
+      </c>
+      <c r="B41" s="21" t="s">
         <v>114</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>115</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="13" t="n">
-        <v>44705</v>
-      </c>
-      <c r="B42" s="17" t="s">
+        <v>44712</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C42" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D42" s="5" t="s">
+      <c r="E42" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F42" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2287,15 +2296,15 @@
         <v>120</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="13" t="n">
-        <v>44693</v>
+        <v>44705</v>
       </c>
       <c r="B44" s="17" t="s">
         <v>121</v>
@@ -2307,15 +2316,15 @@
         <v>122</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="13" t="n">
-        <v>44622</v>
+        <v>44693</v>
       </c>
       <c r="B45" s="17" t="s">
         <v>123</v>
@@ -2327,57 +2336,57 @@
         <v>124</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="13" t="n">
-        <v>44614</v>
+        <v>44622</v>
       </c>
       <c r="B46" s="17" t="s">
         <v>125</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>126</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="13" t="n">
-        <v>44613</v>
+        <v>44614</v>
       </c>
       <c r="B47" s="17" t="s">
         <v>127</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>128</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="13" t="n">
-        <v>44608</v>
-      </c>
-      <c r="B48" s="20" t="s">
+        <v>44613</v>
+      </c>
+      <c r="B48" s="17" t="s">
         <v>129</v>
       </c>
       <c r="C48" s="5" t="s">
@@ -2387,60 +2396,60 @@
         <v>130</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="13" t="n">
-        <v>44580</v>
-      </c>
-      <c r="B49" s="17" t="s">
+        <v>44608</v>
+      </c>
+      <c r="B49" s="20" t="s">
         <v>131</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>132</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="13" t="n">
+        <v>44580</v>
+      </c>
+      <c r="B50" s="17" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="13" t="n">
-        <v>44463</v>
-      </c>
-      <c r="B51" s="17" t="s">
+      <c r="C50" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D50" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C51" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D51" s="5" t="s">
+      <c r="E50" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="5" t="s">
         <v>135</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="13" t="n">
-        <v>44460</v>
+        <v>44463</v>
       </c>
       <c r="B52" s="17" t="s">
         <v>136</v>
@@ -2452,10 +2461,10 @@
         <v>137</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>138</v>
+        <v>41</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2463,24 +2472,24 @@
         <v>44460</v>
       </c>
       <c r="B53" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C53" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D53" s="5" t="s">
+      <c r="E53" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F53" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="13" t="n">
-        <v>44372</v>
+        <v>44460</v>
       </c>
       <c r="B54" s="17" t="s">
         <v>141</v>
@@ -2495,72 +2504,72 @@
         <v>23</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="13" t="n">
-        <v>44326</v>
+        <v>44372</v>
       </c>
       <c r="B55" s="17" t="s">
         <v>143</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>144</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>97</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="13" t="n">
-        <v>44325</v>
-      </c>
-      <c r="B56" s="21" t="s">
+        <v>44326</v>
+      </c>
+      <c r="B56" s="17" t="s">
         <v>145</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>146</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="13" t="n">
         <v>44325</v>
       </c>
-      <c r="B57" s="17" t="s">
+      <c r="B57" s="21" t="s">
         <v>147</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>148</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="13" t="n">
-        <v>44321</v>
+        <v>44325</v>
       </c>
       <c r="B58" s="17" t="s">
         <v>149</v>
@@ -2572,15 +2581,15 @@
         <v>150</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="13" t="n">
-        <v>44316</v>
+        <v>44321</v>
       </c>
       <c r="B59" s="17" t="s">
         <v>151</v>
@@ -2592,37 +2601,37 @@
         <v>152</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>153</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="13" t="n">
-        <v>44279</v>
-      </c>
-      <c r="B60" s="5" t="s">
+        <v>44316</v>
+      </c>
+      <c r="B60" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C60" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D60" s="5" t="s">
+      <c r="E60" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F60" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="13" t="n">
-        <v>44257</v>
-      </c>
-      <c r="B61" s="17" t="s">
+        <v>44279</v>
+      </c>
+      <c r="B61" s="5" t="s">
         <v>156</v>
       </c>
       <c r="C61" s="5" t="s">
@@ -2632,15 +2641,15 @@
         <v>157</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="13" t="n">
-        <v>44243</v>
+        <v>44257</v>
       </c>
       <c r="B62" s="17" t="s">
         <v>158</v>
@@ -2652,57 +2661,57 @@
         <v>159</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="22" t="n">
+      <c r="A63" s="13" t="n">
+        <v>44243</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="22" t="n">
         <v>44231</v>
       </c>
-      <c r="B63" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="C63" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D63" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="E63" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="F63" s="24" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="13" t="n">
-        <v>44218</v>
-      </c>
-      <c r="B64" s="17" t="s">
+      <c r="B64" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="C64" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D64" s="5" t="s">
+      <c r="C64" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="E64" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="F64" s="24" t="s">
         <v>163</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="13" t="n">
-        <v>44216</v>
-      </c>
-      <c r="B65" s="20" t="s">
+        <v>44218</v>
+      </c>
+      <c r="B65" s="17" t="s">
         <v>164</v>
       </c>
       <c r="C65" s="5" t="s">
@@ -2712,17 +2721,17 @@
         <v>165</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="13" t="n">
-        <v>44175</v>
-      </c>
-      <c r="B66" s="17" t="s">
+        <v>44216</v>
+      </c>
+      <c r="B66" s="20" t="s">
         <v>166</v>
       </c>
       <c r="C66" s="5" t="s">
@@ -2732,10 +2741,10 @@
         <v>167</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2752,40 +2761,40 @@
         <v>169</v>
       </c>
       <c r="E67" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="13" t="n">
+        <v>44175</v>
+      </c>
+      <c r="B68" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E68" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F67" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="13" t="n">
-        <v>44162</v>
-      </c>
-      <c r="B69" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>38</v>
+      <c r="F68" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="5" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="13" t="n">
-        <v>44148</v>
+        <v>44162</v>
       </c>
       <c r="B70" s="17" t="s">
         <v>172</v>
@@ -2794,158 +2803,158 @@
         <v>7</v>
       </c>
       <c r="D70" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="13" t="n">
+        <v>44148</v>
+      </c>
+      <c r="B71" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D71" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E70" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="22" t="n">
+      <c r="E71" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="22" t="n">
         <v>44146</v>
       </c>
-      <c r="B71" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="C71" s="24" t="s">
+      <c r="B72" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="C72" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D71" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="E71" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="F71" s="24" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="13" t="n">
-        <v>44132</v>
-      </c>
-      <c r="B72" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D72" s="5" t="s">
+      <c r="D72" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="E72" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>38</v>
+      <c r="E72" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="F72" s="24" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="13" t="n">
-        <v>44103</v>
+        <v>44132</v>
       </c>
       <c r="B73" s="17" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D73" s="5" t="s">
         <v>178</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="22" t="n">
+      <c r="A74" s="13" t="n">
+        <v>44103</v>
+      </c>
+      <c r="B74" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="22" t="n">
         <v>44095</v>
       </c>
-      <c r="B74" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="C74" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D74" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="E74" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="F74" s="24" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="13" t="n">
-        <v>44095</v>
-      </c>
-      <c r="B75" s="17" t="s">
+      <c r="B75" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="C75" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D75" s="5" t="s">
+      <c r="C75" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="E75" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>38</v>
+      <c r="E75" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="F75" s="24" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="13" t="n">
-        <v>44057</v>
+        <v>44095</v>
       </c>
       <c r="B76" s="17" t="s">
         <v>183</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>184</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>138</v>
+        <v>41</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="13" t="n">
-        <v>44028</v>
+        <v>44057</v>
       </c>
       <c r="B77" s="17" t="s">
         <v>185</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D77" s="5" t="s">
         <v>186</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>78</v>
+        <v>140</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="13" t="n">
-        <v>44064</v>
+        <v>44028</v>
       </c>
       <c r="B78" s="17" t="s">
         <v>187</v>
@@ -2957,15 +2966,15 @@
         <v>188</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="13" t="n">
-        <v>44028</v>
+        <v>44064</v>
       </c>
       <c r="B79" s="17" t="s">
         <v>189</v>
@@ -2977,15 +2986,15 @@
         <v>190</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="13" t="n">
-        <v>44016</v>
+        <v>44028</v>
       </c>
       <c r="B80" s="17" t="s">
         <v>191</v>
@@ -2997,15 +3006,15 @@
         <v>192</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="13" t="n">
-        <v>44010</v>
+        <v>44016</v>
       </c>
       <c r="B81" s="17" t="s">
         <v>193</v>
@@ -3017,35 +3026,35 @@
         <v>194</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="13" t="n">
-        <v>43995</v>
+        <v>44010</v>
       </c>
       <c r="B82" s="17" t="s">
         <v>195</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D82" s="5" t="s">
         <v>196</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="13" t="n">
-        <v>43948</v>
+        <v>43995</v>
       </c>
       <c r="B83" s="17" t="s">
         <v>197</v>
@@ -3057,15 +3066,15 @@
         <v>198</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="13" t="n">
-        <v>43947</v>
+        <v>43948</v>
       </c>
       <c r="B84" s="17" t="s">
         <v>199</v>
@@ -3077,15 +3086,15 @@
         <v>200</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="13" t="n">
-        <v>43936</v>
+        <v>43947</v>
       </c>
       <c r="B85" s="17" t="s">
         <v>201</v>
@@ -3097,35 +3106,35 @@
         <v>202</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="13" t="n">
-        <v>43929</v>
+        <v>43936</v>
       </c>
       <c r="B86" s="17" t="s">
         <v>203</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D86" s="5" t="s">
         <v>204</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="13" t="n">
-        <v>43891</v>
+        <v>43929</v>
       </c>
       <c r="B87" s="17" t="s">
         <v>205</v>
@@ -3137,15 +3146,15 @@
         <v>206</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="13" t="n">
-        <v>43885</v>
+        <v>43891</v>
       </c>
       <c r="B88" s="17" t="s">
         <v>207</v>
@@ -3157,15 +3166,15 @@
         <v>208</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="13" t="n">
-        <v>43857</v>
+        <v>43885</v>
       </c>
       <c r="B89" s="17" t="s">
         <v>209</v>
@@ -3177,10 +3186,10 @@
         <v>210</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3197,15 +3206,15 @@
         <v>212</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="13" t="n">
-        <v>43852</v>
+        <v>43857</v>
       </c>
       <c r="B91" s="17" t="s">
         <v>213</v>
@@ -3217,15 +3226,15 @@
         <v>214</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="13" t="n">
-        <v>43584</v>
+        <v>43852</v>
       </c>
       <c r="B92" s="17" t="s">
         <v>215</v>
@@ -3237,10 +3246,10 @@
         <v>216</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3260,14 +3269,14 @@
         <v>23</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="13" t="n">
-        <v>43540</v>
-      </c>
-      <c r="B94" s="5" t="s">
+        <v>43584</v>
+      </c>
+      <c r="B94" s="17" t="s">
         <v>219</v>
       </c>
       <c r="C94" s="5" t="s">
@@ -3280,32 +3289,32 @@
         <v>23</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="13" t="n">
-        <v>43203</v>
-      </c>
-      <c r="B96" s="25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="13" t="n">
+        <v>43540</v>
+      </c>
+      <c r="B95" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="C96" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D96" s="5" t="s">
+      <c r="C95" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D95" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="E96" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F96" s="5" t="s">
-        <v>71</v>
+      <c r="E95" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="5" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3316,61 +3325,61 @@
         <v>223</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D97" s="5" t="s">
         <v>224</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>225</v>
+        <v>73</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="13" t="n">
-        <v>42842</v>
+        <v>43203</v>
       </c>
       <c r="B98" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D98" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="C98" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D98" s="5" t="s">
+      <c r="E98" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F98" s="5" t="s">
         <v>227</v>
-      </c>
-      <c r="E98" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F98" s="5" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="13" t="n">
-        <v>42457</v>
-      </c>
-      <c r="B99" s="5" t="s">
+        <v>42842</v>
+      </c>
+      <c r="B99" s="25" t="s">
         <v>228</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="D99" s="5" t="s">
         <v>229</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="13" t="n">
-        <v>39028</v>
+        <v>42457</v>
       </c>
       <c r="B100" s="5" t="s">
         <v>230</v>
@@ -3382,19 +3391,39 @@
         <v>231</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="102" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AMH102" s="0"/>
-      <c r="AMI102" s="0"/>
-      <c r="AMJ102" s="0"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="13" t="n">
+        <v>39028</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="103" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMH103" s="0"/>
+      <c r="AMI103" s="0"/>
+      <c r="AMJ103" s="0"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F100">
+  <autoFilter ref="A1:F101">
     <filterColumn colId="5">
       <filters>
         <filter val="Fixed?"/>
@@ -3415,97 +3444,98 @@
     </filterColumn>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" display="#1309"/>
-    <hyperlink ref="B5" r:id="rId2" display="#1176"/>
-    <hyperlink ref="B6" r:id="rId3" display="#1171"/>
-    <hyperlink ref="B7" r:id="rId4" display="#1164"/>
-    <hyperlink ref="B8" r:id="rId5" display="#9"/>
-    <hyperlink ref="B9" r:id="rId6" display="#1163"/>
-    <hyperlink ref="B10" r:id="rId7" display="#1161"/>
-    <hyperlink ref="B11" r:id="rId8" display="#1690"/>
-    <hyperlink ref="B13" r:id="rId9" display="#1155"/>
-    <hyperlink ref="B14" r:id="rId10" display="#1150"/>
-    <hyperlink ref="B15" r:id="rId11" display="#1151"/>
-    <hyperlink ref="B16" r:id="rId12" display="#1200"/>
-    <hyperlink ref="B17" r:id="rId13" display="#1681"/>
-    <hyperlink ref="B18" r:id="rId14" display="#1142"/>
-    <hyperlink ref="B19" r:id="rId15" display="#8"/>
-    <hyperlink ref="B20" r:id="rId16" display="#1674"/>
-    <hyperlink ref="B21" r:id="rId17" display="#1672"/>
-    <hyperlink ref="B22" r:id="rId18" display="#1669"/>
-    <hyperlink ref="B23" r:id="rId19" display="#1670"/>
-    <hyperlink ref="B24" r:id="rId20" display="#1184"/>
-    <hyperlink ref="B25" r:id="rId21" display="#49"/>
-    <hyperlink ref="B26" r:id="rId22" display="#1140"/>
-    <hyperlink ref="B27" r:id="rId23" display="#1132"/>
-    <hyperlink ref="B29" r:id="rId24" display="#1125"/>
-    <hyperlink ref="B30" r:id="rId25" display="#1641"/>
-    <hyperlink ref="B31" r:id="rId26" display="#1124"/>
-    <hyperlink ref="B32" r:id="rId27" display="#1122"/>
-    <hyperlink ref="B33" r:id="rId28" display="#43"/>
-    <hyperlink ref="B34" r:id="rId29" display="#1622"/>
-    <hyperlink ref="B36" r:id="rId30" display="#38"/>
-    <hyperlink ref="B37" r:id="rId31" display="#1621"/>
-    <hyperlink ref="B38" r:id="rId32" display="#1616"/>
-    <hyperlink ref="B39" r:id="rId33" display="#37"/>
-    <hyperlink ref="B40" r:id="rId34" display="#36"/>
-    <hyperlink ref="B41" r:id="rId35" display="#1101"/>
-    <hyperlink ref="B42" r:id="rId36" display="#1099"/>
-    <hyperlink ref="B43" r:id="rId37" display="#1098"/>
-    <hyperlink ref="B44" r:id="rId38" display="#1617"/>
-    <hyperlink ref="B45" r:id="rId39" display="#1092"/>
-    <hyperlink ref="B46" r:id="rId40" display="#1128"/>
-    <hyperlink ref="B47" r:id="rId41" display="#1090"/>
-    <hyperlink ref="B48" r:id="rId42" display="#1608"/>
-    <hyperlink ref="B49" r:id="rId43" display="#35"/>
-    <hyperlink ref="B51" r:id="rId44" display="#1070"/>
-    <hyperlink ref="B52" r:id="rId45" display="#1592"/>
-    <hyperlink ref="B53" r:id="rId46" display="#1591"/>
-    <hyperlink ref="B54" r:id="rId47" display="#1578"/>
-    <hyperlink ref="B55" r:id="rId48" display="#41"/>
-    <hyperlink ref="B56" r:id="rId49" display="#42"/>
-    <hyperlink ref="B57" r:id="rId50" display="#1566"/>
-    <hyperlink ref="B58" r:id="rId51" display="#1565"/>
-    <hyperlink ref="B59" r:id="rId52" display="#1046"/>
-    <hyperlink ref="B60" r:id="rId53" display="#1559"/>
-    <hyperlink ref="B61" r:id="rId54" display="#1038"/>
-    <hyperlink ref="B62" r:id="rId55" display="#1037"/>
-    <hyperlink ref="B63" r:id="rId56" display="#1020"/>
-    <hyperlink ref="B64" r:id="rId57" display="#1032"/>
-    <hyperlink ref="B65" r:id="rId58" display="#1546"/>
-    <hyperlink ref="B66" r:id="rId59" display="#1027"/>
-    <hyperlink ref="B67" r:id="rId60" display="#1529"/>
-    <hyperlink ref="B69" r:id="rId61" display="#1527"/>
-    <hyperlink ref="B70" r:id="rId62" display="#558"/>
-    <hyperlink ref="B71" r:id="rId63" display="#1005"/>
-    <hyperlink ref="B72" r:id="rId64" display="#1020"/>
-    <hyperlink ref="B73" r:id="rId65" display="#993"/>
-    <hyperlink ref="B74" r:id="rId66" display="#1520"/>
-    <hyperlink ref="B75" r:id="rId67" display="#1519"/>
-    <hyperlink ref="B76" r:id="rId68" display="#969"/>
-    <hyperlink ref="B77" r:id="rId69" display="#1003"/>
-    <hyperlink ref="B78" r:id="rId70" display="#1015"/>
-    <hyperlink ref="B79" r:id="rId71" display="#1002"/>
-    <hyperlink ref="B80" r:id="rId72" display="#1471"/>
-    <hyperlink ref="B81" r:id="rId73" display="#1497"/>
-    <hyperlink ref="B82" r:id="rId74" display="#947"/>
-    <hyperlink ref="B83" r:id="rId75" display="#933"/>
-    <hyperlink ref="B84" r:id="rId76" display="#932"/>
-    <hyperlink ref="B85" r:id="rId77" display="#931"/>
-    <hyperlink ref="B86" r:id="rId78" display="#987"/>
-    <hyperlink ref="B87" r:id="rId79" display="#988"/>
-    <hyperlink ref="B88" r:id="rId80" display="#982"/>
-    <hyperlink ref="B89" r:id="rId81" display="#979"/>
-    <hyperlink ref="B90" r:id="rId82" display="#977"/>
-    <hyperlink ref="B91" r:id="rId83" display="#975"/>
-    <hyperlink ref="B92" r:id="rId84" display="#1445"/>
-    <hyperlink ref="B93" r:id="rId85" display="#1444"/>
-    <hyperlink ref="B94" r:id="rId86" display="#1427"/>
-    <hyperlink ref="B96" r:id="rId87" display="#23"/>
-    <hyperlink ref="B97" r:id="rId88" display="#22"/>
-    <hyperlink ref="B98" r:id="rId89" display="#18"/>
-    <hyperlink ref="B99" r:id="rId90" display="#1207"/>
-    <hyperlink ref="B100" r:id="rId91" display="#245"/>
+    <hyperlink ref="B4" r:id="rId1" display="#11"/>
+    <hyperlink ref="B5" r:id="rId2" display="#1309"/>
+    <hyperlink ref="B6" r:id="rId3" display="#1176"/>
+    <hyperlink ref="B7" r:id="rId4" display="#1171"/>
+    <hyperlink ref="B8" r:id="rId5" display="#1164"/>
+    <hyperlink ref="B9" r:id="rId6" display="#9"/>
+    <hyperlink ref="B10" r:id="rId7" display="#1163"/>
+    <hyperlink ref="B11" r:id="rId8" display="#1161"/>
+    <hyperlink ref="B12" r:id="rId9" display="#1690"/>
+    <hyperlink ref="B14" r:id="rId10" display="#1155"/>
+    <hyperlink ref="B15" r:id="rId11" display="#1150"/>
+    <hyperlink ref="B16" r:id="rId12" display="#1151"/>
+    <hyperlink ref="B17" r:id="rId13" display="#1200"/>
+    <hyperlink ref="B18" r:id="rId14" display="#1681"/>
+    <hyperlink ref="B19" r:id="rId15" display="#1142"/>
+    <hyperlink ref="B20" r:id="rId16" display="#8"/>
+    <hyperlink ref="B21" r:id="rId17" display="#1674"/>
+    <hyperlink ref="B22" r:id="rId18" display="#1672"/>
+    <hyperlink ref="B23" r:id="rId19" display="#1669"/>
+    <hyperlink ref="B24" r:id="rId20" display="#1670"/>
+    <hyperlink ref="B25" r:id="rId21" display="#1184"/>
+    <hyperlink ref="B26" r:id="rId22" display="#49"/>
+    <hyperlink ref="B27" r:id="rId23" display="#1140"/>
+    <hyperlink ref="B28" r:id="rId24" display="#1132"/>
+    <hyperlink ref="B30" r:id="rId25" display="#1125"/>
+    <hyperlink ref="B31" r:id="rId26" display="#1641"/>
+    <hyperlink ref="B32" r:id="rId27" display="#1124"/>
+    <hyperlink ref="B33" r:id="rId28" display="#1122"/>
+    <hyperlink ref="B34" r:id="rId29" display="#43"/>
+    <hyperlink ref="B35" r:id="rId30" display="#1622"/>
+    <hyperlink ref="B37" r:id="rId31" display="#38"/>
+    <hyperlink ref="B38" r:id="rId32" display="#1621"/>
+    <hyperlink ref="B39" r:id="rId33" display="#1616"/>
+    <hyperlink ref="B40" r:id="rId34" display="#37"/>
+    <hyperlink ref="B41" r:id="rId35" display="#36"/>
+    <hyperlink ref="B42" r:id="rId36" display="#1101"/>
+    <hyperlink ref="B43" r:id="rId37" display="#1099"/>
+    <hyperlink ref="B44" r:id="rId38" display="#1098"/>
+    <hyperlink ref="B45" r:id="rId39" display="#1617"/>
+    <hyperlink ref="B46" r:id="rId40" display="#1092"/>
+    <hyperlink ref="B47" r:id="rId41" display="#1128"/>
+    <hyperlink ref="B48" r:id="rId42" display="#1090"/>
+    <hyperlink ref="B49" r:id="rId43" display="#1608"/>
+    <hyperlink ref="B50" r:id="rId44" display="#35"/>
+    <hyperlink ref="B52" r:id="rId45" display="#1070"/>
+    <hyperlink ref="B53" r:id="rId46" display="#1592"/>
+    <hyperlink ref="B54" r:id="rId47" display="#1591"/>
+    <hyperlink ref="B55" r:id="rId48" display="#1578"/>
+    <hyperlink ref="B56" r:id="rId49" display="#41"/>
+    <hyperlink ref="B57" r:id="rId50" display="#42"/>
+    <hyperlink ref="B58" r:id="rId51" display="#1566"/>
+    <hyperlink ref="B59" r:id="rId52" display="#1565"/>
+    <hyperlink ref="B60" r:id="rId53" display="#1046"/>
+    <hyperlink ref="B61" r:id="rId54" display="#1559"/>
+    <hyperlink ref="B62" r:id="rId55" display="#1038"/>
+    <hyperlink ref="B63" r:id="rId56" display="#1037"/>
+    <hyperlink ref="B64" r:id="rId57" display="#1020"/>
+    <hyperlink ref="B65" r:id="rId58" display="#1032"/>
+    <hyperlink ref="B66" r:id="rId59" display="#1546"/>
+    <hyperlink ref="B67" r:id="rId60" display="#1027"/>
+    <hyperlink ref="B68" r:id="rId61" display="#1529"/>
+    <hyperlink ref="B70" r:id="rId62" display="#1527"/>
+    <hyperlink ref="B71" r:id="rId63" display="#558"/>
+    <hyperlink ref="B72" r:id="rId64" display="#1005"/>
+    <hyperlink ref="B73" r:id="rId65" display="#1020"/>
+    <hyperlink ref="B74" r:id="rId66" display="#993"/>
+    <hyperlink ref="B75" r:id="rId67" display="#1520"/>
+    <hyperlink ref="B76" r:id="rId68" display="#1519"/>
+    <hyperlink ref="B77" r:id="rId69" display="#969"/>
+    <hyperlink ref="B78" r:id="rId70" display="#1003"/>
+    <hyperlink ref="B79" r:id="rId71" display="#1015"/>
+    <hyperlink ref="B80" r:id="rId72" display="#1002"/>
+    <hyperlink ref="B81" r:id="rId73" display="#1471"/>
+    <hyperlink ref="B82" r:id="rId74" display="#1497"/>
+    <hyperlink ref="B83" r:id="rId75" display="#947"/>
+    <hyperlink ref="B84" r:id="rId76" display="#933"/>
+    <hyperlink ref="B85" r:id="rId77" display="#932"/>
+    <hyperlink ref="B86" r:id="rId78" display="#931"/>
+    <hyperlink ref="B87" r:id="rId79" display="#987"/>
+    <hyperlink ref="B88" r:id="rId80" display="#988"/>
+    <hyperlink ref="B89" r:id="rId81" display="#982"/>
+    <hyperlink ref="B90" r:id="rId82" display="#979"/>
+    <hyperlink ref="B91" r:id="rId83" display="#977"/>
+    <hyperlink ref="B92" r:id="rId84" display="#975"/>
+    <hyperlink ref="B93" r:id="rId85" display="#1445"/>
+    <hyperlink ref="B94" r:id="rId86" display="#1444"/>
+    <hyperlink ref="B95" r:id="rId87" display="#1427"/>
+    <hyperlink ref="B97" r:id="rId88" display="#23"/>
+    <hyperlink ref="B98" r:id="rId89" display="#22"/>
+    <hyperlink ref="B99" r:id="rId90" display="#18"/>
+    <hyperlink ref="B100" r:id="rId91" display="#1207"/>
+    <hyperlink ref="B101" r:id="rId92" display="#245"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="1" right="1" top="1.66666666666667" bottom="1.66666666666667" header="1" footer="1"/>
@@ -3514,7 +3544,7 @@
     <oddHeader>&amp;C&amp;"Sans,Regular"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Sans,Regular"Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId92"/>
+  <drawing r:id="rId93"/>
 </worksheet>
 </file>
 
@@ -3547,10 +3577,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -3559,10 +3589,10 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>

--- a/tickets/OmegaT_issues_nopw.xlsx
+++ b/tickets/OmegaT_issues_nopw.xlsx
@@ -13,7 +13,7 @@
     <sheet name="ETS" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'2022'!$A$1:$F$101</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'2022'!$A$1:$F$102</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">#REF!</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Sheet_Title" vbProcedure="false">"Devs"</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">#REF!</definedName>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="240">
   <si>
     <t xml:space="preserve">#</t>
   </si>
@@ -123,6 +123,15 @@
     <t xml:space="preserve">WIP</t>
   </si>
   <si>
+    <t xml:space="preserve">#1185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saving does not register pre-translation in new projects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open!!</t>
+  </si>
+  <si>
     <t xml:space="preserve">#11</t>
   </si>
   <si>
@@ -132,7 +141,7 @@
     <t xml:space="preserve">NoClassDefFoundError when packing project in OmegaT 6.1.0</t>
   </si>
   <si>
-    <t xml:space="preserve">Open!!</t>
+    <t xml:space="preserve">Solved</t>
   </si>
   <si>
     <t xml:space="preserve">#1309</t>
@@ -145,9 +154,6 @@
   </si>
   <si>
     <t xml:space="preserve">The COMPILE event is fired *after* the target commit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solved</t>
   </si>
   <si>
     <t xml:space="preserve">#1171</t>
@@ -1375,7 +1381,7 @@
   <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ103"/>
+  <dimension ref="A1:AMJ104"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1438,22 +1444,22 @@
     </row>
     <row r="4" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="n">
-        <v>45094</v>
+        <v>45104</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>30</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>31</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>32</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AMH4" s="0"/>
       <c r="AMI4" s="0"/>
@@ -1461,13 +1467,13 @@
     </row>
     <row r="5" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="n">
-        <v>45069</v>
+        <v>45094</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>34</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>13</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>35</v>
@@ -1476,7 +1482,7 @@
         <v>9</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="AMH5" s="0"/>
       <c r="AMI5" s="0"/>
@@ -1487,19 +1493,19 @@
         <v>45069</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AMH6" s="0"/>
       <c r="AMI6" s="0"/>
@@ -1507,7 +1513,7 @@
     </row>
     <row r="7" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="n">
-        <v>45064</v>
+        <v>45069</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>39</v>
@@ -1522,7 +1528,7 @@
         <v>9</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="AMH7" s="0"/>
       <c r="AMI7" s="0"/>
@@ -1530,22 +1536,22 @@
     </row>
     <row r="8" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="n">
-        <v>45049</v>
+        <v>45064</v>
       </c>
       <c r="B8" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AMH8" s="0"/>
       <c r="AMI8" s="0"/>
@@ -1556,19 +1562,19 @@
         <v>45049</v>
       </c>
       <c r="B9" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="9" t="s">
+      <c r="E9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>46</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>41</v>
       </c>
       <c r="AMH9" s="0"/>
       <c r="AMI9" s="0"/>
@@ -1576,22 +1582,22 @@
     </row>
     <row r="10" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="n">
-        <v>45044</v>
+        <v>45049</v>
       </c>
       <c r="B10" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="9" t="s">
+      <c r="E10" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>9</v>
-      </c>
       <c r="F10" s="9" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="AMH10" s="0"/>
       <c r="AMI10" s="0"/>
@@ -1599,7 +1605,7 @@
     </row>
     <row r="11" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="n">
-        <v>45040</v>
+        <v>45044</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>50</v>
@@ -1614,7 +1620,7 @@
         <v>9</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="AMH11" s="0"/>
       <c r="AMI11" s="0"/>
@@ -1622,7 +1628,7 @@
     </row>
     <row r="12" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="n">
-        <v>45028</v>
+        <v>45040</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>52</v>
@@ -1634,10 +1640,10 @@
         <v>53</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="AMH12" s="0"/>
       <c r="AMI12" s="0"/>
@@ -1645,16 +1651,22 @@
     </row>
     <row r="13" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="n">
-        <v>44996</v>
+        <v>45028</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>54</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>55</v>
       </c>
+      <c r="E13" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="F13" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AMH13" s="0"/>
       <c r="AMI13" s="0"/>
@@ -1662,22 +1674,16 @@
     </row>
     <row r="14" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="10" t="n">
-        <v>45007</v>
-      </c>
-      <c r="B14" s="11" t="s">
+        <v>44996</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>56</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>7</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="9" t="s">
-        <v>9</v>
-      </c>
       <c r="F14" s="9" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="AMH14" s="0"/>
       <c r="AMI14" s="0"/>
@@ -1685,7 +1691,7 @@
     </row>
     <row r="15" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="n">
-        <v>44993</v>
+        <v>45007</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>58</v>
@@ -1700,7 +1706,7 @@
         <v>9</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="AMH15" s="0"/>
       <c r="AMI15" s="0"/>
@@ -1723,7 +1729,7 @@
         <v>9</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AMH16" s="0"/>
       <c r="AMI16" s="0"/>
@@ -1731,13 +1737,13 @@
     </row>
     <row r="17" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="n">
-        <v>44991</v>
+        <v>44993</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>63</v>
@@ -1746,7 +1752,7 @@
         <v>9</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="AMH17" s="0"/>
       <c r="AMI17" s="0"/>
@@ -1754,22 +1760,22 @@
     </row>
     <row r="18" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="10" t="n">
-        <v>44981</v>
+        <v>44991</v>
       </c>
       <c r="B18" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="9" t="s">
+      <c r="E18" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="9" t="s">
         <v>66</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>41</v>
       </c>
       <c r="AMH18" s="0"/>
       <c r="AMI18" s="0"/>
@@ -1777,7 +1783,7 @@
     </row>
     <row r="19" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="10" t="n">
-        <v>44972</v>
+        <v>44981</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>67</v>
@@ -1789,33 +1795,33 @@
         <v>68</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AMH19" s="0"/>
       <c r="AMI19" s="0"/>
       <c r="AMJ19" s="0"/>
     </row>
-    <row r="20" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="13" t="n">
-        <v>44970</v>
-      </c>
-      <c r="B20" s="14" t="s">
+    <row r="20" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="10" t="n">
+        <v>44972</v>
+      </c>
+      <c r="B20" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="12" t="s">
+      <c r="C20" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E20" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>41</v>
+      <c r="E20" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="AMH20" s="0"/>
       <c r="AMI20" s="0"/>
@@ -1823,22 +1829,22 @@
     </row>
     <row r="21" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="13" t="n">
-        <v>44967</v>
+        <v>44970</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>71</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>72</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="AMH21" s="0"/>
       <c r="AMI21" s="0"/>
@@ -1846,22 +1852,22 @@
     </row>
     <row r="22" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="13" t="n">
-        <v>44964</v>
+        <v>44967</v>
       </c>
       <c r="B22" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C22" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="12" t="s">
+      <c r="E22" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="12" t="s">
         <v>75</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>33</v>
       </c>
       <c r="AMH22" s="0"/>
       <c r="AMI22" s="0"/>
@@ -1869,7 +1875,7 @@
     </row>
     <row r="23" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="13" t="n">
-        <v>44952</v>
+        <v>44964</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>76</v>
@@ -1881,10 +1887,10 @@
         <v>77</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AMH23" s="0"/>
       <c r="AMI23" s="0"/>
@@ -1904,10 +1910,10 @@
         <v>79</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="AMH24" s="0"/>
       <c r="AMI24" s="0"/>
@@ -1915,22 +1921,22 @@
     </row>
     <row r="25" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="13" t="n">
-        <v>44949</v>
+        <v>44952</v>
       </c>
       <c r="B25" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="C25" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="12" t="s">
+      <c r="E25" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" s="12" t="s">
         <v>82</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>73</v>
       </c>
       <c r="AMH25" s="0"/>
       <c r="AMI25" s="0"/>
@@ -1938,22 +1944,22 @@
     </row>
     <row r="26" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="13" t="n">
-        <v>44948</v>
+        <v>44949</v>
       </c>
       <c r="B26" s="14" t="s">
         <v>83</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>84</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AMH26" s="0"/>
       <c r="AMI26" s="0"/>
@@ -1961,125 +1967,125 @@
     </row>
     <row r="27" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="13" t="n">
-        <v>44946</v>
+        <v>44948</v>
       </c>
       <c r="B27" s="14" t="s">
         <v>85</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>86</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AMH27" s="0"/>
       <c r="AMI27" s="0"/>
       <c r="AMJ27" s="0"/>
     </row>
-    <row r="28" s="12" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="13" t="n">
-        <v>44929</v>
-      </c>
-      <c r="B28" s="16" t="s">
+        <v>44946</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C28" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>89</v>
-      </c>
       <c r="E28" s="12" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AMH28" s="0"/>
       <c r="AMI28" s="0"/>
       <c r="AMJ28" s="0"/>
     </row>
-    <row r="29" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="8" t="s">
+    <row r="29" s="12" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="13" t="n">
+        <v>44929</v>
+      </c>
+      <c r="B29" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="F29" s="8" t="s">
-        <v>29</v>
+      <c r="C29" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>75</v>
       </c>
       <c r="AMH29" s="0"/>
       <c r="AMI29" s="0"/>
       <c r="AMJ29" s="0"/>
     </row>
-    <row r="30" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="13" t="n">
-        <v>44879</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="5" t="s">
+    <row r="30" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E30" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>41</v>
+      <c r="F30" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="AMH30" s="0"/>
       <c r="AMI30" s="0"/>
       <c r="AMJ30" s="0"/>
     </row>
-    <row r="31" s="12" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="13" t="n">
-        <v>44858</v>
-      </c>
-      <c r="B31" s="14" t="s">
+        <v>44879</v>
+      </c>
+      <c r="B31" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="C31" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="12" t="s">
+      <c r="C31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E31" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>41</v>
+      <c r="E31" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="AMH31" s="0"/>
       <c r="AMI31" s="0"/>
       <c r="AMJ31" s="0"/>
     </row>
-    <row r="32" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" s="12" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="13" t="n">
-        <v>44855</v>
-      </c>
-      <c r="B32" s="17" t="s">
+        <v>44858</v>
+      </c>
+      <c r="B32" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="5" t="s">
+      <c r="C32" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>33</v>
+      <c r="E32" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="AMH32" s="0"/>
       <c r="AMI32" s="0"/>
@@ -2087,7 +2093,7 @@
     </row>
     <row r="33" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="13" t="n">
-        <v>44844</v>
+        <v>44855</v>
       </c>
       <c r="B33" s="17" t="s">
         <v>97</v>
@@ -2099,112 +2105,115 @@
         <v>98</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="AMH33" s="0"/>
       <c r="AMI33" s="0"/>
       <c r="AMJ33" s="0"/>
     </row>
-    <row r="34" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="13" t="n">
-        <v>44757</v>
-      </c>
-      <c r="B34" s="18" t="s">
+        <v>44844</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="E34" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F34" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>80</v>
-      </c>
+      <c r="AMH34" s="0"/>
+      <c r="AMI34" s="0"/>
+      <c r="AMJ34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="13" t="n">
-        <v>373466</v>
-      </c>
-      <c r="B35" s="17" t="s">
+        <v>44757</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>103</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>7</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>104</v>
       </c>
       <c r="E35" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="13" t="n">
+        <v>373466</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E36" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F35" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="13" t="n">
-        <v>44743</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>105</v>
-      </c>
       <c r="F36" s="5" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="13" t="n">
-        <v>44740</v>
-      </c>
-      <c r="B37" s="19" t="s">
-        <v>106</v>
+        <v>44743</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E37" s="5" t="s">
-        <v>87</v>
-      </c>
       <c r="F37" s="5" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="13" t="n">
-        <v>44739</v>
-      </c>
-      <c r="B38" s="20" t="s">
+        <v>44740</v>
+      </c>
+      <c r="B38" s="19" t="s">
         <v>108</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>109</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="13" t="n">
-        <v>44693</v>
+        <v>44739</v>
       </c>
       <c r="B39" s="20" t="s">
         <v>110</v>
@@ -2216,90 +2225,90 @@
         <v>111</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="13" t="n">
-        <v>44695</v>
-      </c>
-      <c r="B40" s="21" t="s">
+        <v>44693</v>
+      </c>
+      <c r="B40" s="20" t="s">
         <v>112</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>113</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="13" t="n">
-        <v>44659</v>
+        <v>44695</v>
       </c>
       <c r="B41" s="21" t="s">
         <v>114</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>115</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="13" t="n">
-        <v>44712</v>
-      </c>
-      <c r="B42" s="20" t="s">
+        <v>44659</v>
+      </c>
+      <c r="B42" s="21" t="s">
         <v>116</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>117</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>118</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="13" t="n">
-        <v>44705</v>
-      </c>
-      <c r="B43" s="17" t="s">
+        <v>44712</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C43" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D43" s="5" t="s">
+      <c r="E43" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F43" s="5" t="s">
         <v>120</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2316,15 +2325,15 @@
         <v>122</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="13" t="n">
-        <v>44693</v>
+        <v>44705</v>
       </c>
       <c r="B45" s="17" t="s">
         <v>123</v>
@@ -2336,15 +2345,15 @@
         <v>124</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="13" t="n">
-        <v>44622</v>
+        <v>44693</v>
       </c>
       <c r="B46" s="17" t="s">
         <v>125</v>
@@ -2356,57 +2365,57 @@
         <v>126</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="13" t="n">
-        <v>44614</v>
+        <v>44622</v>
       </c>
       <c r="B47" s="17" t="s">
         <v>127</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>128</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="13" t="n">
-        <v>44613</v>
+        <v>44614</v>
       </c>
       <c r="B48" s="17" t="s">
         <v>129</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>130</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="13" t="n">
-        <v>44608</v>
-      </c>
-      <c r="B49" s="20" t="s">
+        <v>44613</v>
+      </c>
+      <c r="B49" s="17" t="s">
         <v>131</v>
       </c>
       <c r="C49" s="5" t="s">
@@ -2416,60 +2425,60 @@
         <v>132</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="13" t="n">
-        <v>44580</v>
-      </c>
-      <c r="B50" s="17" t="s">
+        <v>44608</v>
+      </c>
+      <c r="B50" s="20" t="s">
         <v>133</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>134</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="13" t="n">
+        <v>44580</v>
+      </c>
+      <c r="B51" s="17" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="13" t="n">
-        <v>44463</v>
-      </c>
-      <c r="B52" s="17" t="s">
+      <c r="C51" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D51" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C52" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D52" s="5" t="s">
+      <c r="E51" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="5" t="s">
         <v>137</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="13" t="n">
-        <v>44460</v>
+        <v>44463</v>
       </c>
       <c r="B53" s="17" t="s">
         <v>138</v>
@@ -2481,10 +2490,10 @@
         <v>139</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>140</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2492,24 +2501,24 @@
         <v>44460</v>
       </c>
       <c r="B54" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C54" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D54" s="5" t="s">
+      <c r="E54" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F54" s="5" t="s">
         <v>142</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="13" t="n">
-        <v>44372</v>
+        <v>44460</v>
       </c>
       <c r="B55" s="17" t="s">
         <v>143</v>
@@ -2524,72 +2533,72 @@
         <v>23</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="13" t="n">
-        <v>44326</v>
+        <v>44372</v>
       </c>
       <c r="B56" s="17" t="s">
         <v>145</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>146</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>99</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="13" t="n">
-        <v>44325</v>
-      </c>
-      <c r="B57" s="21" t="s">
+        <v>44326</v>
+      </c>
+      <c r="B57" s="17" t="s">
         <v>147</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>148</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="13" t="n">
         <v>44325</v>
       </c>
-      <c r="B58" s="17" t="s">
+      <c r="B58" s="21" t="s">
         <v>149</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>150</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="13" t="n">
-        <v>44321</v>
+        <v>44325</v>
       </c>
       <c r="B59" s="17" t="s">
         <v>151</v>
@@ -2601,15 +2610,15 @@
         <v>152</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="13" t="n">
-        <v>44316</v>
+        <v>44321</v>
       </c>
       <c r="B60" s="17" t="s">
         <v>153</v>
@@ -2621,37 +2630,37 @@
         <v>154</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>155</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="13" t="n">
-        <v>44279</v>
-      </c>
-      <c r="B61" s="5" t="s">
+        <v>44316</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C61" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D61" s="5" t="s">
+      <c r="E61" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F61" s="5" t="s">
         <v>157</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="13" t="n">
-        <v>44257</v>
-      </c>
-      <c r="B62" s="17" t="s">
+        <v>44279</v>
+      </c>
+      <c r="B62" s="5" t="s">
         <v>158</v>
       </c>
       <c r="C62" s="5" t="s">
@@ -2661,15 +2670,15 @@
         <v>159</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="13" t="n">
-        <v>44243</v>
+        <v>44257</v>
       </c>
       <c r="B63" s="17" t="s">
         <v>160</v>
@@ -2681,57 +2690,57 @@
         <v>161</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="22" t="n">
+      <c r="A64" s="13" t="n">
+        <v>44243</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="22" t="n">
         <v>44231</v>
       </c>
-      <c r="B64" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="C64" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D64" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="E64" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="F64" s="24" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="13" t="n">
-        <v>44218</v>
-      </c>
-      <c r="B65" s="17" t="s">
+      <c r="B65" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="C65" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D65" s="5" t="s">
+      <c r="C65" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="E65" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="F65" s="24" t="s">
         <v>165</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="13" t="n">
-        <v>44216</v>
-      </c>
-      <c r="B66" s="20" t="s">
+        <v>44218</v>
+      </c>
+      <c r="B66" s="17" t="s">
         <v>166</v>
       </c>
       <c r="C66" s="5" t="s">
@@ -2741,17 +2750,17 @@
         <v>167</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="13" t="n">
-        <v>44175</v>
-      </c>
-      <c r="B67" s="17" t="s">
+        <v>44216</v>
+      </c>
+      <c r="B67" s="20" t="s">
         <v>168</v>
       </c>
       <c r="C67" s="5" t="s">
@@ -2761,10 +2770,10 @@
         <v>169</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2781,40 +2790,40 @@
         <v>171</v>
       </c>
       <c r="E68" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="13" t="n">
+        <v>44175</v>
+      </c>
+      <c r="B69" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E69" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F68" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="13" t="n">
-        <v>44162</v>
-      </c>
-      <c r="B70" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>41</v>
+      <c r="F69" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="5" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="13" t="n">
-        <v>44148</v>
+        <v>44162</v>
       </c>
       <c r="B71" s="17" t="s">
         <v>174</v>
@@ -2823,158 +2832,158 @@
         <v>7</v>
       </c>
       <c r="D71" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="13" t="n">
+        <v>44148</v>
+      </c>
+      <c r="B72" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E71" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="22" t="n">
+      <c r="E72" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="22" t="n">
         <v>44146</v>
       </c>
-      <c r="B72" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="C72" s="24" t="s">
+      <c r="B73" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="C73" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D72" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="E72" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="F72" s="24" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="13" t="n">
-        <v>44132</v>
-      </c>
-      <c r="B73" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D73" s="5" t="s">
+      <c r="D73" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="E73" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F73" s="5" t="s">
-        <v>41</v>
+      <c r="E73" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="F73" s="24" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="13" t="n">
-        <v>44103</v>
+        <v>44132</v>
       </c>
       <c r="B74" s="17" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D74" s="5" t="s">
         <v>180</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="22" t="n">
+      <c r="A75" s="13" t="n">
+        <v>44103</v>
+      </c>
+      <c r="B75" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="22" t="n">
         <v>44095</v>
       </c>
-      <c r="B75" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="C75" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D75" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="E75" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="F75" s="24" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="13" t="n">
-        <v>44095</v>
-      </c>
-      <c r="B76" s="17" t="s">
+      <c r="B76" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="C76" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D76" s="5" t="s">
+      <c r="C76" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="E76" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>41</v>
+      <c r="E76" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="F76" s="24" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="13" t="n">
-        <v>44057</v>
+        <v>44095</v>
       </c>
       <c r="B77" s="17" t="s">
         <v>185</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D77" s="5" t="s">
         <v>186</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>140</v>
+        <v>43</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="13" t="n">
-        <v>44028</v>
+        <v>44057</v>
       </c>
       <c r="B78" s="17" t="s">
         <v>187</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>188</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>80</v>
+        <v>142</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="13" t="n">
-        <v>44064</v>
+        <v>44028</v>
       </c>
       <c r="B79" s="17" t="s">
         <v>189</v>
@@ -2986,15 +2995,15 @@
         <v>190</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="13" t="n">
-        <v>44028</v>
+        <v>44064</v>
       </c>
       <c r="B80" s="17" t="s">
         <v>191</v>
@@ -3006,15 +3015,15 @@
         <v>192</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="13" t="n">
-        <v>44016</v>
+        <v>44028</v>
       </c>
       <c r="B81" s="17" t="s">
         <v>193</v>
@@ -3026,15 +3035,15 @@
         <v>194</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="13" t="n">
-        <v>44010</v>
+        <v>44016</v>
       </c>
       <c r="B82" s="17" t="s">
         <v>195</v>
@@ -3046,35 +3055,35 @@
         <v>196</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="13" t="n">
-        <v>43995</v>
+        <v>44010</v>
       </c>
       <c r="B83" s="17" t="s">
         <v>197</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D83" s="5" t="s">
         <v>198</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="13" t="n">
-        <v>43948</v>
+        <v>43995</v>
       </c>
       <c r="B84" s="17" t="s">
         <v>199</v>
@@ -3086,15 +3095,15 @@
         <v>200</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="13" t="n">
-        <v>43947</v>
+        <v>43948</v>
       </c>
       <c r="B85" s="17" t="s">
         <v>201</v>
@@ -3106,15 +3115,15 @@
         <v>202</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="13" t="n">
-        <v>43936</v>
+        <v>43947</v>
       </c>
       <c r="B86" s="17" t="s">
         <v>203</v>
@@ -3126,35 +3135,35 @@
         <v>204</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="13" t="n">
-        <v>43929</v>
+        <v>43936</v>
       </c>
       <c r="B87" s="17" t="s">
         <v>205</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D87" s="5" t="s">
         <v>206</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="13" t="n">
-        <v>43891</v>
+        <v>43929</v>
       </c>
       <c r="B88" s="17" t="s">
         <v>207</v>
@@ -3166,15 +3175,15 @@
         <v>208</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="13" t="n">
-        <v>43885</v>
+        <v>43891</v>
       </c>
       <c r="B89" s="17" t="s">
         <v>209</v>
@@ -3186,15 +3195,15 @@
         <v>210</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="13" t="n">
-        <v>43857</v>
+        <v>43885</v>
       </c>
       <c r="B90" s="17" t="s">
         <v>211</v>
@@ -3206,10 +3215,10 @@
         <v>212</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3226,15 +3235,15 @@
         <v>214</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="13" t="n">
-        <v>43852</v>
+        <v>43857</v>
       </c>
       <c r="B92" s="17" t="s">
         <v>215</v>
@@ -3246,15 +3255,15 @@
         <v>216</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="13" t="n">
-        <v>43584</v>
+        <v>43852</v>
       </c>
       <c r="B93" s="17" t="s">
         <v>217</v>
@@ -3266,10 +3275,10 @@
         <v>218</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3289,14 +3298,14 @@
         <v>23</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="13" t="n">
-        <v>43540</v>
-      </c>
-      <c r="B95" s="5" t="s">
+        <v>43584</v>
+      </c>
+      <c r="B95" s="17" t="s">
         <v>221</v>
       </c>
       <c r="C95" s="5" t="s">
@@ -3309,32 +3318,32 @@
         <v>23</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="13" t="n">
-        <v>43203</v>
-      </c>
-      <c r="B97" s="25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="13" t="n">
+        <v>43540</v>
+      </c>
+      <c r="B96" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="C97" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D97" s="5" t="s">
+      <c r="C96" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D96" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="E97" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F97" s="5" t="s">
-        <v>73</v>
+      <c r="E96" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="5" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3345,61 +3354,61 @@
         <v>225</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D98" s="5" t="s">
         <v>226</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>227</v>
+        <v>75</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="13" t="n">
-        <v>42842</v>
+        <v>43203</v>
       </c>
       <c r="B99" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D99" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="C99" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D99" s="5" t="s">
+      <c r="E99" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F99" s="5" t="s">
         <v>229</v>
-      </c>
-      <c r="E99" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F99" s="5" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="13" t="n">
-        <v>42457</v>
-      </c>
-      <c r="B100" s="5" t="s">
+        <v>42842</v>
+      </c>
+      <c r="B100" s="25" t="s">
         <v>230</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="D100" s="5" t="s">
         <v>231</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="13" t="n">
-        <v>39028</v>
+        <v>42457</v>
       </c>
       <c r="B101" s="5" t="s">
         <v>232</v>
@@ -3411,19 +3420,39 @@
         <v>233</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="103" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AMH103" s="0"/>
-      <c r="AMI103" s="0"/>
-      <c r="AMJ103" s="0"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="13" t="n">
+        <v>39028</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="104" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMH104" s="0"/>
+      <c r="AMI104" s="0"/>
+      <c r="AMJ104" s="0"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F101">
+  <autoFilter ref="A1:F102">
     <filterColumn colId="5">
       <filters>
         <filter val="Fixed?"/>
@@ -3444,98 +3473,99 @@
     </filterColumn>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" display="#11"/>
-    <hyperlink ref="B5" r:id="rId2" display="#1309"/>
-    <hyperlink ref="B6" r:id="rId3" display="#1176"/>
-    <hyperlink ref="B7" r:id="rId4" display="#1171"/>
-    <hyperlink ref="B8" r:id="rId5" display="#1164"/>
-    <hyperlink ref="B9" r:id="rId6" display="#9"/>
-    <hyperlink ref="B10" r:id="rId7" display="#1163"/>
-    <hyperlink ref="B11" r:id="rId8" display="#1161"/>
-    <hyperlink ref="B12" r:id="rId9" display="#1690"/>
-    <hyperlink ref="B14" r:id="rId10" display="#1155"/>
-    <hyperlink ref="B15" r:id="rId11" display="#1150"/>
-    <hyperlink ref="B16" r:id="rId12" display="#1151"/>
-    <hyperlink ref="B17" r:id="rId13" display="#1200"/>
-    <hyperlink ref="B18" r:id="rId14" display="#1681"/>
-    <hyperlink ref="B19" r:id="rId15" display="#1142"/>
-    <hyperlink ref="B20" r:id="rId16" display="#8"/>
-    <hyperlink ref="B21" r:id="rId17" display="#1674"/>
-    <hyperlink ref="B22" r:id="rId18" display="#1672"/>
-    <hyperlink ref="B23" r:id="rId19" display="#1669"/>
-    <hyperlink ref="B24" r:id="rId20" display="#1670"/>
-    <hyperlink ref="B25" r:id="rId21" display="#1184"/>
-    <hyperlink ref="B26" r:id="rId22" display="#49"/>
-    <hyperlink ref="B27" r:id="rId23" display="#1140"/>
-    <hyperlink ref="B28" r:id="rId24" display="#1132"/>
-    <hyperlink ref="B30" r:id="rId25" display="#1125"/>
-    <hyperlink ref="B31" r:id="rId26" display="#1641"/>
-    <hyperlink ref="B32" r:id="rId27" display="#1124"/>
-    <hyperlink ref="B33" r:id="rId28" display="#1122"/>
-    <hyperlink ref="B34" r:id="rId29" display="#43"/>
-    <hyperlink ref="B35" r:id="rId30" display="#1622"/>
-    <hyperlink ref="B37" r:id="rId31" display="#38"/>
-    <hyperlink ref="B38" r:id="rId32" display="#1621"/>
-    <hyperlink ref="B39" r:id="rId33" display="#1616"/>
-    <hyperlink ref="B40" r:id="rId34" display="#37"/>
-    <hyperlink ref="B41" r:id="rId35" display="#36"/>
-    <hyperlink ref="B42" r:id="rId36" display="#1101"/>
-    <hyperlink ref="B43" r:id="rId37" display="#1099"/>
-    <hyperlink ref="B44" r:id="rId38" display="#1098"/>
-    <hyperlink ref="B45" r:id="rId39" display="#1617"/>
-    <hyperlink ref="B46" r:id="rId40" display="#1092"/>
-    <hyperlink ref="B47" r:id="rId41" display="#1128"/>
-    <hyperlink ref="B48" r:id="rId42" display="#1090"/>
-    <hyperlink ref="B49" r:id="rId43" display="#1608"/>
-    <hyperlink ref="B50" r:id="rId44" display="#35"/>
-    <hyperlink ref="B52" r:id="rId45" display="#1070"/>
-    <hyperlink ref="B53" r:id="rId46" display="#1592"/>
-    <hyperlink ref="B54" r:id="rId47" display="#1591"/>
-    <hyperlink ref="B55" r:id="rId48" display="#1578"/>
-    <hyperlink ref="B56" r:id="rId49" display="#41"/>
-    <hyperlink ref="B57" r:id="rId50" display="#42"/>
-    <hyperlink ref="B58" r:id="rId51" display="#1566"/>
-    <hyperlink ref="B59" r:id="rId52" display="#1565"/>
-    <hyperlink ref="B60" r:id="rId53" display="#1046"/>
-    <hyperlink ref="B61" r:id="rId54" display="#1559"/>
-    <hyperlink ref="B62" r:id="rId55" display="#1038"/>
-    <hyperlink ref="B63" r:id="rId56" display="#1037"/>
-    <hyperlink ref="B64" r:id="rId57" display="#1020"/>
-    <hyperlink ref="B65" r:id="rId58" display="#1032"/>
-    <hyperlink ref="B66" r:id="rId59" display="#1546"/>
-    <hyperlink ref="B67" r:id="rId60" display="#1027"/>
-    <hyperlink ref="B68" r:id="rId61" display="#1529"/>
-    <hyperlink ref="B70" r:id="rId62" display="#1527"/>
-    <hyperlink ref="B71" r:id="rId63" display="#558"/>
-    <hyperlink ref="B72" r:id="rId64" display="#1005"/>
-    <hyperlink ref="B73" r:id="rId65" display="#1020"/>
-    <hyperlink ref="B74" r:id="rId66" display="#993"/>
-    <hyperlink ref="B75" r:id="rId67" display="#1520"/>
-    <hyperlink ref="B76" r:id="rId68" display="#1519"/>
-    <hyperlink ref="B77" r:id="rId69" display="#969"/>
-    <hyperlink ref="B78" r:id="rId70" display="#1003"/>
-    <hyperlink ref="B79" r:id="rId71" display="#1015"/>
-    <hyperlink ref="B80" r:id="rId72" display="#1002"/>
-    <hyperlink ref="B81" r:id="rId73" display="#1471"/>
-    <hyperlink ref="B82" r:id="rId74" display="#1497"/>
-    <hyperlink ref="B83" r:id="rId75" display="#947"/>
-    <hyperlink ref="B84" r:id="rId76" display="#933"/>
-    <hyperlink ref="B85" r:id="rId77" display="#932"/>
-    <hyperlink ref="B86" r:id="rId78" display="#931"/>
-    <hyperlink ref="B87" r:id="rId79" display="#987"/>
-    <hyperlink ref="B88" r:id="rId80" display="#988"/>
-    <hyperlink ref="B89" r:id="rId81" display="#982"/>
-    <hyperlink ref="B90" r:id="rId82" display="#979"/>
-    <hyperlink ref="B91" r:id="rId83" display="#977"/>
-    <hyperlink ref="B92" r:id="rId84" display="#975"/>
-    <hyperlink ref="B93" r:id="rId85" display="#1445"/>
-    <hyperlink ref="B94" r:id="rId86" display="#1444"/>
-    <hyperlink ref="B95" r:id="rId87" display="#1427"/>
-    <hyperlink ref="B97" r:id="rId88" display="#23"/>
-    <hyperlink ref="B98" r:id="rId89" display="#22"/>
-    <hyperlink ref="B99" r:id="rId90" display="#18"/>
-    <hyperlink ref="B100" r:id="rId91" display="#1207"/>
-    <hyperlink ref="B101" r:id="rId92" display="#245"/>
+    <hyperlink ref="B4" r:id="rId1" display="#1185"/>
+    <hyperlink ref="B5" r:id="rId2" display="#11"/>
+    <hyperlink ref="B6" r:id="rId3" display="#1309"/>
+    <hyperlink ref="B7" r:id="rId4" display="#1176"/>
+    <hyperlink ref="B8" r:id="rId5" display="#1171"/>
+    <hyperlink ref="B9" r:id="rId6" display="#1164"/>
+    <hyperlink ref="B10" r:id="rId7" display="#9"/>
+    <hyperlink ref="B11" r:id="rId8" display="#1163"/>
+    <hyperlink ref="B12" r:id="rId9" display="#1161"/>
+    <hyperlink ref="B13" r:id="rId10" display="#1690"/>
+    <hyperlink ref="B15" r:id="rId11" display="#1155"/>
+    <hyperlink ref="B16" r:id="rId12" display="#1150"/>
+    <hyperlink ref="B17" r:id="rId13" display="#1151"/>
+    <hyperlink ref="B18" r:id="rId14" display="#1200"/>
+    <hyperlink ref="B19" r:id="rId15" display="#1681"/>
+    <hyperlink ref="B20" r:id="rId16" display="#1142"/>
+    <hyperlink ref="B21" r:id="rId17" display="#8"/>
+    <hyperlink ref="B22" r:id="rId18" display="#1674"/>
+    <hyperlink ref="B23" r:id="rId19" display="#1672"/>
+    <hyperlink ref="B24" r:id="rId20" display="#1669"/>
+    <hyperlink ref="B25" r:id="rId21" display="#1670"/>
+    <hyperlink ref="B26" r:id="rId22" display="#1184"/>
+    <hyperlink ref="B27" r:id="rId23" display="#49"/>
+    <hyperlink ref="B28" r:id="rId24" display="#1140"/>
+    <hyperlink ref="B29" r:id="rId25" display="#1132"/>
+    <hyperlink ref="B31" r:id="rId26" display="#1125"/>
+    <hyperlink ref="B32" r:id="rId27" display="#1641"/>
+    <hyperlink ref="B33" r:id="rId28" display="#1124"/>
+    <hyperlink ref="B34" r:id="rId29" display="#1122"/>
+    <hyperlink ref="B35" r:id="rId30" display="#43"/>
+    <hyperlink ref="B36" r:id="rId31" display="#1622"/>
+    <hyperlink ref="B38" r:id="rId32" display="#38"/>
+    <hyperlink ref="B39" r:id="rId33" display="#1621"/>
+    <hyperlink ref="B40" r:id="rId34" display="#1616"/>
+    <hyperlink ref="B41" r:id="rId35" display="#37"/>
+    <hyperlink ref="B42" r:id="rId36" display="#36"/>
+    <hyperlink ref="B43" r:id="rId37" display="#1101"/>
+    <hyperlink ref="B44" r:id="rId38" display="#1099"/>
+    <hyperlink ref="B45" r:id="rId39" display="#1098"/>
+    <hyperlink ref="B46" r:id="rId40" display="#1617"/>
+    <hyperlink ref="B47" r:id="rId41" display="#1092"/>
+    <hyperlink ref="B48" r:id="rId42" display="#1128"/>
+    <hyperlink ref="B49" r:id="rId43" display="#1090"/>
+    <hyperlink ref="B50" r:id="rId44" display="#1608"/>
+    <hyperlink ref="B51" r:id="rId45" display="#35"/>
+    <hyperlink ref="B53" r:id="rId46" display="#1070"/>
+    <hyperlink ref="B54" r:id="rId47" display="#1592"/>
+    <hyperlink ref="B55" r:id="rId48" display="#1591"/>
+    <hyperlink ref="B56" r:id="rId49" display="#1578"/>
+    <hyperlink ref="B57" r:id="rId50" display="#41"/>
+    <hyperlink ref="B58" r:id="rId51" display="#42"/>
+    <hyperlink ref="B59" r:id="rId52" display="#1566"/>
+    <hyperlink ref="B60" r:id="rId53" display="#1565"/>
+    <hyperlink ref="B61" r:id="rId54" display="#1046"/>
+    <hyperlink ref="B62" r:id="rId55" display="#1559"/>
+    <hyperlink ref="B63" r:id="rId56" display="#1038"/>
+    <hyperlink ref="B64" r:id="rId57" display="#1037"/>
+    <hyperlink ref="B65" r:id="rId58" display="#1020"/>
+    <hyperlink ref="B66" r:id="rId59" display="#1032"/>
+    <hyperlink ref="B67" r:id="rId60" display="#1546"/>
+    <hyperlink ref="B68" r:id="rId61" display="#1027"/>
+    <hyperlink ref="B69" r:id="rId62" display="#1529"/>
+    <hyperlink ref="B71" r:id="rId63" display="#1527"/>
+    <hyperlink ref="B72" r:id="rId64" display="#558"/>
+    <hyperlink ref="B73" r:id="rId65" display="#1005"/>
+    <hyperlink ref="B74" r:id="rId66" display="#1020"/>
+    <hyperlink ref="B75" r:id="rId67" display="#993"/>
+    <hyperlink ref="B76" r:id="rId68" display="#1520"/>
+    <hyperlink ref="B77" r:id="rId69" display="#1519"/>
+    <hyperlink ref="B78" r:id="rId70" display="#969"/>
+    <hyperlink ref="B79" r:id="rId71" display="#1003"/>
+    <hyperlink ref="B80" r:id="rId72" display="#1015"/>
+    <hyperlink ref="B81" r:id="rId73" display="#1002"/>
+    <hyperlink ref="B82" r:id="rId74" display="#1471"/>
+    <hyperlink ref="B83" r:id="rId75" display="#1497"/>
+    <hyperlink ref="B84" r:id="rId76" display="#947"/>
+    <hyperlink ref="B85" r:id="rId77" display="#933"/>
+    <hyperlink ref="B86" r:id="rId78" display="#932"/>
+    <hyperlink ref="B87" r:id="rId79" display="#931"/>
+    <hyperlink ref="B88" r:id="rId80" display="#987"/>
+    <hyperlink ref="B89" r:id="rId81" display="#988"/>
+    <hyperlink ref="B90" r:id="rId82" display="#982"/>
+    <hyperlink ref="B91" r:id="rId83" display="#979"/>
+    <hyperlink ref="B92" r:id="rId84" display="#977"/>
+    <hyperlink ref="B93" r:id="rId85" display="#975"/>
+    <hyperlink ref="B94" r:id="rId86" display="#1445"/>
+    <hyperlink ref="B95" r:id="rId87" display="#1444"/>
+    <hyperlink ref="B96" r:id="rId88" display="#1427"/>
+    <hyperlink ref="B98" r:id="rId89" display="#23"/>
+    <hyperlink ref="B99" r:id="rId90" display="#22"/>
+    <hyperlink ref="B100" r:id="rId91" display="#18"/>
+    <hyperlink ref="B101" r:id="rId92" display="#1207"/>
+    <hyperlink ref="B102" r:id="rId93" display="#245"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="1" right="1" top="1.66666666666667" bottom="1.66666666666667" header="1" footer="1"/>
@@ -3544,7 +3574,7 @@
     <oddHeader>&amp;C&amp;"Sans,Regular"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Sans,Regular"Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId93"/>
+  <drawing r:id="rId94"/>
 </worksheet>
 </file>
 
@@ -3577,10 +3607,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -3589,10 +3619,10 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>

--- a/tickets/OmegaT_issues_nopw.xlsx
+++ b/tickets/OmegaT_issues_nopw.xlsx
@@ -13,7 +13,7 @@
     <sheet name="ETS" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'2022'!$A$1:$F$102</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'2022'!$A$1:$F$103</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">#REF!</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Sheet_Title" vbProcedure="false">"Devs"</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">#REF!</definedName>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="242">
   <si>
     <t xml:space="preserve">#</t>
   </si>
@@ -123,6 +123,18 @@
     <t xml:space="preserve">WIP</t>
   </si>
   <si>
+    <t xml:space="preserve">#1708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Improve colors in the list of project files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RFE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open</t>
+  </si>
+  <si>
     <t xml:space="preserve">#1185</t>
   </si>
   <si>
@@ -162,9 +174,6 @@
     <t xml:space="preserve">Enforced translations lose background color</t>
   </si>
   <si>
-    <t xml:space="preserve">Open</t>
-  </si>
-  <si>
     <t xml:space="preserve">#1164</t>
   </si>
   <si>
@@ -178,9 +187,6 @@
   </si>
   <si>
     <t xml:space="preserve">Add property in config to remove mappings (to pack as offline project)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RFE</t>
   </si>
   <si>
     <t xml:space="preserve">#1163</t>
@@ -1381,14 +1387,14 @@
   <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ104"/>
+  <dimension ref="A1:AMJ105"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G2" activeCellId="0" sqref="G2"/>
+      <selection pane="bottomRight" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1444,7 +1450,7 @@
     </row>
     <row r="4" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="n">
-        <v>45104</v>
+        <v>45110</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>30</v>
@@ -1456,10 +1462,10 @@
         <v>31</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AMH4" s="0"/>
       <c r="AMI4" s="0"/>
@@ -1467,13 +1473,13 @@
     </row>
     <row r="5" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="n">
-        <v>45094</v>
+        <v>45104</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>35</v>
@@ -1490,22 +1496,22 @@
     </row>
     <row r="6" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="n">
-        <v>45069</v>
+        <v>45094</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>37</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AMH6" s="0"/>
       <c r="AMI6" s="0"/>
@@ -1516,13 +1522,13 @@
         <v>45069</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>9</v>
@@ -1536,22 +1542,22 @@
     </row>
     <row r="8" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="n">
-        <v>45064</v>
+        <v>45069</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AMH8" s="0"/>
       <c r="AMI8" s="0"/>
@@ -1559,22 +1565,22 @@
     </row>
     <row r="9" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="n">
-        <v>45049</v>
+        <v>45064</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="AMH9" s="0"/>
       <c r="AMI9" s="0"/>
@@ -1587,17 +1593,17 @@
       <c r="B10" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>34</v>
+      <c r="C10" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>48</v>
       </c>
       <c r="E10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="9" t="s">
         <v>49</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>36</v>
       </c>
       <c r="AMH10" s="0"/>
       <c r="AMI10" s="0"/>
@@ -1605,22 +1611,22 @@
     </row>
     <row r="11" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="n">
-        <v>45044</v>
+        <v>45049</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>7</v>
+      <c r="C11" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>51</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AMH11" s="0"/>
       <c r="AMI11" s="0"/>
@@ -1628,7 +1634,7 @@
     </row>
     <row r="12" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="n">
-        <v>45040</v>
+        <v>45044</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>52</v>
@@ -1643,7 +1649,7 @@
         <v>9</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AMH12" s="0"/>
       <c r="AMI12" s="0"/>
@@ -1651,7 +1657,7 @@
     </row>
     <row r="13" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="n">
-        <v>45028</v>
+        <v>45040</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>54</v>
@@ -1663,10 +1669,10 @@
         <v>55</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="AMH13" s="0"/>
       <c r="AMI13" s="0"/>
@@ -1674,16 +1680,22 @@
     </row>
     <row r="14" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="10" t="n">
-        <v>44996</v>
+        <v>45028</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>57</v>
       </c>
+      <c r="E14" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="F14" s="9" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AMH14" s="0"/>
       <c r="AMI14" s="0"/>
@@ -1691,22 +1703,16 @@
     </row>
     <row r="15" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="n">
-        <v>45007</v>
-      </c>
-      <c r="B15" s="11" t="s">
+        <v>44996</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>58</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>7</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E15" s="9" t="s">
-        <v>9</v>
-      </c>
       <c r="F15" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AMH15" s="0"/>
       <c r="AMI15" s="0"/>
@@ -1714,7 +1720,7 @@
     </row>
     <row r="16" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="10" t="n">
-        <v>44993</v>
+        <v>45007</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>60</v>
@@ -1729,7 +1735,7 @@
         <v>9</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AMH16" s="0"/>
       <c r="AMI16" s="0"/>
@@ -1752,7 +1758,7 @@
         <v>9</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AMH17" s="0"/>
       <c r="AMI17" s="0"/>
@@ -1760,13 +1766,13 @@
     </row>
     <row r="18" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="10" t="n">
-        <v>44991</v>
+        <v>44993</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>64</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>65</v>
@@ -1775,7 +1781,7 @@
         <v>9</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="AMH18" s="0"/>
       <c r="AMI18" s="0"/>
@@ -1783,22 +1789,22 @@
     </row>
     <row r="19" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="10" t="n">
-        <v>44981</v>
+        <v>44991</v>
       </c>
       <c r="B19" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="9" t="s">
+      <c r="E19" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="9" t="s">
         <v>68</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="AMH19" s="0"/>
       <c r="AMI19" s="0"/>
@@ -1806,7 +1812,7 @@
     </row>
     <row r="20" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="10" t="n">
-        <v>44972</v>
+        <v>44981</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>69</v>
@@ -1818,33 +1824,33 @@
         <v>70</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="AMH20" s="0"/>
       <c r="AMI20" s="0"/>
       <c r="AMJ20" s="0"/>
     </row>
-    <row r="21" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="13" t="n">
-        <v>44970</v>
-      </c>
-      <c r="B21" s="14" t="s">
+    <row r="21" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="10" t="n">
+        <v>44972</v>
+      </c>
+      <c r="B21" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="12" t="s">
+      <c r="C21" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E21" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>43</v>
+      <c r="E21" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="AMH21" s="0"/>
       <c r="AMI21" s="0"/>
@@ -1852,22 +1858,22 @@
     </row>
     <row r="22" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="13" t="n">
-        <v>44967</v>
+        <v>44970</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>73</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>74</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="AMH22" s="0"/>
       <c r="AMI22" s="0"/>
@@ -1875,22 +1881,22 @@
     </row>
     <row r="23" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="13" t="n">
-        <v>44964</v>
+        <v>44967</v>
       </c>
       <c r="B23" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="12" t="s">
+      <c r="E23" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="12" t="s">
         <v>77</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>32</v>
       </c>
       <c r="AMH23" s="0"/>
       <c r="AMI23" s="0"/>
@@ -1898,7 +1904,7 @@
     </row>
     <row r="24" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="13" t="n">
-        <v>44952</v>
+        <v>44964</v>
       </c>
       <c r="B24" s="14" t="s">
         <v>78</v>
@@ -1910,10 +1916,10 @@
         <v>79</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AMH24" s="0"/>
       <c r="AMI24" s="0"/>
@@ -1933,10 +1939,10 @@
         <v>81</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="AMH25" s="0"/>
       <c r="AMI25" s="0"/>
@@ -1944,22 +1950,22 @@
     </row>
     <row r="26" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="13" t="n">
-        <v>44949</v>
+        <v>44952</v>
       </c>
       <c r="B26" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="12" t="s">
+      <c r="E26" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" s="12" t="s">
         <v>84</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>75</v>
       </c>
       <c r="AMH26" s="0"/>
       <c r="AMI26" s="0"/>
@@ -1967,22 +1973,22 @@
     </row>
     <row r="27" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="13" t="n">
-        <v>44948</v>
+        <v>44949</v>
       </c>
       <c r="B27" s="14" t="s">
         <v>85</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>86</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AMH27" s="0"/>
       <c r="AMI27" s="0"/>
@@ -1990,125 +1996,125 @@
     </row>
     <row r="28" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="13" t="n">
-        <v>44946</v>
+        <v>44948</v>
       </c>
       <c r="B28" s="14" t="s">
         <v>87</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="D28" s="12" t="s">
         <v>88</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AMH28" s="0"/>
       <c r="AMI28" s="0"/>
       <c r="AMJ28" s="0"/>
     </row>
-    <row r="29" s="12" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="13" t="n">
-        <v>44929</v>
-      </c>
-      <c r="B29" s="16" t="s">
+        <v>44946</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C29" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>91</v>
-      </c>
       <c r="E29" s="12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AMH29" s="0"/>
       <c r="AMI29" s="0"/>
       <c r="AMJ29" s="0"/>
     </row>
-    <row r="30" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="8" t="s">
+    <row r="30" s="12" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="13" t="n">
+        <v>44929</v>
+      </c>
+      <c r="B30" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="F30" s="8" t="s">
-        <v>29</v>
+      <c r="C30" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="AMH30" s="0"/>
       <c r="AMI30" s="0"/>
       <c r="AMJ30" s="0"/>
     </row>
-    <row r="31" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="13" t="n">
-        <v>44879</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="5" t="s">
+    <row r="31" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E31" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>43</v>
+      <c r="F31" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="AMH31" s="0"/>
       <c r="AMI31" s="0"/>
       <c r="AMJ31" s="0"/>
     </row>
-    <row r="32" s="12" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="13" t="n">
-        <v>44858</v>
-      </c>
-      <c r="B32" s="14" t="s">
+        <v>44879</v>
+      </c>
+      <c r="B32" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="C32" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="12" t="s">
+      <c r="C32" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E32" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>43</v>
+      <c r="E32" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="AMH32" s="0"/>
       <c r="AMI32" s="0"/>
       <c r="AMJ32" s="0"/>
     </row>
-    <row r="33" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" s="12" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="13" t="n">
-        <v>44855</v>
-      </c>
-      <c r="B33" s="17" t="s">
+        <v>44858</v>
+      </c>
+      <c r="B33" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="5" t="s">
+      <c r="C33" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="E33" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F33" s="5" t="s">
+      <c r="E33" s="12" t="s">
         <v>32</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="AMH33" s="0"/>
       <c r="AMI33" s="0"/>
@@ -2116,7 +2122,7 @@
     </row>
     <row r="34" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="13" t="n">
-        <v>44844</v>
+        <v>44855</v>
       </c>
       <c r="B34" s="17" t="s">
         <v>99</v>
@@ -2128,112 +2134,115 @@
         <v>100</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="AMH34" s="0"/>
       <c r="AMI34" s="0"/>
       <c r="AMJ34" s="0"/>
     </row>
-    <row r="35" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="13" t="n">
-        <v>44757</v>
-      </c>
-      <c r="B35" s="18" t="s">
+        <v>44844</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="E35" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F35" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D35" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>82</v>
-      </c>
+      <c r="AMH35" s="0"/>
+      <c r="AMI35" s="0"/>
+      <c r="AMJ35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="13" t="n">
-        <v>373466</v>
-      </c>
-      <c r="B36" s="17" t="s">
+        <v>44757</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>7</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>106</v>
       </c>
       <c r="E36" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="13" t="n">
+        <v>373466</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E37" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F36" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="13" t="n">
-        <v>44743</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>107</v>
-      </c>
       <c r="F37" s="5" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="13" t="n">
-        <v>44740</v>
-      </c>
-      <c r="B38" s="19" t="s">
-        <v>108</v>
+        <v>44743</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>103</v>
+        <v>7</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="E38" s="5" t="s">
-        <v>89</v>
-      </c>
       <c r="F38" s="5" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="13" t="n">
-        <v>44739</v>
-      </c>
-      <c r="B39" s="20" t="s">
+        <v>44740</v>
+      </c>
+      <c r="B39" s="19" t="s">
         <v>110</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>7</v>
+        <v>105</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>111</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="13" t="n">
-        <v>44693</v>
+        <v>44739</v>
       </c>
       <c r="B40" s="20" t="s">
         <v>112</v>
@@ -2245,90 +2254,90 @@
         <v>113</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="13" t="n">
-        <v>44695</v>
-      </c>
-      <c r="B41" s="21" t="s">
+        <v>44693</v>
+      </c>
+      <c r="B41" s="20" t="s">
         <v>114</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>103</v>
+        <v>7</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>115</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="13" t="n">
-        <v>44659</v>
+        <v>44695</v>
       </c>
       <c r="B42" s="21" t="s">
         <v>116</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>117</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="13" t="n">
-        <v>44712</v>
-      </c>
-      <c r="B43" s="20" t="s">
+        <v>44659</v>
+      </c>
+      <c r="B43" s="21" t="s">
         <v>118</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>119</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>120</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="13" t="n">
-        <v>44705</v>
-      </c>
-      <c r="B44" s="17" t="s">
+        <v>44712</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C44" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D44" s="5" t="s">
+      <c r="E44" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F44" s="5" t="s">
         <v>122</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2345,15 +2354,15 @@
         <v>124</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="13" t="n">
-        <v>44693</v>
+        <v>44705</v>
       </c>
       <c r="B46" s="17" t="s">
         <v>125</v>
@@ -2365,15 +2374,15 @@
         <v>126</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="13" t="n">
-        <v>44622</v>
+        <v>44693</v>
       </c>
       <c r="B47" s="17" t="s">
         <v>127</v>
@@ -2385,57 +2394,57 @@
         <v>128</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="13" t="n">
-        <v>44614</v>
+        <v>44622</v>
       </c>
       <c r="B48" s="17" t="s">
         <v>129</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>130</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="13" t="n">
-        <v>44613</v>
+        <v>44614</v>
       </c>
       <c r="B49" s="17" t="s">
         <v>131</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>132</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="13" t="n">
-        <v>44608</v>
-      </c>
-      <c r="B50" s="20" t="s">
+        <v>44613</v>
+      </c>
+      <c r="B50" s="17" t="s">
         <v>133</v>
       </c>
       <c r="C50" s="5" t="s">
@@ -2445,60 +2454,60 @@
         <v>134</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="13" t="n">
-        <v>44580</v>
-      </c>
-      <c r="B51" s="17" t="s">
+        <v>44608</v>
+      </c>
+      <c r="B51" s="20" t="s">
         <v>135</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>103</v>
+        <v>7</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>136</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="13" t="n">
+        <v>44580</v>
+      </c>
+      <c r="B52" s="17" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="13" t="n">
-        <v>44463</v>
-      </c>
-      <c r="B53" s="17" t="s">
+      <c r="C52" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D52" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C53" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D53" s="5" t="s">
+      <c r="E52" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="5" t="s">
         <v>139</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="13" t="n">
-        <v>44460</v>
+        <v>44463</v>
       </c>
       <c r="B54" s="17" t="s">
         <v>140</v>
@@ -2510,10 +2519,10 @@
         <v>141</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>142</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2521,24 +2530,24 @@
         <v>44460</v>
       </c>
       <c r="B55" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C55" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D55" s="5" t="s">
+      <c r="E55" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F55" s="5" t="s">
         <v>144</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="13" t="n">
-        <v>44372</v>
+        <v>44460</v>
       </c>
       <c r="B56" s="17" t="s">
         <v>145</v>
@@ -2553,72 +2562,72 @@
         <v>23</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="13" t="n">
-        <v>44326</v>
+        <v>44372</v>
       </c>
       <c r="B57" s="17" t="s">
         <v>147</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>103</v>
+        <v>7</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>148</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>101</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="13" t="n">
-        <v>44325</v>
-      </c>
-      <c r="B58" s="21" t="s">
+        <v>44326</v>
+      </c>
+      <c r="B58" s="17" t="s">
         <v>149</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>150</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="13" t="n">
         <v>44325</v>
       </c>
-      <c r="B59" s="17" t="s">
+      <c r="B59" s="21" t="s">
         <v>151</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>7</v>
+        <v>105</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>152</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="13" t="n">
-        <v>44321</v>
+        <v>44325</v>
       </c>
       <c r="B60" s="17" t="s">
         <v>153</v>
@@ -2630,15 +2639,15 @@
         <v>154</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="13" t="n">
-        <v>44316</v>
+        <v>44321</v>
       </c>
       <c r="B61" s="17" t="s">
         <v>155</v>
@@ -2650,37 +2659,37 @@
         <v>156</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>157</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="13" t="n">
-        <v>44279</v>
-      </c>
-      <c r="B62" s="5" t="s">
+        <v>44316</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="C62" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D62" s="5" t="s">
+      <c r="E62" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F62" s="5" t="s">
         <v>159</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="13" t="n">
-        <v>44257</v>
-      </c>
-      <c r="B63" s="17" t="s">
+        <v>44279</v>
+      </c>
+      <c r="B63" s="5" t="s">
         <v>160</v>
       </c>
       <c r="C63" s="5" t="s">
@@ -2690,15 +2699,15 @@
         <v>161</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="13" t="n">
-        <v>44243</v>
+        <v>44257</v>
       </c>
       <c r="B64" s="17" t="s">
         <v>162</v>
@@ -2710,57 +2719,57 @@
         <v>163</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="22" t="n">
+      <c r="A65" s="13" t="n">
+        <v>44243</v>
+      </c>
+      <c r="B65" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="22" t="n">
         <v>44231</v>
       </c>
-      <c r="B65" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="C65" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D65" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="E65" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="F65" s="24" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="13" t="n">
-        <v>44218</v>
-      </c>
-      <c r="B66" s="17" t="s">
+      <c r="B66" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="C66" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D66" s="5" t="s">
+      <c r="C66" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E66" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="F66" s="24" t="s">
         <v>167</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="13" t="n">
-        <v>44216</v>
-      </c>
-      <c r="B67" s="20" t="s">
+        <v>44218</v>
+      </c>
+      <c r="B67" s="17" t="s">
         <v>168</v>
       </c>
       <c r="C67" s="5" t="s">
@@ -2770,17 +2779,17 @@
         <v>169</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="13" t="n">
-        <v>44175</v>
-      </c>
-      <c r="B68" s="17" t="s">
+        <v>44216</v>
+      </c>
+      <c r="B68" s="20" t="s">
         <v>170</v>
       </c>
       <c r="C68" s="5" t="s">
@@ -2790,10 +2799,10 @@
         <v>171</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2810,40 +2819,40 @@
         <v>173</v>
       </c>
       <c r="E69" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="13" t="n">
+        <v>44175</v>
+      </c>
+      <c r="B70" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E70" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F69" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="13" t="n">
-        <v>44162</v>
-      </c>
-      <c r="B71" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>43</v>
+      <c r="F70" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="5" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="13" t="n">
-        <v>44148</v>
+        <v>44162</v>
       </c>
       <c r="B72" s="17" t="s">
         <v>176</v>
@@ -2852,158 +2861,158 @@
         <v>7</v>
       </c>
       <c r="D72" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="13" t="n">
+        <v>44148</v>
+      </c>
+      <c r="B73" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E72" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="22" t="n">
+      <c r="E73" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="22" t="n">
         <v>44146</v>
       </c>
-      <c r="B73" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="C73" s="24" t="s">
+      <c r="B74" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="C74" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D73" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="E73" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="F73" s="24" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="13" t="n">
-        <v>44132</v>
-      </c>
-      <c r="B74" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D74" s="5" t="s">
+      <c r="D74" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="E74" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F74" s="5" t="s">
-        <v>43</v>
+      <c r="E74" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="F74" s="24" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="13" t="n">
-        <v>44103</v>
+        <v>44132</v>
       </c>
       <c r="B75" s="17" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>182</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="22" t="n">
+      <c r="A76" s="13" t="n">
+        <v>44103</v>
+      </c>
+      <c r="B76" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="22" t="n">
         <v>44095</v>
       </c>
-      <c r="B76" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="C76" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D76" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="E76" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="F76" s="24" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="13" t="n">
-        <v>44095</v>
-      </c>
-      <c r="B77" s="17" t="s">
+      <c r="B77" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="C77" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D77" s="5" t="s">
+      <c r="C77" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="E77" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>43</v>
+      <c r="E77" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="F77" s="24" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="13" t="n">
-        <v>44057</v>
+        <v>44095</v>
       </c>
       <c r="B78" s="17" t="s">
         <v>187</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>188</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>142</v>
+        <v>33</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="13" t="n">
-        <v>44028</v>
+        <v>44057</v>
       </c>
       <c r="B79" s="17" t="s">
         <v>189</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D79" s="5" t="s">
         <v>190</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>82</v>
+        <v>144</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="13" t="n">
-        <v>44064</v>
+        <v>44028</v>
       </c>
       <c r="B80" s="17" t="s">
         <v>191</v>
@@ -3015,15 +3024,15 @@
         <v>192</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="13" t="n">
-        <v>44028</v>
+        <v>44064</v>
       </c>
       <c r="B81" s="17" t="s">
         <v>193</v>
@@ -3035,15 +3044,15 @@
         <v>194</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="13" t="n">
-        <v>44016</v>
+        <v>44028</v>
       </c>
       <c r="B82" s="17" t="s">
         <v>195</v>
@@ -3055,15 +3064,15 @@
         <v>196</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="13" t="n">
-        <v>44010</v>
+        <v>44016</v>
       </c>
       <c r="B83" s="17" t="s">
         <v>197</v>
@@ -3075,35 +3084,35 @@
         <v>198</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="13" t="n">
-        <v>43995</v>
+        <v>44010</v>
       </c>
       <c r="B84" s="17" t="s">
         <v>199</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D84" s="5" t="s">
         <v>200</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="13" t="n">
-        <v>43948</v>
+        <v>43995</v>
       </c>
       <c r="B85" s="17" t="s">
         <v>201</v>
@@ -3115,15 +3124,15 @@
         <v>202</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="13" t="n">
-        <v>43947</v>
+        <v>43948</v>
       </c>
       <c r="B86" s="17" t="s">
         <v>203</v>
@@ -3135,15 +3144,15 @@
         <v>204</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="13" t="n">
-        <v>43936</v>
+        <v>43947</v>
       </c>
       <c r="B87" s="17" t="s">
         <v>205</v>
@@ -3155,35 +3164,35 @@
         <v>206</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="13" t="n">
-        <v>43929</v>
+        <v>43936</v>
       </c>
       <c r="B88" s="17" t="s">
         <v>207</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D88" s="5" t="s">
         <v>208</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="13" t="n">
-        <v>43891</v>
+        <v>43929</v>
       </c>
       <c r="B89" s="17" t="s">
         <v>209</v>
@@ -3195,15 +3204,15 @@
         <v>210</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="13" t="n">
-        <v>43885</v>
+        <v>43891</v>
       </c>
       <c r="B90" s="17" t="s">
         <v>211</v>
@@ -3215,15 +3224,15 @@
         <v>212</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="13" t="n">
-        <v>43857</v>
+        <v>43885</v>
       </c>
       <c r="B91" s="17" t="s">
         <v>213</v>
@@ -3235,10 +3244,10 @@
         <v>214</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3255,15 +3264,15 @@
         <v>216</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="13" t="n">
-        <v>43852</v>
+        <v>43857</v>
       </c>
       <c r="B93" s="17" t="s">
         <v>217</v>
@@ -3275,15 +3284,15 @@
         <v>218</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="13" t="n">
-        <v>43584</v>
+        <v>43852</v>
       </c>
       <c r="B94" s="17" t="s">
         <v>219</v>
@@ -3295,10 +3304,10 @@
         <v>220</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3318,14 +3327,14 @@
         <v>23</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="13" t="n">
-        <v>43540</v>
-      </c>
-      <c r="B96" s="5" t="s">
+        <v>43584</v>
+      </c>
+      <c r="B96" s="17" t="s">
         <v>223</v>
       </c>
       <c r="C96" s="5" t="s">
@@ -3338,32 +3347,32 @@
         <v>23</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="13" t="n">
-        <v>43203</v>
-      </c>
-      <c r="B98" s="25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="13" t="n">
+        <v>43540</v>
+      </c>
+      <c r="B97" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="C98" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D98" s="5" t="s">
+      <c r="C97" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D97" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="E98" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F98" s="5" t="s">
-        <v>75</v>
+      <c r="E97" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="5" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3374,61 +3383,61 @@
         <v>227</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D99" s="5" t="s">
         <v>228</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>229</v>
+        <v>77</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="13" t="n">
-        <v>42842</v>
+        <v>43203</v>
       </c>
       <c r="B100" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D100" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="C100" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D100" s="5" t="s">
+      <c r="E100" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F100" s="5" t="s">
         <v>231</v>
-      </c>
-      <c r="E100" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F100" s="5" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="13" t="n">
-        <v>42457</v>
-      </c>
-      <c r="B101" s="5" t="s">
+        <v>42842</v>
+      </c>
+      <c r="B101" s="25" t="s">
         <v>232</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>7</v>
+        <v>105</v>
       </c>
       <c r="D101" s="5" t="s">
         <v>233</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="13" t="n">
-        <v>39028</v>
+        <v>42457</v>
       </c>
       <c r="B102" s="5" t="s">
         <v>234</v>
@@ -3440,19 +3449,39 @@
         <v>235</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="104" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AMH104" s="0"/>
-      <c r="AMI104" s="0"/>
-      <c r="AMJ104" s="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="13" t="n">
+        <v>39028</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="105" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMH105" s="0"/>
+      <c r="AMI105" s="0"/>
+      <c r="AMJ105" s="0"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F102">
+  <autoFilter ref="A1:F103">
     <filterColumn colId="5">
       <filters>
         <filter val="Fixed?"/>
@@ -3473,99 +3502,100 @@
     </filterColumn>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" display="#1185"/>
-    <hyperlink ref="B5" r:id="rId2" display="#11"/>
-    <hyperlink ref="B6" r:id="rId3" display="#1309"/>
-    <hyperlink ref="B7" r:id="rId4" display="#1176"/>
-    <hyperlink ref="B8" r:id="rId5" display="#1171"/>
-    <hyperlink ref="B9" r:id="rId6" display="#1164"/>
-    <hyperlink ref="B10" r:id="rId7" display="#9"/>
-    <hyperlink ref="B11" r:id="rId8" display="#1163"/>
-    <hyperlink ref="B12" r:id="rId9" display="#1161"/>
-    <hyperlink ref="B13" r:id="rId10" display="#1690"/>
-    <hyperlink ref="B15" r:id="rId11" display="#1155"/>
-    <hyperlink ref="B16" r:id="rId12" display="#1150"/>
-    <hyperlink ref="B17" r:id="rId13" display="#1151"/>
-    <hyperlink ref="B18" r:id="rId14" display="#1200"/>
-    <hyperlink ref="B19" r:id="rId15" display="#1681"/>
-    <hyperlink ref="B20" r:id="rId16" display="#1142"/>
-    <hyperlink ref="B21" r:id="rId17" display="#8"/>
-    <hyperlink ref="B22" r:id="rId18" display="#1674"/>
-    <hyperlink ref="B23" r:id="rId19" display="#1672"/>
-    <hyperlink ref="B24" r:id="rId20" display="#1669"/>
-    <hyperlink ref="B25" r:id="rId21" display="#1670"/>
-    <hyperlink ref="B26" r:id="rId22" display="#1184"/>
-    <hyperlink ref="B27" r:id="rId23" display="#49"/>
-    <hyperlink ref="B28" r:id="rId24" display="#1140"/>
-    <hyperlink ref="B29" r:id="rId25" display="#1132"/>
-    <hyperlink ref="B31" r:id="rId26" display="#1125"/>
-    <hyperlink ref="B32" r:id="rId27" display="#1641"/>
-    <hyperlink ref="B33" r:id="rId28" display="#1124"/>
-    <hyperlink ref="B34" r:id="rId29" display="#1122"/>
-    <hyperlink ref="B35" r:id="rId30" display="#43"/>
-    <hyperlink ref="B36" r:id="rId31" display="#1622"/>
-    <hyperlink ref="B38" r:id="rId32" display="#38"/>
-    <hyperlink ref="B39" r:id="rId33" display="#1621"/>
-    <hyperlink ref="B40" r:id="rId34" display="#1616"/>
-    <hyperlink ref="B41" r:id="rId35" display="#37"/>
-    <hyperlink ref="B42" r:id="rId36" display="#36"/>
-    <hyperlink ref="B43" r:id="rId37" display="#1101"/>
-    <hyperlink ref="B44" r:id="rId38" display="#1099"/>
-    <hyperlink ref="B45" r:id="rId39" display="#1098"/>
-    <hyperlink ref="B46" r:id="rId40" display="#1617"/>
-    <hyperlink ref="B47" r:id="rId41" display="#1092"/>
-    <hyperlink ref="B48" r:id="rId42" display="#1128"/>
-    <hyperlink ref="B49" r:id="rId43" display="#1090"/>
-    <hyperlink ref="B50" r:id="rId44" display="#1608"/>
-    <hyperlink ref="B51" r:id="rId45" display="#35"/>
-    <hyperlink ref="B53" r:id="rId46" display="#1070"/>
-    <hyperlink ref="B54" r:id="rId47" display="#1592"/>
-    <hyperlink ref="B55" r:id="rId48" display="#1591"/>
-    <hyperlink ref="B56" r:id="rId49" display="#1578"/>
-    <hyperlink ref="B57" r:id="rId50" display="#41"/>
-    <hyperlink ref="B58" r:id="rId51" display="#42"/>
-    <hyperlink ref="B59" r:id="rId52" display="#1566"/>
-    <hyperlink ref="B60" r:id="rId53" display="#1565"/>
-    <hyperlink ref="B61" r:id="rId54" display="#1046"/>
-    <hyperlink ref="B62" r:id="rId55" display="#1559"/>
-    <hyperlink ref="B63" r:id="rId56" display="#1038"/>
-    <hyperlink ref="B64" r:id="rId57" display="#1037"/>
-    <hyperlink ref="B65" r:id="rId58" display="#1020"/>
-    <hyperlink ref="B66" r:id="rId59" display="#1032"/>
-    <hyperlink ref="B67" r:id="rId60" display="#1546"/>
-    <hyperlink ref="B68" r:id="rId61" display="#1027"/>
-    <hyperlink ref="B69" r:id="rId62" display="#1529"/>
-    <hyperlink ref="B71" r:id="rId63" display="#1527"/>
-    <hyperlink ref="B72" r:id="rId64" display="#558"/>
-    <hyperlink ref="B73" r:id="rId65" display="#1005"/>
-    <hyperlink ref="B74" r:id="rId66" display="#1020"/>
-    <hyperlink ref="B75" r:id="rId67" display="#993"/>
-    <hyperlink ref="B76" r:id="rId68" display="#1520"/>
-    <hyperlink ref="B77" r:id="rId69" display="#1519"/>
-    <hyperlink ref="B78" r:id="rId70" display="#969"/>
-    <hyperlink ref="B79" r:id="rId71" display="#1003"/>
-    <hyperlink ref="B80" r:id="rId72" display="#1015"/>
-    <hyperlink ref="B81" r:id="rId73" display="#1002"/>
-    <hyperlink ref="B82" r:id="rId74" display="#1471"/>
-    <hyperlink ref="B83" r:id="rId75" display="#1497"/>
-    <hyperlink ref="B84" r:id="rId76" display="#947"/>
-    <hyperlink ref="B85" r:id="rId77" display="#933"/>
-    <hyperlink ref="B86" r:id="rId78" display="#932"/>
-    <hyperlink ref="B87" r:id="rId79" display="#931"/>
-    <hyperlink ref="B88" r:id="rId80" display="#987"/>
-    <hyperlink ref="B89" r:id="rId81" display="#988"/>
-    <hyperlink ref="B90" r:id="rId82" display="#982"/>
-    <hyperlink ref="B91" r:id="rId83" display="#979"/>
-    <hyperlink ref="B92" r:id="rId84" display="#977"/>
-    <hyperlink ref="B93" r:id="rId85" display="#975"/>
-    <hyperlink ref="B94" r:id="rId86" display="#1445"/>
-    <hyperlink ref="B95" r:id="rId87" display="#1444"/>
-    <hyperlink ref="B96" r:id="rId88" display="#1427"/>
-    <hyperlink ref="B98" r:id="rId89" display="#23"/>
-    <hyperlink ref="B99" r:id="rId90" display="#22"/>
-    <hyperlink ref="B100" r:id="rId91" display="#18"/>
-    <hyperlink ref="B101" r:id="rId92" display="#1207"/>
-    <hyperlink ref="B102" r:id="rId93" display="#245"/>
+    <hyperlink ref="B4" r:id="rId1" display="#1708"/>
+    <hyperlink ref="B5" r:id="rId2" display="#1185"/>
+    <hyperlink ref="B6" r:id="rId3" display="#11"/>
+    <hyperlink ref="B7" r:id="rId4" display="#1309"/>
+    <hyperlink ref="B8" r:id="rId5" display="#1176"/>
+    <hyperlink ref="B9" r:id="rId6" display="#1171"/>
+    <hyperlink ref="B10" r:id="rId7" display="#1164"/>
+    <hyperlink ref="B11" r:id="rId8" display="#9"/>
+    <hyperlink ref="B12" r:id="rId9" display="#1163"/>
+    <hyperlink ref="B13" r:id="rId10" display="#1161"/>
+    <hyperlink ref="B14" r:id="rId11" display="#1690"/>
+    <hyperlink ref="B16" r:id="rId12" display="#1155"/>
+    <hyperlink ref="B17" r:id="rId13" display="#1150"/>
+    <hyperlink ref="B18" r:id="rId14" display="#1151"/>
+    <hyperlink ref="B19" r:id="rId15" display="#1200"/>
+    <hyperlink ref="B20" r:id="rId16" display="#1681"/>
+    <hyperlink ref="B21" r:id="rId17" display="#1142"/>
+    <hyperlink ref="B22" r:id="rId18" display="#8"/>
+    <hyperlink ref="B23" r:id="rId19" display="#1674"/>
+    <hyperlink ref="B24" r:id="rId20" display="#1672"/>
+    <hyperlink ref="B25" r:id="rId21" display="#1669"/>
+    <hyperlink ref="B26" r:id="rId22" display="#1670"/>
+    <hyperlink ref="B27" r:id="rId23" display="#1184"/>
+    <hyperlink ref="B28" r:id="rId24" display="#49"/>
+    <hyperlink ref="B29" r:id="rId25" display="#1140"/>
+    <hyperlink ref="B30" r:id="rId26" display="#1132"/>
+    <hyperlink ref="B32" r:id="rId27" display="#1125"/>
+    <hyperlink ref="B33" r:id="rId28" display="#1641"/>
+    <hyperlink ref="B34" r:id="rId29" display="#1124"/>
+    <hyperlink ref="B35" r:id="rId30" display="#1122"/>
+    <hyperlink ref="B36" r:id="rId31" display="#43"/>
+    <hyperlink ref="B37" r:id="rId32" display="#1622"/>
+    <hyperlink ref="B39" r:id="rId33" display="#38"/>
+    <hyperlink ref="B40" r:id="rId34" display="#1621"/>
+    <hyperlink ref="B41" r:id="rId35" display="#1616"/>
+    <hyperlink ref="B42" r:id="rId36" display="#37"/>
+    <hyperlink ref="B43" r:id="rId37" display="#36"/>
+    <hyperlink ref="B44" r:id="rId38" display="#1101"/>
+    <hyperlink ref="B45" r:id="rId39" display="#1099"/>
+    <hyperlink ref="B46" r:id="rId40" display="#1098"/>
+    <hyperlink ref="B47" r:id="rId41" display="#1617"/>
+    <hyperlink ref="B48" r:id="rId42" display="#1092"/>
+    <hyperlink ref="B49" r:id="rId43" display="#1128"/>
+    <hyperlink ref="B50" r:id="rId44" display="#1090"/>
+    <hyperlink ref="B51" r:id="rId45" display="#1608"/>
+    <hyperlink ref="B52" r:id="rId46" display="#35"/>
+    <hyperlink ref="B54" r:id="rId47" display="#1070"/>
+    <hyperlink ref="B55" r:id="rId48" display="#1592"/>
+    <hyperlink ref="B56" r:id="rId49" display="#1591"/>
+    <hyperlink ref="B57" r:id="rId50" display="#1578"/>
+    <hyperlink ref="B58" r:id="rId51" display="#41"/>
+    <hyperlink ref="B59" r:id="rId52" display="#42"/>
+    <hyperlink ref="B60" r:id="rId53" display="#1566"/>
+    <hyperlink ref="B61" r:id="rId54" display="#1565"/>
+    <hyperlink ref="B62" r:id="rId55" display="#1046"/>
+    <hyperlink ref="B63" r:id="rId56" display="#1559"/>
+    <hyperlink ref="B64" r:id="rId57" display="#1038"/>
+    <hyperlink ref="B65" r:id="rId58" display="#1037"/>
+    <hyperlink ref="B66" r:id="rId59" display="#1020"/>
+    <hyperlink ref="B67" r:id="rId60" display="#1032"/>
+    <hyperlink ref="B68" r:id="rId61" display="#1546"/>
+    <hyperlink ref="B69" r:id="rId62" display="#1027"/>
+    <hyperlink ref="B70" r:id="rId63" display="#1529"/>
+    <hyperlink ref="B72" r:id="rId64" display="#1527"/>
+    <hyperlink ref="B73" r:id="rId65" display="#558"/>
+    <hyperlink ref="B74" r:id="rId66" display="#1005"/>
+    <hyperlink ref="B75" r:id="rId67" display="#1020"/>
+    <hyperlink ref="B76" r:id="rId68" display="#993"/>
+    <hyperlink ref="B77" r:id="rId69" display="#1520"/>
+    <hyperlink ref="B78" r:id="rId70" display="#1519"/>
+    <hyperlink ref="B79" r:id="rId71" display="#969"/>
+    <hyperlink ref="B80" r:id="rId72" display="#1003"/>
+    <hyperlink ref="B81" r:id="rId73" display="#1015"/>
+    <hyperlink ref="B82" r:id="rId74" display="#1002"/>
+    <hyperlink ref="B83" r:id="rId75" display="#1471"/>
+    <hyperlink ref="B84" r:id="rId76" display="#1497"/>
+    <hyperlink ref="B85" r:id="rId77" display="#947"/>
+    <hyperlink ref="B86" r:id="rId78" display="#933"/>
+    <hyperlink ref="B87" r:id="rId79" display="#932"/>
+    <hyperlink ref="B88" r:id="rId80" display="#931"/>
+    <hyperlink ref="B89" r:id="rId81" display="#987"/>
+    <hyperlink ref="B90" r:id="rId82" display="#988"/>
+    <hyperlink ref="B91" r:id="rId83" display="#982"/>
+    <hyperlink ref="B92" r:id="rId84" display="#979"/>
+    <hyperlink ref="B93" r:id="rId85" display="#977"/>
+    <hyperlink ref="B94" r:id="rId86" display="#975"/>
+    <hyperlink ref="B95" r:id="rId87" display="#1445"/>
+    <hyperlink ref="B96" r:id="rId88" display="#1444"/>
+    <hyperlink ref="B97" r:id="rId89" display="#1427"/>
+    <hyperlink ref="B99" r:id="rId90" display="#23"/>
+    <hyperlink ref="B100" r:id="rId91" display="#22"/>
+    <hyperlink ref="B101" r:id="rId92" display="#18"/>
+    <hyperlink ref="B102" r:id="rId93" display="#1207"/>
+    <hyperlink ref="B103" r:id="rId94" display="#245"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="1" right="1" top="1.66666666666667" bottom="1.66666666666667" header="1" footer="1"/>
@@ -3574,7 +3604,7 @@
     <oddHeader>&amp;C&amp;"Sans,Regular"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Sans,Regular"Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId94"/>
+  <drawing r:id="rId95"/>
 </worksheet>
 </file>
 
@@ -3607,10 +3637,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -3619,10 +3649,10 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>

--- a/tickets/OmegaT_issues_nopw.xlsx
+++ b/tickets/OmegaT_issues_nopw.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="241">
   <si>
     <t xml:space="preserve">#</t>
   </si>
@@ -153,7 +153,7 @@
     <t xml:space="preserve">NoClassDefFoundError when packing project in OmegaT 6.1.0</t>
   </si>
   <si>
-    <t xml:space="preserve">Solved</t>
+    <t xml:space="preserve">Resolved</t>
   </si>
   <si>
     <t xml:space="preserve">#1309</t>
@@ -283,9 +283,6 @@
   </si>
   <si>
     <t xml:space="preserve">Reuse credentials in team projects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resolved</t>
   </si>
   <si>
     <t xml:space="preserve">#1184</t>
@@ -1394,7 +1391,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D11" activeCellId="0" sqref="D11"/>
+      <selection pane="bottomRight" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1695,7 +1692,7 @@
         <v>32</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="AMH14" s="0"/>
       <c r="AMI14" s="0"/>
@@ -1965,7 +1962,7 @@
         <v>32</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="AMH26" s="0"/>
       <c r="AMI26" s="0"/>
@@ -1976,13 +1973,13 @@
         <v>44949</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>9</v>
@@ -1999,19 +1996,19 @@
         <v>44948</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>58</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>32</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="AMH28" s="0"/>
       <c r="AMI28" s="0"/>
@@ -2022,19 +2019,19 @@
         <v>44946</v>
       </c>
       <c r="B29" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="C29" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>90</v>
-      </c>
       <c r="E29" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="AMH29" s="0"/>
       <c r="AMI29" s="0"/>
@@ -2045,16 +2042,16 @@
         <v>44929</v>
       </c>
       <c r="B30" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="C30" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>93</v>
-      </c>
       <c r="E30" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F30" s="12" t="s">
         <v>77</v>
@@ -2065,7 +2062,7 @@
     </row>
     <row r="31" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F31" s="8" t="s">
         <v>29</v>
@@ -2079,16 +2076,16 @@
         <v>44879</v>
       </c>
       <c r="B32" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>96</v>
-      </c>
       <c r="E32" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>33</v>
@@ -2102,13 +2099,13 @@
         <v>44858</v>
       </c>
       <c r="B33" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="12" t="s">
         <v>97</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>98</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>32</v>
@@ -2125,16 +2122,16 @@
         <v>44855</v>
       </c>
       <c r="B34" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>100</v>
-      </c>
       <c r="E34" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>36</v>
@@ -2148,19 +2145,19 @@
         <v>44844</v>
       </c>
       <c r="B35" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="5" t="s">
+      <c r="E35" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F35" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>103</v>
       </c>
       <c r="AMH35" s="0"/>
       <c r="AMI35" s="0"/>
@@ -2171,19 +2168,19 @@
         <v>44757</v>
       </c>
       <c r="B36" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="D36" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>106</v>
-      </c>
       <c r="E36" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2191,13 +2188,13 @@
         <v>373466</v>
       </c>
       <c r="B37" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>107</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>108</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>23</v>
@@ -2214,10 +2211,10 @@
         <v>7</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2225,16 +2222,16 @@
         <v>44740</v>
       </c>
       <c r="B39" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D39" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C39" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>111</v>
-      </c>
       <c r="E39" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>77</v>
@@ -2245,13 +2242,13 @@
         <v>44739</v>
       </c>
       <c r="B40" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>23</v>
@@ -2265,13 +2262,13 @@
         <v>44693</v>
       </c>
       <c r="B41" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="5" t="s">
         <v>114</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>115</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>32</v>
@@ -2285,19 +2282,19 @@
         <v>44695</v>
       </c>
       <c r="B42" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C42" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>117</v>
-      </c>
       <c r="E42" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2305,16 +2302,16 @@
         <v>44659</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>58</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>77</v>
@@ -2325,19 +2322,19 @@
         <v>44712</v>
       </c>
       <c r="B44" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="5" t="s">
         <v>120</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>121</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2345,19 +2342,19 @@
         <v>44705</v>
       </c>
       <c r="B45" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C45" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>124</v>
-      </c>
       <c r="E45" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2365,19 +2362,19 @@
         <v>44705</v>
       </c>
       <c r="B46" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C46" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>126</v>
-      </c>
       <c r="E46" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2385,13 +2382,13 @@
         <v>44693</v>
       </c>
       <c r="B47" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="5" t="s">
         <v>127</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>128</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>32</v>
@@ -2405,19 +2402,19 @@
         <v>44622</v>
       </c>
       <c r="B48" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C48" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>130</v>
-      </c>
       <c r="E48" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2425,16 +2422,16 @@
         <v>44614</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>77</v>
@@ -2445,16 +2442,16 @@
         <v>44613</v>
       </c>
       <c r="B50" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C50" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>134</v>
-      </c>
       <c r="E50" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>33</v>
@@ -2465,19 +2462,19 @@
         <v>44608</v>
       </c>
       <c r="B51" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="5" t="s">
         <v>135</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>136</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2485,24 +2482,24 @@
         <v>44580</v>
       </c>
       <c r="B52" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D52" s="5" t="s">
         <v>137</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>138</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2510,16 +2507,16 @@
         <v>44463</v>
       </c>
       <c r="B54" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C54" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>141</v>
-      </c>
       <c r="E54" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F54" s="5" t="s">
         <v>33</v>
@@ -2530,19 +2527,19 @@
         <v>44460</v>
       </c>
       <c r="B55" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="5" t="s">
         <v>142</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>143</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2550,13 +2547,13 @@
         <v>44460</v>
       </c>
       <c r="B56" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="5" t="s">
         <v>145</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>146</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>23</v>
@@ -2570,13 +2567,13 @@
         <v>44372</v>
       </c>
       <c r="B57" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" s="5" t="s">
         <v>147</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>148</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>23</v>
@@ -2590,19 +2587,19 @@
         <v>44326</v>
       </c>
       <c r="B58" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D58" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C58" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>150</v>
-      </c>
       <c r="E58" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2610,16 +2607,16 @@
         <v>44325</v>
       </c>
       <c r="B59" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D59" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C59" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>152</v>
-      </c>
       <c r="E59" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>77</v>
@@ -2630,13 +2627,13 @@
         <v>44325</v>
       </c>
       <c r="B60" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" s="5" t="s">
         <v>153</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>154</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>23</v>
@@ -2650,13 +2647,13 @@
         <v>44321</v>
       </c>
       <c r="B61" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>156</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>32</v>
@@ -2670,19 +2667,19 @@
         <v>44316</v>
       </c>
       <c r="B62" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C62" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D62" s="5" t="s">
+      <c r="E62" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F62" s="5" t="s">
         <v>158</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2690,13 +2687,13 @@
         <v>44279</v>
       </c>
       <c r="B63" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="5" t="s">
         <v>160</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>161</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>23</v>
@@ -2710,16 +2707,16 @@
         <v>44257</v>
       </c>
       <c r="B64" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="C64" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>163</v>
-      </c>
       <c r="E64" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>33</v>
@@ -2730,16 +2727,16 @@
         <v>44243</v>
       </c>
       <c r="B65" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C65" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>165</v>
-      </c>
       <c r="E65" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>33</v>
@@ -2750,19 +2747,19 @@
         <v>44231</v>
       </c>
       <c r="B66" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="C66" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="E66" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="F66" s="24" t="s">
         <v>166</v>
-      </c>
-      <c r="C66" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D66" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="E66" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="F66" s="24" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2770,16 +2767,16 @@
         <v>44218</v>
       </c>
       <c r="B67" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C67" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>169</v>
-      </c>
       <c r="E67" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>33</v>
@@ -2790,13 +2787,13 @@
         <v>44216</v>
       </c>
       <c r="B68" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" s="5" t="s">
         <v>170</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>171</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>23</v>
@@ -2810,16 +2807,16 @@
         <v>44175</v>
       </c>
       <c r="B69" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="C69" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>173</v>
-      </c>
       <c r="E69" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F69" s="5" t="s">
         <v>33</v>
@@ -2830,13 +2827,13 @@
         <v>44175</v>
       </c>
       <c r="B70" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" s="5" t="s">
         <v>174</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>175</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>23</v>
@@ -2847,7 +2844,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2855,13 +2852,13 @@
         <v>44162</v>
       </c>
       <c r="B72" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72" s="5" t="s">
         <v>176</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>177</v>
       </c>
       <c r="E72" s="5" t="s">
         <v>32</v>
@@ -2875,7 +2872,7 @@
         <v>44148</v>
       </c>
       <c r="B73" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>7</v>
@@ -2884,7 +2881,7 @@
         <v>8</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>33</v>
@@ -2895,19 +2892,19 @@
         <v>44146</v>
       </c>
       <c r="B74" s="23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C74" s="24" t="s">
         <v>13</v>
       </c>
       <c r="D74" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="E74" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="F74" s="24" t="s">
         <v>180</v>
-      </c>
-      <c r="E74" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="F74" s="24" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2915,16 +2912,16 @@
         <v>44132</v>
       </c>
       <c r="B75" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="5" t="s">
         <v>33</v>
@@ -2935,16 +2932,16 @@
         <v>44103</v>
       </c>
       <c r="B76" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F76" s="5" t="s">
         <v>33</v>
@@ -2955,19 +2952,19 @@
         <v>44095</v>
       </c>
       <c r="B77" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="C77" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77" s="24" t="s">
         <v>185</v>
-      </c>
-      <c r="C77" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D77" s="24" t="s">
-        <v>186</v>
       </c>
       <c r="E77" s="24" t="s">
         <v>32</v>
       </c>
       <c r="F77" s="24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2975,13 +2972,13 @@
         <v>44095</v>
       </c>
       <c r="B78" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78" s="5" t="s">
         <v>187</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>188</v>
       </c>
       <c r="E78" s="5" t="s">
         <v>32</v>
@@ -2995,19 +2992,19 @@
         <v>44057</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E79" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3015,19 +3012,19 @@
         <v>44028</v>
       </c>
       <c r="B80" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D80" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="C80" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>192</v>
-      </c>
       <c r="E80" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3035,16 +3032,16 @@
         <v>44064</v>
       </c>
       <c r="B81" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D81" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="C81" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>194</v>
-      </c>
       <c r="E81" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F81" s="5" t="s">
         <v>33</v>
@@ -3055,19 +3052,19 @@
         <v>44028</v>
       </c>
       <c r="B82" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D82" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C82" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>196</v>
-      </c>
       <c r="E82" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3075,13 +3072,13 @@
         <v>44016</v>
       </c>
       <c r="B83" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D83" s="5" t="s">
         <v>197</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>198</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>32</v>
@@ -3095,13 +3092,13 @@
         <v>44010</v>
       </c>
       <c r="B84" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D84" s="5" t="s">
         <v>199</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>200</v>
       </c>
       <c r="E84" s="5" t="s">
         <v>23</v>
@@ -3115,13 +3112,13 @@
         <v>43995</v>
       </c>
       <c r="B85" s="17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C85" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E85" s="5" t="s">
         <v>32</v>
@@ -3135,19 +3132,19 @@
         <v>43948</v>
       </c>
       <c r="B86" s="17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3155,16 +3152,16 @@
         <v>43947</v>
       </c>
       <c r="B87" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C87" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F87" s="5" t="s">
         <v>77</v>
@@ -3175,13 +3172,13 @@
         <v>43936</v>
       </c>
       <c r="B88" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E88" s="5" t="s">
         <v>32</v>
@@ -3195,16 +3192,16 @@
         <v>43929</v>
       </c>
       <c r="B89" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D89" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="C89" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>210</v>
-      </c>
       <c r="E89" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F89" s="5" t="s">
         <v>33</v>
@@ -3215,19 +3212,19 @@
         <v>43891</v>
       </c>
       <c r="B90" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D90" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="C90" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>212</v>
-      </c>
       <c r="E90" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3235,16 +3232,16 @@
         <v>43885</v>
       </c>
       <c r="B91" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D91" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="C91" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>214</v>
-      </c>
       <c r="E91" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F91" s="5" t="s">
         <v>33</v>
@@ -3255,16 +3252,16 @@
         <v>43857</v>
       </c>
       <c r="B92" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D92" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="C92" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>216</v>
-      </c>
       <c r="E92" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F92" s="5" t="s">
         <v>33</v>
@@ -3275,16 +3272,16 @@
         <v>43857</v>
       </c>
       <c r="B93" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D93" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="C93" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>218</v>
-      </c>
       <c r="E93" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F93" s="5" t="s">
         <v>33</v>
@@ -3295,16 +3292,16 @@
         <v>43852</v>
       </c>
       <c r="B94" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D94" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="C94" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>220</v>
-      </c>
       <c r="E94" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F94" s="5" t="s">
         <v>33</v>
@@ -3315,13 +3312,13 @@
         <v>43584</v>
       </c>
       <c r="B95" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D95" s="5" t="s">
         <v>221</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D95" s="5" t="s">
-        <v>222</v>
       </c>
       <c r="E95" s="5" t="s">
         <v>23</v>
@@ -3335,13 +3332,13 @@
         <v>43584</v>
       </c>
       <c r="B96" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D96" s="5" t="s">
         <v>223</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>224</v>
       </c>
       <c r="E96" s="5" t="s">
         <v>23</v>
@@ -3355,13 +3352,13 @@
         <v>43540</v>
       </c>
       <c r="B97" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D97" s="5" t="s">
         <v>225</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D97" s="5" t="s">
-        <v>226</v>
       </c>
       <c r="E97" s="5" t="s">
         <v>23</v>
@@ -3372,7 +3369,7 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3380,16 +3377,16 @@
         <v>43203</v>
       </c>
       <c r="B99" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D99" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="C99" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D99" s="5" t="s">
-        <v>228</v>
-      </c>
       <c r="E99" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F99" s="5" t="s">
         <v>77</v>
@@ -3400,19 +3397,19 @@
         <v>43203</v>
       </c>
       <c r="B100" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D100" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="C100" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D100" s="5" t="s">
+      <c r="E100" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F100" s="5" t="s">
         <v>230</v>
-      </c>
-      <c r="E100" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F100" s="5" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3420,13 +3417,13 @@
         <v>42842</v>
       </c>
       <c r="B101" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D101" s="5" t="s">
         <v>232</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D101" s="5" t="s">
-        <v>233</v>
       </c>
       <c r="E101" s="5" t="s">
         <v>32</v>
@@ -3440,13 +3437,13 @@
         <v>42457</v>
       </c>
       <c r="B102" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D102" s="5" t="s">
         <v>234</v>
-      </c>
-      <c r="C102" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D102" s="5" t="s">
-        <v>235</v>
       </c>
       <c r="E102" s="5" t="s">
         <v>23</v>
@@ -3460,13 +3457,13 @@
         <v>39028</v>
       </c>
       <c r="B103" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D103" s="5" t="s">
         <v>236</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D103" s="5" t="s">
-        <v>237</v>
       </c>
       <c r="E103" s="5" t="s">
         <v>32</v>
@@ -3637,10 +3634,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>239</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -3649,10 +3646,10 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>241</v>
       </c>
     </row>
   </sheetData>

--- a/tickets/OmegaT_issues_nopw.xlsx
+++ b/tickets/OmegaT_issues_nopw.xlsx
@@ -1387,11 +1387,11 @@
   <dimension ref="A1:AMJ105"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B55" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G2" activeCellId="0" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="A55" activeCellId="0" sqref="A55"/>
+      <selection pane="bottomRight" activeCell="G55" activeCellId="0" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2984,7 +2984,7 @@
         <v>32</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/tickets/OmegaT_issues_nopw.xlsx
+++ b/tickets/OmegaT_issues_nopw.xlsx
@@ -13,7 +13,7 @@
     <sheet name="ETS" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'2022'!$A$1:$F$103</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'2022'!$A$1:$F$105</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">#REF!</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Sheet_Title" vbProcedure="false">"Devs"</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">#REF!</definedName>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="244">
   <si>
     <t xml:space="preserve">#</t>
   </si>
@@ -123,6 +123,21 @@
     <t xml:space="preserve">WIP</t>
   </si>
   <si>
+    <t xml:space="preserve">#1201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1 instead of repo name in repository credentials</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Closing a new project does not register pre-populated translations</t>
+  </si>
+  <si>
     <t xml:space="preserve">#1708</t>
   </si>
   <si>
@@ -231,9 +246,6 @@
     <t xml:space="preserve">Tag drag-and-drop duplicates tag in RTL text</t>
   </si>
   <si>
-    <t xml:space="preserve">#1200</t>
-  </si>
-  <si>
     <t xml:space="preserve">XML filter adds tags arounb nnbsp by default</t>
   </si>
   <si>
@@ -262,9 +274,6 @@
   </si>
   <si>
     <t xml:space="preserve">Remove custom tags issues and flagged text from mandatory tag check</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open!</t>
   </si>
   <si>
     <t xml:space="preserve">#1672</t>
@@ -1384,14 +1393,14 @@
   <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ105"/>
+  <dimension ref="A1:AMJ109"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B55" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A55" activeCellId="0" sqref="A55"/>
-      <selection pane="bottomRight" activeCell="G55" activeCellId="0" sqref="G55"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1447,7 +1456,7 @@
     </row>
     <row r="4" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="n">
-        <v>45110</v>
+        <v>45118</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>30</v>
@@ -1459,10 +1468,10 @@
         <v>31</v>
       </c>
       <c r="E4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>32</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>33</v>
       </c>
       <c r="AMH4" s="0"/>
       <c r="AMI4" s="0"/>
@@ -1470,22 +1479,22 @@
     </row>
     <row r="5" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="n">
-        <v>45104</v>
+        <v>45118</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>34</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>35</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AMH5" s="0"/>
       <c r="AMI5" s="0"/>
@@ -1493,22 +1502,22 @@
     </row>
     <row r="6" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="n">
-        <v>45094</v>
+        <v>45110</v>
       </c>
       <c r="B6" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="F6" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>40</v>
       </c>
       <c r="AMH6" s="0"/>
       <c r="AMI6" s="0"/>
@@ -1516,22 +1525,22 @@
     </row>
     <row r="7" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="n">
-        <v>45069</v>
+        <v>45104</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="AMH7" s="0"/>
       <c r="AMI7" s="0"/>
@@ -1539,13 +1548,13 @@
     </row>
     <row r="8" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="n">
-        <v>45069</v>
+        <v>45094</v>
       </c>
       <c r="B8" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>43</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>7</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>44</v>
@@ -1554,7 +1563,7 @@
         <v>9</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AMH8" s="0"/>
       <c r="AMI8" s="0"/>
@@ -1562,22 +1571,22 @@
     </row>
     <row r="9" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="n">
-        <v>45064</v>
+        <v>45069</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="AMH9" s="0"/>
       <c r="AMI9" s="0"/>
@@ -1585,22 +1594,22 @@
     </row>
     <row r="10" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="n">
-        <v>45049</v>
+        <v>45069</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="AMH10" s="0"/>
       <c r="AMI10" s="0"/>
@@ -1608,22 +1617,22 @@
     </row>
     <row r="11" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="n">
-        <v>45049</v>
+        <v>45064</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>38</v>
+      <c r="C11" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>51</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AMH11" s="0"/>
       <c r="AMI11" s="0"/>
@@ -1631,7 +1640,7 @@
     </row>
     <row r="12" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="n">
-        <v>45044</v>
+        <v>45049</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>52</v>
@@ -1646,7 +1655,7 @@
         <v>9</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="AMH12" s="0"/>
       <c r="AMI12" s="0"/>
@@ -1654,22 +1663,22 @@
     </row>
     <row r="13" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="n">
-        <v>45040</v>
+        <v>45049</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>7</v>
+        <v>55</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="AMH13" s="0"/>
       <c r="AMI13" s="0"/>
@@ -1677,22 +1686,22 @@
     </row>
     <row r="14" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="10" t="n">
-        <v>45028</v>
+        <v>45044</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="AMH14" s="0"/>
       <c r="AMI14" s="0"/>
@@ -1700,16 +1709,22 @@
     </row>
     <row r="15" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="n">
-        <v>44996</v>
+        <v>45040</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AMH15" s="0"/>
       <c r="AMI15" s="0"/>
@@ -1717,22 +1732,22 @@
     </row>
     <row r="16" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="10" t="n">
-        <v>45007</v>
+        <v>45028</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="AMH16" s="0"/>
       <c r="AMI16" s="0"/>
@@ -1740,22 +1755,16 @@
     </row>
     <row r="17" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="n">
-        <v>44993</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>62</v>
+        <v>44996</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="AMH17" s="0"/>
       <c r="AMI17" s="0"/>
@@ -1763,22 +1772,22 @@
     </row>
     <row r="18" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="10" t="n">
-        <v>44993</v>
+        <v>45007</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AMH18" s="0"/>
       <c r="AMI18" s="0"/>
@@ -1786,22 +1795,22 @@
     </row>
     <row r="19" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="10" t="n">
-        <v>44991</v>
+        <v>44993</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="AMH19" s="0"/>
       <c r="AMI19" s="0"/>
@@ -1809,7 +1818,7 @@
     </row>
     <row r="20" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="10" t="n">
-        <v>44981</v>
+        <v>44993</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>69</v>
@@ -1821,10 +1830,10 @@
         <v>70</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="AMH20" s="0"/>
       <c r="AMI20" s="0"/>
@@ -1832,68 +1841,68 @@
     </row>
     <row r="21" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="n">
-        <v>44972</v>
+        <v>44991</v>
       </c>
       <c r="B21" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>71</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>72</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="AMH21" s="0"/>
       <c r="AMI21" s="0"/>
       <c r="AMJ21" s="0"/>
     </row>
-    <row r="22" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13" t="n">
-        <v>44970</v>
-      </c>
-      <c r="B22" s="14" t="s">
+    <row r="22" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="10" t="n">
+        <v>44981</v>
+      </c>
+      <c r="B22" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>33</v>
       </c>
       <c r="AMH22" s="0"/>
       <c r="AMI22" s="0"/>
       <c r="AMJ22" s="0"/>
     </row>
-    <row r="23" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="13" t="n">
-        <v>44967</v>
-      </c>
-      <c r="B23" s="14" t="s">
+    <row r="23" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="10" t="n">
+        <v>44972</v>
+      </c>
+      <c r="B23" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="12" t="s">
+      <c r="C23" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E23" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>77</v>
+      <c r="E23" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="AMH23" s="0"/>
       <c r="AMI23" s="0"/>
@@ -1901,22 +1910,22 @@
     </row>
     <row r="24" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="13" t="n">
-        <v>44964</v>
+        <v>44970</v>
       </c>
       <c r="B24" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="C24" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>79</v>
-      </c>
       <c r="E24" s="12" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AMH24" s="0"/>
       <c r="AMI24" s="0"/>
@@ -1924,22 +1933,22 @@
     </row>
     <row r="25" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="13" t="n">
-        <v>44952</v>
+        <v>44967</v>
       </c>
       <c r="B25" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C25" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>81</v>
-      </c>
       <c r="E25" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="12" t="s">
         <v>32</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="AMH25" s="0"/>
       <c r="AMI25" s="0"/>
@@ -1947,22 +1956,22 @@
     </row>
     <row r="26" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="13" t="n">
-        <v>44952</v>
+        <v>44964</v>
       </c>
       <c r="B26" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>83</v>
-      </c>
       <c r="E26" s="12" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AMH26" s="0"/>
       <c r="AMI26" s="0"/>
@@ -1970,22 +1979,22 @@
     </row>
     <row r="27" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="13" t="n">
-        <v>44949</v>
+        <v>44952</v>
       </c>
       <c r="B27" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>85</v>
-      </c>
       <c r="E27" s="12" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="AMH27" s="0"/>
       <c r="AMI27" s="0"/>
@@ -1993,22 +2002,22 @@
     </row>
     <row r="28" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="13" t="n">
-        <v>44948</v>
+        <v>44952</v>
       </c>
       <c r="B28" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C28" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>87</v>
-      </c>
       <c r="E28" s="12" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AMH28" s="0"/>
       <c r="AMI28" s="0"/>
@@ -2016,102 +2025,102 @@
     </row>
     <row r="29" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="13" t="n">
-        <v>44946</v>
+        <v>44949</v>
       </c>
       <c r="B29" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C29" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>89</v>
-      </c>
       <c r="E29" s="12" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AMH29" s="0"/>
       <c r="AMI29" s="0"/>
       <c r="AMJ29" s="0"/>
     </row>
-    <row r="30" s="12" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="13" t="n">
-        <v>44929</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>91</v>
+        <v>44948</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>89</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AMH30" s="0"/>
       <c r="AMI30" s="0"/>
       <c r="AMJ30" s="0"/>
     </row>
-    <row r="31" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="8" t="s">
+    <row r="31" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="13" t="n">
+        <v>44946</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E31" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="F31" s="8" t="s">
-        <v>29</v>
+      <c r="F31" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="AMH31" s="0"/>
       <c r="AMI31" s="0"/>
       <c r="AMJ31" s="0"/>
     </row>
-    <row r="32" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" s="12" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="13" t="n">
-        <v>44879</v>
-      </c>
-      <c r="B32" s="17" t="s">
+        <v>44929</v>
+      </c>
+      <c r="B32" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="5" t="s">
+      <c r="C32" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>33</v>
+      <c r="E32" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="AMH32" s="0"/>
       <c r="AMI32" s="0"/>
       <c r="AMJ32" s="0"/>
     </row>
-    <row r="33" s="12" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="13" t="n">
-        <v>44858</v>
-      </c>
-      <c r="B33" s="14" t="s">
+    <row r="33" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C33" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>33</v>
+      <c r="F33" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="AMH33" s="0"/>
       <c r="AMI33" s="0"/>
@@ -2119,932 +2128,938 @@
     </row>
     <row r="34" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="13" t="n">
-        <v>44855</v>
+        <v>44879</v>
       </c>
       <c r="B34" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>99</v>
-      </c>
       <c r="E34" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AMH34" s="0"/>
       <c r="AMI34" s="0"/>
       <c r="AMJ34" s="0"/>
     </row>
-    <row r="35" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" s="12" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="13" t="n">
-        <v>44844</v>
-      </c>
-      <c r="B35" s="17" t="s">
+        <v>44858</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>102</v>
+      <c r="E35" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="AMH35" s="0"/>
       <c r="AMI35" s="0"/>
       <c r="AMJ35" s="0"/>
     </row>
-    <row r="36" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="13" t="n">
+        <v>44855</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AMH36" s="0"/>
+      <c r="AMI36" s="0"/>
+      <c r="AMJ36" s="0"/>
+    </row>
+    <row r="37" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="13" t="n">
+        <v>44844</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="AMH37" s="0"/>
+      <c r="AMI37" s="0"/>
+      <c r="AMJ37" s="0"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="13" t="n">
         <v>44757</v>
       </c>
-      <c r="B36" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="13" t="n">
-        <v>373466</v>
-      </c>
-      <c r="B37" s="17" t="s">
+      <c r="B38" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="C37" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" s="5" t="s">
+      <c r="C38" s="5" t="s">
         <v>107</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="13" t="n">
-        <v>44743</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>7</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>108</v>
       </c>
+      <c r="E38" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="F38" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="13" t="n">
-        <v>44740</v>
-      </c>
-      <c r="B39" s="19" t="s">
+        <v>373466</v>
+      </c>
+      <c r="B39" s="17" t="s">
         <v>109</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>104</v>
+        <v>7</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>110</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="13" t="n">
-        <v>44739</v>
-      </c>
-      <c r="B40" s="20" t="s">
+        <v>44743</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C40" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="F40" s="5" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="13" t="n">
-        <v>44693</v>
-      </c>
-      <c r="B41" s="20" t="s">
+        <v>44740</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D41" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C41" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>114</v>
-      </c>
       <c r="E41" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F41" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="13" t="n">
-        <v>44695</v>
-      </c>
-      <c r="B42" s="21" t="s">
+        <v>44739</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C42" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>116</v>
-      </c>
       <c r="E42" s="5" t="s">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="13" t="n">
-        <v>44659</v>
-      </c>
-      <c r="B43" s="21" t="s">
+        <v>44693</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C43" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>118</v>
-      </c>
       <c r="E43" s="5" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="13" t="n">
-        <v>44712</v>
-      </c>
-      <c r="B44" s="20" t="s">
+        <v>44695</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D44" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C44" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>120</v>
-      </c>
       <c r="E44" s="5" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>121</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="13" t="n">
-        <v>44705</v>
-      </c>
-      <c r="B45" s="17" t="s">
-        <v>122</v>
+        <v>44659</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>120</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="13" t="n">
-        <v>44705</v>
-      </c>
-      <c r="B46" s="17" t="s">
+        <v>44712</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F46" s="5" t="s">
         <v>124</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="13" t="n">
-        <v>44693</v>
+        <v>44705</v>
       </c>
       <c r="B47" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C47" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>127</v>
-      </c>
       <c r="E47" s="5" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="13" t="n">
-        <v>44622</v>
+        <v>44705</v>
       </c>
       <c r="B48" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C48" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>129</v>
-      </c>
       <c r="E48" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="13" t="n">
-        <v>44614</v>
+        <v>44693</v>
       </c>
       <c r="B49" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C49" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>131</v>
-      </c>
       <c r="E49" s="5" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="13" t="n">
-        <v>44613</v>
+        <v>44622</v>
       </c>
       <c r="B50" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C50" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>133</v>
-      </c>
       <c r="E50" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="13" t="n">
-        <v>44608</v>
-      </c>
-      <c r="B51" s="20" t="s">
+        <v>44614</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C51" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>135</v>
-      </c>
       <c r="E51" s="5" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="13" t="n">
-        <v>44580</v>
+        <v>44613</v>
       </c>
       <c r="B52" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C52" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D52" s="5" t="s">
+      <c r="E52" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="13" t="n">
+        <v>44608</v>
+      </c>
+      <c r="B53" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="E52" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="5" t="s">
+      <c r="C53" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="5" t="s">
         <v>138</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="13" t="n">
-        <v>44463</v>
+        <v>44580</v>
       </c>
       <c r="B54" s="17" t="s">
         <v>139</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>7</v>
+        <v>107</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>140</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="13" t="n">
-        <v>44460</v>
-      </c>
-      <c r="B55" s="17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="5" t="s">
         <v>141</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="13" t="n">
-        <v>44460</v>
+        <v>44463</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="13" t="n">
-        <v>44372</v>
+        <v>44460</v>
       </c>
       <c r="B57" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F57" s="5" t="s">
         <v>146</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="13" t="n">
-        <v>44326</v>
+        <v>44460</v>
       </c>
       <c r="B58" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="C58" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>149</v>
-      </c>
       <c r="E58" s="5" t="s">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>102</v>
+        <v>38</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="13" t="n">
-        <v>44325</v>
-      </c>
-      <c r="B59" s="21" t="s">
+        <v>44372</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="C59" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>151</v>
-      </c>
       <c r="E59" s="5" t="s">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="13" t="n">
-        <v>44325</v>
+        <v>44326</v>
       </c>
       <c r="B60" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D60" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="C60" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>153</v>
-      </c>
       <c r="E60" s="5" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>33</v>
+        <v>105</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="13" t="n">
-        <v>44321</v>
-      </c>
-      <c r="B61" s="17" t="s">
+        <v>44325</v>
+      </c>
+      <c r="B61" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D61" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C61" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>155</v>
-      </c>
       <c r="E61" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F61" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="13" t="n">
-        <v>44316</v>
+        <v>44325</v>
       </c>
       <c r="B62" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C62" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>157</v>
-      </c>
       <c r="E62" s="5" t="s">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>158</v>
+        <v>38</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="13" t="n">
-        <v>44279</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>159</v>
+        <v>44321</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>157</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="13" t="n">
-        <v>44257</v>
+        <v>44316</v>
       </c>
       <c r="B64" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F64" s="5" t="s">
         <v>161</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="13" t="n">
-        <v>44243</v>
-      </c>
-      <c r="B65" s="17" t="s">
+        <v>44279</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="C65" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D65" s="5" t="s">
+      <c r="E65" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="13" t="n">
+        <v>44257</v>
+      </c>
+      <c r="B66" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="E65" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="22" t="n">
-        <v>44231</v>
-      </c>
-      <c r="B66" s="23" t="s">
+      <c r="C66" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="C66" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D66" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="E66" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="F66" s="24" t="s">
-        <v>166</v>
+      <c r="E66" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="13" t="n">
-        <v>44218</v>
+        <v>44243</v>
       </c>
       <c r="B67" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="C67" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D67" s="5" t="s">
+      <c r="E67" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="22" t="n">
+        <v>44231</v>
+      </c>
+      <c r="B68" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="E67" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="13" t="n">
-        <v>44216</v>
-      </c>
-      <c r="B68" s="20" t="s">
+      <c r="C68" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="E68" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="F68" s="24" t="s">
         <v>169</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="13" t="n">
-        <v>44175</v>
+        <v>44218</v>
       </c>
       <c r="B69" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="C69" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>172</v>
-      </c>
       <c r="E69" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="13" t="n">
-        <v>44175</v>
-      </c>
-      <c r="B70" s="17" t="s">
+        <v>44216</v>
+      </c>
+      <c r="B70" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" s="5" t="s">
         <v>173</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>174</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="5" t="s">
-        <v>138</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="13" t="n">
+        <v>44175</v>
+      </c>
+      <c r="B71" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="13" t="n">
+        <v>44175</v>
+      </c>
+      <c r="B72" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="13" t="n">
         <v>44162</v>
       </c>
-      <c r="B72" s="17" t="s">
-        <v>175</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="13" t="n">
-        <v>44148</v>
-      </c>
-      <c r="B73" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F73" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="22" t="n">
-        <v>44146</v>
-      </c>
-      <c r="B74" s="23" t="s">
+      <c r="B74" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="C74" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="D74" s="24" t="s">
+      <c r="C74" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="E74" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="F74" s="24" t="s">
-        <v>180</v>
+      <c r="E74" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="13" t="n">
+        <v>44148</v>
+      </c>
+      <c r="B75" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="22" t="n">
+        <v>44146</v>
+      </c>
+      <c r="B76" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="C76" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D76" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="E76" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="F76" s="24" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="13" t="n">
         <v>44132</v>
       </c>
-      <c r="B75" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="13" t="n">
-        <v>44103</v>
-      </c>
-      <c r="B76" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="22" t="n">
-        <v>44095</v>
-      </c>
-      <c r="B77" s="23" t="s">
+      <c r="B77" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="C77" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D77" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="E77" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="F77" s="24" t="s">
-        <v>158</v>
+      <c r="E77" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="13" t="n">
+        <v>44103</v>
+      </c>
+      <c r="B78" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="22" t="n">
         <v>44095</v>
       </c>
-      <c r="B78" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D78" s="5" t="s">
+      <c r="B79" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="E78" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="13" t="n">
-        <v>44057</v>
-      </c>
-      <c r="B79" s="17" t="s">
+      <c r="C79" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D79" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="C79" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>143</v>
+      <c r="E79" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F79" s="24" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="13" t="n">
-        <v>44028</v>
+        <v>44095</v>
       </c>
       <c r="B80" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D80" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="C80" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>191</v>
-      </c>
       <c r="E80" s="5" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="13" t="n">
-        <v>44064</v>
+        <v>44057</v>
       </c>
       <c r="B81" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D81" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="C81" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>193</v>
-      </c>
       <c r="E81" s="5" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>33</v>
+        <v>146</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3052,433 +3067,2517 @@
         <v>44028</v>
       </c>
       <c r="B82" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D82" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="C82" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>195</v>
-      </c>
       <c r="E82" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="13" t="n">
-        <v>44016</v>
+        <v>44064</v>
       </c>
       <c r="B83" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D83" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="C83" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>197</v>
-      </c>
       <c r="E83" s="5" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="13" t="n">
-        <v>44010</v>
+        <v>44028</v>
       </c>
       <c r="B84" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D84" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="C84" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>199</v>
-      </c>
       <c r="E84" s="5" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="13" t="n">
-        <v>43995</v>
+        <v>44016</v>
       </c>
       <c r="B85" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D85" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C85" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>201</v>
-      </c>
       <c r="E85" s="5" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="13" t="n">
-        <v>43948</v>
+        <v>44010</v>
       </c>
       <c r="B86" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D86" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="C86" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>203</v>
-      </c>
       <c r="E86" s="5" t="s">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="13" t="n">
-        <v>43947</v>
+        <v>43995</v>
       </c>
       <c r="B87" s="17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C87" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="13" t="n">
-        <v>43936</v>
+        <v>43948</v>
       </c>
       <c r="B88" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="13" t="n">
-        <v>43929</v>
+        <v>43947</v>
       </c>
       <c r="B89" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D89" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="C89" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>209</v>
-      </c>
       <c r="E89" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="13" t="n">
-        <v>43891</v>
+        <v>43936</v>
       </c>
       <c r="B90" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D90" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="C90" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>211</v>
-      </c>
       <c r="E90" s="5" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="13" t="n">
-        <v>43885</v>
+        <v>43929</v>
       </c>
       <c r="B91" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D91" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="C91" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>213</v>
-      </c>
       <c r="E91" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="13" t="n">
-        <v>43857</v>
+        <v>43891</v>
       </c>
       <c r="B92" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D92" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="C92" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>215</v>
-      </c>
       <c r="E92" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="13" t="n">
-        <v>43857</v>
+        <v>43885</v>
       </c>
       <c r="B93" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D93" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="C93" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>217</v>
-      </c>
       <c r="E93" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="13" t="n">
-        <v>43852</v>
+        <v>43857</v>
       </c>
       <c r="B94" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D94" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="C94" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>219</v>
-      </c>
       <c r="E94" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="13" t="n">
-        <v>43584</v>
+        <v>43857</v>
       </c>
       <c r="B95" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D95" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="C95" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D95" s="5" t="s">
-        <v>221</v>
-      </c>
       <c r="E95" s="5" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="13" t="n">
-        <v>43584</v>
+        <v>43852</v>
       </c>
       <c r="B96" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D96" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="C96" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>223</v>
-      </c>
       <c r="E96" s="5" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="13" t="n">
-        <v>43540</v>
-      </c>
-      <c r="B97" s="5" t="s">
+        <v>43584</v>
+      </c>
+      <c r="B97" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D97" s="5" t="s">
         <v>224</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D97" s="5" t="s">
-        <v>225</v>
       </c>
       <c r="E97" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="5" t="s">
-        <v>138</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="13" t="n">
+        <v>43584</v>
+      </c>
+      <c r="B98" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="13" t="n">
-        <v>43203</v>
-      </c>
-      <c r="B99" s="25" t="s">
-        <v>226</v>
+        <v>43540</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>227</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>104</v>
+        <v>7</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="13" t="n">
-        <v>43203</v>
-      </c>
-      <c r="B100" s="25" t="s">
-        <v>228</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D100" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="E100" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F100" s="5" t="s">
-        <v>230</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="5" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="13" t="n">
-        <v>42842</v>
+        <v>43203</v>
       </c>
       <c r="B101" s="25" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E101" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F101" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="F101" s="5" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="13" t="n">
-        <v>42457</v>
-      </c>
-      <c r="B102" s="5" t="s">
+        <v>43203</v>
+      </c>
+      <c r="B102" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F102" s="5" t="s">
         <v>233</v>
-      </c>
-      <c r="C102" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D102" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="E102" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F102" s="5" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="13" t="n">
+        <v>42842</v>
+      </c>
+      <c r="B103" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="13" t="n">
+        <v>42457</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="13" t="n">
         <v>39028</v>
       </c>
-      <c r="B103" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D103" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="E103" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F103" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="105" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AMH105" s="0"/>
-      <c r="AMI105" s="0"/>
-      <c r="AMJ105" s="0"/>
+      <c r="B105" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="12"/>
+      <c r="B107" s="12"/>
+      <c r="C107" s="12"/>
+      <c r="D107" s="12"/>
+      <c r="E107" s="12"/>
+      <c r="F107" s="12"/>
+      <c r="G107" s="12"/>
+      <c r="H107" s="12"/>
+      <c r="I107" s="12"/>
+      <c r="J107" s="12"/>
+      <c r="K107" s="12"/>
+      <c r="L107" s="12"/>
+      <c r="M107" s="12"/>
+      <c r="N107" s="12"/>
+      <c r="O107" s="12"/>
+      <c r="P107" s="12"/>
+      <c r="Q107" s="12"/>
+      <c r="R107" s="12"/>
+      <c r="S107" s="12"/>
+      <c r="T107" s="12"/>
+      <c r="U107" s="12"/>
+      <c r="V107" s="12"/>
+      <c r="W107" s="12"/>
+      <c r="X107" s="12"/>
+      <c r="Y107" s="12"/>
+      <c r="Z107" s="12"/>
+      <c r="AA107" s="12"/>
+      <c r="AB107" s="12"/>
+      <c r="AC107" s="12"/>
+      <c r="AD107" s="12"/>
+      <c r="AE107" s="12"/>
+      <c r="AF107" s="12"/>
+      <c r="AG107" s="12"/>
+      <c r="AH107" s="12"/>
+      <c r="AI107" s="12"/>
+      <c r="AJ107" s="12"/>
+      <c r="AK107" s="12"/>
+      <c r="AL107" s="12"/>
+      <c r="AM107" s="12"/>
+      <c r="AN107" s="12"/>
+      <c r="AO107" s="12"/>
+      <c r="AP107" s="12"/>
+      <c r="AQ107" s="12"/>
+      <c r="AR107" s="12"/>
+      <c r="AS107" s="12"/>
+      <c r="AT107" s="12"/>
+      <c r="AU107" s="12"/>
+      <c r="AV107" s="12"/>
+      <c r="AW107" s="12"/>
+      <c r="AX107" s="12"/>
+      <c r="AY107" s="12"/>
+      <c r="AZ107" s="12"/>
+      <c r="BA107" s="12"/>
+      <c r="BB107" s="12"/>
+      <c r="BC107" s="12"/>
+      <c r="BD107" s="12"/>
+      <c r="BE107" s="12"/>
+      <c r="BF107" s="12"/>
+      <c r="BG107" s="12"/>
+      <c r="BH107" s="12"/>
+      <c r="BI107" s="12"/>
+      <c r="BJ107" s="12"/>
+      <c r="BK107" s="12"/>
+      <c r="BL107" s="12"/>
+      <c r="BM107" s="12"/>
+      <c r="BN107" s="12"/>
+      <c r="BO107" s="12"/>
+      <c r="BP107" s="12"/>
+      <c r="BQ107" s="12"/>
+      <c r="BR107" s="12"/>
+      <c r="BS107" s="12"/>
+      <c r="BT107" s="12"/>
+      <c r="BU107" s="12"/>
+      <c r="BV107" s="12"/>
+      <c r="BW107" s="12"/>
+      <c r="BX107" s="12"/>
+      <c r="BY107" s="12"/>
+      <c r="BZ107" s="12"/>
+      <c r="CA107" s="12"/>
+      <c r="CB107" s="12"/>
+      <c r="CC107" s="12"/>
+      <c r="CD107" s="12"/>
+      <c r="CE107" s="12"/>
+      <c r="CF107" s="12"/>
+      <c r="CG107" s="12"/>
+      <c r="CH107" s="12"/>
+      <c r="CI107" s="12"/>
+      <c r="CJ107" s="12"/>
+      <c r="CK107" s="12"/>
+      <c r="CL107" s="12"/>
+      <c r="CM107" s="12"/>
+      <c r="CN107" s="12"/>
+      <c r="CO107" s="12"/>
+      <c r="CP107" s="12"/>
+      <c r="CQ107" s="12"/>
+      <c r="CR107" s="12"/>
+      <c r="CS107" s="12"/>
+      <c r="CT107" s="12"/>
+      <c r="CU107" s="12"/>
+      <c r="CV107" s="12"/>
+      <c r="CW107" s="12"/>
+      <c r="CX107" s="12"/>
+      <c r="CY107" s="12"/>
+      <c r="CZ107" s="12"/>
+      <c r="DA107" s="12"/>
+      <c r="DB107" s="12"/>
+      <c r="DC107" s="12"/>
+      <c r="DD107" s="12"/>
+      <c r="DE107" s="12"/>
+      <c r="DF107" s="12"/>
+      <c r="DG107" s="12"/>
+      <c r="DH107" s="12"/>
+      <c r="DI107" s="12"/>
+      <c r="DJ107" s="12"/>
+      <c r="DK107" s="12"/>
+      <c r="DL107" s="12"/>
+      <c r="DM107" s="12"/>
+      <c r="DN107" s="12"/>
+      <c r="DO107" s="12"/>
+      <c r="DP107" s="12"/>
+      <c r="DQ107" s="12"/>
+      <c r="DR107" s="12"/>
+      <c r="DS107" s="12"/>
+      <c r="DT107" s="12"/>
+      <c r="DU107" s="12"/>
+      <c r="DV107" s="12"/>
+      <c r="DW107" s="12"/>
+      <c r="DX107" s="12"/>
+      <c r="DY107" s="12"/>
+      <c r="DZ107" s="12"/>
+      <c r="EA107" s="12"/>
+      <c r="EB107" s="12"/>
+      <c r="EC107" s="12"/>
+      <c r="ED107" s="12"/>
+      <c r="EE107" s="12"/>
+      <c r="EF107" s="12"/>
+      <c r="EG107" s="12"/>
+      <c r="EH107" s="12"/>
+      <c r="EI107" s="12"/>
+      <c r="EJ107" s="12"/>
+      <c r="EK107" s="12"/>
+      <c r="EL107" s="12"/>
+      <c r="EM107" s="12"/>
+      <c r="EN107" s="12"/>
+      <c r="EO107" s="12"/>
+      <c r="EP107" s="12"/>
+      <c r="EQ107" s="12"/>
+      <c r="ER107" s="12"/>
+      <c r="ES107" s="12"/>
+      <c r="ET107" s="12"/>
+      <c r="EU107" s="12"/>
+      <c r="EV107" s="12"/>
+      <c r="EW107" s="12"/>
+      <c r="EX107" s="12"/>
+      <c r="EY107" s="12"/>
+      <c r="EZ107" s="12"/>
+      <c r="FA107" s="12"/>
+      <c r="FB107" s="12"/>
+      <c r="FC107" s="12"/>
+      <c r="FD107" s="12"/>
+      <c r="FE107" s="12"/>
+      <c r="FF107" s="12"/>
+      <c r="FG107" s="12"/>
+      <c r="FH107" s="12"/>
+      <c r="FI107" s="12"/>
+      <c r="FJ107" s="12"/>
+      <c r="FK107" s="12"/>
+      <c r="FL107" s="12"/>
+      <c r="FM107" s="12"/>
+      <c r="FN107" s="12"/>
+      <c r="FO107" s="12"/>
+      <c r="FP107" s="12"/>
+      <c r="FQ107" s="12"/>
+      <c r="FR107" s="12"/>
+      <c r="FS107" s="12"/>
+      <c r="FT107" s="12"/>
+      <c r="FU107" s="12"/>
+      <c r="FV107" s="12"/>
+      <c r="FW107" s="12"/>
+      <c r="FX107" s="12"/>
+      <c r="FY107" s="12"/>
+      <c r="FZ107" s="12"/>
+      <c r="GA107" s="12"/>
+      <c r="GB107" s="12"/>
+      <c r="GC107" s="12"/>
+      <c r="GD107" s="12"/>
+      <c r="GE107" s="12"/>
+      <c r="GF107" s="12"/>
+      <c r="GG107" s="12"/>
+      <c r="GH107" s="12"/>
+      <c r="GI107" s="12"/>
+      <c r="GJ107" s="12"/>
+      <c r="GK107" s="12"/>
+      <c r="GL107" s="12"/>
+      <c r="GM107" s="12"/>
+      <c r="GN107" s="12"/>
+      <c r="GO107" s="12"/>
+      <c r="GP107" s="12"/>
+      <c r="GQ107" s="12"/>
+      <c r="GR107" s="12"/>
+      <c r="GS107" s="12"/>
+      <c r="GT107" s="12"/>
+      <c r="GU107" s="12"/>
+      <c r="GV107" s="12"/>
+      <c r="GW107" s="12"/>
+      <c r="GX107" s="12"/>
+      <c r="GY107" s="12"/>
+      <c r="GZ107" s="12"/>
+      <c r="HA107" s="12"/>
+      <c r="HB107" s="12"/>
+      <c r="HC107" s="12"/>
+      <c r="HD107" s="12"/>
+      <c r="HE107" s="12"/>
+      <c r="HF107" s="12"/>
+      <c r="HG107" s="12"/>
+      <c r="HH107" s="12"/>
+      <c r="HI107" s="12"/>
+      <c r="HJ107" s="12"/>
+      <c r="HK107" s="12"/>
+      <c r="HL107" s="12"/>
+      <c r="HM107" s="12"/>
+      <c r="HN107" s="12"/>
+      <c r="HO107" s="12"/>
+      <c r="HP107" s="12"/>
+      <c r="HQ107" s="12"/>
+      <c r="HR107" s="12"/>
+      <c r="HS107" s="12"/>
+      <c r="HT107" s="12"/>
+      <c r="HU107" s="12"/>
+      <c r="HV107" s="12"/>
+      <c r="HW107" s="12"/>
+      <c r="HX107" s="12"/>
+      <c r="HY107" s="12"/>
+      <c r="HZ107" s="12"/>
+      <c r="IA107" s="12"/>
+      <c r="IB107" s="12"/>
+      <c r="IC107" s="12"/>
+      <c r="ID107" s="12"/>
+      <c r="IE107" s="12"/>
+      <c r="IF107" s="12"/>
+      <c r="IG107" s="12"/>
+      <c r="IH107" s="12"/>
+      <c r="II107" s="12"/>
+      <c r="IJ107" s="12"/>
+      <c r="IK107" s="12"/>
+      <c r="IL107" s="12"/>
+      <c r="IM107" s="12"/>
+      <c r="IN107" s="12"/>
+      <c r="IO107" s="12"/>
+      <c r="IP107" s="12"/>
+      <c r="IQ107" s="12"/>
+      <c r="IR107" s="12"/>
+      <c r="IS107" s="12"/>
+      <c r="IT107" s="12"/>
+      <c r="IU107" s="12"/>
+      <c r="IV107" s="12"/>
+      <c r="IW107" s="12"/>
+      <c r="IX107" s="12"/>
+      <c r="IY107" s="12"/>
+      <c r="IZ107" s="12"/>
+      <c r="JA107" s="12"/>
+      <c r="JB107" s="12"/>
+      <c r="JC107" s="12"/>
+      <c r="JD107" s="12"/>
+      <c r="JE107" s="12"/>
+      <c r="JF107" s="12"/>
+      <c r="JG107" s="12"/>
+      <c r="JH107" s="12"/>
+      <c r="JI107" s="12"/>
+      <c r="JJ107" s="12"/>
+      <c r="JK107" s="12"/>
+      <c r="JL107" s="12"/>
+      <c r="JM107" s="12"/>
+      <c r="JN107" s="12"/>
+      <c r="JO107" s="12"/>
+      <c r="JP107" s="12"/>
+      <c r="JQ107" s="12"/>
+      <c r="JR107" s="12"/>
+      <c r="JS107" s="12"/>
+      <c r="JT107" s="12"/>
+      <c r="JU107" s="12"/>
+      <c r="JV107" s="12"/>
+      <c r="JW107" s="12"/>
+      <c r="JX107" s="12"/>
+      <c r="JY107" s="12"/>
+      <c r="JZ107" s="12"/>
+      <c r="KA107" s="12"/>
+      <c r="KB107" s="12"/>
+      <c r="KC107" s="12"/>
+      <c r="KD107" s="12"/>
+      <c r="KE107" s="12"/>
+      <c r="KF107" s="12"/>
+      <c r="KG107" s="12"/>
+      <c r="KH107" s="12"/>
+      <c r="KI107" s="12"/>
+      <c r="KJ107" s="12"/>
+      <c r="KK107" s="12"/>
+      <c r="KL107" s="12"/>
+      <c r="KM107" s="12"/>
+      <c r="KN107" s="12"/>
+      <c r="KO107" s="12"/>
+      <c r="KP107" s="12"/>
+      <c r="KQ107" s="12"/>
+      <c r="KR107" s="12"/>
+      <c r="KS107" s="12"/>
+      <c r="KT107" s="12"/>
+      <c r="KU107" s="12"/>
+      <c r="KV107" s="12"/>
+      <c r="KW107" s="12"/>
+      <c r="KX107" s="12"/>
+      <c r="KY107" s="12"/>
+      <c r="KZ107" s="12"/>
+      <c r="LA107" s="12"/>
+      <c r="LB107" s="12"/>
+      <c r="LC107" s="12"/>
+      <c r="LD107" s="12"/>
+      <c r="LE107" s="12"/>
+      <c r="LF107" s="12"/>
+      <c r="LG107" s="12"/>
+      <c r="LH107" s="12"/>
+      <c r="LI107" s="12"/>
+      <c r="LJ107" s="12"/>
+      <c r="LK107" s="12"/>
+      <c r="LL107" s="12"/>
+      <c r="LM107" s="12"/>
+      <c r="LN107" s="12"/>
+      <c r="LO107" s="12"/>
+      <c r="LP107" s="12"/>
+      <c r="LQ107" s="12"/>
+      <c r="LR107" s="12"/>
+      <c r="LS107" s="12"/>
+      <c r="LT107" s="12"/>
+      <c r="LU107" s="12"/>
+      <c r="LV107" s="12"/>
+      <c r="LW107" s="12"/>
+      <c r="LX107" s="12"/>
+      <c r="LY107" s="12"/>
+      <c r="LZ107" s="12"/>
+      <c r="MA107" s="12"/>
+      <c r="MB107" s="12"/>
+      <c r="MC107" s="12"/>
+      <c r="MD107" s="12"/>
+      <c r="ME107" s="12"/>
+      <c r="MF107" s="12"/>
+      <c r="MG107" s="12"/>
+      <c r="MH107" s="12"/>
+      <c r="MI107" s="12"/>
+      <c r="MJ107" s="12"/>
+      <c r="MK107" s="12"/>
+      <c r="ML107" s="12"/>
+      <c r="MM107" s="12"/>
+      <c r="MN107" s="12"/>
+      <c r="MO107" s="12"/>
+      <c r="MP107" s="12"/>
+      <c r="MQ107" s="12"/>
+      <c r="MR107" s="12"/>
+      <c r="MS107" s="12"/>
+      <c r="MT107" s="12"/>
+      <c r="MU107" s="12"/>
+      <c r="MV107" s="12"/>
+      <c r="MW107" s="12"/>
+      <c r="MX107" s="12"/>
+      <c r="MY107" s="12"/>
+      <c r="MZ107" s="12"/>
+      <c r="NA107" s="12"/>
+      <c r="NB107" s="12"/>
+      <c r="NC107" s="12"/>
+      <c r="ND107" s="12"/>
+      <c r="NE107" s="12"/>
+      <c r="NF107" s="12"/>
+      <c r="NG107" s="12"/>
+      <c r="NH107" s="12"/>
+      <c r="NI107" s="12"/>
+      <c r="NJ107" s="12"/>
+      <c r="NK107" s="12"/>
+      <c r="NL107" s="12"/>
+      <c r="NM107" s="12"/>
+      <c r="NN107" s="12"/>
+      <c r="NO107" s="12"/>
+      <c r="NP107" s="12"/>
+      <c r="NQ107" s="12"/>
+      <c r="NR107" s="12"/>
+      <c r="NS107" s="12"/>
+      <c r="NT107" s="12"/>
+      <c r="NU107" s="12"/>
+      <c r="NV107" s="12"/>
+      <c r="NW107" s="12"/>
+      <c r="NX107" s="12"/>
+      <c r="NY107" s="12"/>
+      <c r="NZ107" s="12"/>
+      <c r="OA107" s="12"/>
+      <c r="OB107" s="12"/>
+      <c r="OC107" s="12"/>
+      <c r="OD107" s="12"/>
+      <c r="OE107" s="12"/>
+      <c r="OF107" s="12"/>
+      <c r="OG107" s="12"/>
+      <c r="OH107" s="12"/>
+      <c r="OI107" s="12"/>
+      <c r="OJ107" s="12"/>
+      <c r="OK107" s="12"/>
+      <c r="OL107" s="12"/>
+      <c r="OM107" s="12"/>
+      <c r="ON107" s="12"/>
+      <c r="OO107" s="12"/>
+      <c r="OP107" s="12"/>
+      <c r="OQ107" s="12"/>
+      <c r="OR107" s="12"/>
+      <c r="OS107" s="12"/>
+      <c r="OT107" s="12"/>
+      <c r="OU107" s="12"/>
+      <c r="OV107" s="12"/>
+      <c r="OW107" s="12"/>
+      <c r="OX107" s="12"/>
+      <c r="OY107" s="12"/>
+      <c r="OZ107" s="12"/>
+      <c r="PA107" s="12"/>
+      <c r="PB107" s="12"/>
+      <c r="PC107" s="12"/>
+      <c r="PD107" s="12"/>
+      <c r="PE107" s="12"/>
+      <c r="PF107" s="12"/>
+      <c r="PG107" s="12"/>
+      <c r="PH107" s="12"/>
+      <c r="PI107" s="12"/>
+      <c r="PJ107" s="12"/>
+      <c r="PK107" s="12"/>
+      <c r="PL107" s="12"/>
+      <c r="PM107" s="12"/>
+      <c r="PN107" s="12"/>
+      <c r="PO107" s="12"/>
+      <c r="PP107" s="12"/>
+      <c r="PQ107" s="12"/>
+      <c r="PR107" s="12"/>
+      <c r="PS107" s="12"/>
+      <c r="PT107" s="12"/>
+      <c r="PU107" s="12"/>
+      <c r="PV107" s="12"/>
+      <c r="PW107" s="12"/>
+      <c r="PX107" s="12"/>
+      <c r="PY107" s="12"/>
+      <c r="PZ107" s="12"/>
+      <c r="QA107" s="12"/>
+      <c r="QB107" s="12"/>
+      <c r="QC107" s="12"/>
+      <c r="QD107" s="12"/>
+      <c r="QE107" s="12"/>
+      <c r="QF107" s="12"/>
+      <c r="QG107" s="12"/>
+      <c r="QH107" s="12"/>
+      <c r="QI107" s="12"/>
+      <c r="QJ107" s="12"/>
+      <c r="QK107" s="12"/>
+      <c r="QL107" s="12"/>
+      <c r="QM107" s="12"/>
+      <c r="QN107" s="12"/>
+      <c r="QO107" s="12"/>
+      <c r="QP107" s="12"/>
+      <c r="QQ107" s="12"/>
+      <c r="QR107" s="12"/>
+      <c r="QS107" s="12"/>
+      <c r="QT107" s="12"/>
+      <c r="QU107" s="12"/>
+      <c r="QV107" s="12"/>
+      <c r="QW107" s="12"/>
+      <c r="QX107" s="12"/>
+      <c r="QY107" s="12"/>
+      <c r="QZ107" s="12"/>
+      <c r="RA107" s="12"/>
+      <c r="RB107" s="12"/>
+      <c r="RC107" s="12"/>
+      <c r="RD107" s="12"/>
+      <c r="RE107" s="12"/>
+      <c r="RF107" s="12"/>
+      <c r="RG107" s="12"/>
+      <c r="RH107" s="12"/>
+      <c r="RI107" s="12"/>
+      <c r="RJ107" s="12"/>
+      <c r="RK107" s="12"/>
+      <c r="RL107" s="12"/>
+      <c r="RM107" s="12"/>
+      <c r="RN107" s="12"/>
+      <c r="RO107" s="12"/>
+      <c r="RP107" s="12"/>
+      <c r="RQ107" s="12"/>
+      <c r="RR107" s="12"/>
+      <c r="RS107" s="12"/>
+      <c r="RT107" s="12"/>
+      <c r="RU107" s="12"/>
+      <c r="RV107" s="12"/>
+      <c r="RW107" s="12"/>
+      <c r="RX107" s="12"/>
+      <c r="RY107" s="12"/>
+      <c r="RZ107" s="12"/>
+      <c r="SA107" s="12"/>
+      <c r="SB107" s="12"/>
+      <c r="SC107" s="12"/>
+      <c r="SD107" s="12"/>
+      <c r="SE107" s="12"/>
+      <c r="SF107" s="12"/>
+      <c r="SG107" s="12"/>
+      <c r="SH107" s="12"/>
+      <c r="SI107" s="12"/>
+      <c r="SJ107" s="12"/>
+      <c r="SK107" s="12"/>
+      <c r="SL107" s="12"/>
+      <c r="SM107" s="12"/>
+      <c r="SN107" s="12"/>
+      <c r="SO107" s="12"/>
+      <c r="SP107" s="12"/>
+      <c r="SQ107" s="12"/>
+      <c r="SR107" s="12"/>
+      <c r="SS107" s="12"/>
+      <c r="ST107" s="12"/>
+      <c r="SU107" s="12"/>
+      <c r="SV107" s="12"/>
+      <c r="SW107" s="12"/>
+      <c r="SX107" s="12"/>
+      <c r="SY107" s="12"/>
+      <c r="SZ107" s="12"/>
+      <c r="TA107" s="12"/>
+      <c r="TB107" s="12"/>
+      <c r="TC107" s="12"/>
+      <c r="TD107" s="12"/>
+      <c r="TE107" s="12"/>
+      <c r="TF107" s="12"/>
+      <c r="TG107" s="12"/>
+      <c r="TH107" s="12"/>
+      <c r="TI107" s="12"/>
+      <c r="TJ107" s="12"/>
+      <c r="TK107" s="12"/>
+      <c r="TL107" s="12"/>
+      <c r="TM107" s="12"/>
+      <c r="TN107" s="12"/>
+      <c r="TO107" s="12"/>
+      <c r="TP107" s="12"/>
+      <c r="TQ107" s="12"/>
+      <c r="TR107" s="12"/>
+      <c r="TS107" s="12"/>
+      <c r="TT107" s="12"/>
+      <c r="TU107" s="12"/>
+      <c r="TV107" s="12"/>
+      <c r="TW107" s="12"/>
+      <c r="TX107" s="12"/>
+      <c r="TY107" s="12"/>
+      <c r="TZ107" s="12"/>
+      <c r="UA107" s="12"/>
+      <c r="UB107" s="12"/>
+      <c r="UC107" s="12"/>
+      <c r="UD107" s="12"/>
+      <c r="UE107" s="12"/>
+      <c r="UF107" s="12"/>
+      <c r="UG107" s="12"/>
+      <c r="UH107" s="12"/>
+      <c r="UI107" s="12"/>
+      <c r="UJ107" s="12"/>
+      <c r="UK107" s="12"/>
+      <c r="UL107" s="12"/>
+      <c r="UM107" s="12"/>
+      <c r="UN107" s="12"/>
+      <c r="UO107" s="12"/>
+      <c r="UP107" s="12"/>
+      <c r="UQ107" s="12"/>
+      <c r="UR107" s="12"/>
+      <c r="US107" s="12"/>
+      <c r="UT107" s="12"/>
+      <c r="UU107" s="12"/>
+      <c r="UV107" s="12"/>
+      <c r="UW107" s="12"/>
+      <c r="UX107" s="12"/>
+      <c r="UY107" s="12"/>
+      <c r="UZ107" s="12"/>
+      <c r="VA107" s="12"/>
+      <c r="VB107" s="12"/>
+      <c r="VC107" s="12"/>
+      <c r="VD107" s="12"/>
+      <c r="VE107" s="12"/>
+      <c r="VF107" s="12"/>
+      <c r="VG107" s="12"/>
+      <c r="VH107" s="12"/>
+      <c r="VI107" s="12"/>
+      <c r="VJ107" s="12"/>
+      <c r="VK107" s="12"/>
+      <c r="VL107" s="12"/>
+      <c r="VM107" s="12"/>
+      <c r="VN107" s="12"/>
+      <c r="VO107" s="12"/>
+      <c r="VP107" s="12"/>
+      <c r="VQ107" s="12"/>
+      <c r="VR107" s="12"/>
+      <c r="VS107" s="12"/>
+      <c r="VT107" s="12"/>
+      <c r="VU107" s="12"/>
+      <c r="VV107" s="12"/>
+      <c r="VW107" s="12"/>
+      <c r="VX107" s="12"/>
+      <c r="VY107" s="12"/>
+      <c r="VZ107" s="12"/>
+      <c r="WA107" s="12"/>
+      <c r="WB107" s="12"/>
+      <c r="WC107" s="12"/>
+      <c r="WD107" s="12"/>
+      <c r="WE107" s="12"/>
+      <c r="WF107" s="12"/>
+      <c r="WG107" s="12"/>
+      <c r="WH107" s="12"/>
+      <c r="WI107" s="12"/>
+      <c r="WJ107" s="12"/>
+      <c r="WK107" s="12"/>
+      <c r="WL107" s="12"/>
+      <c r="WM107" s="12"/>
+      <c r="WN107" s="12"/>
+      <c r="WO107" s="12"/>
+      <c r="WP107" s="12"/>
+      <c r="WQ107" s="12"/>
+      <c r="WR107" s="12"/>
+      <c r="WS107" s="12"/>
+      <c r="WT107" s="12"/>
+      <c r="WU107" s="12"/>
+      <c r="WV107" s="12"/>
+      <c r="WW107" s="12"/>
+      <c r="WX107" s="12"/>
+      <c r="WY107" s="12"/>
+      <c r="WZ107" s="12"/>
+      <c r="XA107" s="12"/>
+      <c r="XB107" s="12"/>
+      <c r="XC107" s="12"/>
+      <c r="XD107" s="12"/>
+      <c r="XE107" s="12"/>
+      <c r="XF107" s="12"/>
+      <c r="XG107" s="12"/>
+      <c r="XH107" s="12"/>
+      <c r="XI107" s="12"/>
+      <c r="XJ107" s="12"/>
+      <c r="XK107" s="12"/>
+      <c r="XL107" s="12"/>
+      <c r="XM107" s="12"/>
+      <c r="XN107" s="12"/>
+      <c r="XO107" s="12"/>
+      <c r="XP107" s="12"/>
+      <c r="XQ107" s="12"/>
+      <c r="XR107" s="12"/>
+      <c r="XS107" s="12"/>
+      <c r="XT107" s="12"/>
+      <c r="XU107" s="12"/>
+      <c r="XV107" s="12"/>
+      <c r="XW107" s="12"/>
+      <c r="XX107" s="12"/>
+      <c r="XY107" s="12"/>
+      <c r="XZ107" s="12"/>
+      <c r="YA107" s="12"/>
+      <c r="YB107" s="12"/>
+      <c r="YC107" s="12"/>
+      <c r="YD107" s="12"/>
+      <c r="YE107" s="12"/>
+      <c r="YF107" s="12"/>
+      <c r="YG107" s="12"/>
+      <c r="YH107" s="12"/>
+      <c r="YI107" s="12"/>
+      <c r="YJ107" s="12"/>
+      <c r="YK107" s="12"/>
+      <c r="YL107" s="12"/>
+      <c r="YM107" s="12"/>
+      <c r="YN107" s="12"/>
+      <c r="YO107" s="12"/>
+      <c r="YP107" s="12"/>
+      <c r="YQ107" s="12"/>
+      <c r="YR107" s="12"/>
+      <c r="YS107" s="12"/>
+      <c r="YT107" s="12"/>
+      <c r="YU107" s="12"/>
+      <c r="YV107" s="12"/>
+      <c r="YW107" s="12"/>
+      <c r="YX107" s="12"/>
+      <c r="YY107" s="12"/>
+      <c r="YZ107" s="12"/>
+      <c r="ZA107" s="12"/>
+      <c r="ZB107" s="12"/>
+      <c r="ZC107" s="12"/>
+      <c r="ZD107" s="12"/>
+      <c r="ZE107" s="12"/>
+      <c r="ZF107" s="12"/>
+      <c r="ZG107" s="12"/>
+      <c r="ZH107" s="12"/>
+      <c r="ZI107" s="12"/>
+      <c r="ZJ107" s="12"/>
+      <c r="ZK107" s="12"/>
+      <c r="ZL107" s="12"/>
+      <c r="ZM107" s="12"/>
+      <c r="ZN107" s="12"/>
+      <c r="ZO107" s="12"/>
+      <c r="ZP107" s="12"/>
+      <c r="ZQ107" s="12"/>
+      <c r="ZR107" s="12"/>
+      <c r="ZS107" s="12"/>
+      <c r="ZT107" s="12"/>
+      <c r="ZU107" s="12"/>
+      <c r="ZV107" s="12"/>
+      <c r="ZW107" s="12"/>
+      <c r="ZX107" s="12"/>
+      <c r="ZY107" s="12"/>
+      <c r="ZZ107" s="12"/>
+      <c r="AAA107" s="12"/>
+      <c r="AAB107" s="12"/>
+      <c r="AAC107" s="12"/>
+      <c r="AAD107" s="12"/>
+      <c r="AAE107" s="12"/>
+      <c r="AAF107" s="12"/>
+      <c r="AAG107" s="12"/>
+      <c r="AAH107" s="12"/>
+      <c r="AAI107" s="12"/>
+      <c r="AAJ107" s="12"/>
+      <c r="AAK107" s="12"/>
+      <c r="AAL107" s="12"/>
+      <c r="AAM107" s="12"/>
+      <c r="AAN107" s="12"/>
+      <c r="AAO107" s="12"/>
+      <c r="AAP107" s="12"/>
+      <c r="AAQ107" s="12"/>
+      <c r="AAR107" s="12"/>
+      <c r="AAS107" s="12"/>
+      <c r="AAT107" s="12"/>
+      <c r="AAU107" s="12"/>
+      <c r="AAV107" s="12"/>
+      <c r="AAW107" s="12"/>
+      <c r="AAX107" s="12"/>
+      <c r="AAY107" s="12"/>
+      <c r="AAZ107" s="12"/>
+      <c r="ABA107" s="12"/>
+      <c r="ABB107" s="12"/>
+      <c r="ABC107" s="12"/>
+      <c r="ABD107" s="12"/>
+      <c r="ABE107" s="12"/>
+      <c r="ABF107" s="12"/>
+      <c r="ABG107" s="12"/>
+      <c r="ABH107" s="12"/>
+      <c r="ABI107" s="12"/>
+      <c r="ABJ107" s="12"/>
+      <c r="ABK107" s="12"/>
+      <c r="ABL107" s="12"/>
+      <c r="ABM107" s="12"/>
+      <c r="ABN107" s="12"/>
+      <c r="ABO107" s="12"/>
+      <c r="ABP107" s="12"/>
+      <c r="ABQ107" s="12"/>
+      <c r="ABR107" s="12"/>
+      <c r="ABS107" s="12"/>
+      <c r="ABT107" s="12"/>
+      <c r="ABU107" s="12"/>
+      <c r="ABV107" s="12"/>
+      <c r="ABW107" s="12"/>
+      <c r="ABX107" s="12"/>
+      <c r="ABY107" s="12"/>
+      <c r="ABZ107" s="12"/>
+      <c r="ACA107" s="12"/>
+      <c r="ACB107" s="12"/>
+      <c r="ACC107" s="12"/>
+      <c r="ACD107" s="12"/>
+      <c r="ACE107" s="12"/>
+      <c r="ACF107" s="12"/>
+      <c r="ACG107" s="12"/>
+      <c r="ACH107" s="12"/>
+      <c r="ACI107" s="12"/>
+      <c r="ACJ107" s="12"/>
+      <c r="ACK107" s="12"/>
+      <c r="ACL107" s="12"/>
+      <c r="ACM107" s="12"/>
+      <c r="ACN107" s="12"/>
+      <c r="ACO107" s="12"/>
+      <c r="ACP107" s="12"/>
+      <c r="ACQ107" s="12"/>
+      <c r="ACR107" s="12"/>
+      <c r="ACS107" s="12"/>
+      <c r="ACT107" s="12"/>
+      <c r="ACU107" s="12"/>
+      <c r="ACV107" s="12"/>
+      <c r="ACW107" s="12"/>
+      <c r="ACX107" s="12"/>
+      <c r="ACY107" s="12"/>
+      <c r="ACZ107" s="12"/>
+      <c r="ADA107" s="12"/>
+      <c r="ADB107" s="12"/>
+      <c r="ADC107" s="12"/>
+      <c r="ADD107" s="12"/>
+      <c r="ADE107" s="12"/>
+      <c r="ADF107" s="12"/>
+      <c r="ADG107" s="12"/>
+      <c r="ADH107" s="12"/>
+      <c r="ADI107" s="12"/>
+      <c r="ADJ107" s="12"/>
+      <c r="ADK107" s="12"/>
+      <c r="ADL107" s="12"/>
+      <c r="ADM107" s="12"/>
+      <c r="ADN107" s="12"/>
+      <c r="ADO107" s="12"/>
+      <c r="ADP107" s="12"/>
+      <c r="ADQ107" s="12"/>
+      <c r="ADR107" s="12"/>
+      <c r="ADS107" s="12"/>
+      <c r="ADT107" s="12"/>
+      <c r="ADU107" s="12"/>
+      <c r="ADV107" s="12"/>
+      <c r="ADW107" s="12"/>
+      <c r="ADX107" s="12"/>
+      <c r="ADY107" s="12"/>
+      <c r="ADZ107" s="12"/>
+      <c r="AEA107" s="12"/>
+      <c r="AEB107" s="12"/>
+      <c r="AEC107" s="12"/>
+      <c r="AED107" s="12"/>
+      <c r="AEE107" s="12"/>
+      <c r="AEF107" s="12"/>
+      <c r="AEG107" s="12"/>
+      <c r="AEH107" s="12"/>
+      <c r="AEI107" s="12"/>
+      <c r="AEJ107" s="12"/>
+      <c r="AEK107" s="12"/>
+      <c r="AEL107" s="12"/>
+      <c r="AEM107" s="12"/>
+      <c r="AEN107" s="12"/>
+      <c r="AEO107" s="12"/>
+      <c r="AEP107" s="12"/>
+      <c r="AEQ107" s="12"/>
+      <c r="AER107" s="12"/>
+      <c r="AES107" s="12"/>
+      <c r="AET107" s="12"/>
+      <c r="AEU107" s="12"/>
+      <c r="AEV107" s="12"/>
+      <c r="AEW107" s="12"/>
+      <c r="AEX107" s="12"/>
+      <c r="AEY107" s="12"/>
+      <c r="AEZ107" s="12"/>
+      <c r="AFA107" s="12"/>
+      <c r="AFB107" s="12"/>
+      <c r="AFC107" s="12"/>
+      <c r="AFD107" s="12"/>
+      <c r="AFE107" s="12"/>
+      <c r="AFF107" s="12"/>
+      <c r="AFG107" s="12"/>
+      <c r="AFH107" s="12"/>
+      <c r="AFI107" s="12"/>
+      <c r="AFJ107" s="12"/>
+      <c r="AFK107" s="12"/>
+      <c r="AFL107" s="12"/>
+      <c r="AFM107" s="12"/>
+      <c r="AFN107" s="12"/>
+      <c r="AFO107" s="12"/>
+      <c r="AFP107" s="12"/>
+      <c r="AFQ107" s="12"/>
+      <c r="AFR107" s="12"/>
+      <c r="AFS107" s="12"/>
+      <c r="AFT107" s="12"/>
+      <c r="AFU107" s="12"/>
+      <c r="AFV107" s="12"/>
+      <c r="AFW107" s="12"/>
+      <c r="AFX107" s="12"/>
+      <c r="AFY107" s="12"/>
+      <c r="AFZ107" s="12"/>
+      <c r="AGA107" s="12"/>
+      <c r="AGB107" s="12"/>
+      <c r="AGC107" s="12"/>
+      <c r="AGD107" s="12"/>
+      <c r="AGE107" s="12"/>
+      <c r="AGF107" s="12"/>
+      <c r="AGG107" s="12"/>
+      <c r="AGH107" s="12"/>
+      <c r="AGI107" s="12"/>
+      <c r="AGJ107" s="12"/>
+      <c r="AGK107" s="12"/>
+      <c r="AGL107" s="12"/>
+      <c r="AGM107" s="12"/>
+      <c r="AGN107" s="12"/>
+      <c r="AGO107" s="12"/>
+      <c r="AGP107" s="12"/>
+      <c r="AGQ107" s="12"/>
+      <c r="AGR107" s="12"/>
+      <c r="AGS107" s="12"/>
+      <c r="AGT107" s="12"/>
+      <c r="AGU107" s="12"/>
+      <c r="AGV107" s="12"/>
+      <c r="AGW107" s="12"/>
+      <c r="AGX107" s="12"/>
+      <c r="AGY107" s="12"/>
+      <c r="AGZ107" s="12"/>
+      <c r="AHA107" s="12"/>
+      <c r="AHB107" s="12"/>
+      <c r="AHC107" s="12"/>
+      <c r="AHD107" s="12"/>
+      <c r="AHE107" s="12"/>
+      <c r="AHF107" s="12"/>
+      <c r="AHG107" s="12"/>
+      <c r="AHH107" s="12"/>
+      <c r="AHI107" s="12"/>
+      <c r="AHJ107" s="12"/>
+      <c r="AHK107" s="12"/>
+      <c r="AHL107" s="12"/>
+      <c r="AHM107" s="12"/>
+      <c r="AHN107" s="12"/>
+      <c r="AHO107" s="12"/>
+      <c r="AHP107" s="12"/>
+      <c r="AHQ107" s="12"/>
+      <c r="AHR107" s="12"/>
+      <c r="AHS107" s="12"/>
+      <c r="AHT107" s="12"/>
+      <c r="AHU107" s="12"/>
+      <c r="AHV107" s="12"/>
+      <c r="AHW107" s="12"/>
+      <c r="AHX107" s="12"/>
+      <c r="AHY107" s="12"/>
+      <c r="AHZ107" s="12"/>
+      <c r="AIA107" s="12"/>
+      <c r="AIB107" s="12"/>
+      <c r="AIC107" s="12"/>
+      <c r="AID107" s="12"/>
+      <c r="AIE107" s="12"/>
+      <c r="AIF107" s="12"/>
+      <c r="AIG107" s="12"/>
+      <c r="AIH107" s="12"/>
+      <c r="AII107" s="12"/>
+      <c r="AIJ107" s="12"/>
+      <c r="AIK107" s="12"/>
+      <c r="AIL107" s="12"/>
+      <c r="AIM107" s="12"/>
+      <c r="AIN107" s="12"/>
+      <c r="AIO107" s="12"/>
+      <c r="AIP107" s="12"/>
+      <c r="AIQ107" s="12"/>
+      <c r="AIR107" s="12"/>
+      <c r="AIS107" s="12"/>
+      <c r="AIT107" s="12"/>
+      <c r="AIU107" s="12"/>
+      <c r="AIV107" s="12"/>
+      <c r="AIW107" s="12"/>
+      <c r="AIX107" s="12"/>
+      <c r="AIY107" s="12"/>
+      <c r="AIZ107" s="12"/>
+      <c r="AJA107" s="12"/>
+      <c r="AJB107" s="12"/>
+      <c r="AJC107" s="12"/>
+      <c r="AJD107" s="12"/>
+      <c r="AJE107" s="12"/>
+      <c r="AJF107" s="12"/>
+      <c r="AJG107" s="12"/>
+      <c r="AJH107" s="12"/>
+      <c r="AJI107" s="12"/>
+      <c r="AJJ107" s="12"/>
+      <c r="AJK107" s="12"/>
+      <c r="AJL107" s="12"/>
+      <c r="AJM107" s="12"/>
+      <c r="AJN107" s="12"/>
+      <c r="AJO107" s="12"/>
+      <c r="AJP107" s="12"/>
+      <c r="AJQ107" s="12"/>
+      <c r="AJR107" s="12"/>
+      <c r="AJS107" s="12"/>
+      <c r="AJT107" s="12"/>
+      <c r="AJU107" s="12"/>
+      <c r="AJV107" s="12"/>
+      <c r="AJW107" s="12"/>
+      <c r="AJX107" s="12"/>
+      <c r="AJY107" s="12"/>
+      <c r="AJZ107" s="12"/>
+      <c r="AKA107" s="12"/>
+      <c r="AKB107" s="12"/>
+      <c r="AKC107" s="12"/>
+      <c r="AKD107" s="12"/>
+      <c r="AKE107" s="12"/>
+      <c r="AKF107" s="12"/>
+      <c r="AKG107" s="12"/>
+      <c r="AKH107" s="12"/>
+      <c r="AKI107" s="12"/>
+      <c r="AKJ107" s="12"/>
+      <c r="AKK107" s="12"/>
+      <c r="AKL107" s="12"/>
+      <c r="AKM107" s="12"/>
+      <c r="AKN107" s="12"/>
+      <c r="AKO107" s="12"/>
+      <c r="AKP107" s="12"/>
+      <c r="AKQ107" s="12"/>
+      <c r="AKR107" s="12"/>
+      <c r="AKS107" s="12"/>
+      <c r="AKT107" s="12"/>
+      <c r="AKU107" s="12"/>
+      <c r="AKV107" s="12"/>
+      <c r="AKW107" s="12"/>
+      <c r="AKX107" s="12"/>
+      <c r="AKY107" s="12"/>
+      <c r="AKZ107" s="12"/>
+      <c r="ALA107" s="12"/>
+      <c r="ALB107" s="12"/>
+      <c r="ALC107" s="12"/>
+      <c r="ALD107" s="12"/>
+      <c r="ALE107" s="12"/>
+      <c r="ALF107" s="12"/>
+      <c r="ALG107" s="12"/>
+      <c r="ALH107" s="12"/>
+      <c r="ALI107" s="12"/>
+      <c r="ALJ107" s="12"/>
+      <c r="ALK107" s="12"/>
+      <c r="ALL107" s="12"/>
+      <c r="ALM107" s="12"/>
+      <c r="ALN107" s="12"/>
+      <c r="ALO107" s="12"/>
+      <c r="ALP107" s="12"/>
+      <c r="ALQ107" s="12"/>
+      <c r="ALR107" s="12"/>
+      <c r="ALS107" s="12"/>
+      <c r="ALT107" s="12"/>
+      <c r="ALU107" s="12"/>
+      <c r="ALV107" s="12"/>
+      <c r="ALW107" s="12"/>
+      <c r="ALX107" s="12"/>
+      <c r="ALY107" s="12"/>
+      <c r="ALZ107" s="12"/>
+      <c r="AMA107" s="12"/>
+      <c r="AMB107" s="12"/>
+      <c r="AMC107" s="12"/>
+      <c r="AMD107" s="12"/>
+      <c r="AME107" s="12"/>
+      <c r="AMF107" s="12"/>
+      <c r="AMG107" s="12"/>
+    </row>
+    <row r="109" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="5"/>
+      <c r="B109" s="5"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="5"/>
+      <c r="I109" s="5"/>
+      <c r="J109" s="5"/>
+      <c r="K109" s="5"/>
+      <c r="L109" s="5"/>
+      <c r="M109" s="5"/>
+      <c r="N109" s="5"/>
+      <c r="O109" s="5"/>
+      <c r="P109" s="5"/>
+      <c r="Q109" s="5"/>
+      <c r="R109" s="5"/>
+      <c r="S109" s="5"/>
+      <c r="T109" s="5"/>
+      <c r="U109" s="5"/>
+      <c r="V109" s="5"/>
+      <c r="W109" s="5"/>
+      <c r="X109" s="5"/>
+      <c r="Y109" s="5"/>
+      <c r="Z109" s="5"/>
+      <c r="AA109" s="5"/>
+      <c r="AB109" s="5"/>
+      <c r="AC109" s="5"/>
+      <c r="AD109" s="5"/>
+      <c r="AE109" s="5"/>
+      <c r="AF109" s="5"/>
+      <c r="AG109" s="5"/>
+      <c r="AH109" s="5"/>
+      <c r="AI109" s="5"/>
+      <c r="AJ109" s="5"/>
+      <c r="AK109" s="5"/>
+      <c r="AL109" s="5"/>
+      <c r="AM109" s="5"/>
+      <c r="AN109" s="5"/>
+      <c r="AO109" s="5"/>
+      <c r="AP109" s="5"/>
+      <c r="AQ109" s="5"/>
+      <c r="AR109" s="5"/>
+      <c r="AS109" s="5"/>
+      <c r="AT109" s="5"/>
+      <c r="AU109" s="5"/>
+      <c r="AV109" s="5"/>
+      <c r="AW109" s="5"/>
+      <c r="AX109" s="5"/>
+      <c r="AY109" s="5"/>
+      <c r="AZ109" s="5"/>
+      <c r="BA109" s="5"/>
+      <c r="BB109" s="5"/>
+      <c r="BC109" s="5"/>
+      <c r="BD109" s="5"/>
+      <c r="BE109" s="5"/>
+      <c r="BF109" s="5"/>
+      <c r="BG109" s="5"/>
+      <c r="BH109" s="5"/>
+      <c r="BI109" s="5"/>
+      <c r="BJ109" s="5"/>
+      <c r="BK109" s="5"/>
+      <c r="BL109" s="5"/>
+      <c r="BM109" s="5"/>
+      <c r="BN109" s="5"/>
+      <c r="BO109" s="5"/>
+      <c r="BP109" s="5"/>
+      <c r="BQ109" s="5"/>
+      <c r="BR109" s="5"/>
+      <c r="BS109" s="5"/>
+      <c r="BT109" s="5"/>
+      <c r="BU109" s="5"/>
+      <c r="BV109" s="5"/>
+      <c r="BW109" s="5"/>
+      <c r="BX109" s="5"/>
+      <c r="BY109" s="5"/>
+      <c r="BZ109" s="5"/>
+      <c r="CA109" s="5"/>
+      <c r="CB109" s="5"/>
+      <c r="CC109" s="5"/>
+      <c r="CD109" s="5"/>
+      <c r="CE109" s="5"/>
+      <c r="CF109" s="5"/>
+      <c r="CG109" s="5"/>
+      <c r="CH109" s="5"/>
+      <c r="CI109" s="5"/>
+      <c r="CJ109" s="5"/>
+      <c r="CK109" s="5"/>
+      <c r="CL109" s="5"/>
+      <c r="CM109" s="5"/>
+      <c r="CN109" s="5"/>
+      <c r="CO109" s="5"/>
+      <c r="CP109" s="5"/>
+      <c r="CQ109" s="5"/>
+      <c r="CR109" s="5"/>
+      <c r="CS109" s="5"/>
+      <c r="CT109" s="5"/>
+      <c r="CU109" s="5"/>
+      <c r="CV109" s="5"/>
+      <c r="CW109" s="5"/>
+      <c r="CX109" s="5"/>
+      <c r="CY109" s="5"/>
+      <c r="CZ109" s="5"/>
+      <c r="DA109" s="5"/>
+      <c r="DB109" s="5"/>
+      <c r="DC109" s="5"/>
+      <c r="DD109" s="5"/>
+      <c r="DE109" s="5"/>
+      <c r="DF109" s="5"/>
+      <c r="DG109" s="5"/>
+      <c r="DH109" s="5"/>
+      <c r="DI109" s="5"/>
+      <c r="DJ109" s="5"/>
+      <c r="DK109" s="5"/>
+      <c r="DL109" s="5"/>
+      <c r="DM109" s="5"/>
+      <c r="DN109" s="5"/>
+      <c r="DO109" s="5"/>
+      <c r="DP109" s="5"/>
+      <c r="DQ109" s="5"/>
+      <c r="DR109" s="5"/>
+      <c r="DS109" s="5"/>
+      <c r="DT109" s="5"/>
+      <c r="DU109" s="5"/>
+      <c r="DV109" s="5"/>
+      <c r="DW109" s="5"/>
+      <c r="DX109" s="5"/>
+      <c r="DY109" s="5"/>
+      <c r="DZ109" s="5"/>
+      <c r="EA109" s="5"/>
+      <c r="EB109" s="5"/>
+      <c r="EC109" s="5"/>
+      <c r="ED109" s="5"/>
+      <c r="EE109" s="5"/>
+      <c r="EF109" s="5"/>
+      <c r="EG109" s="5"/>
+      <c r="EH109" s="5"/>
+      <c r="EI109" s="5"/>
+      <c r="EJ109" s="5"/>
+      <c r="EK109" s="5"/>
+      <c r="EL109" s="5"/>
+      <c r="EM109" s="5"/>
+      <c r="EN109" s="5"/>
+      <c r="EO109" s="5"/>
+      <c r="EP109" s="5"/>
+      <c r="EQ109" s="5"/>
+      <c r="ER109" s="5"/>
+      <c r="ES109" s="5"/>
+      <c r="ET109" s="5"/>
+      <c r="EU109" s="5"/>
+      <c r="EV109" s="5"/>
+      <c r="EW109" s="5"/>
+      <c r="EX109" s="5"/>
+      <c r="EY109" s="5"/>
+      <c r="EZ109" s="5"/>
+      <c r="FA109" s="5"/>
+      <c r="FB109" s="5"/>
+      <c r="FC109" s="5"/>
+      <c r="FD109" s="5"/>
+      <c r="FE109" s="5"/>
+      <c r="FF109" s="5"/>
+      <c r="FG109" s="5"/>
+      <c r="FH109" s="5"/>
+      <c r="FI109" s="5"/>
+      <c r="FJ109" s="5"/>
+      <c r="FK109" s="5"/>
+      <c r="FL109" s="5"/>
+      <c r="FM109" s="5"/>
+      <c r="FN109" s="5"/>
+      <c r="FO109" s="5"/>
+      <c r="FP109" s="5"/>
+      <c r="FQ109" s="5"/>
+      <c r="FR109" s="5"/>
+      <c r="FS109" s="5"/>
+      <c r="FT109" s="5"/>
+      <c r="FU109" s="5"/>
+      <c r="FV109" s="5"/>
+      <c r="FW109" s="5"/>
+      <c r="FX109" s="5"/>
+      <c r="FY109" s="5"/>
+      <c r="FZ109" s="5"/>
+      <c r="GA109" s="5"/>
+      <c r="GB109" s="5"/>
+      <c r="GC109" s="5"/>
+      <c r="GD109" s="5"/>
+      <c r="GE109" s="5"/>
+      <c r="GF109" s="5"/>
+      <c r="GG109" s="5"/>
+      <c r="GH109" s="5"/>
+      <c r="GI109" s="5"/>
+      <c r="GJ109" s="5"/>
+      <c r="GK109" s="5"/>
+      <c r="GL109" s="5"/>
+      <c r="GM109" s="5"/>
+      <c r="GN109" s="5"/>
+      <c r="GO109" s="5"/>
+      <c r="GP109" s="5"/>
+      <c r="GQ109" s="5"/>
+      <c r="GR109" s="5"/>
+      <c r="GS109" s="5"/>
+      <c r="GT109" s="5"/>
+      <c r="GU109" s="5"/>
+      <c r="GV109" s="5"/>
+      <c r="GW109" s="5"/>
+      <c r="GX109" s="5"/>
+      <c r="GY109" s="5"/>
+      <c r="GZ109" s="5"/>
+      <c r="HA109" s="5"/>
+      <c r="HB109" s="5"/>
+      <c r="HC109" s="5"/>
+      <c r="HD109" s="5"/>
+      <c r="HE109" s="5"/>
+      <c r="HF109" s="5"/>
+      <c r="HG109" s="5"/>
+      <c r="HH109" s="5"/>
+      <c r="HI109" s="5"/>
+      <c r="HJ109" s="5"/>
+      <c r="HK109" s="5"/>
+      <c r="HL109" s="5"/>
+      <c r="HM109" s="5"/>
+      <c r="HN109" s="5"/>
+      <c r="HO109" s="5"/>
+      <c r="HP109" s="5"/>
+      <c r="HQ109" s="5"/>
+      <c r="HR109" s="5"/>
+      <c r="HS109" s="5"/>
+      <c r="HT109" s="5"/>
+      <c r="HU109" s="5"/>
+      <c r="HV109" s="5"/>
+      <c r="HW109" s="5"/>
+      <c r="HX109" s="5"/>
+      <c r="HY109" s="5"/>
+      <c r="HZ109" s="5"/>
+      <c r="IA109" s="5"/>
+      <c r="IB109" s="5"/>
+      <c r="IC109" s="5"/>
+      <c r="ID109" s="5"/>
+      <c r="IE109" s="5"/>
+      <c r="IF109" s="5"/>
+      <c r="IG109" s="5"/>
+      <c r="IH109" s="5"/>
+      <c r="II109" s="5"/>
+      <c r="IJ109" s="5"/>
+      <c r="IK109" s="5"/>
+      <c r="IL109" s="5"/>
+      <c r="IM109" s="5"/>
+      <c r="IN109" s="5"/>
+      <c r="IO109" s="5"/>
+      <c r="IP109" s="5"/>
+      <c r="IQ109" s="5"/>
+      <c r="IR109" s="5"/>
+      <c r="IS109" s="5"/>
+      <c r="IT109" s="5"/>
+      <c r="IU109" s="5"/>
+      <c r="IV109" s="5"/>
+      <c r="IW109" s="5"/>
+      <c r="IX109" s="5"/>
+      <c r="IY109" s="5"/>
+      <c r="IZ109" s="5"/>
+      <c r="JA109" s="5"/>
+      <c r="JB109" s="5"/>
+      <c r="JC109" s="5"/>
+      <c r="JD109" s="5"/>
+      <c r="JE109" s="5"/>
+      <c r="JF109" s="5"/>
+      <c r="JG109" s="5"/>
+      <c r="JH109" s="5"/>
+      <c r="JI109" s="5"/>
+      <c r="JJ109" s="5"/>
+      <c r="JK109" s="5"/>
+      <c r="JL109" s="5"/>
+      <c r="JM109" s="5"/>
+      <c r="JN109" s="5"/>
+      <c r="JO109" s="5"/>
+      <c r="JP109" s="5"/>
+      <c r="JQ109" s="5"/>
+      <c r="JR109" s="5"/>
+      <c r="JS109" s="5"/>
+      <c r="JT109" s="5"/>
+      <c r="JU109" s="5"/>
+      <c r="JV109" s="5"/>
+      <c r="JW109" s="5"/>
+      <c r="JX109" s="5"/>
+      <c r="JY109" s="5"/>
+      <c r="JZ109" s="5"/>
+      <c r="KA109" s="5"/>
+      <c r="KB109" s="5"/>
+      <c r="KC109" s="5"/>
+      <c r="KD109" s="5"/>
+      <c r="KE109" s="5"/>
+      <c r="KF109" s="5"/>
+      <c r="KG109" s="5"/>
+      <c r="KH109" s="5"/>
+      <c r="KI109" s="5"/>
+      <c r="KJ109" s="5"/>
+      <c r="KK109" s="5"/>
+      <c r="KL109" s="5"/>
+      <c r="KM109" s="5"/>
+      <c r="KN109" s="5"/>
+      <c r="KO109" s="5"/>
+      <c r="KP109" s="5"/>
+      <c r="KQ109" s="5"/>
+      <c r="KR109" s="5"/>
+      <c r="KS109" s="5"/>
+      <c r="KT109" s="5"/>
+      <c r="KU109" s="5"/>
+      <c r="KV109" s="5"/>
+      <c r="KW109" s="5"/>
+      <c r="KX109" s="5"/>
+      <c r="KY109" s="5"/>
+      <c r="KZ109" s="5"/>
+      <c r="LA109" s="5"/>
+      <c r="LB109" s="5"/>
+      <c r="LC109" s="5"/>
+      <c r="LD109" s="5"/>
+      <c r="LE109" s="5"/>
+      <c r="LF109" s="5"/>
+      <c r="LG109" s="5"/>
+      <c r="LH109" s="5"/>
+      <c r="LI109" s="5"/>
+      <c r="LJ109" s="5"/>
+      <c r="LK109" s="5"/>
+      <c r="LL109" s="5"/>
+      <c r="LM109" s="5"/>
+      <c r="LN109" s="5"/>
+      <c r="LO109" s="5"/>
+      <c r="LP109" s="5"/>
+      <c r="LQ109" s="5"/>
+      <c r="LR109" s="5"/>
+      <c r="LS109" s="5"/>
+      <c r="LT109" s="5"/>
+      <c r="LU109" s="5"/>
+      <c r="LV109" s="5"/>
+      <c r="LW109" s="5"/>
+      <c r="LX109" s="5"/>
+      <c r="LY109" s="5"/>
+      <c r="LZ109" s="5"/>
+      <c r="MA109" s="5"/>
+      <c r="MB109" s="5"/>
+      <c r="MC109" s="5"/>
+      <c r="MD109" s="5"/>
+      <c r="ME109" s="5"/>
+      <c r="MF109" s="5"/>
+      <c r="MG109" s="5"/>
+      <c r="MH109" s="5"/>
+      <c r="MI109" s="5"/>
+      <c r="MJ109" s="5"/>
+      <c r="MK109" s="5"/>
+      <c r="ML109" s="5"/>
+      <c r="MM109" s="5"/>
+      <c r="MN109" s="5"/>
+      <c r="MO109" s="5"/>
+      <c r="MP109" s="5"/>
+      <c r="MQ109" s="5"/>
+      <c r="MR109" s="5"/>
+      <c r="MS109" s="5"/>
+      <c r="MT109" s="5"/>
+      <c r="MU109" s="5"/>
+      <c r="MV109" s="5"/>
+      <c r="MW109" s="5"/>
+      <c r="MX109" s="5"/>
+      <c r="MY109" s="5"/>
+      <c r="MZ109" s="5"/>
+      <c r="NA109" s="5"/>
+      <c r="NB109" s="5"/>
+      <c r="NC109" s="5"/>
+      <c r="ND109" s="5"/>
+      <c r="NE109" s="5"/>
+      <c r="NF109" s="5"/>
+      <c r="NG109" s="5"/>
+      <c r="NH109" s="5"/>
+      <c r="NI109" s="5"/>
+      <c r="NJ109" s="5"/>
+      <c r="NK109" s="5"/>
+      <c r="NL109" s="5"/>
+      <c r="NM109" s="5"/>
+      <c r="NN109" s="5"/>
+      <c r="NO109" s="5"/>
+      <c r="NP109" s="5"/>
+      <c r="NQ109" s="5"/>
+      <c r="NR109" s="5"/>
+      <c r="NS109" s="5"/>
+      <c r="NT109" s="5"/>
+      <c r="NU109" s="5"/>
+      <c r="NV109" s="5"/>
+      <c r="NW109" s="5"/>
+      <c r="NX109" s="5"/>
+      <c r="NY109" s="5"/>
+      <c r="NZ109" s="5"/>
+      <c r="OA109" s="5"/>
+      <c r="OB109" s="5"/>
+      <c r="OC109" s="5"/>
+      <c r="OD109" s="5"/>
+      <c r="OE109" s="5"/>
+      <c r="OF109" s="5"/>
+      <c r="OG109" s="5"/>
+      <c r="OH109" s="5"/>
+      <c r="OI109" s="5"/>
+      <c r="OJ109" s="5"/>
+      <c r="OK109" s="5"/>
+      <c r="OL109" s="5"/>
+      <c r="OM109" s="5"/>
+      <c r="ON109" s="5"/>
+      <c r="OO109" s="5"/>
+      <c r="OP109" s="5"/>
+      <c r="OQ109" s="5"/>
+      <c r="OR109" s="5"/>
+      <c r="OS109" s="5"/>
+      <c r="OT109" s="5"/>
+      <c r="OU109" s="5"/>
+      <c r="OV109" s="5"/>
+      <c r="OW109" s="5"/>
+      <c r="OX109" s="5"/>
+      <c r="OY109" s="5"/>
+      <c r="OZ109" s="5"/>
+      <c r="PA109" s="5"/>
+      <c r="PB109" s="5"/>
+      <c r="PC109" s="5"/>
+      <c r="PD109" s="5"/>
+      <c r="PE109" s="5"/>
+      <c r="PF109" s="5"/>
+      <c r="PG109" s="5"/>
+      <c r="PH109" s="5"/>
+      <c r="PI109" s="5"/>
+      <c r="PJ109" s="5"/>
+      <c r="PK109" s="5"/>
+      <c r="PL109" s="5"/>
+      <c r="PM109" s="5"/>
+      <c r="PN109" s="5"/>
+      <c r="PO109" s="5"/>
+      <c r="PP109" s="5"/>
+      <c r="PQ109" s="5"/>
+      <c r="PR109" s="5"/>
+      <c r="PS109" s="5"/>
+      <c r="PT109" s="5"/>
+      <c r="PU109" s="5"/>
+      <c r="PV109" s="5"/>
+      <c r="PW109" s="5"/>
+      <c r="PX109" s="5"/>
+      <c r="PY109" s="5"/>
+      <c r="PZ109" s="5"/>
+      <c r="QA109" s="5"/>
+      <c r="QB109" s="5"/>
+      <c r="QC109" s="5"/>
+      <c r="QD109" s="5"/>
+      <c r="QE109" s="5"/>
+      <c r="QF109" s="5"/>
+      <c r="QG109" s="5"/>
+      <c r="QH109" s="5"/>
+      <c r="QI109" s="5"/>
+      <c r="QJ109" s="5"/>
+      <c r="QK109" s="5"/>
+      <c r="QL109" s="5"/>
+      <c r="QM109" s="5"/>
+      <c r="QN109" s="5"/>
+      <c r="QO109" s="5"/>
+      <c r="QP109" s="5"/>
+      <c r="QQ109" s="5"/>
+      <c r="QR109" s="5"/>
+      <c r="QS109" s="5"/>
+      <c r="QT109" s="5"/>
+      <c r="QU109" s="5"/>
+      <c r="QV109" s="5"/>
+      <c r="QW109" s="5"/>
+      <c r="QX109" s="5"/>
+      <c r="QY109" s="5"/>
+      <c r="QZ109" s="5"/>
+      <c r="RA109" s="5"/>
+      <c r="RB109" s="5"/>
+      <c r="RC109" s="5"/>
+      <c r="RD109" s="5"/>
+      <c r="RE109" s="5"/>
+      <c r="RF109" s="5"/>
+      <c r="RG109" s="5"/>
+      <c r="RH109" s="5"/>
+      <c r="RI109" s="5"/>
+      <c r="RJ109" s="5"/>
+      <c r="RK109" s="5"/>
+      <c r="RL109" s="5"/>
+      <c r="RM109" s="5"/>
+      <c r="RN109" s="5"/>
+      <c r="RO109" s="5"/>
+      <c r="RP109" s="5"/>
+      <c r="RQ109" s="5"/>
+      <c r="RR109" s="5"/>
+      <c r="RS109" s="5"/>
+      <c r="RT109" s="5"/>
+      <c r="RU109" s="5"/>
+      <c r="RV109" s="5"/>
+      <c r="RW109" s="5"/>
+      <c r="RX109" s="5"/>
+      <c r="RY109" s="5"/>
+      <c r="RZ109" s="5"/>
+      <c r="SA109" s="5"/>
+      <c r="SB109" s="5"/>
+      <c r="SC109" s="5"/>
+      <c r="SD109" s="5"/>
+      <c r="SE109" s="5"/>
+      <c r="SF109" s="5"/>
+      <c r="SG109" s="5"/>
+      <c r="SH109" s="5"/>
+      <c r="SI109" s="5"/>
+      <c r="SJ109" s="5"/>
+      <c r="SK109" s="5"/>
+      <c r="SL109" s="5"/>
+      <c r="SM109" s="5"/>
+      <c r="SN109" s="5"/>
+      <c r="SO109" s="5"/>
+      <c r="SP109" s="5"/>
+      <c r="SQ109" s="5"/>
+      <c r="SR109" s="5"/>
+      <c r="SS109" s="5"/>
+      <c r="ST109" s="5"/>
+      <c r="SU109" s="5"/>
+      <c r="SV109" s="5"/>
+      <c r="SW109" s="5"/>
+      <c r="SX109" s="5"/>
+      <c r="SY109" s="5"/>
+      <c r="SZ109" s="5"/>
+      <c r="TA109" s="5"/>
+      <c r="TB109" s="5"/>
+      <c r="TC109" s="5"/>
+      <c r="TD109" s="5"/>
+      <c r="TE109" s="5"/>
+      <c r="TF109" s="5"/>
+      <c r="TG109" s="5"/>
+      <c r="TH109" s="5"/>
+      <c r="TI109" s="5"/>
+      <c r="TJ109" s="5"/>
+      <c r="TK109" s="5"/>
+      <c r="TL109" s="5"/>
+      <c r="TM109" s="5"/>
+      <c r="TN109" s="5"/>
+      <c r="TO109" s="5"/>
+      <c r="TP109" s="5"/>
+      <c r="TQ109" s="5"/>
+      <c r="TR109" s="5"/>
+      <c r="TS109" s="5"/>
+      <c r="TT109" s="5"/>
+      <c r="TU109" s="5"/>
+      <c r="TV109" s="5"/>
+      <c r="TW109" s="5"/>
+      <c r="TX109" s="5"/>
+      <c r="TY109" s="5"/>
+      <c r="TZ109" s="5"/>
+      <c r="UA109" s="5"/>
+      <c r="UB109" s="5"/>
+      <c r="UC109" s="5"/>
+      <c r="UD109" s="5"/>
+      <c r="UE109" s="5"/>
+      <c r="UF109" s="5"/>
+      <c r="UG109" s="5"/>
+      <c r="UH109" s="5"/>
+      <c r="UI109" s="5"/>
+      <c r="UJ109" s="5"/>
+      <c r="UK109" s="5"/>
+      <c r="UL109" s="5"/>
+      <c r="UM109" s="5"/>
+      <c r="UN109" s="5"/>
+      <c r="UO109" s="5"/>
+      <c r="UP109" s="5"/>
+      <c r="UQ109" s="5"/>
+      <c r="UR109" s="5"/>
+      <c r="US109" s="5"/>
+      <c r="UT109" s="5"/>
+      <c r="UU109" s="5"/>
+      <c r="UV109" s="5"/>
+      <c r="UW109" s="5"/>
+      <c r="UX109" s="5"/>
+      <c r="UY109" s="5"/>
+      <c r="UZ109" s="5"/>
+      <c r="VA109" s="5"/>
+      <c r="VB109" s="5"/>
+      <c r="VC109" s="5"/>
+      <c r="VD109" s="5"/>
+      <c r="VE109" s="5"/>
+      <c r="VF109" s="5"/>
+      <c r="VG109" s="5"/>
+      <c r="VH109" s="5"/>
+      <c r="VI109" s="5"/>
+      <c r="VJ109" s="5"/>
+      <c r="VK109" s="5"/>
+      <c r="VL109" s="5"/>
+      <c r="VM109" s="5"/>
+      <c r="VN109" s="5"/>
+      <c r="VO109" s="5"/>
+      <c r="VP109" s="5"/>
+      <c r="VQ109" s="5"/>
+      <c r="VR109" s="5"/>
+      <c r="VS109" s="5"/>
+      <c r="VT109" s="5"/>
+      <c r="VU109" s="5"/>
+      <c r="VV109" s="5"/>
+      <c r="VW109" s="5"/>
+      <c r="VX109" s="5"/>
+      <c r="VY109" s="5"/>
+      <c r="VZ109" s="5"/>
+      <c r="WA109" s="5"/>
+      <c r="WB109" s="5"/>
+      <c r="WC109" s="5"/>
+      <c r="WD109" s="5"/>
+      <c r="WE109" s="5"/>
+      <c r="WF109" s="5"/>
+      <c r="WG109" s="5"/>
+      <c r="WH109" s="5"/>
+      <c r="WI109" s="5"/>
+      <c r="WJ109" s="5"/>
+      <c r="WK109" s="5"/>
+      <c r="WL109" s="5"/>
+      <c r="WM109" s="5"/>
+      <c r="WN109" s="5"/>
+      <c r="WO109" s="5"/>
+      <c r="WP109" s="5"/>
+      <c r="WQ109" s="5"/>
+      <c r="WR109" s="5"/>
+      <c r="WS109" s="5"/>
+      <c r="WT109" s="5"/>
+      <c r="WU109" s="5"/>
+      <c r="WV109" s="5"/>
+      <c r="WW109" s="5"/>
+      <c r="WX109" s="5"/>
+      <c r="WY109" s="5"/>
+      <c r="WZ109" s="5"/>
+      <c r="XA109" s="5"/>
+      <c r="XB109" s="5"/>
+      <c r="XC109" s="5"/>
+      <c r="XD109" s="5"/>
+      <c r="XE109" s="5"/>
+      <c r="XF109" s="5"/>
+      <c r="XG109" s="5"/>
+      <c r="XH109" s="5"/>
+      <c r="XI109" s="5"/>
+      <c r="XJ109" s="5"/>
+      <c r="XK109" s="5"/>
+      <c r="XL109" s="5"/>
+      <c r="XM109" s="5"/>
+      <c r="XN109" s="5"/>
+      <c r="XO109" s="5"/>
+      <c r="XP109" s="5"/>
+      <c r="XQ109" s="5"/>
+      <c r="XR109" s="5"/>
+      <c r="XS109" s="5"/>
+      <c r="XT109" s="5"/>
+      <c r="XU109" s="5"/>
+      <c r="XV109" s="5"/>
+      <c r="XW109" s="5"/>
+      <c r="XX109" s="5"/>
+      <c r="XY109" s="5"/>
+      <c r="XZ109" s="5"/>
+      <c r="YA109" s="5"/>
+      <c r="YB109" s="5"/>
+      <c r="YC109" s="5"/>
+      <c r="YD109" s="5"/>
+      <c r="YE109" s="5"/>
+      <c r="YF109" s="5"/>
+      <c r="YG109" s="5"/>
+      <c r="YH109" s="5"/>
+      <c r="YI109" s="5"/>
+      <c r="YJ109" s="5"/>
+      <c r="YK109" s="5"/>
+      <c r="YL109" s="5"/>
+      <c r="YM109" s="5"/>
+      <c r="YN109" s="5"/>
+      <c r="YO109" s="5"/>
+      <c r="YP109" s="5"/>
+      <c r="YQ109" s="5"/>
+      <c r="YR109" s="5"/>
+      <c r="YS109" s="5"/>
+      <c r="YT109" s="5"/>
+      <c r="YU109" s="5"/>
+      <c r="YV109" s="5"/>
+      <c r="YW109" s="5"/>
+      <c r="YX109" s="5"/>
+      <c r="YY109" s="5"/>
+      <c r="YZ109" s="5"/>
+      <c r="ZA109" s="5"/>
+      <c r="ZB109" s="5"/>
+      <c r="ZC109" s="5"/>
+      <c r="ZD109" s="5"/>
+      <c r="ZE109" s="5"/>
+      <c r="ZF109" s="5"/>
+      <c r="ZG109" s="5"/>
+      <c r="ZH109" s="5"/>
+      <c r="ZI109" s="5"/>
+      <c r="ZJ109" s="5"/>
+      <c r="ZK109" s="5"/>
+      <c r="ZL109" s="5"/>
+      <c r="ZM109" s="5"/>
+      <c r="ZN109" s="5"/>
+      <c r="ZO109" s="5"/>
+      <c r="ZP109" s="5"/>
+      <c r="ZQ109" s="5"/>
+      <c r="ZR109" s="5"/>
+      <c r="ZS109" s="5"/>
+      <c r="ZT109" s="5"/>
+      <c r="ZU109" s="5"/>
+      <c r="ZV109" s="5"/>
+      <c r="ZW109" s="5"/>
+      <c r="ZX109" s="5"/>
+      <c r="ZY109" s="5"/>
+      <c r="ZZ109" s="5"/>
+      <c r="AAA109" s="5"/>
+      <c r="AAB109" s="5"/>
+      <c r="AAC109" s="5"/>
+      <c r="AAD109" s="5"/>
+      <c r="AAE109" s="5"/>
+      <c r="AAF109" s="5"/>
+      <c r="AAG109" s="5"/>
+      <c r="AAH109" s="5"/>
+      <c r="AAI109" s="5"/>
+      <c r="AAJ109" s="5"/>
+      <c r="AAK109" s="5"/>
+      <c r="AAL109" s="5"/>
+      <c r="AAM109" s="5"/>
+      <c r="AAN109" s="5"/>
+      <c r="AAO109" s="5"/>
+      <c r="AAP109" s="5"/>
+      <c r="AAQ109" s="5"/>
+      <c r="AAR109" s="5"/>
+      <c r="AAS109" s="5"/>
+      <c r="AAT109" s="5"/>
+      <c r="AAU109" s="5"/>
+      <c r="AAV109" s="5"/>
+      <c r="AAW109" s="5"/>
+      <c r="AAX109" s="5"/>
+      <c r="AAY109" s="5"/>
+      <c r="AAZ109" s="5"/>
+      <c r="ABA109" s="5"/>
+      <c r="ABB109" s="5"/>
+      <c r="ABC109" s="5"/>
+      <c r="ABD109" s="5"/>
+      <c r="ABE109" s="5"/>
+      <c r="ABF109" s="5"/>
+      <c r="ABG109" s="5"/>
+      <c r="ABH109" s="5"/>
+      <c r="ABI109" s="5"/>
+      <c r="ABJ109" s="5"/>
+      <c r="ABK109" s="5"/>
+      <c r="ABL109" s="5"/>
+      <c r="ABM109" s="5"/>
+      <c r="ABN109" s="5"/>
+      <c r="ABO109" s="5"/>
+      <c r="ABP109" s="5"/>
+      <c r="ABQ109" s="5"/>
+      <c r="ABR109" s="5"/>
+      <c r="ABS109" s="5"/>
+      <c r="ABT109" s="5"/>
+      <c r="ABU109" s="5"/>
+      <c r="ABV109" s="5"/>
+      <c r="ABW109" s="5"/>
+      <c r="ABX109" s="5"/>
+      <c r="ABY109" s="5"/>
+      <c r="ABZ109" s="5"/>
+      <c r="ACA109" s="5"/>
+      <c r="ACB109" s="5"/>
+      <c r="ACC109" s="5"/>
+      <c r="ACD109" s="5"/>
+      <c r="ACE109" s="5"/>
+      <c r="ACF109" s="5"/>
+      <c r="ACG109" s="5"/>
+      <c r="ACH109" s="5"/>
+      <c r="ACI109" s="5"/>
+      <c r="ACJ109" s="5"/>
+      <c r="ACK109" s="5"/>
+      <c r="ACL109" s="5"/>
+      <c r="ACM109" s="5"/>
+      <c r="ACN109" s="5"/>
+      <c r="ACO109" s="5"/>
+      <c r="ACP109" s="5"/>
+      <c r="ACQ109" s="5"/>
+      <c r="ACR109" s="5"/>
+      <c r="ACS109" s="5"/>
+      <c r="ACT109" s="5"/>
+      <c r="ACU109" s="5"/>
+      <c r="ACV109" s="5"/>
+      <c r="ACW109" s="5"/>
+      <c r="ACX109" s="5"/>
+      <c r="ACY109" s="5"/>
+      <c r="ACZ109" s="5"/>
+      <c r="ADA109" s="5"/>
+      <c r="ADB109" s="5"/>
+      <c r="ADC109" s="5"/>
+      <c r="ADD109" s="5"/>
+      <c r="ADE109" s="5"/>
+      <c r="ADF109" s="5"/>
+      <c r="ADG109" s="5"/>
+      <c r="ADH109" s="5"/>
+      <c r="ADI109" s="5"/>
+      <c r="ADJ109" s="5"/>
+      <c r="ADK109" s="5"/>
+      <c r="ADL109" s="5"/>
+      <c r="ADM109" s="5"/>
+      <c r="ADN109" s="5"/>
+      <c r="ADO109" s="5"/>
+      <c r="ADP109" s="5"/>
+      <c r="ADQ109" s="5"/>
+      <c r="ADR109" s="5"/>
+      <c r="ADS109" s="5"/>
+      <c r="ADT109" s="5"/>
+      <c r="ADU109" s="5"/>
+      <c r="ADV109" s="5"/>
+      <c r="ADW109" s="5"/>
+      <c r="ADX109" s="5"/>
+      <c r="ADY109" s="5"/>
+      <c r="ADZ109" s="5"/>
+      <c r="AEA109" s="5"/>
+      <c r="AEB109" s="5"/>
+      <c r="AEC109" s="5"/>
+      <c r="AED109" s="5"/>
+      <c r="AEE109" s="5"/>
+      <c r="AEF109" s="5"/>
+      <c r="AEG109" s="5"/>
+      <c r="AEH109" s="5"/>
+      <c r="AEI109" s="5"/>
+      <c r="AEJ109" s="5"/>
+      <c r="AEK109" s="5"/>
+      <c r="AEL109" s="5"/>
+      <c r="AEM109" s="5"/>
+      <c r="AEN109" s="5"/>
+      <c r="AEO109" s="5"/>
+      <c r="AEP109" s="5"/>
+      <c r="AEQ109" s="5"/>
+      <c r="AER109" s="5"/>
+      <c r="AES109" s="5"/>
+      <c r="AET109" s="5"/>
+      <c r="AEU109" s="5"/>
+      <c r="AEV109" s="5"/>
+      <c r="AEW109" s="5"/>
+      <c r="AEX109" s="5"/>
+      <c r="AEY109" s="5"/>
+      <c r="AEZ109" s="5"/>
+      <c r="AFA109" s="5"/>
+      <c r="AFB109" s="5"/>
+      <c r="AFC109" s="5"/>
+      <c r="AFD109" s="5"/>
+      <c r="AFE109" s="5"/>
+      <c r="AFF109" s="5"/>
+      <c r="AFG109" s="5"/>
+      <c r="AFH109" s="5"/>
+      <c r="AFI109" s="5"/>
+      <c r="AFJ109" s="5"/>
+      <c r="AFK109" s="5"/>
+      <c r="AFL109" s="5"/>
+      <c r="AFM109" s="5"/>
+      <c r="AFN109" s="5"/>
+      <c r="AFO109" s="5"/>
+      <c r="AFP109" s="5"/>
+      <c r="AFQ109" s="5"/>
+      <c r="AFR109" s="5"/>
+      <c r="AFS109" s="5"/>
+      <c r="AFT109" s="5"/>
+      <c r="AFU109" s="5"/>
+      <c r="AFV109" s="5"/>
+      <c r="AFW109" s="5"/>
+      <c r="AFX109" s="5"/>
+      <c r="AFY109" s="5"/>
+      <c r="AFZ109" s="5"/>
+      <c r="AGA109" s="5"/>
+      <c r="AGB109" s="5"/>
+      <c r="AGC109" s="5"/>
+      <c r="AGD109" s="5"/>
+      <c r="AGE109" s="5"/>
+      <c r="AGF109" s="5"/>
+      <c r="AGG109" s="5"/>
+      <c r="AGH109" s="5"/>
+      <c r="AGI109" s="5"/>
+      <c r="AGJ109" s="5"/>
+      <c r="AGK109" s="5"/>
+      <c r="AGL109" s="5"/>
+      <c r="AGM109" s="5"/>
+      <c r="AGN109" s="5"/>
+      <c r="AGO109" s="5"/>
+      <c r="AGP109" s="5"/>
+      <c r="AGQ109" s="5"/>
+      <c r="AGR109" s="5"/>
+      <c r="AGS109" s="5"/>
+      <c r="AGT109" s="5"/>
+      <c r="AGU109" s="5"/>
+      <c r="AGV109" s="5"/>
+      <c r="AGW109" s="5"/>
+      <c r="AGX109" s="5"/>
+      <c r="AGY109" s="5"/>
+      <c r="AGZ109" s="5"/>
+      <c r="AHA109" s="5"/>
+      <c r="AHB109" s="5"/>
+      <c r="AHC109" s="5"/>
+      <c r="AHD109" s="5"/>
+      <c r="AHE109" s="5"/>
+      <c r="AHF109" s="5"/>
+      <c r="AHG109" s="5"/>
+      <c r="AHH109" s="5"/>
+      <c r="AHI109" s="5"/>
+      <c r="AHJ109" s="5"/>
+      <c r="AHK109" s="5"/>
+      <c r="AHL109" s="5"/>
+      <c r="AHM109" s="5"/>
+      <c r="AHN109" s="5"/>
+      <c r="AHO109" s="5"/>
+      <c r="AHP109" s="5"/>
+      <c r="AHQ109" s="5"/>
+      <c r="AHR109" s="5"/>
+      <c r="AHS109" s="5"/>
+      <c r="AHT109" s="5"/>
+      <c r="AHU109" s="5"/>
+      <c r="AHV109" s="5"/>
+      <c r="AHW109" s="5"/>
+      <c r="AHX109" s="5"/>
+      <c r="AHY109" s="5"/>
+      <c r="AHZ109" s="5"/>
+      <c r="AIA109" s="5"/>
+      <c r="AIB109" s="5"/>
+      <c r="AIC109" s="5"/>
+      <c r="AID109" s="5"/>
+      <c r="AIE109" s="5"/>
+      <c r="AIF109" s="5"/>
+      <c r="AIG109" s="5"/>
+      <c r="AIH109" s="5"/>
+      <c r="AII109" s="5"/>
+      <c r="AIJ109" s="5"/>
+      <c r="AIK109" s="5"/>
+      <c r="AIL109" s="5"/>
+      <c r="AIM109" s="5"/>
+      <c r="AIN109" s="5"/>
+      <c r="AIO109" s="5"/>
+      <c r="AIP109" s="5"/>
+      <c r="AIQ109" s="5"/>
+      <c r="AIR109" s="5"/>
+      <c r="AIS109" s="5"/>
+      <c r="AIT109" s="5"/>
+      <c r="AIU109" s="5"/>
+      <c r="AIV109" s="5"/>
+      <c r="AIW109" s="5"/>
+      <c r="AIX109" s="5"/>
+      <c r="AIY109" s="5"/>
+      <c r="AIZ109" s="5"/>
+      <c r="AJA109" s="5"/>
+      <c r="AJB109" s="5"/>
+      <c r="AJC109" s="5"/>
+      <c r="AJD109" s="5"/>
+      <c r="AJE109" s="5"/>
+      <c r="AJF109" s="5"/>
+      <c r="AJG109" s="5"/>
+      <c r="AJH109" s="5"/>
+      <c r="AJI109" s="5"/>
+      <c r="AJJ109" s="5"/>
+      <c r="AJK109" s="5"/>
+      <c r="AJL109" s="5"/>
+      <c r="AJM109" s="5"/>
+      <c r="AJN109" s="5"/>
+      <c r="AJO109" s="5"/>
+      <c r="AJP109" s="5"/>
+      <c r="AJQ109" s="5"/>
+      <c r="AJR109" s="5"/>
+      <c r="AJS109" s="5"/>
+      <c r="AJT109" s="5"/>
+      <c r="AJU109" s="5"/>
+      <c r="AJV109" s="5"/>
+      <c r="AJW109" s="5"/>
+      <c r="AJX109" s="5"/>
+      <c r="AJY109" s="5"/>
+      <c r="AJZ109" s="5"/>
+      <c r="AKA109" s="5"/>
+      <c r="AKB109" s="5"/>
+      <c r="AKC109" s="5"/>
+      <c r="AKD109" s="5"/>
+      <c r="AKE109" s="5"/>
+      <c r="AKF109" s="5"/>
+      <c r="AKG109" s="5"/>
+      <c r="AKH109" s="5"/>
+      <c r="AKI109" s="5"/>
+      <c r="AKJ109" s="5"/>
+      <c r="AKK109" s="5"/>
+      <c r="AKL109" s="5"/>
+      <c r="AKM109" s="5"/>
+      <c r="AKN109" s="5"/>
+      <c r="AKO109" s="5"/>
+      <c r="AKP109" s="5"/>
+      <c r="AKQ109" s="5"/>
+      <c r="AKR109" s="5"/>
+      <c r="AKS109" s="5"/>
+      <c r="AKT109" s="5"/>
+      <c r="AKU109" s="5"/>
+      <c r="AKV109" s="5"/>
+      <c r="AKW109" s="5"/>
+      <c r="AKX109" s="5"/>
+      <c r="AKY109" s="5"/>
+      <c r="AKZ109" s="5"/>
+      <c r="ALA109" s="5"/>
+      <c r="ALB109" s="5"/>
+      <c r="ALC109" s="5"/>
+      <c r="ALD109" s="5"/>
+      <c r="ALE109" s="5"/>
+      <c r="ALF109" s="5"/>
+      <c r="ALG109" s="5"/>
+      <c r="ALH109" s="5"/>
+      <c r="ALI109" s="5"/>
+      <c r="ALJ109" s="5"/>
+      <c r="ALK109" s="5"/>
+      <c r="ALL109" s="5"/>
+      <c r="ALM109" s="5"/>
+      <c r="ALN109" s="5"/>
+      <c r="ALO109" s="5"/>
+      <c r="ALP109" s="5"/>
+      <c r="ALQ109" s="5"/>
+      <c r="ALR109" s="5"/>
+      <c r="ALS109" s="5"/>
+      <c r="ALT109" s="5"/>
+      <c r="ALU109" s="5"/>
+      <c r="ALV109" s="5"/>
+      <c r="ALW109" s="5"/>
+      <c r="ALX109" s="5"/>
+      <c r="ALY109" s="5"/>
+      <c r="ALZ109" s="5"/>
+      <c r="AMA109" s="5"/>
+      <c r="AMB109" s="5"/>
+      <c r="AMC109" s="5"/>
+      <c r="AMD109" s="5"/>
+      <c r="AME109" s="5"/>
+      <c r="AMF109" s="5"/>
+      <c r="AMG109" s="5"/>
+      <c r="AMH109" s="0"/>
+      <c r="AMI109" s="0"/>
+      <c r="AMJ109" s="0"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F103">
+  <autoFilter ref="A1:F105">
     <filterColumn colId="5">
       <filters>
         <filter val="Fixed?"/>
@@ -3499,100 +5598,102 @@
     </filterColumn>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" display="#1708"/>
-    <hyperlink ref="B5" r:id="rId2" display="#1185"/>
-    <hyperlink ref="B6" r:id="rId3" display="#11"/>
-    <hyperlink ref="B7" r:id="rId4" display="#1309"/>
-    <hyperlink ref="B8" r:id="rId5" display="#1176"/>
-    <hyperlink ref="B9" r:id="rId6" display="#1171"/>
-    <hyperlink ref="B10" r:id="rId7" display="#1164"/>
-    <hyperlink ref="B11" r:id="rId8" display="#9"/>
-    <hyperlink ref="B12" r:id="rId9" display="#1163"/>
-    <hyperlink ref="B13" r:id="rId10" display="#1161"/>
-    <hyperlink ref="B14" r:id="rId11" display="#1690"/>
-    <hyperlink ref="B16" r:id="rId12" display="#1155"/>
-    <hyperlink ref="B17" r:id="rId13" display="#1150"/>
-    <hyperlink ref="B18" r:id="rId14" display="#1151"/>
-    <hyperlink ref="B19" r:id="rId15" display="#1200"/>
-    <hyperlink ref="B20" r:id="rId16" display="#1681"/>
-    <hyperlink ref="B21" r:id="rId17" display="#1142"/>
-    <hyperlink ref="B22" r:id="rId18" display="#8"/>
-    <hyperlink ref="B23" r:id="rId19" display="#1674"/>
-    <hyperlink ref="B24" r:id="rId20" display="#1672"/>
-    <hyperlink ref="B25" r:id="rId21" display="#1669"/>
-    <hyperlink ref="B26" r:id="rId22" display="#1670"/>
-    <hyperlink ref="B27" r:id="rId23" display="#1184"/>
-    <hyperlink ref="B28" r:id="rId24" display="#49"/>
-    <hyperlink ref="B29" r:id="rId25" display="#1140"/>
-    <hyperlink ref="B30" r:id="rId26" display="#1132"/>
-    <hyperlink ref="B32" r:id="rId27" display="#1125"/>
-    <hyperlink ref="B33" r:id="rId28" display="#1641"/>
-    <hyperlink ref="B34" r:id="rId29" display="#1124"/>
-    <hyperlink ref="B35" r:id="rId30" display="#1122"/>
-    <hyperlink ref="B36" r:id="rId31" display="#43"/>
-    <hyperlink ref="B37" r:id="rId32" display="#1622"/>
-    <hyperlink ref="B39" r:id="rId33" display="#38"/>
-    <hyperlink ref="B40" r:id="rId34" display="#1621"/>
-    <hyperlink ref="B41" r:id="rId35" display="#1616"/>
-    <hyperlink ref="B42" r:id="rId36" display="#37"/>
-    <hyperlink ref="B43" r:id="rId37" display="#36"/>
-    <hyperlink ref="B44" r:id="rId38" display="#1101"/>
-    <hyperlink ref="B45" r:id="rId39" display="#1099"/>
-    <hyperlink ref="B46" r:id="rId40" display="#1098"/>
-    <hyperlink ref="B47" r:id="rId41" display="#1617"/>
-    <hyperlink ref="B48" r:id="rId42" display="#1092"/>
-    <hyperlink ref="B49" r:id="rId43" display="#1128"/>
-    <hyperlink ref="B50" r:id="rId44" display="#1090"/>
-    <hyperlink ref="B51" r:id="rId45" display="#1608"/>
-    <hyperlink ref="B52" r:id="rId46" display="#35"/>
-    <hyperlink ref="B54" r:id="rId47" display="#1070"/>
-    <hyperlink ref="B55" r:id="rId48" display="#1592"/>
-    <hyperlink ref="B56" r:id="rId49" display="#1591"/>
-    <hyperlink ref="B57" r:id="rId50" display="#1578"/>
-    <hyperlink ref="B58" r:id="rId51" display="#41"/>
-    <hyperlink ref="B59" r:id="rId52" display="#42"/>
-    <hyperlink ref="B60" r:id="rId53" display="#1566"/>
-    <hyperlink ref="B61" r:id="rId54" display="#1565"/>
-    <hyperlink ref="B62" r:id="rId55" display="#1046"/>
-    <hyperlink ref="B63" r:id="rId56" display="#1559"/>
-    <hyperlink ref="B64" r:id="rId57" display="#1038"/>
-    <hyperlink ref="B65" r:id="rId58" display="#1037"/>
-    <hyperlink ref="B66" r:id="rId59" display="#1020"/>
-    <hyperlink ref="B67" r:id="rId60" display="#1032"/>
-    <hyperlink ref="B68" r:id="rId61" display="#1546"/>
-    <hyperlink ref="B69" r:id="rId62" display="#1027"/>
-    <hyperlink ref="B70" r:id="rId63" display="#1529"/>
-    <hyperlink ref="B72" r:id="rId64" display="#1527"/>
-    <hyperlink ref="B73" r:id="rId65" display="#558"/>
-    <hyperlink ref="B74" r:id="rId66" display="#1005"/>
-    <hyperlink ref="B75" r:id="rId67" display="#1020"/>
-    <hyperlink ref="B76" r:id="rId68" display="#993"/>
-    <hyperlink ref="B77" r:id="rId69" display="#1520"/>
-    <hyperlink ref="B78" r:id="rId70" display="#1519"/>
-    <hyperlink ref="B79" r:id="rId71" display="#969"/>
-    <hyperlink ref="B80" r:id="rId72" display="#1003"/>
-    <hyperlink ref="B81" r:id="rId73" display="#1015"/>
-    <hyperlink ref="B82" r:id="rId74" display="#1002"/>
-    <hyperlink ref="B83" r:id="rId75" display="#1471"/>
-    <hyperlink ref="B84" r:id="rId76" display="#1497"/>
-    <hyperlink ref="B85" r:id="rId77" display="#947"/>
-    <hyperlink ref="B86" r:id="rId78" display="#933"/>
-    <hyperlink ref="B87" r:id="rId79" display="#932"/>
-    <hyperlink ref="B88" r:id="rId80" display="#931"/>
-    <hyperlink ref="B89" r:id="rId81" display="#987"/>
-    <hyperlink ref="B90" r:id="rId82" display="#988"/>
-    <hyperlink ref="B91" r:id="rId83" display="#982"/>
-    <hyperlink ref="B92" r:id="rId84" display="#979"/>
-    <hyperlink ref="B93" r:id="rId85" display="#977"/>
-    <hyperlink ref="B94" r:id="rId86" display="#975"/>
-    <hyperlink ref="B95" r:id="rId87" display="#1445"/>
-    <hyperlink ref="B96" r:id="rId88" display="#1444"/>
-    <hyperlink ref="B97" r:id="rId89" display="#1427"/>
-    <hyperlink ref="B99" r:id="rId90" display="#23"/>
-    <hyperlink ref="B100" r:id="rId91" display="#22"/>
-    <hyperlink ref="B101" r:id="rId92" display="#18"/>
-    <hyperlink ref="B102" r:id="rId93" display="#1207"/>
-    <hyperlink ref="B103" r:id="rId94" display="#245"/>
+    <hyperlink ref="B4" r:id="rId1" display="#1201"/>
+    <hyperlink ref="B5" r:id="rId2" display="#1200"/>
+    <hyperlink ref="B6" r:id="rId3" display="#1708"/>
+    <hyperlink ref="B7" r:id="rId4" display="#1185"/>
+    <hyperlink ref="B8" r:id="rId5" display="#11"/>
+    <hyperlink ref="B9" r:id="rId6" display="#1309"/>
+    <hyperlink ref="B10" r:id="rId7" display="#1176"/>
+    <hyperlink ref="B11" r:id="rId8" display="#1171"/>
+    <hyperlink ref="B12" r:id="rId9" display="#1164"/>
+    <hyperlink ref="B13" r:id="rId10" display="#9"/>
+    <hyperlink ref="B14" r:id="rId11" display="#1163"/>
+    <hyperlink ref="B15" r:id="rId12" display="#1161"/>
+    <hyperlink ref="B16" r:id="rId13" display="#1690"/>
+    <hyperlink ref="B18" r:id="rId14" display="#1155"/>
+    <hyperlink ref="B19" r:id="rId15" display="#1150"/>
+    <hyperlink ref="B20" r:id="rId16" display="#1151"/>
+    <hyperlink ref="B21" r:id="rId17" display="#1200"/>
+    <hyperlink ref="B22" r:id="rId18" display="#1681"/>
+    <hyperlink ref="B23" r:id="rId19" display="#1142"/>
+    <hyperlink ref="B24" r:id="rId20" display="#8"/>
+    <hyperlink ref="B25" r:id="rId21" display="#1674"/>
+    <hyperlink ref="B26" r:id="rId22" display="#1672"/>
+    <hyperlink ref="B27" r:id="rId23" display="#1669"/>
+    <hyperlink ref="B28" r:id="rId24" display="#1670"/>
+    <hyperlink ref="B29" r:id="rId25" display="#1184"/>
+    <hyperlink ref="B30" r:id="rId26" display="#49"/>
+    <hyperlink ref="B31" r:id="rId27" display="#1140"/>
+    <hyperlink ref="B32" r:id="rId28" display="#1132"/>
+    <hyperlink ref="B34" r:id="rId29" display="#1125"/>
+    <hyperlink ref="B35" r:id="rId30" display="#1641"/>
+    <hyperlink ref="B36" r:id="rId31" display="#1124"/>
+    <hyperlink ref="B37" r:id="rId32" display="#1122"/>
+    <hyperlink ref="B38" r:id="rId33" display="#43"/>
+    <hyperlink ref="B39" r:id="rId34" display="#1622"/>
+    <hyperlink ref="B41" r:id="rId35" display="#38"/>
+    <hyperlink ref="B42" r:id="rId36" display="#1621"/>
+    <hyperlink ref="B43" r:id="rId37" display="#1616"/>
+    <hyperlink ref="B44" r:id="rId38" display="#37"/>
+    <hyperlink ref="B45" r:id="rId39" display="#36"/>
+    <hyperlink ref="B46" r:id="rId40" display="#1101"/>
+    <hyperlink ref="B47" r:id="rId41" display="#1099"/>
+    <hyperlink ref="B48" r:id="rId42" display="#1098"/>
+    <hyperlink ref="B49" r:id="rId43" display="#1617"/>
+    <hyperlink ref="B50" r:id="rId44" display="#1092"/>
+    <hyperlink ref="B51" r:id="rId45" display="#1128"/>
+    <hyperlink ref="B52" r:id="rId46" display="#1090"/>
+    <hyperlink ref="B53" r:id="rId47" display="#1608"/>
+    <hyperlink ref="B54" r:id="rId48" display="#35"/>
+    <hyperlink ref="B56" r:id="rId49" display="#1070"/>
+    <hyperlink ref="B57" r:id="rId50" display="#1592"/>
+    <hyperlink ref="B58" r:id="rId51" display="#1591"/>
+    <hyperlink ref="B59" r:id="rId52" display="#1578"/>
+    <hyperlink ref="B60" r:id="rId53" display="#41"/>
+    <hyperlink ref="B61" r:id="rId54" display="#42"/>
+    <hyperlink ref="B62" r:id="rId55" display="#1566"/>
+    <hyperlink ref="B63" r:id="rId56" display="#1565"/>
+    <hyperlink ref="B64" r:id="rId57" display="#1046"/>
+    <hyperlink ref="B65" r:id="rId58" display="#1559"/>
+    <hyperlink ref="B66" r:id="rId59" display="#1038"/>
+    <hyperlink ref="B67" r:id="rId60" display="#1037"/>
+    <hyperlink ref="B68" r:id="rId61" display="#1020"/>
+    <hyperlink ref="B69" r:id="rId62" display="#1032"/>
+    <hyperlink ref="B70" r:id="rId63" display="#1546"/>
+    <hyperlink ref="B71" r:id="rId64" display="#1027"/>
+    <hyperlink ref="B72" r:id="rId65" display="#1529"/>
+    <hyperlink ref="B74" r:id="rId66" display="#1527"/>
+    <hyperlink ref="B75" r:id="rId67" display="#558"/>
+    <hyperlink ref="B76" r:id="rId68" display="#1005"/>
+    <hyperlink ref="B77" r:id="rId69" display="#1020"/>
+    <hyperlink ref="B78" r:id="rId70" display="#993"/>
+    <hyperlink ref="B79" r:id="rId71" display="#1520"/>
+    <hyperlink ref="B80" r:id="rId72" display="#1519"/>
+    <hyperlink ref="B81" r:id="rId73" display="#969"/>
+    <hyperlink ref="B82" r:id="rId74" display="#1003"/>
+    <hyperlink ref="B83" r:id="rId75" display="#1015"/>
+    <hyperlink ref="B84" r:id="rId76" display="#1002"/>
+    <hyperlink ref="B85" r:id="rId77" display="#1471"/>
+    <hyperlink ref="B86" r:id="rId78" display="#1497"/>
+    <hyperlink ref="B87" r:id="rId79" display="#947"/>
+    <hyperlink ref="B88" r:id="rId80" display="#933"/>
+    <hyperlink ref="B89" r:id="rId81" display="#932"/>
+    <hyperlink ref="B90" r:id="rId82" display="#931"/>
+    <hyperlink ref="B91" r:id="rId83" display="#987"/>
+    <hyperlink ref="B92" r:id="rId84" display="#988"/>
+    <hyperlink ref="B93" r:id="rId85" display="#982"/>
+    <hyperlink ref="B94" r:id="rId86" display="#979"/>
+    <hyperlink ref="B95" r:id="rId87" display="#977"/>
+    <hyperlink ref="B96" r:id="rId88" display="#975"/>
+    <hyperlink ref="B97" r:id="rId89" display="#1445"/>
+    <hyperlink ref="B98" r:id="rId90" display="#1444"/>
+    <hyperlink ref="B99" r:id="rId91" display="#1427"/>
+    <hyperlink ref="B101" r:id="rId92" display="#23"/>
+    <hyperlink ref="B102" r:id="rId93" display="#22"/>
+    <hyperlink ref="B103" r:id="rId94" display="#18"/>
+    <hyperlink ref="B104" r:id="rId95" display="#1207"/>
+    <hyperlink ref="B105" r:id="rId96" display="#245"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="1" right="1" top="1.66666666666667" bottom="1.66666666666667" header="1" footer="1"/>
@@ -3601,7 +5702,7 @@
     <oddHeader>&amp;C&amp;"Sans,Regular"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Sans,Regular"Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId95"/>
+  <drawing r:id="rId97"/>
 </worksheet>
 </file>
 
@@ -3634,10 +5735,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -3646,10 +5747,10 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>

--- a/tickets/OmegaT_issues_nopw.xlsx
+++ b/tickets/OmegaT_issues_nopw.xlsx
@@ -13,7 +13,7 @@
     <sheet name="ETS" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'2022'!$A$1:$F$123</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'2022'!$A$1:$F$124</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="true" iterateDelta="0.001"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="280">
   <si>
     <t xml:space="preserve">#</t>
   </si>
@@ -117,15 +117,24 @@
     <t xml:space="preserve">WIP</t>
   </si>
   <si>
+    <t xml:space="preserve">#1732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Commit target files" also commits exported master TM to repo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RFE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open!</t>
+  </si>
+  <si>
     <t xml:space="preserve">#1731</t>
   </si>
   <si>
     <t xml:space="preserve">Change label "Project translation" to "Committed target files"</t>
   </si>
   <si>
-    <t xml:space="preserve">RFE</t>
-  </si>
-  <si>
     <t xml:space="preserve">Open</t>
   </si>
   <si>
@@ -133,9 +142,6 @@
   </si>
   <si>
     <t xml:space="preserve">Trim authentication details in team projects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open!</t>
   </si>
   <si>
     <t xml:space="preserve">#1724</t>
@@ -1441,14 +1447,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ125"/>
+  <dimension ref="A1:AMJ126"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G2" activeCellId="0" sqref="G2"/>
+      <selection pane="bottomRight" activeCell="G9" activeCellId="0" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1507,7 +1513,7 @@
     </row>
     <row r="4" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="n">
-        <v>45271</v>
+        <v>45274</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>30</v>
@@ -1531,7 +1537,7 @@
     </row>
     <row r="5" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="n">
-        <v>45238</v>
+        <v>45271</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>34</v>
@@ -1555,7 +1561,7 @@
     </row>
     <row r="6" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="n">
-        <v>45230</v>
+        <v>45238</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>37</v>
@@ -1570,7 +1576,7 @@
         <v>32</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="AMG6" s="0"/>
       <c r="AMH6" s="0"/>
@@ -1579,7 +1585,7 @@
     </row>
     <row r="7" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="n">
-        <v>45223</v>
+        <v>45230</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>39</v>
@@ -1603,7 +1609,7 @@
     </row>
     <row r="8" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="n">
-        <v>45236</v>
+        <v>45223</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>41</v>
@@ -1615,10 +1621,10 @@
         <v>42</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="AMG8" s="0"/>
       <c r="AMH8" s="0"/>
@@ -1627,22 +1633,22 @@
     </row>
     <row r="9" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="n">
-        <v>45233</v>
+        <v>45236</v>
       </c>
       <c r="B9" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>45</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="AMG9" s="0"/>
       <c r="AMH9" s="0"/>
@@ -1651,7 +1657,7 @@
     </row>
     <row r="10" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="n">
-        <v>45213</v>
+        <v>45233</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>46</v>
@@ -1663,7 +1669,7 @@
         <v>47</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>33</v>
@@ -1675,22 +1681,22 @@
     </row>
     <row r="11" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="n">
-        <v>45199</v>
+        <v>45213</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>48</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>49</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="AMG11" s="0"/>
       <c r="AMH11" s="0"/>
@@ -1699,22 +1705,22 @@
     </row>
     <row r="12" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="n">
-        <v>45170</v>
+        <v>45199</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>50</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>51</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="AMG12" s="0"/>
       <c r="AMH12" s="0"/>
@@ -1723,7 +1729,7 @@
     </row>
     <row r="13" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="n">
-        <v>45169</v>
+        <v>45170</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>52</v>
@@ -1738,7 +1744,7 @@
         <v>32</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="AMG13" s="0"/>
       <c r="AMH13" s="0"/>
@@ -1756,13 +1762,13 @@
         <v>7</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="AMG14" s="0"/>
       <c r="AMH14" s="0"/>
@@ -1771,16 +1777,16 @@
     </row>
     <row r="15" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="n">
-        <v>45145</v>
+        <v>45169</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>9</v>
@@ -1810,7 +1816,7 @@
         <v>9</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="AMG16" s="0"/>
       <c r="AMH16" s="0"/>
@@ -1834,7 +1840,7 @@
         <v>9</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AMG17" s="0"/>
       <c r="AMH17" s="0"/>
@@ -1843,16 +1849,22 @@
     </row>
     <row r="18" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="10" t="n">
-        <v>45112</v>
+        <v>45145</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="AMG18" s="0"/>
       <c r="AMH18" s="0"/>
@@ -1861,22 +1873,16 @@
     </row>
     <row r="19" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="10" t="n">
-        <v>45124</v>
-      </c>
-      <c r="B19" s="11" t="s">
+        <v>45112</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="9" t="s">
+      <c r="F19" s="9" t="s">
         <v>64</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>36</v>
       </c>
       <c r="AMG19" s="0"/>
       <c r="AMH19" s="0"/>
@@ -1885,22 +1891,22 @@
     </row>
     <row r="20" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="10" t="n">
-        <v>45119</v>
+        <v>45124</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>65</v>
       </c>
       <c r="C20" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="9" t="s">
-        <v>67</v>
-      </c>
       <c r="E20" s="9" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="AMG20" s="0"/>
       <c r="AMH20" s="0"/>
@@ -1912,10 +1918,10 @@
         <v>45119</v>
       </c>
       <c r="B21" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>68</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>66</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>69</v>
@@ -1924,7 +1930,7 @@
         <v>32</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="AMG21" s="0"/>
       <c r="AMH21" s="0"/>
@@ -1933,22 +1939,22 @@
     </row>
     <row r="22" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="10" t="n">
-        <v>45118</v>
+        <v>45119</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>70</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>71</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="AMG22" s="0"/>
       <c r="AMH22" s="0"/>
@@ -1972,7 +1978,7 @@
         <v>9</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="AMG23" s="0"/>
       <c r="AMH23" s="0"/>
@@ -1981,7 +1987,7 @@
     </row>
     <row r="24" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="10" t="n">
-        <v>45110</v>
+        <v>45118</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>74</v>
@@ -1993,7 +1999,7 @@
         <v>75</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="F24" s="9" t="s">
         <v>33</v>
@@ -2005,7 +2011,7 @@
     </row>
     <row r="25" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="10" t="n">
-        <v>45104</v>
+        <v>45110</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>76</v>
@@ -2013,14 +2019,14 @@
       <c r="C25" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="11" t="s">
-        <v>41</v>
+      <c r="D25" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="AMG25" s="0"/>
       <c r="AMH25" s="0"/>
@@ -2029,22 +2035,22 @@
     </row>
     <row r="26" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="10" t="n">
-        <v>45094</v>
+        <v>45104</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>78</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>80</v>
+        <v>7</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="AMG26" s="0"/>
       <c r="AMH26" s="0"/>
@@ -2053,13 +2059,13 @@
     </row>
     <row r="27" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="10" t="n">
-        <v>45069</v>
+        <v>45094</v>
       </c>
       <c r="B27" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>81</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>13</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>82</v>
@@ -2067,8 +2073,8 @@
       <c r="E27" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="12" t="s">
-        <v>83</v>
+      <c r="F27" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="AMG27" s="0"/>
       <c r="AMH27" s="0"/>
@@ -2080,19 +2086,19 @@
         <v>45069</v>
       </c>
       <c r="B28" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>85</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F28" s="9" t="s">
-        <v>62</v>
+      <c r="F28" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="AMG28" s="0"/>
       <c r="AMH28" s="0"/>
@@ -2101,7 +2107,7 @@
     </row>
     <row r="29" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="10" t="n">
-        <v>45064</v>
+        <v>45069</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>86</v>
@@ -2116,7 +2122,7 @@
         <v>9</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="AMG29" s="0"/>
       <c r="AMH29" s="0"/>
@@ -2125,7 +2131,7 @@
     </row>
     <row r="30" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="10" t="n">
-        <v>45049</v>
+        <v>45064</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>88</v>
@@ -2139,8 +2145,8 @@
       <c r="E30" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F30" s="12" t="s">
-        <v>43</v>
+      <c r="F30" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="AMG30" s="0"/>
       <c r="AMH30" s="0"/>
@@ -2154,17 +2160,17 @@
       <c r="B31" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="C31" s="13" t="s">
-        <v>79</v>
+      <c r="C31" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>91</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>62</v>
+        <v>9</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="AMG31" s="0"/>
       <c r="AMH31" s="0"/>
@@ -2173,22 +2179,22 @@
     </row>
     <row r="32" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="10" t="n">
-        <v>45044</v>
+        <v>45049</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="C32" s="9" t="s">
-        <v>7</v>
+      <c r="C32" s="13" t="s">
+        <v>81</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>93</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AMG32" s="0"/>
       <c r="AMH32" s="0"/>
@@ -2197,7 +2203,7 @@
     </row>
     <row r="33" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="10" t="n">
-        <v>45040</v>
+        <v>45044</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>94</v>
@@ -2212,7 +2218,7 @@
         <v>9</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="AMG33" s="0"/>
       <c r="AMH33" s="0"/>
@@ -2221,7 +2227,7 @@
     </row>
     <row r="34" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="10" t="n">
-        <v>45028</v>
+        <v>45040</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>96</v>
@@ -2233,10 +2239,10 @@
         <v>97</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="AMG34" s="0"/>
       <c r="AMH34" s="0"/>
@@ -2245,16 +2251,22 @@
     </row>
     <row r="35" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="10" t="n">
-        <v>44996</v>
+        <v>45028</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>98</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>98</v>
+        <v>7</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>99</v>
       </c>
+      <c r="E35" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="F35" s="9" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="AMG35" s="0"/>
       <c r="AMH35" s="0"/>
@@ -2263,22 +2275,16 @@
     </row>
     <row r="36" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="10" t="n">
-        <v>45007</v>
-      </c>
-      <c r="B36" s="11" t="s">
+        <v>44996</v>
+      </c>
+      <c r="C36" s="9" t="s">
         <v>100</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>7</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="E36" s="9" t="s">
-        <v>9</v>
-      </c>
       <c r="F36" s="9" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="AMG36" s="0"/>
       <c r="AMH36" s="0"/>
@@ -2287,7 +2293,7 @@
     </row>
     <row r="37" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="10" t="n">
-        <v>44993</v>
+        <v>45007</v>
       </c>
       <c r="B37" s="11" t="s">
         <v>102</v>
@@ -2302,7 +2308,7 @@
         <v>9</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="AMG37" s="0"/>
       <c r="AMH37" s="0"/>
@@ -2326,7 +2332,7 @@
         <v>9</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AMG38" s="0"/>
       <c r="AMH38" s="0"/>
@@ -2335,22 +2341,22 @@
     </row>
     <row r="39" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="10" t="n">
-        <v>44991</v>
+        <v>44993</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E39" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="AMG39" s="0"/>
       <c r="AMH39" s="0"/>
@@ -2359,22 +2365,22 @@
     </row>
     <row r="40" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="10" t="n">
-        <v>44981</v>
+        <v>44991</v>
       </c>
       <c r="B40" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C40" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D40" s="9" t="s">
+      <c r="E40" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="9" t="s">
         <v>109</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>33</v>
       </c>
       <c r="AMG40" s="0"/>
       <c r="AMH40" s="0"/>
@@ -2383,7 +2389,7 @@
     </row>
     <row r="41" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="10" t="n">
-        <v>44972</v>
+        <v>44981</v>
       </c>
       <c r="B41" s="11" t="s">
         <v>110</v>
@@ -2395,34 +2401,34 @@
         <v>111</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="AMG41" s="0"/>
       <c r="AMH41" s="0"/>
       <c r="AMI41" s="0"/>
       <c r="AMJ41" s="0"/>
     </row>
-    <row r="42" s="16" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="14" t="n">
-        <v>44970</v>
-      </c>
-      <c r="B42" s="15" t="s">
+    <row r="42" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="10" t="n">
+        <v>44972</v>
+      </c>
+      <c r="B42" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="C42" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="D42" s="13" t="s">
+      <c r="C42" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="E42" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F42" s="13" t="s">
-        <v>33</v>
+      <c r="E42" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="AMG42" s="0"/>
       <c r="AMH42" s="0"/>
@@ -2431,13 +2437,13 @@
     </row>
     <row r="43" s="16" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="14" t="n">
-        <v>44967</v>
+        <v>44970</v>
       </c>
       <c r="B43" s="15" t="s">
         <v>114</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="D43" s="13" t="s">
         <v>115</v>
@@ -2455,7 +2461,7 @@
     </row>
     <row r="44" s="16" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="14" t="n">
-        <v>44964</v>
+        <v>44967</v>
       </c>
       <c r="B44" s="15" t="s">
         <v>116</v>
@@ -2470,7 +2476,7 @@
         <v>32</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="AMG44" s="0"/>
       <c r="AMH44" s="0"/>
@@ -2479,7 +2485,7 @@
     </row>
     <row r="45" s="16" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="14" t="n">
-        <v>44952</v>
+        <v>44964</v>
       </c>
       <c r="B45" s="15" t="s">
         <v>118</v>
@@ -2494,7 +2500,7 @@
         <v>32</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AMG45" s="0"/>
       <c r="AMH45" s="0"/>
@@ -2518,7 +2524,7 @@
         <v>32</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="AMG46" s="0"/>
       <c r="AMH46" s="0"/>
@@ -2527,22 +2533,22 @@
     </row>
     <row r="47" s="16" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="14" t="n">
-        <v>44949</v>
+        <v>44952</v>
       </c>
       <c r="B47" s="15" t="s">
         <v>122</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D47" s="13" t="s">
         <v>123</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="AMG47" s="0"/>
       <c r="AMH47" s="0"/>
@@ -2551,22 +2557,22 @@
     </row>
     <row r="48" s="16" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="14" t="n">
-        <v>44948</v>
+        <v>44949</v>
       </c>
       <c r="B48" s="15" t="s">
         <v>124</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="D48" s="13" t="s">
         <v>125</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="AMG48" s="0"/>
       <c r="AMH48" s="0"/>
@@ -2575,130 +2581,130 @@
     </row>
     <row r="49" s="16" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="14" t="n">
-        <v>44946</v>
+        <v>44948</v>
       </c>
       <c r="B49" s="15" t="s">
         <v>126</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="D49" s="13" t="s">
         <v>127</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AMG49" s="0"/>
       <c r="AMH49" s="0"/>
       <c r="AMI49" s="0"/>
       <c r="AMJ49" s="0"/>
     </row>
-    <row r="50" s="13" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" s="16" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="14" t="n">
-        <v>44929</v>
-      </c>
-      <c r="B50" s="17" t="s">
+        <v>44946</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="C50" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D50" s="13" t="s">
+      <c r="E50" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="E50" s="13" t="s">
-        <v>128</v>
-      </c>
       <c r="F50" s="13" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="AMG50" s="0"/>
       <c r="AMH50" s="0"/>
       <c r="AMI50" s="0"/>
       <c r="AMJ50" s="0"/>
     </row>
-    <row r="51" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="8" t="s">
+    <row r="51" s="13" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="14" t="n">
+        <v>44929</v>
+      </c>
+      <c r="B51" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="F51" s="8" t="s">
-        <v>29</v>
+      <c r="C51" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="AMG51" s="0"/>
       <c r="AMH51" s="0"/>
       <c r="AMI51" s="0"/>
       <c r="AMJ51" s="0"/>
     </row>
-    <row r="52" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="14" t="n">
-        <v>44879</v>
-      </c>
-      <c r="B52" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D52" s="5" t="s">
+    <row r="52" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="E52" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>33</v>
+      <c r="F52" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="AMG52" s="0"/>
       <c r="AMH52" s="0"/>
       <c r="AMI52" s="0"/>
       <c r="AMJ52" s="0"/>
     </row>
-    <row r="53" s="13" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="14" t="n">
-        <v>44858</v>
-      </c>
-      <c r="B53" s="15" t="s">
+        <v>44879</v>
+      </c>
+      <c r="B53" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="C53" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D53" s="13" t="s">
+      <c r="C53" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="E53" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F53" s="13" t="s">
-        <v>33</v>
+      <c r="E53" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="AMG53" s="0"/>
       <c r="AMH53" s="0"/>
       <c r="AMI53" s="0"/>
       <c r="AMJ53" s="0"/>
     </row>
-    <row r="54" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" s="13" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="14" t="n">
-        <v>44855</v>
-      </c>
-      <c r="B54" s="18" t="s">
+        <v>44858</v>
+      </c>
+      <c r="B54" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="C54" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D54" s="5" t="s">
+      <c r="C54" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="E54" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>77</v>
+      <c r="E54" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="AMG54" s="0"/>
       <c r="AMH54" s="0"/>
@@ -2707,7 +2713,7 @@
     </row>
     <row r="55" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="14" t="n">
-        <v>44844</v>
+        <v>44855</v>
       </c>
       <c r="B55" s="18" t="s">
         <v>138</v>
@@ -2719,113 +2725,117 @@
         <v>139</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="AMG55" s="0"/>
       <c r="AMH55" s="0"/>
       <c r="AMI55" s="0"/>
       <c r="AMJ55" s="0"/>
     </row>
-    <row r="56" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="14" t="n">
-        <v>44757</v>
-      </c>
-      <c r="B56" s="19" t="s">
+        <v>44844</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="E56" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F56" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="D56" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>62</v>
-      </c>
+      <c r="AMG56" s="0"/>
+      <c r="AMH56" s="0"/>
+      <c r="AMI56" s="0"/>
+      <c r="AMJ56" s="0"/>
     </row>
     <row r="57" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="14" t="n">
-        <v>373466</v>
-      </c>
-      <c r="B57" s="18" t="s">
+        <v>44757</v>
+      </c>
+      <c r="B57" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C57" s="5" t="s">
         <v>144</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>7</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>145</v>
       </c>
       <c r="E57" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="14" t="n">
+        <v>373466</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E58" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F57" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="14" t="n">
+      <c r="F58" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="14" t="n">
         <v>44743</v>
       </c>
-      <c r="C58" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="14" t="n">
-        <v>44740</v>
-      </c>
-      <c r="B59" s="20" t="s">
-        <v>147</v>
-      </c>
       <c r="C59" s="5" t="s">
-        <v>142</v>
+        <v>7</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="E59" s="5" t="s">
-        <v>128</v>
-      </c>
       <c r="F59" s="5" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="14" t="n">
-        <v>44739</v>
-      </c>
-      <c r="B60" s="21" t="s">
+        <v>44740</v>
+      </c>
+      <c r="B60" s="20" t="s">
         <v>149</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>7</v>
+        <v>144</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>150</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="14" t="n">
-        <v>44693</v>
+        <v>44739</v>
       </c>
       <c r="B61" s="21" t="s">
         <v>151</v>
@@ -2837,77 +2847,77 @@
         <v>152</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="14" t="n">
-        <v>44695</v>
-      </c>
-      <c r="B62" s="22" t="s">
+        <v>44693</v>
+      </c>
+      <c r="B62" s="21" t="s">
         <v>153</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>142</v>
+        <v>7</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>154</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="14" t="n">
-        <v>44659</v>
+        <v>44695</v>
       </c>
       <c r="B63" s="22" t="s">
         <v>155</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>156</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="14" t="n">
-        <v>44712</v>
-      </c>
-      <c r="B64" s="21" t="s">
+        <v>44659</v>
+      </c>
+      <c r="B64" s="22" t="s">
         <v>157</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>158</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="14" t="n">
-        <v>44705</v>
-      </c>
-      <c r="B65" s="18" t="s">
+        <v>44712</v>
+      </c>
+      <c r="B65" s="21" t="s">
         <v>159</v>
       </c>
       <c r="C65" s="5" t="s">
@@ -2917,10 +2927,10 @@
         <v>160</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2937,15 +2947,15 @@
         <v>162</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="14" t="n">
-        <v>44693</v>
+        <v>44705</v>
       </c>
       <c r="B67" s="18" t="s">
         <v>163</v>
@@ -2957,15 +2967,15 @@
         <v>164</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="14" t="n">
-        <v>44622</v>
+        <v>44693</v>
       </c>
       <c r="B68" s="18" t="s">
         <v>165</v>
@@ -2977,47 +2987,47 @@
         <v>166</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="14" t="n">
-        <v>44614</v>
+        <v>44622</v>
       </c>
       <c r="B69" s="18" t="s">
         <v>167</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D69" s="5" t="s">
         <v>168</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="14" t="n">
-        <v>44613</v>
+        <v>44614</v>
       </c>
       <c r="B70" s="18" t="s">
         <v>169</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>170</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F70" s="5" t="s">
         <v>33</v>
@@ -3025,9 +3035,9 @@
     </row>
     <row r="71" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="14" t="n">
-        <v>44608</v>
-      </c>
-      <c r="B71" s="21" t="s">
+        <v>44613</v>
+      </c>
+      <c r="B71" s="18" t="s">
         <v>171</v>
       </c>
       <c r="C71" s="5" t="s">
@@ -3037,60 +3047,60 @@
         <v>172</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="14" t="n">
-        <v>44580</v>
-      </c>
-      <c r="B72" s="18" t="s">
+        <v>44608</v>
+      </c>
+      <c r="B72" s="21" t="s">
         <v>173</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>142</v>
+        <v>7</v>
       </c>
       <c r="D72" s="5" t="s">
         <v>174</v>
       </c>
       <c r="E72" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="14" t="n">
+        <v>44580</v>
+      </c>
+      <c r="B73" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E73" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F72" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="14" t="n">
-        <v>44463</v>
-      </c>
-      <c r="B74" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D74" s="5" t="s">
+      <c r="F73" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="5" t="s">
         <v>177</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F74" s="5" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="14" t="n">
-        <v>44460</v>
+        <v>44463</v>
       </c>
       <c r="B75" s="18" t="s">
         <v>178</v>
@@ -3102,10 +3112,10 @@
         <v>179</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>180</v>
+        <v>36</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3113,24 +3123,24 @@
         <v>44460</v>
       </c>
       <c r="B76" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C76" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D76" s="5" t="s">
+      <c r="E76" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F76" s="5" t="s">
         <v>182</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="14" t="n">
-        <v>44372</v>
+        <v>44460</v>
       </c>
       <c r="B77" s="18" t="s">
         <v>183</v>
@@ -3145,64 +3155,64 @@
         <v>23</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="14" t="n">
-        <v>44326</v>
+        <v>44372</v>
       </c>
       <c r="B78" s="18" t="s">
         <v>185</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>142</v>
+        <v>7</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>186</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>128</v>
+        <v>23</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>140</v>
+        <v>36</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="14" t="n">
-        <v>44325</v>
-      </c>
-      <c r="B79" s="22" t="s">
+        <v>44326</v>
+      </c>
+      <c r="B79" s="18" t="s">
         <v>187</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D79" s="5" t="s">
         <v>188</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>36</v>
+        <v>142</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="14" t="n">
         <v>44325</v>
       </c>
-      <c r="B80" s="18" t="s">
+      <c r="B80" s="22" t="s">
         <v>189</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>7</v>
+        <v>144</v>
       </c>
       <c r="D80" s="5" t="s">
         <v>190</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="F80" s="5" t="s">
         <v>33</v>
@@ -3210,7 +3220,7 @@
     </row>
     <row r="81" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="14" t="n">
-        <v>44321</v>
+        <v>44325</v>
       </c>
       <c r="B81" s="18" t="s">
         <v>191</v>
@@ -3222,15 +3232,15 @@
         <v>192</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="14" t="n">
-        <v>44316</v>
+        <v>44321</v>
       </c>
       <c r="B82" s="18" t="s">
         <v>193</v>
@@ -3242,37 +3252,37 @@
         <v>194</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>195</v>
+        <v>79</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="14" t="n">
-        <v>44279</v>
-      </c>
-      <c r="B83" s="5" t="s">
+        <v>44316</v>
+      </c>
+      <c r="B83" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D83" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="C83" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D83" s="5" t="s">
+      <c r="E83" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F83" s="5" t="s">
         <v>197</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="14" t="n">
-        <v>44257</v>
-      </c>
-      <c r="B84" s="18" t="s">
+        <v>44279</v>
+      </c>
+      <c r="B84" s="5" t="s">
         <v>198</v>
       </c>
       <c r="C84" s="5" t="s">
@@ -3282,7 +3292,7 @@
         <v>199</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>128</v>
+        <v>23</v>
       </c>
       <c r="F84" s="5" t="s">
         <v>33</v>
@@ -3290,7 +3300,7 @@
     </row>
     <row r="85" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="14" t="n">
-        <v>44243</v>
+        <v>44257</v>
       </c>
       <c r="B85" s="18" t="s">
         <v>200</v>
@@ -3302,57 +3312,57 @@
         <v>201</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="23" t="n">
+      <c r="A86" s="14" t="n">
+        <v>44243</v>
+      </c>
+      <c r="B86" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="23" t="n">
         <v>44231</v>
       </c>
-      <c r="B86" s="24" t="s">
-        <v>202</v>
-      </c>
-      <c r="C86" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D86" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="E86" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="F86" s="25" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="14" t="n">
-        <v>44218</v>
-      </c>
-      <c r="B87" s="18" t="s">
+      <c r="B87" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="C87" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D87" s="5" t="s">
+      <c r="C87" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D87" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="E87" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="F87" s="25" t="s">
         <v>205</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F87" s="5" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="14" t="n">
-        <v>44216</v>
-      </c>
-      <c r="B88" s="21" t="s">
+        <v>44218</v>
+      </c>
+      <c r="B88" s="18" t="s">
         <v>206</v>
       </c>
       <c r="C88" s="5" t="s">
@@ -3362,7 +3372,7 @@
         <v>207</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="F88" s="5" t="s">
         <v>36</v>
@@ -3370,9 +3380,9 @@
     </row>
     <row r="89" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="14" t="n">
-        <v>44175</v>
-      </c>
-      <c r="B89" s="18" t="s">
+        <v>44216</v>
+      </c>
+      <c r="B89" s="21" t="s">
         <v>208</v>
       </c>
       <c r="C89" s="5" t="s">
@@ -3382,7 +3392,7 @@
         <v>209</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>128</v>
+        <v>23</v>
       </c>
       <c r="F89" s="5" t="s">
         <v>33</v>
@@ -3402,40 +3412,40 @@
         <v>211</v>
       </c>
       <c r="E90" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="14" t="n">
+        <v>44175</v>
+      </c>
+      <c r="B91" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="E91" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F90" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="14" t="n">
-        <v>44162</v>
-      </c>
-      <c r="B92" s="18" t="s">
-        <v>212</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="E92" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F92" s="5" t="s">
-        <v>33</v>
+      <c r="F91" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="5" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="14" t="n">
-        <v>44148</v>
+        <v>44162</v>
       </c>
       <c r="B93" s="18" t="s">
         <v>214</v>
@@ -3444,124 +3454,124 @@
         <v>7</v>
       </c>
       <c r="D93" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="14" t="n">
+        <v>44148</v>
+      </c>
+      <c r="B94" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D94" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E93" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F93" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="23" t="n">
+      <c r="E94" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="23" t="n">
         <v>44146</v>
       </c>
-      <c r="B94" s="24" t="s">
-        <v>215</v>
-      </c>
-      <c r="C94" s="25" t="s">
+      <c r="B95" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="C95" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D94" s="25" t="s">
-        <v>216</v>
-      </c>
-      <c r="E94" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="F94" s="25" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="14" t="n">
-        <v>44132</v>
-      </c>
-      <c r="B95" s="18" t="s">
-        <v>202</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D95" s="5" t="s">
+      <c r="D95" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="E95" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F95" s="5" t="s">
-        <v>33</v>
+      <c r="E95" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="F95" s="25" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="14" t="n">
-        <v>44103</v>
+        <v>44132</v>
       </c>
       <c r="B96" s="18" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D96" s="5" t="s">
         <v>220</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="23" t="n">
+      <c r="A97" s="14" t="n">
+        <v>44103</v>
+      </c>
+      <c r="B97" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="23" t="n">
         <v>44095</v>
       </c>
-      <c r="B97" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="C97" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D97" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="E97" s="25" t="s">
+      <c r="B98" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="C98" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D98" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="E98" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="F97" s="25" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="14" t="n">
-        <v>44095</v>
-      </c>
-      <c r="B98" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D98" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="E98" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F98" s="5" t="s">
-        <v>62</v>
+      <c r="F98" s="25" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="14" t="n">
-        <v>44057</v>
+        <v>44095</v>
       </c>
       <c r="B99" s="18" t="s">
         <v>225</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D99" s="5" t="s">
         <v>226</v>
@@ -3570,32 +3580,32 @@
         <v>32</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>180</v>
+        <v>64</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="14" t="n">
-        <v>44028</v>
+        <v>44057</v>
       </c>
       <c r="B100" s="18" t="s">
         <v>227</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D100" s="5" t="s">
         <v>228</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>62</v>
+        <v>182</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="14" t="n">
-        <v>44064</v>
+        <v>44028</v>
       </c>
       <c r="B101" s="18" t="s">
         <v>229</v>
@@ -3607,15 +3617,15 @@
         <v>230</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="14" t="n">
-        <v>44028</v>
+        <v>44064</v>
       </c>
       <c r="B102" s="18" t="s">
         <v>231</v>
@@ -3627,15 +3637,15 @@
         <v>232</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="14" t="n">
-        <v>44016</v>
+        <v>44028</v>
       </c>
       <c r="B103" s="18" t="s">
         <v>233</v>
@@ -3647,15 +3657,15 @@
         <v>234</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="14" t="n">
-        <v>44010</v>
+        <v>44016</v>
       </c>
       <c r="B104" s="18" t="s">
         <v>235</v>
@@ -3667,35 +3677,35 @@
         <v>236</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="14" t="n">
-        <v>43995</v>
+        <v>44010</v>
       </c>
       <c r="B105" s="18" t="s">
         <v>237</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D105" s="5" t="s">
         <v>238</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="14" t="n">
-        <v>43948</v>
+        <v>43995</v>
       </c>
       <c r="B106" s="18" t="s">
         <v>239</v>
@@ -3707,15 +3717,15 @@
         <v>240</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="14" t="n">
-        <v>43947</v>
+        <v>43948</v>
       </c>
       <c r="B107" s="18" t="s">
         <v>241</v>
@@ -3727,15 +3737,15 @@
         <v>242</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="14" t="n">
-        <v>43936</v>
+        <v>43947</v>
       </c>
       <c r="B108" s="18" t="s">
         <v>243</v>
@@ -3747,7 +3757,7 @@
         <v>244</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="F108" s="5" t="s">
         <v>33</v>
@@ -3755,27 +3765,27 @@
     </row>
     <row r="109" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="14" t="n">
-        <v>43929</v>
+        <v>43936</v>
       </c>
       <c r="B109" s="18" t="s">
         <v>245</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D109" s="5" t="s">
         <v>246</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="14" t="n">
-        <v>43891</v>
+        <v>43929</v>
       </c>
       <c r="B110" s="18" t="s">
         <v>247</v>
@@ -3787,15 +3797,15 @@
         <v>248</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="14" t="n">
-        <v>43885</v>
+        <v>43891</v>
       </c>
       <c r="B111" s="18" t="s">
         <v>249</v>
@@ -3807,15 +3817,15 @@
         <v>250</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="14" t="n">
-        <v>43857</v>
+        <v>43885</v>
       </c>
       <c r="B112" s="18" t="s">
         <v>251</v>
@@ -3827,10 +3837,10 @@
         <v>252</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3847,15 +3857,15 @@
         <v>254</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="14" t="n">
-        <v>43852</v>
+        <v>43857</v>
       </c>
       <c r="B114" s="18" t="s">
         <v>255</v>
@@ -3867,15 +3877,15 @@
         <v>256</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="14" t="n">
-        <v>43584</v>
+        <v>43852</v>
       </c>
       <c r="B115" s="18" t="s">
         <v>257</v>
@@ -3887,10 +3897,10 @@
         <v>258</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3910,14 +3920,14 @@
         <v>23</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="14" t="n">
-        <v>43540</v>
-      </c>
-      <c r="B117" s="5" t="s">
+        <v>43584</v>
+      </c>
+      <c r="B117" s="18" t="s">
         <v>261</v>
       </c>
       <c r="C117" s="5" t="s">
@@ -3930,32 +3940,32 @@
         <v>23</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="14" t="n">
-        <v>43203</v>
-      </c>
-      <c r="B119" s="26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="14" t="n">
+        <v>43540</v>
+      </c>
+      <c r="B118" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="C119" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="D119" s="5" t="s">
+      <c r="C118" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D118" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="E119" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F119" s="5" t="s">
-        <v>36</v>
+      <c r="E118" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="5" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3966,53 +3976,53 @@
         <v>265</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D120" s="5" t="s">
         <v>266</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>267</v>
+        <v>33</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="14" t="n">
-        <v>42842</v>
+        <v>43203</v>
       </c>
       <c r="B121" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D121" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="C121" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="D121" s="5" t="s">
+      <c r="E121" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F121" s="5" t="s">
         <v>269</v>
-      </c>
-      <c r="E121" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F121" s="5" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="14" t="n">
-        <v>42457</v>
-      </c>
-      <c r="B122" s="5" t="s">
+        <v>42842</v>
+      </c>
+      <c r="B122" s="26" t="s">
         <v>270</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>7</v>
+        <v>144</v>
       </c>
       <c r="D122" s="5" t="s">
         <v>271</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F122" s="5" t="s">
         <v>33</v>
@@ -4020,7 +4030,7 @@
     </row>
     <row r="123" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="14" t="n">
-        <v>39028</v>
+        <v>42457</v>
       </c>
       <c r="B123" s="5" t="s">
         <v>272</v>
@@ -4032,135 +4042,156 @@
         <v>273</v>
       </c>
       <c r="E123" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F123" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="14" t="n">
+        <v>39028</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="E124" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F123" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="125" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AMG125" s="0"/>
-      <c r="AMH125" s="0"/>
-      <c r="AMI125" s="0"/>
-      <c r="AMJ125" s="0"/>
+      <c r="F124" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="126" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMG126" s="0"/>
+      <c r="AMH126" s="0"/>
+      <c r="AMI126" s="0"/>
+      <c r="AMJ126" s="0"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F123"/>
+  <autoFilter ref="A1:F124"/>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" display="#1731"/>
-    <hyperlink ref="B5" r:id="rId2" display="#1725"/>
-    <hyperlink ref="B6" r:id="rId3" display="#1724"/>
-    <hyperlink ref="B7" r:id="rId4" display="#1722"/>
-    <hyperlink ref="B8" r:id="rId5" display="#1226"/>
-    <hyperlink ref="B9" r:id="rId6" display="#1225"/>
-    <hyperlink ref="B10" r:id="rId7" display="#1720"/>
-    <hyperlink ref="B11" r:id="rId8" display="#1323"/>
-    <hyperlink ref="B12" r:id="rId9" display="#30"/>
-    <hyperlink ref="B13" r:id="rId10" display="#1712"/>
-    <hyperlink ref="B14" r:id="rId11" display="#1215"/>
-    <hyperlink ref="B15" r:id="rId12" display="#1214"/>
-    <hyperlink ref="B16" r:id="rId13" display="#1213"/>
-    <hyperlink ref="B17" r:id="rId14" display="#1212"/>
-    <hyperlink ref="B19" r:id="rId15" display="#1202"/>
-    <hyperlink ref="B20" r:id="rId16" display="#27"/>
-    <hyperlink ref="B21" r:id="rId17" display="#26"/>
-    <hyperlink ref="B22" r:id="rId18" display="#1201"/>
-    <hyperlink ref="B23" r:id="rId19" display="#1200"/>
-    <hyperlink ref="B24" r:id="rId20" display="#1708"/>
-    <hyperlink ref="B25" r:id="rId21" display="#1185"/>
-    <hyperlink ref="D25" r:id="rId22" display="#1226"/>
-    <hyperlink ref="B26" r:id="rId23" display="#11"/>
-    <hyperlink ref="B27" r:id="rId24" display="#1309"/>
-    <hyperlink ref="B28" r:id="rId25" display="#1176"/>
-    <hyperlink ref="B29" r:id="rId26" display="#1171"/>
-    <hyperlink ref="B30" r:id="rId27" display="#1164"/>
-    <hyperlink ref="B31" r:id="rId28" display="#9"/>
-    <hyperlink ref="B32" r:id="rId29" display="#1163"/>
-    <hyperlink ref="B33" r:id="rId30" display="#1161"/>
-    <hyperlink ref="B34" r:id="rId31" display="#1690"/>
-    <hyperlink ref="B36" r:id="rId32" display="#1155"/>
-    <hyperlink ref="B37" r:id="rId33" display="#1150"/>
-    <hyperlink ref="B38" r:id="rId34" display="#1151"/>
-    <hyperlink ref="B39" r:id="rId35" display="#1200"/>
-    <hyperlink ref="B40" r:id="rId36" display="#1681"/>
-    <hyperlink ref="B41" r:id="rId37" display="#1142"/>
-    <hyperlink ref="B42" r:id="rId38" display="#8"/>
-    <hyperlink ref="B43" r:id="rId39" display="#1674"/>
-    <hyperlink ref="B44" r:id="rId40" display="#1672"/>
-    <hyperlink ref="B45" r:id="rId41" display="#1669"/>
-    <hyperlink ref="B46" r:id="rId42" display="#1670"/>
-    <hyperlink ref="B47" r:id="rId43" display="#1184"/>
-    <hyperlink ref="B48" r:id="rId44" display="#49"/>
-    <hyperlink ref="B49" r:id="rId45" display="#1140"/>
-    <hyperlink ref="B50" r:id="rId46" display="#1132"/>
-    <hyperlink ref="B52" r:id="rId47" display="#1125"/>
-    <hyperlink ref="B53" r:id="rId48" display="#1641"/>
-    <hyperlink ref="B54" r:id="rId49" display="#1124"/>
-    <hyperlink ref="B55" r:id="rId50" display="#1122"/>
-    <hyperlink ref="B56" r:id="rId51" display="#43"/>
-    <hyperlink ref="B57" r:id="rId52" display="#1622"/>
-    <hyperlink ref="B59" r:id="rId53" display="#38"/>
-    <hyperlink ref="B60" r:id="rId54" display="#1621"/>
-    <hyperlink ref="B61" r:id="rId55" display="#1616"/>
-    <hyperlink ref="B62" r:id="rId56" display="#37"/>
-    <hyperlink ref="B63" r:id="rId57" display="#36"/>
-    <hyperlink ref="B64" r:id="rId58" display="#1101"/>
-    <hyperlink ref="B65" r:id="rId59" display="#1099"/>
-    <hyperlink ref="B66" r:id="rId60" display="#1098"/>
-    <hyperlink ref="B67" r:id="rId61" display="#1617"/>
-    <hyperlink ref="B68" r:id="rId62" display="#1092"/>
-    <hyperlink ref="B69" r:id="rId63" display="#1128"/>
-    <hyperlink ref="B70" r:id="rId64" display="#1090"/>
-    <hyperlink ref="B71" r:id="rId65" display="#1608"/>
-    <hyperlink ref="B72" r:id="rId66" display="#35"/>
-    <hyperlink ref="B74" r:id="rId67" display="#1070"/>
-    <hyperlink ref="B75" r:id="rId68" display="#1592"/>
-    <hyperlink ref="B76" r:id="rId69" display="#1591"/>
-    <hyperlink ref="B77" r:id="rId70" display="#1578"/>
-    <hyperlink ref="B78" r:id="rId71" display="#41"/>
-    <hyperlink ref="B79" r:id="rId72" display="#42"/>
-    <hyperlink ref="B80" r:id="rId73" display="#1566"/>
-    <hyperlink ref="B81" r:id="rId74" display="#1565"/>
-    <hyperlink ref="B82" r:id="rId75" display="#1046"/>
-    <hyperlink ref="B83" r:id="rId76" display="#1559"/>
-    <hyperlink ref="B84" r:id="rId77" display="#1038"/>
-    <hyperlink ref="B85" r:id="rId78" display="#1037"/>
-    <hyperlink ref="B86" r:id="rId79" display="#1020"/>
-    <hyperlink ref="B87" r:id="rId80" display="#1032"/>
-    <hyperlink ref="B88" r:id="rId81" display="#1546"/>
-    <hyperlink ref="B89" r:id="rId82" display="#1027"/>
-    <hyperlink ref="B90" r:id="rId83" display="#1529"/>
-    <hyperlink ref="B92" r:id="rId84" display="#1527"/>
-    <hyperlink ref="B93" r:id="rId85" display="#558"/>
-    <hyperlink ref="B94" r:id="rId86" display="#1005"/>
-    <hyperlink ref="B95" r:id="rId87" display="#1020"/>
-    <hyperlink ref="B96" r:id="rId88" display="#993"/>
-    <hyperlink ref="B97" r:id="rId89" display="#1520"/>
-    <hyperlink ref="B98" r:id="rId90" display="#1519"/>
-    <hyperlink ref="B99" r:id="rId91" display="#969"/>
-    <hyperlink ref="B100" r:id="rId92" display="#1003"/>
-    <hyperlink ref="B101" r:id="rId93" display="#1015"/>
-    <hyperlink ref="B102" r:id="rId94" display="#1002"/>
-    <hyperlink ref="B103" r:id="rId95" display="#1471"/>
-    <hyperlink ref="B104" r:id="rId96" display="#1497"/>
-    <hyperlink ref="B105" r:id="rId97" display="#947"/>
-    <hyperlink ref="B106" r:id="rId98" display="#933"/>
-    <hyperlink ref="B107" r:id="rId99" display="#932"/>
-    <hyperlink ref="B108" r:id="rId100" display="#931"/>
-    <hyperlink ref="B109" r:id="rId101" display="#987"/>
-    <hyperlink ref="B110" r:id="rId102" display="#988"/>
-    <hyperlink ref="B111" r:id="rId103" display="#982"/>
-    <hyperlink ref="B112" r:id="rId104" display="#979"/>
-    <hyperlink ref="B113" r:id="rId105" display="#977"/>
-    <hyperlink ref="B114" r:id="rId106" display="#975"/>
-    <hyperlink ref="B115" r:id="rId107" display="#1445"/>
-    <hyperlink ref="B116" r:id="rId108" display="#1444"/>
-    <hyperlink ref="B117" r:id="rId109" display="#1427"/>
-    <hyperlink ref="B119" r:id="rId110" display="#23"/>
-    <hyperlink ref="B120" r:id="rId111" display="#22"/>
-    <hyperlink ref="B121" r:id="rId112" display="#18"/>
-    <hyperlink ref="B122" r:id="rId113" display="#1207"/>
-    <hyperlink ref="B123" r:id="rId114" display="#245"/>
+    <hyperlink ref="B4" r:id="rId1" display="#1732"/>
+    <hyperlink ref="B5" r:id="rId2" display="#1731"/>
+    <hyperlink ref="B6" r:id="rId3" display="#1725"/>
+    <hyperlink ref="B7" r:id="rId4" display="#1724"/>
+    <hyperlink ref="B8" r:id="rId5" display="#1722"/>
+    <hyperlink ref="B9" r:id="rId6" display="#1226"/>
+    <hyperlink ref="B10" r:id="rId7" display="#1225"/>
+    <hyperlink ref="B11" r:id="rId8" display="#1720"/>
+    <hyperlink ref="B12" r:id="rId9" display="#1323"/>
+    <hyperlink ref="B13" r:id="rId10" display="#30"/>
+    <hyperlink ref="B14" r:id="rId11" display="#1712"/>
+    <hyperlink ref="B15" r:id="rId12" display="#1215"/>
+    <hyperlink ref="B16" r:id="rId13" display="#1214"/>
+    <hyperlink ref="B17" r:id="rId14" display="#1213"/>
+    <hyperlink ref="B18" r:id="rId15" display="#1212"/>
+    <hyperlink ref="B20" r:id="rId16" display="#1202"/>
+    <hyperlink ref="B21" r:id="rId17" display="#27"/>
+    <hyperlink ref="B22" r:id="rId18" display="#26"/>
+    <hyperlink ref="B23" r:id="rId19" display="#1201"/>
+    <hyperlink ref="B24" r:id="rId20" display="#1200"/>
+    <hyperlink ref="B25" r:id="rId21" display="#1708"/>
+    <hyperlink ref="B26" r:id="rId22" display="#1185"/>
+    <hyperlink ref="D26" r:id="rId23" display="#1226"/>
+    <hyperlink ref="B27" r:id="rId24" display="#11"/>
+    <hyperlink ref="B28" r:id="rId25" display="#1309"/>
+    <hyperlink ref="B29" r:id="rId26" display="#1176"/>
+    <hyperlink ref="B30" r:id="rId27" display="#1171"/>
+    <hyperlink ref="B31" r:id="rId28" display="#1164"/>
+    <hyperlink ref="B32" r:id="rId29" display="#9"/>
+    <hyperlink ref="B33" r:id="rId30" display="#1163"/>
+    <hyperlink ref="B34" r:id="rId31" display="#1161"/>
+    <hyperlink ref="B35" r:id="rId32" display="#1690"/>
+    <hyperlink ref="B37" r:id="rId33" display="#1155"/>
+    <hyperlink ref="B38" r:id="rId34" display="#1150"/>
+    <hyperlink ref="B39" r:id="rId35" display="#1151"/>
+    <hyperlink ref="B40" r:id="rId36" display="#1200"/>
+    <hyperlink ref="B41" r:id="rId37" display="#1681"/>
+    <hyperlink ref="B42" r:id="rId38" display="#1142"/>
+    <hyperlink ref="B43" r:id="rId39" display="#8"/>
+    <hyperlink ref="B44" r:id="rId40" display="#1674"/>
+    <hyperlink ref="B45" r:id="rId41" display="#1672"/>
+    <hyperlink ref="B46" r:id="rId42" display="#1669"/>
+    <hyperlink ref="B47" r:id="rId43" display="#1670"/>
+    <hyperlink ref="B48" r:id="rId44" display="#1184"/>
+    <hyperlink ref="B49" r:id="rId45" display="#49"/>
+    <hyperlink ref="B50" r:id="rId46" display="#1140"/>
+    <hyperlink ref="B51" r:id="rId47" display="#1132"/>
+    <hyperlink ref="B53" r:id="rId48" display="#1125"/>
+    <hyperlink ref="B54" r:id="rId49" display="#1641"/>
+    <hyperlink ref="B55" r:id="rId50" display="#1124"/>
+    <hyperlink ref="B56" r:id="rId51" display="#1122"/>
+    <hyperlink ref="B57" r:id="rId52" display="#43"/>
+    <hyperlink ref="B58" r:id="rId53" display="#1622"/>
+    <hyperlink ref="B60" r:id="rId54" display="#38"/>
+    <hyperlink ref="B61" r:id="rId55" display="#1621"/>
+    <hyperlink ref="B62" r:id="rId56" display="#1616"/>
+    <hyperlink ref="B63" r:id="rId57" display="#37"/>
+    <hyperlink ref="B64" r:id="rId58" display="#36"/>
+    <hyperlink ref="B65" r:id="rId59" display="#1101"/>
+    <hyperlink ref="B66" r:id="rId60" display="#1099"/>
+    <hyperlink ref="B67" r:id="rId61" display="#1098"/>
+    <hyperlink ref="B68" r:id="rId62" display="#1617"/>
+    <hyperlink ref="B69" r:id="rId63" display="#1092"/>
+    <hyperlink ref="B70" r:id="rId64" display="#1128"/>
+    <hyperlink ref="B71" r:id="rId65" display="#1090"/>
+    <hyperlink ref="B72" r:id="rId66" display="#1608"/>
+    <hyperlink ref="B73" r:id="rId67" display="#35"/>
+    <hyperlink ref="B75" r:id="rId68" display="#1070"/>
+    <hyperlink ref="B76" r:id="rId69" display="#1592"/>
+    <hyperlink ref="B77" r:id="rId70" display="#1591"/>
+    <hyperlink ref="B78" r:id="rId71" display="#1578"/>
+    <hyperlink ref="B79" r:id="rId72" display="#41"/>
+    <hyperlink ref="B80" r:id="rId73" display="#42"/>
+    <hyperlink ref="B81" r:id="rId74" display="#1566"/>
+    <hyperlink ref="B82" r:id="rId75" display="#1565"/>
+    <hyperlink ref="B83" r:id="rId76" display="#1046"/>
+    <hyperlink ref="B84" r:id="rId77" display="#1559"/>
+    <hyperlink ref="B85" r:id="rId78" display="#1038"/>
+    <hyperlink ref="B86" r:id="rId79" display="#1037"/>
+    <hyperlink ref="B87" r:id="rId80" display="#1020"/>
+    <hyperlink ref="B88" r:id="rId81" display="#1032"/>
+    <hyperlink ref="B89" r:id="rId82" display="#1546"/>
+    <hyperlink ref="B90" r:id="rId83" display="#1027"/>
+    <hyperlink ref="B91" r:id="rId84" display="#1529"/>
+    <hyperlink ref="B93" r:id="rId85" display="#1527"/>
+    <hyperlink ref="B94" r:id="rId86" display="#558"/>
+    <hyperlink ref="B95" r:id="rId87" display="#1005"/>
+    <hyperlink ref="B96" r:id="rId88" display="#1020"/>
+    <hyperlink ref="B97" r:id="rId89" display="#993"/>
+    <hyperlink ref="B98" r:id="rId90" display="#1520"/>
+    <hyperlink ref="B99" r:id="rId91" display="#1519"/>
+    <hyperlink ref="B100" r:id="rId92" display="#969"/>
+    <hyperlink ref="B101" r:id="rId93" display="#1003"/>
+    <hyperlink ref="B102" r:id="rId94" display="#1015"/>
+    <hyperlink ref="B103" r:id="rId95" display="#1002"/>
+    <hyperlink ref="B104" r:id="rId96" display="#1471"/>
+    <hyperlink ref="B105" r:id="rId97" display="#1497"/>
+    <hyperlink ref="B106" r:id="rId98" display="#947"/>
+    <hyperlink ref="B107" r:id="rId99" display="#933"/>
+    <hyperlink ref="B108" r:id="rId100" display="#932"/>
+    <hyperlink ref="B109" r:id="rId101" display="#931"/>
+    <hyperlink ref="B110" r:id="rId102" display="#987"/>
+    <hyperlink ref="B111" r:id="rId103" display="#988"/>
+    <hyperlink ref="B112" r:id="rId104" display="#982"/>
+    <hyperlink ref="B113" r:id="rId105" display="#979"/>
+    <hyperlink ref="B114" r:id="rId106" display="#977"/>
+    <hyperlink ref="B115" r:id="rId107" display="#975"/>
+    <hyperlink ref="B116" r:id="rId108" display="#1445"/>
+    <hyperlink ref="B117" r:id="rId109" display="#1444"/>
+    <hyperlink ref="B118" r:id="rId110" display="#1427"/>
+    <hyperlink ref="B120" r:id="rId111" display="#23"/>
+    <hyperlink ref="B121" r:id="rId112" display="#22"/>
+    <hyperlink ref="B122" r:id="rId113" display="#18"/>
+    <hyperlink ref="B123" r:id="rId114" display="#1207"/>
+    <hyperlink ref="B124" r:id="rId115" display="#245"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="1" right="1" top="1.66666666666667" bottom="1.66666666666667" header="1" footer="1"/>
@@ -4169,7 +4200,7 @@
     <oddHeader>&amp;C&amp;"Sans,Regular"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Sans,Regular"Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId115"/>
+  <drawing r:id="rId116"/>
 </worksheet>
 </file>
 
@@ -4202,10 +4233,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -4214,10 +4245,10 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>

--- a/tickets/OmegaT_issues_nopw.xlsx
+++ b/tickets/OmegaT_issues_nopw.xlsx
@@ -8,12 +8,12 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="2022" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="ETS" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="2015" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="2022" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="ETS" sheetId="3" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'2022'!$A$1:$F$124</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'2022'!$A$1:$F$122</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="true" iterateDelta="0.001"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="276">
   <si>
     <t xml:space="preserve">#</t>
   </si>
@@ -117,10 +117,10 @@
     <t xml:space="preserve">WIP</t>
   </si>
   <si>
-    <t xml:space="preserve">#1732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Commit target files" also commits exported master TM to repo</t>
+    <t xml:space="preserve">#1725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trim authentication details in team projects</t>
   </si>
   <si>
     <t xml:space="preserve">RFE</t>
@@ -129,33 +129,21 @@
     <t xml:space="preserve">Open!</t>
   </si>
   <si>
-    <t xml:space="preserve">#1731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Change label "Project translation" to "Committed target files"</t>
+    <t xml:space="preserve">#1724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Block creation of target files only if the SELECTED issues are found</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">console-translate mode (CLI) to download mapped files</t>
   </si>
   <si>
     <t xml:space="preserve">Open</t>
   </si>
   <si>
-    <t xml:space="preserve">#1725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trim authentication details in team projects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Block creation of target files only if the SELECTED issues are found</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">console-translate mode (CLI) to download mapped files</t>
-  </si>
-  <si>
     <t xml:space="preserve">#1226</t>
   </si>
   <si>
@@ -282,232 +270,232 @@
     <t xml:space="preserve">XML filter does not extract resname if unit contains HTML block-level tags</t>
   </si>
   <si>
+    <t xml:space="preserve">#1176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The COMPILE event is fired *after* the target commit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enforced translations lose background color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auto-populated translations disappear when a segment gets activated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add property in config to remove mappings (to pack as offline project)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project not loaded if it contains DTD internal entities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Set empty translation" does not work in XML file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1690</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Commit target files" also commits stats file to repo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okapi plugin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Backported latest Okapi plugin to JDK 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Option "Insert the source text" enabled on its own</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tags cannot be deleted in RTL languages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tag drag-and-drop duplicates tag in RTL text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XML filter adds tags arounb nnbsp by default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Straight quotes match curly quotes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translation displayed as source text if state="final" with Okapi XLIFF filter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only __DEFAULT__ project folders are packed correctly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remove custom tags issues and flagged text from mandatory tag check</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hide tag-only segments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remove leadinga and trailing tags with Okapi filters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1670</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reuse credentials in team projects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fractions in Word file are not extracted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use resname as segment identifier (instead of correlative number)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Context-bound matches are ignored in /tm/auto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OmegaT CLI gets stuck at missing empty folders when run on team project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTAL 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OmegaT's main window is sent to unplugged monitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navigate between segments inserted from /tm/auto and /tm/enforce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Local project does not update after remote masking some files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tag color is obfuscated if target language uses RTL script</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okapi plugin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tag tooltips do not show the locked text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Option to give or revoke full writing access to team project users</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scripts and support with scripting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OpenXML filter for OmegaT gives error when opening Excel file with embedded HTML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add notes as `&lt;note&gt;` in target XLIFF file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-unique IDs when segmenting text blocks extracted by Okapi OpenXML </t>
+  </si>
+  <si>
+    <t xml:space="preserve">#37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HTML sub-filter in JSON filter not working in OmegaT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alternative translations do not work for repetitions within paragraphs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#1101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No ID-bound matching in /tm/tmx2source</t>
+  </si>
+  <si>
     <t xml:space="preserve">Resolved?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The COMPILE event is fired *after* the target commit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enforced translations lose background color</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auto-populated translations disappear when a segment gets activated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add property in config to remove mappings (to pack as offline project)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Project not loaded if it contains DTD internal entities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Set empty translation" does not work in XML file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1690</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Commit target files" also commits stats file to repo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Okapi plugin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Backported latest Okapi plugin to JDK 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Option "Insert the source text" enabled on its own</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tags cannot be deleted in RTL languages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tag drag-and-drop duplicates tag in RTL text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XML filter adds tags arounb nnbsp by default</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Straight quotes match curly quotes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Translation displayed as source text if state="final" with Okapi XLIFF filter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Only __DEFAULT__ project folders are packed correctly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remove custom tags issues and flagged text from mandatory tag check</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hide tag-only segments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remove leadinga and trailing tags with Okapi filters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1670</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reuse credentials in team projects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fractions in Word file are not extracted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use resname as segment identifier (instead of correlative number)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1140</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Context-bound matches are ignored in /tm/auto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bug</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OmegaT CLI gets stuck at missing empty folders when run on team project</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOTAL 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OmegaT's main window is sent to unplugged monitor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Navigate between segments inserted from /tm/auto and /tm/enforce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Local project does not update after remote masking some files</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tag color is obfuscated if target language uses RTL script</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Okapi plugin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tag tooltips do not show the locked text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1622</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Option to give or revoke full writing access to team project users</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scripts and support with scripting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OpenXML filter for OmegaT gives error when opening Excel file with embedded HTML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add notes as `&lt;note&gt;` in target XLIFF file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1616</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non-unique IDs when segmenting text blocks extracted by Okapi OpenXML </t>
-  </si>
-  <si>
-    <t xml:space="preserve">#37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HTML sub-filter in JSON filter not working in OmegaT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alternative translations do not work for repetitions within paragraphs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#1101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No ID-bound matching in /tm/tmx2source</t>
   </si>
   <si>
     <t xml:space="preserve">#1099</t>
@@ -1206,6 +1194,79 @@
     <cellStyle name="Untitled1" xfId="20"/>
     <cellStyle name="Untitled2" xfId="21"/>
   </cellStyles>
+  <dxfs count="9">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB4C7DC"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDDDDDD"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDDE8CB"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFD7D7"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF5CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0000FF"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC9211E"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1273,8 +1334,114 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1433,8 +1600,8 @@
     <hyperlink ref="F2" r:id="rId1" display="https://sourceforge.net/p/omegat/bugs/558/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1443,18 +1610,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ126"/>
+  <dimension ref="A1:AMF126"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G9" activeCellId="0" sqref="G9"/>
+      <selection pane="bottomRight" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1466,7 +1633,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="5" width="7.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="5" width="10.61"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1020" min="7" style="5" width="10.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1021" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16381" style="0" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1488,10 +1655,6 @@
       <c r="F1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="AMG1" s="0"/>
-      <c r="AMH1" s="0"/>
-      <c r="AMI1" s="0"/>
-      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
@@ -1500,20 +1663,11 @@
       <c r="F2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="AMG2" s="0"/>
-      <c r="AMH2" s="0"/>
-      <c r="AMI2" s="0"/>
-      <c r="AMJ2" s="0"/>
-    </row>
-    <row r="3" s="9" customFormat="true" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AMG3" s="0"/>
-      <c r="AMH3" s="0"/>
-      <c r="AMI3" s="0"/>
-      <c r="AMJ3" s="0"/>
-    </row>
+    </row>
+    <row r="3" s="9" customFormat="true" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="4" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="n">
-        <v>45274</v>
+        <v>45238</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>30</v>
@@ -1530,14 +1684,10 @@
       <c r="F4" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="AMG4" s="0"/>
-      <c r="AMH4" s="0"/>
-      <c r="AMI4" s="0"/>
-      <c r="AMJ4" s="0"/>
     </row>
     <row r="5" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="n">
-        <v>45271</v>
+        <v>45230</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>34</v>
@@ -1552,40 +1702,32 @@
         <v>32</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="AMG5" s="0"/>
-      <c r="AMH5" s="0"/>
-      <c r="AMI5" s="0"/>
-      <c r="AMJ5" s="0"/>
+        <v>33</v>
+      </c>
     </row>
     <row r="6" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="n">
-        <v>45238</v>
+        <v>45223</v>
       </c>
       <c r="B6" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>37</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>38</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>32</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AMG6" s="0"/>
-      <c r="AMH6" s="0"/>
-      <c r="AMI6" s="0"/>
-      <c r="AMJ6" s="0"/>
+        <v>38</v>
+      </c>
     </row>
     <row r="7" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="n">
-        <v>45230</v>
+        <v>45236</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>39</v>
@@ -1597,73 +1739,61 @@
         <v>40</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AMG7" s="0"/>
-      <c r="AMH7" s="0"/>
-      <c r="AMI7" s="0"/>
-      <c r="AMJ7" s="0"/>
+        <v>41</v>
+      </c>
     </row>
     <row r="8" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="n">
-        <v>45223</v>
+        <v>45233</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="AMG8" s="0"/>
-      <c r="AMH8" s="0"/>
-      <c r="AMI8" s="0"/>
-      <c r="AMJ8" s="0"/>
+        <v>33</v>
+      </c>
     </row>
     <row r="9" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="n">
-        <v>45236</v>
+        <v>45213</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AMG9" s="0"/>
-      <c r="AMH9" s="0"/>
-      <c r="AMI9" s="0"/>
-      <c r="AMJ9" s="0"/>
+        <v>38</v>
+      </c>
     </row>
     <row r="10" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="n">
-        <v>45233</v>
+        <v>45199</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>46</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>47</v>
@@ -1672,16 +1802,12 @@
         <v>9</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AMG10" s="0"/>
-      <c r="AMH10" s="0"/>
-      <c r="AMI10" s="0"/>
-      <c r="AMJ10" s="0"/>
+        <v>38</v>
+      </c>
     </row>
     <row r="11" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="n">
-        <v>45213</v>
+        <v>45170</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>48</v>
@@ -1696,40 +1822,32 @@
         <v>32</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="AMG11" s="0"/>
-      <c r="AMH11" s="0"/>
-      <c r="AMI11" s="0"/>
-      <c r="AMJ11" s="0"/>
+        <v>38</v>
+      </c>
     </row>
     <row r="12" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="n">
-        <v>45199</v>
+        <v>45169</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>50</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>51</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="AMG12" s="0"/>
-      <c r="AMH12" s="0"/>
-      <c r="AMI12" s="0"/>
-      <c r="AMJ12" s="0"/>
+        <v>38</v>
+      </c>
     </row>
     <row r="13" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="n">
-        <v>45170</v>
+        <v>45169</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>52</v>
@@ -1738,66 +1856,54 @@
         <v>7</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="AMG13" s="0"/>
-      <c r="AMH13" s="0"/>
-      <c r="AMI13" s="0"/>
-      <c r="AMJ13" s="0"/>
+        <v>38</v>
+      </c>
     </row>
     <row r="14" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="10" t="n">
-        <v>45169</v>
+        <v>45145</v>
       </c>
       <c r="B14" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>55</v>
-      </c>
       <c r="E14" s="9" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="AMG14" s="0"/>
-      <c r="AMH14" s="0"/>
-      <c r="AMI14" s="0"/>
-      <c r="AMJ14" s="0"/>
+        <v>33</v>
+      </c>
     </row>
     <row r="15" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="n">
-        <v>45169</v>
+        <v>45145</v>
       </c>
       <c r="B15" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>56</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>51</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="AMG15" s="0"/>
-      <c r="AMH15" s="0"/>
-      <c r="AMI15" s="0"/>
-      <c r="AMJ15" s="0"/>
+        <v>41</v>
+      </c>
     </row>
     <row r="16" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="10" t="n">
@@ -1816,40 +1922,26 @@
         <v>9</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AMG16" s="0"/>
-      <c r="AMH16" s="0"/>
-      <c r="AMI16" s="0"/>
-      <c r="AMJ16" s="0"/>
+        <v>41</v>
+      </c>
     </row>
     <row r="17" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="n">
-        <v>45145</v>
-      </c>
-      <c r="B17" s="11" t="s">
+        <v>45112</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="9" t="s">
+      <c r="F17" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E17" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AMG17" s="0"/>
-      <c r="AMH17" s="0"/>
-      <c r="AMI17" s="0"/>
-      <c r="AMJ17" s="0"/>
     </row>
     <row r="18" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="10" t="n">
-        <v>45145</v>
+        <v>45124</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>61</v>
@@ -1864,106 +1956,92 @@
         <v>9</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AMG18" s="0"/>
-      <c r="AMH18" s="0"/>
-      <c r="AMI18" s="0"/>
-      <c r="AMJ18" s="0"/>
+        <v>33</v>
+      </c>
     </row>
     <row r="19" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="10" t="n">
-        <v>45112</v>
+        <v>45119</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="AMG19" s="0"/>
-      <c r="AMH19" s="0"/>
-      <c r="AMI19" s="0"/>
-      <c r="AMJ19" s="0"/>
+        <v>33</v>
+      </c>
     </row>
     <row r="20" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="10" t="n">
-        <v>45124</v>
+        <v>45119</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="AMG20" s="0"/>
-      <c r="AMH20" s="0"/>
-      <c r="AMI20" s="0"/>
-      <c r="AMJ20" s="0"/>
     </row>
     <row r="21" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="n">
-        <v>45119</v>
+        <v>45118</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>69</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="F21" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="AMG21" s="0"/>
-      <c r="AMH21" s="0"/>
-      <c r="AMI21" s="0"/>
-      <c r="AMJ21" s="0"/>
     </row>
     <row r="22" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="10" t="n">
-        <v>45119</v>
+        <v>45118</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>70</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>71</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="F22" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="AMG22" s="0"/>
-      <c r="AMH22" s="0"/>
-      <c r="AMI22" s="0"/>
-      <c r="AMJ22" s="0"/>
     </row>
     <row r="23" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="10" t="n">
-        <v>45118</v>
+        <v>45110</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>72</v>
@@ -1975,19 +2053,15 @@
         <v>73</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AMG23" s="0"/>
-      <c r="AMH23" s="0"/>
-      <c r="AMI23" s="0"/>
-      <c r="AMJ23" s="0"/>
+        <v>38</v>
+      </c>
     </row>
     <row r="24" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="10" t="n">
-        <v>45118</v>
+        <v>45104</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>74</v>
@@ -1995,77 +2069,65 @@
       <c r="C24" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="9" t="s">
-        <v>75</v>
+      <c r="D24" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AMG24" s="0"/>
-      <c r="AMH24" s="0"/>
-      <c r="AMI24" s="0"/>
-      <c r="AMJ24" s="0"/>
+        <v>75</v>
+      </c>
     </row>
     <row r="25" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="10" t="n">
-        <v>45110</v>
+        <v>45094</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>76</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="AMG25" s="0"/>
-      <c r="AMH25" s="0"/>
-      <c r="AMI25" s="0"/>
-      <c r="AMJ25" s="0"/>
+        <v>60</v>
+      </c>
     </row>
     <row r="26" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="10" t="n">
-        <v>45104</v>
+        <v>45069</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>43</v>
+        <v>13</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="AMG26" s="0"/>
-      <c r="AMH26" s="0"/>
-      <c r="AMI26" s="0"/>
-      <c r="AMJ26" s="0"/>
+        <v>60</v>
+      </c>
     </row>
     <row r="27" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="10" t="n">
-        <v>45094</v>
+        <v>45069</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>81</v>
+        <v>7</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>82</v>
@@ -2074,22 +2136,18 @@
         <v>9</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="AMG27" s="0"/>
-      <c r="AMH27" s="0"/>
-      <c r="AMI27" s="0"/>
-      <c r="AMJ27" s="0"/>
+        <v>60</v>
+      </c>
     </row>
     <row r="28" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="10" t="n">
-        <v>45069</v>
+        <v>45064</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>83</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>84</v>
@@ -2097,281 +2155,233 @@
       <c r="E28" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F28" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="AMG28" s="0"/>
-      <c r="AMH28" s="0"/>
-      <c r="AMI28" s="0"/>
-      <c r="AMJ28" s="0"/>
+      <c r="F28" s="9" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="29" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="10" t="n">
-        <v>45069</v>
+        <v>45049</v>
       </c>
       <c r="B29" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="9" t="s">
         <v>86</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>87</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F29" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="AMG29" s="0"/>
-      <c r="AMH29" s="0"/>
-      <c r="AMI29" s="0"/>
-      <c r="AMJ29" s="0"/>
+      <c r="F29" s="12" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="30" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="10" t="n">
-        <v>45064</v>
+        <v>45049</v>
       </c>
       <c r="B30" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>89</v>
-      </c>
       <c r="E30" s="9" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="AMG30" s="0"/>
-      <c r="AMH30" s="0"/>
-      <c r="AMI30" s="0"/>
-      <c r="AMJ30" s="0"/>
+        <v>60</v>
+      </c>
     </row>
     <row r="31" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="10" t="n">
-        <v>45049</v>
+        <v>45044</v>
       </c>
       <c r="B31" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="9" t="s">
         <v>90</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>91</v>
       </c>
       <c r="E31" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F31" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="AMG31" s="0"/>
-      <c r="AMH31" s="0"/>
-      <c r="AMI31" s="0"/>
-      <c r="AMJ31" s="0"/>
+      <c r="F31" s="9" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="32" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="10" t="n">
-        <v>45049</v>
+        <v>45040</v>
       </c>
       <c r="B32" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C32" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>93</v>
-      </c>
       <c r="E32" s="9" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="AMG32" s="0"/>
-      <c r="AMH32" s="0"/>
-      <c r="AMI32" s="0"/>
-      <c r="AMJ32" s="0"/>
+        <v>38</v>
+      </c>
     </row>
     <row r="33" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="10" t="n">
-        <v>45044</v>
+        <v>45028</v>
       </c>
       <c r="B33" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C33" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>95</v>
-      </c>
       <c r="E33" s="9" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="AMG33" s="0"/>
-      <c r="AMH33" s="0"/>
-      <c r="AMI33" s="0"/>
-      <c r="AMJ33" s="0"/>
+        <v>41</v>
+      </c>
     </row>
     <row r="34" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="10" t="n">
-        <v>45040</v>
-      </c>
-      <c r="B34" s="11" t="s">
+        <v>44996</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D34" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C34" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>9</v>
-      </c>
       <c r="F34" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="AMG34" s="0"/>
-      <c r="AMH34" s="0"/>
-      <c r="AMI34" s="0"/>
-      <c r="AMJ34" s="0"/>
+        <v>60</v>
+      </c>
     </row>
     <row r="35" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="10" t="n">
-        <v>45028</v>
+        <v>45007</v>
       </c>
       <c r="B35" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C35" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>99</v>
-      </c>
       <c r="E35" s="9" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AMG35" s="0"/>
-      <c r="AMH35" s="0"/>
-      <c r="AMI35" s="0"/>
-      <c r="AMJ35" s="0"/>
+        <v>38</v>
+      </c>
     </row>
     <row r="36" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="10" t="n">
-        <v>44996</v>
+        <v>44993</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>99</v>
       </c>
       <c r="C36" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="D36" s="9" t="s">
-        <v>101</v>
+      <c r="E36" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="AMG36" s="0"/>
-      <c r="AMH36" s="0"/>
-      <c r="AMI36" s="0"/>
-      <c r="AMJ36" s="0"/>
+        <v>75</v>
+      </c>
     </row>
     <row r="37" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="10" t="n">
-        <v>45007</v>
+        <v>44993</v>
       </c>
       <c r="B37" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="9" t="s">
         <v>102</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>103</v>
       </c>
       <c r="E37" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="AMG37" s="0"/>
-      <c r="AMH37" s="0"/>
-      <c r="AMI37" s="0"/>
-      <c r="AMJ37" s="0"/>
+        <v>75</v>
+      </c>
     </row>
     <row r="38" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="10" t="n">
-        <v>44993</v>
+        <v>44991</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E38" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="AMG38" s="0"/>
-      <c r="AMH38" s="0"/>
-      <c r="AMI38" s="0"/>
-      <c r="AMJ38" s="0"/>
+        <v>104</v>
+      </c>
     </row>
     <row r="39" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="10" t="n">
-        <v>44993</v>
+        <v>44981</v>
       </c>
       <c r="B39" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C39" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>107</v>
-      </c>
       <c r="E39" s="9" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="AMG39" s="0"/>
-      <c r="AMH39" s="0"/>
-      <c r="AMI39" s="0"/>
-      <c r="AMJ39" s="0"/>
+        <v>38</v>
+      </c>
     </row>
     <row r="40" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="10" t="n">
-        <v>44991</v>
+        <v>44972</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D40" s="9" t="s">
         <v>108</v>
@@ -2380,544 +2390,476 @@
         <v>9</v>
       </c>
       <c r="F40" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="14" t="n">
+        <v>44970</v>
+      </c>
+      <c r="B41" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="AMG40" s="0"/>
-      <c r="AMH40" s="0"/>
-      <c r="AMI40" s="0"/>
-      <c r="AMJ40" s="0"/>
-    </row>
-    <row r="41" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="10" t="n">
-        <v>44981</v>
-      </c>
-      <c r="B41" s="11" t="s">
+      <c r="C41" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D41" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="C41" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D41" s="9" t="s">
+      <c r="E41" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="14" t="n">
+        <v>44967</v>
+      </c>
+      <c r="B42" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="C42" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="E42" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F41" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="AMG41" s="0"/>
-      <c r="AMH41" s="0"/>
-      <c r="AMI41" s="0"/>
-      <c r="AMJ41" s="0"/>
-    </row>
-    <row r="42" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="10" t="n">
-        <v>44972</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D42" s="9" t="s">
+      <c r="F42" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="14" t="n">
+        <v>44964</v>
+      </c>
+      <c r="B43" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="E42" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="AMG42" s="0"/>
-      <c r="AMH42" s="0"/>
-      <c r="AMI42" s="0"/>
-      <c r="AMJ42" s="0"/>
-    </row>
-    <row r="43" s="16" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="14" t="n">
-        <v>44970</v>
-      </c>
-      <c r="B43" s="15" t="s">
+      <c r="C43" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="13" t="s">
         <v>114</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>115</v>
       </c>
       <c r="E43" s="13" t="s">
         <v>32</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="AMG43" s="0"/>
-      <c r="AMH43" s="0"/>
-      <c r="AMI43" s="0"/>
-      <c r="AMJ43" s="0"/>
-    </row>
-    <row r="44" s="16" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="14" t="n">
-        <v>44967</v>
+        <v>44952</v>
       </c>
       <c r="B44" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="13" t="s">
         <v>116</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>117</v>
       </c>
       <c r="E44" s="13" t="s">
         <v>32</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="AMG44" s="0"/>
-      <c r="AMH44" s="0"/>
-      <c r="AMI44" s="0"/>
-      <c r="AMJ44" s="0"/>
-    </row>
-    <row r="45" s="16" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="14" t="n">
-        <v>44964</v>
+        <v>44952</v>
       </c>
       <c r="B45" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="13" t="s">
         <v>118</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>119</v>
       </c>
       <c r="E45" s="13" t="s">
         <v>32</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="AMG45" s="0"/>
-      <c r="AMH45" s="0"/>
-      <c r="AMI45" s="0"/>
-      <c r="AMJ45" s="0"/>
-    </row>
-    <row r="46" s="16" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="14" t="n">
-        <v>44952</v>
+        <v>44949</v>
       </c>
       <c r="B46" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="C46" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D46" s="13" t="s">
+      <c r="E46" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="14" t="n">
+        <v>44948</v>
+      </c>
+      <c r="B47" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="E46" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F46" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="AMG46" s="0"/>
-      <c r="AMH46" s="0"/>
-      <c r="AMI46" s="0"/>
-      <c r="AMJ46" s="0"/>
-    </row>
-    <row r="47" s="16" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="14" t="n">
-        <v>44952</v>
-      </c>
-      <c r="B47" s="15" t="s">
+      <c r="C47" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D47" s="13" t="s">
         <v>122</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47" s="13" t="s">
-        <v>123</v>
       </c>
       <c r="E47" s="13" t="s">
         <v>32</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="AMG47" s="0"/>
-      <c r="AMH47" s="0"/>
-      <c r="AMI47" s="0"/>
-      <c r="AMJ47" s="0"/>
-    </row>
-    <row r="48" s="16" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="14" t="n">
-        <v>44949</v>
+        <v>44946</v>
       </c>
       <c r="B48" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="C48" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="13" t="s">
+      <c r="E48" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="E48" s="13" t="s">
-        <v>9</v>
-      </c>
       <c r="F48" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="AMG48" s="0"/>
-      <c r="AMH48" s="0"/>
-      <c r="AMI48" s="0"/>
-      <c r="AMJ48" s="0"/>
-    </row>
-    <row r="49" s="16" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" s="13" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="14" t="n">
-        <v>44948</v>
-      </c>
-      <c r="B49" s="15" t="s">
+        <v>44929</v>
+      </c>
+      <c r="B49" s="17" t="s">
         <v>126</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="D49" s="13" t="s">
         <v>127</v>
       </c>
       <c r="E49" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="14" t="n">
+        <v>44879</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" s="13" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="14" t="n">
+        <v>44858</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="E52" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F49" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="AMG49" s="0"/>
-      <c r="AMH49" s="0"/>
-      <c r="AMI49" s="0"/>
-      <c r="AMJ49" s="0"/>
-    </row>
-    <row r="50" s="16" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="14" t="n">
-        <v>44946</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D50" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="E50" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="F50" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="AMG50" s="0"/>
-      <c r="AMH50" s="0"/>
-      <c r="AMI50" s="0"/>
-      <c r="AMJ50" s="0"/>
-    </row>
-    <row r="51" s="13" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="14" t="n">
-        <v>44929</v>
-      </c>
-      <c r="B51" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D51" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="E51" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="F51" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="AMG51" s="0"/>
-      <c r="AMH51" s="0"/>
-      <c r="AMI51" s="0"/>
-      <c r="AMJ51" s="0"/>
-    </row>
-    <row r="52" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="AMG52" s="0"/>
-      <c r="AMH52" s="0"/>
-      <c r="AMI52" s="0"/>
-      <c r="AMJ52" s="0"/>
+      <c r="F52" s="13" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="53" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="14" t="n">
-        <v>44879</v>
+        <v>44855</v>
       </c>
       <c r="B53" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C53" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D53" s="5" t="s">
+      <c r="E53" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="14" t="n">
+        <v>44844</v>
+      </c>
+      <c r="B54" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="E53" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AMG53" s="0"/>
-      <c r="AMH53" s="0"/>
-      <c r="AMI53" s="0"/>
-      <c r="AMJ53" s="0"/>
-    </row>
-    <row r="54" s="13" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="14" t="n">
-        <v>44858</v>
-      </c>
-      <c r="B54" s="15" t="s">
+      <c r="C54" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C54" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D54" s="13" t="s">
+      <c r="E54" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F54" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="E54" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F54" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="AMG54" s="0"/>
-      <c r="AMH54" s="0"/>
-      <c r="AMI54" s="0"/>
-      <c r="AMJ54" s="0"/>
-    </row>
-    <row r="55" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="55" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="14" t="n">
-        <v>44855</v>
-      </c>
-      <c r="B55" s="18" t="s">
+        <v>44757</v>
+      </c>
+      <c r="B55" s="19" t="s">
         <v>138</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>7</v>
+        <v>139</v>
       </c>
       <c r="D55" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="14" t="n">
+        <v>373466</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="14" t="n">
+        <v>44743</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="14" t="n">
+        <v>44740</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C58" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="E55" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="AMG55" s="0"/>
-      <c r="AMH55" s="0"/>
-      <c r="AMI55" s="0"/>
-      <c r="AMJ55" s="0"/>
-    </row>
-    <row r="56" s="8" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="14" t="n">
-        <v>44844</v>
-      </c>
-      <c r="B56" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="AMG56" s="0"/>
-      <c r="AMH56" s="0"/>
-      <c r="AMI56" s="0"/>
-      <c r="AMJ56" s="0"/>
-    </row>
-    <row r="57" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="14" t="n">
-        <v>44757</v>
-      </c>
-      <c r="B57" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D57" s="5" t="s">
+      <c r="D58" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="E57" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="14" t="n">
-        <v>373466</v>
-      </c>
-      <c r="B58" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>147</v>
-      </c>
       <c r="E58" s="5" t="s">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="14" t="n">
-        <v>44743</v>
+        <v>44739</v>
+      </c>
+      <c r="B59" s="21" t="s">
+        <v>146</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D59" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="14" t="n">
+        <v>44693</v>
+      </c>
+      <c r="B60" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="F59" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="14" t="n">
-        <v>44740</v>
-      </c>
-      <c r="B60" s="20" t="s">
+      <c r="C60" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C60" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>150</v>
-      </c>
       <c r="E60" s="5" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="14" t="n">
-        <v>44739</v>
-      </c>
-      <c r="B61" s="21" t="s">
+        <v>44695</v>
+      </c>
+      <c r="B61" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D61" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C61" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D61" s="5" t="s">
+      <c r="E61" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="14" t="n">
+        <v>44659</v>
+      </c>
+      <c r="B62" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="E61" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="14" t="n">
-        <v>44693</v>
-      </c>
-      <c r="B62" s="21" t="s">
+      <c r="C62" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D62" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="C62" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>154</v>
-      </c>
       <c r="E62" s="5" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="F62" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="14" t="n">
-        <v>44695</v>
-      </c>
-      <c r="B63" s="22" t="s">
+        <v>44712</v>
+      </c>
+      <c r="B63" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C63" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D63" s="5" t="s">
+      <c r="E63" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F63" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="E63" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="14" t="n">
-        <v>44659</v>
-      </c>
-      <c r="B64" s="22" t="s">
+        <v>44705</v>
+      </c>
+      <c r="B64" s="18" t="s">
         <v>157</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>158</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="14" t="n">
-        <v>44712</v>
-      </c>
-      <c r="B65" s="21" t="s">
+        <v>44705</v>
+      </c>
+      <c r="B65" s="18" t="s">
         <v>159</v>
       </c>
       <c r="C65" s="5" t="s">
@@ -2927,15 +2869,15 @@
         <v>160</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="14" t="n">
-        <v>44705</v>
+        <v>44693</v>
       </c>
       <c r="B66" s="18" t="s">
         <v>161</v>
@@ -2947,15 +2889,15 @@
         <v>162</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="14" t="n">
-        <v>44705</v>
+        <v>44622</v>
       </c>
       <c r="B67" s="18" t="s">
         <v>163</v>
@@ -2967,35 +2909,35 @@
         <v>164</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="14" t="n">
-        <v>44693</v>
+        <v>44614</v>
       </c>
       <c r="B68" s="18" t="s">
         <v>165</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>166</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="14" t="n">
-        <v>44622</v>
+        <v>44613</v>
       </c>
       <c r="B69" s="18" t="s">
         <v>167</v>
@@ -3007,220 +2949,220 @@
         <v>168</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="14" t="n">
-        <v>44614</v>
-      </c>
-      <c r="B70" s="18" t="s">
+        <v>44608</v>
+      </c>
+      <c r="B70" s="21" t="s">
         <v>169</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>170</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="14" t="n">
-        <v>44613</v>
+        <v>44580</v>
       </c>
       <c r="B71" s="18" t="s">
         <v>171</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>7</v>
+        <v>139</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>172</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="14" t="n">
-        <v>44608</v>
-      </c>
-      <c r="B72" s="21" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="C72" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D72" s="5" t="s">
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="14" t="n">
+        <v>44463</v>
+      </c>
+      <c r="B73" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="E72" s="5" t="s">
+      <c r="C73" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="14" t="n">
+        <v>44460</v>
+      </c>
+      <c r="B74" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="14" t="n">
+        <v>44460</v>
+      </c>
+      <c r="B75" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E75" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F72" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="14" t="n">
-        <v>44580</v>
-      </c>
-      <c r="B73" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F73" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="14" t="n">
-        <v>44463</v>
-      </c>
-      <c r="B75" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>130</v>
-      </c>
       <c r="F75" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="14" t="n">
-        <v>44460</v>
+        <v>44372</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="14" t="n">
-        <v>44460</v>
+        <v>44326</v>
       </c>
       <c r="B77" s="18" t="s">
         <v>183</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>7</v>
+        <v>139</v>
       </c>
       <c r="D77" s="5" t="s">
         <v>184</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="14" t="n">
-        <v>44372</v>
-      </c>
-      <c r="B78" s="18" t="s">
+        <v>44325</v>
+      </c>
+      <c r="B78" s="22" t="s">
         <v>185</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>7</v>
+        <v>139</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>186</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="14" t="n">
-        <v>44326</v>
+        <v>44325</v>
       </c>
       <c r="B79" s="18" t="s">
         <v>187</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>144</v>
+        <v>7</v>
       </c>
       <c r="D79" s="5" t="s">
         <v>188</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="14" t="n">
-        <v>44325</v>
-      </c>
-      <c r="B80" s="22" t="s">
+        <v>44321</v>
+      </c>
+      <c r="B80" s="18" t="s">
         <v>189</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>144</v>
+        <v>7</v>
       </c>
       <c r="D80" s="5" t="s">
         <v>190</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="14" t="n">
-        <v>44325</v>
+        <v>44316</v>
       </c>
       <c r="B81" s="18" t="s">
         <v>191</v>
@@ -3232,57 +3174,57 @@
         <v>192</v>
       </c>
       <c r="E81" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="14" t="n">
+        <v>44279</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="E82" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F81" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="14" t="n">
-        <v>44321</v>
-      </c>
-      <c r="B82" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="F82" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="14" t="n">
-        <v>44316</v>
+        <v>44257</v>
       </c>
       <c r="B83" s="18" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C83" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="14" t="n">
-        <v>44279</v>
-      </c>
-      <c r="B84" s="5" t="s">
+        <v>44243</v>
+      </c>
+      <c r="B84" s="18" t="s">
         <v>198</v>
       </c>
       <c r="C84" s="5" t="s">
@@ -3292,35 +3234,35 @@
         <v>199</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="14" t="n">
-        <v>44257</v>
-      </c>
-      <c r="B85" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="23" t="n">
+        <v>44231</v>
+      </c>
+      <c r="B85" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="C85" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D85" s="5" t="s">
+      <c r="C85" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D85" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="E85" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="F85" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="E85" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="F85" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="14" t="n">
-        <v>44243</v>
+        <v>44218</v>
       </c>
       <c r="B86" s="18" t="s">
         <v>202</v>
@@ -3332,35 +3274,35 @@
         <v>203</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="23" t="n">
-        <v>44231</v>
-      </c>
-      <c r="B87" s="24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="14" t="n">
+        <v>44216</v>
+      </c>
+      <c r="B87" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="C87" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D87" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="E87" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="F87" s="25" t="s">
+      <c r="C87" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D87" s="5" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="88" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E87" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="14" t="n">
-        <v>44218</v>
+        <v>44175</v>
       </c>
       <c r="B88" s="18" t="s">
         <v>206</v>
@@ -3372,17 +3314,17 @@
         <v>207</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="14" t="n">
-        <v>44216</v>
-      </c>
-      <c r="B89" s="21" t="s">
+        <v>44175</v>
+      </c>
+      <c r="B89" s="18" t="s">
         <v>208</v>
       </c>
       <c r="C89" s="5" t="s">
@@ -3395,177 +3337,177 @@
         <v>23</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="14" t="n">
-        <v>44175</v>
-      </c>
-      <c r="B90" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="14" t="n">
+        <v>44162</v>
+      </c>
+      <c r="B91" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="C90" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D90" s="5" t="s">
+      <c r="C91" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D91" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="E90" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="F90" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="14" t="n">
-        <v>44175</v>
-      </c>
-      <c r="B91" s="18" t="s">
+      <c r="E91" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="14" t="n">
+        <v>44148</v>
+      </c>
+      <c r="B92" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="C91" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D91" s="5" t="s">
+      <c r="C92" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="23" t="n">
+        <v>44146</v>
+      </c>
+      <c r="B93" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="E91" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F91" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="14" t="n">
-        <v>44162</v>
-      </c>
-      <c r="B93" s="18" t="s">
+      <c r="C93" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D93" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="C93" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D93" s="5" t="s">
+      <c r="E93" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="F93" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="E93" s="5" t="s">
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="14" t="n">
+        <v>44132</v>
+      </c>
+      <c r="B94" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="14" t="n">
+        <v>44103</v>
+      </c>
+      <c r="B95" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="23" t="n">
+        <v>44095</v>
+      </c>
+      <c r="B96" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="C96" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D96" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="E96" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="F93" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="14" t="n">
-        <v>44148</v>
-      </c>
-      <c r="B94" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E94" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="F94" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="23" t="n">
-        <v>44146</v>
-      </c>
-      <c r="B95" s="24" t="s">
-        <v>217</v>
-      </c>
-      <c r="C95" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="D95" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="E95" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="F95" s="25" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="14" t="n">
-        <v>44132</v>
-      </c>
-      <c r="B96" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="E96" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="F96" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F96" s="25" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="14" t="n">
-        <v>44103</v>
+        <v>44095</v>
       </c>
       <c r="B97" s="18" t="s">
         <v>221</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D97" s="5" t="s">
         <v>222</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="23" t="n">
-        <v>44095</v>
-      </c>
-      <c r="B98" s="24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="14" t="n">
+        <v>44057</v>
+      </c>
+      <c r="B98" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="C98" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D98" s="25" t="s">
+      <c r="C98" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D98" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="E98" s="25" t="s">
+      <c r="E98" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F98" s="25" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F98" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="14" t="n">
-        <v>44095</v>
+        <v>44028</v>
       </c>
       <c r="B99" s="18" t="s">
         <v>225</v>
@@ -3577,33 +3519,33 @@
         <v>226</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="14" t="n">
-        <v>44057</v>
+        <v>44064</v>
       </c>
       <c r="B100" s="18" t="s">
         <v>227</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D100" s="5" t="s">
         <v>228</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="14" t="n">
         <v>44028</v>
       </c>
@@ -3617,15 +3559,15 @@
         <v>230</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="14" t="n">
-        <v>44064</v>
+        <v>44016</v>
       </c>
       <c r="B102" s="18" t="s">
         <v>231</v>
@@ -3637,15 +3579,15 @@
         <v>232</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="14" t="n">
-        <v>44028</v>
+        <v>44010</v>
       </c>
       <c r="B103" s="18" t="s">
         <v>233</v>
@@ -3657,21 +3599,21 @@
         <v>234</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="14" t="n">
-        <v>44016</v>
+        <v>43995</v>
       </c>
       <c r="B104" s="18" t="s">
         <v>235</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D104" s="5" t="s">
         <v>236</v>
@@ -3680,32 +3622,32 @@
         <v>32</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="14" t="n">
-        <v>44010</v>
+        <v>43948</v>
       </c>
       <c r="B105" s="18" t="s">
         <v>237</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D105" s="5" t="s">
         <v>238</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="14" t="n">
-        <v>43995</v>
+        <v>43947</v>
       </c>
       <c r="B106" s="18" t="s">
         <v>239</v>
@@ -3717,15 +3659,15 @@
         <v>240</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="14" t="n">
-        <v>43948</v>
+        <v>43936</v>
       </c>
       <c r="B107" s="18" t="s">
         <v>241</v>
@@ -3737,55 +3679,55 @@
         <v>242</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="14" t="n">
-        <v>43947</v>
+        <v>43929</v>
       </c>
       <c r="B108" s="18" t="s">
         <v>243</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D108" s="5" t="s">
         <v>244</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="14" t="n">
-        <v>43936</v>
+        <v>43891</v>
       </c>
       <c r="B109" s="18" t="s">
         <v>245</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D109" s="5" t="s">
         <v>246</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="14" t="n">
-        <v>43929</v>
+        <v>43885</v>
       </c>
       <c r="B110" s="18" t="s">
         <v>247</v>
@@ -3797,15 +3739,15 @@
         <v>248</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="14" t="n">
-        <v>43891</v>
+        <v>43857</v>
       </c>
       <c r="B111" s="18" t="s">
         <v>249</v>
@@ -3817,15 +3759,15 @@
         <v>250</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="14" t="n">
-        <v>43885</v>
+        <v>43857</v>
       </c>
       <c r="B112" s="18" t="s">
         <v>251</v>
@@ -3837,15 +3779,15 @@
         <v>252</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="14" t="n">
-        <v>43857</v>
+        <v>43852</v>
       </c>
       <c r="B113" s="18" t="s">
         <v>253</v>
@@ -3857,15 +3799,15 @@
         <v>254</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="14" t="n">
-        <v>43857</v>
+        <v>43584</v>
       </c>
       <c r="B114" s="18" t="s">
         <v>255</v>
@@ -3877,15 +3819,15 @@
         <v>256</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="14" t="n">
-        <v>43852</v>
+        <v>43584</v>
       </c>
       <c r="B115" s="18" t="s">
         <v>257</v>
@@ -3897,17 +3839,17 @@
         <v>258</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="14" t="n">
-        <v>43584</v>
-      </c>
-      <c r="B116" s="18" t="s">
+        <v>43540</v>
+      </c>
+      <c r="B116" s="5" t="s">
         <v>259</v>
       </c>
       <c r="C116" s="5" t="s">
@@ -3920,103 +3862,103 @@
         <v>23</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="14" t="n">
-        <v>43584</v>
-      </c>
-      <c r="B117" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="14" t="n">
+        <v>43203</v>
+      </c>
+      <c r="B118" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="C117" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D117" s="5" t="s">
+      <c r="C118" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D118" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="E117" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F117" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="14" t="n">
-        <v>43540</v>
-      </c>
-      <c r="B118" s="5" t="s">
+      <c r="E118" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="14" t="n">
+        <v>43203</v>
+      </c>
+      <c r="B119" s="26" t="s">
         <v>263</v>
       </c>
-      <c r="C118" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D118" s="5" t="s">
+      <c r="C119" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D119" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="E118" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F118" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E119" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F119" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="14" t="n">
-        <v>43203</v>
+        <v>42842</v>
       </c>
       <c r="B120" s="26" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="F120" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="14" t="n">
-        <v>43203</v>
-      </c>
-      <c r="B121" s="26" t="s">
-        <v>267</v>
+        <v>42457</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>268</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>144</v>
+        <v>7</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E121" s="5" t="s">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="14" t="n">
-        <v>42842</v>
-      </c>
-      <c r="B122" s="26" t="s">
+        <v>39028</v>
+      </c>
+      <c r="B122" s="5" t="s">
         <v>270</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>144</v>
+        <v>7</v>
       </c>
       <c r="D122" s="5" t="s">
         <v>271</v>
@@ -4025,187 +3967,2202 @@
         <v>32</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="14" t="n">
-        <v>42457</v>
-      </c>
-      <c r="B123" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="C123" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D123" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="E123" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F123" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="14" t="n">
-        <v>39028</v>
-      </c>
-      <c r="B124" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="C124" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D124" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="E124" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F124" s="5" t="s">
-        <v>36</v>
-      </c>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="13"/>
+      <c r="B124" s="13"/>
+      <c r="C124" s="13"/>
+      <c r="D124" s="13"/>
+      <c r="E124" s="13"/>
+      <c r="F124" s="13"/>
+      <c r="G124" s="13"/>
+      <c r="H124" s="13"/>
+      <c r="I124" s="13"/>
+      <c r="J124" s="13"/>
+      <c r="K124" s="13"/>
+      <c r="L124" s="13"/>
+      <c r="M124" s="13"/>
+      <c r="N124" s="13"/>
+      <c r="O124" s="13"/>
+      <c r="P124" s="13"/>
+      <c r="Q124" s="13"/>
+      <c r="R124" s="13"/>
+      <c r="S124" s="13"/>
+      <c r="T124" s="13"/>
+      <c r="U124" s="13"/>
+      <c r="V124" s="13"/>
+      <c r="W124" s="13"/>
+      <c r="X124" s="13"/>
+      <c r="Y124" s="13"/>
+      <c r="Z124" s="13"/>
+      <c r="AA124" s="13"/>
+      <c r="AB124" s="13"/>
+      <c r="AC124" s="13"/>
+      <c r="AD124" s="13"/>
+      <c r="AE124" s="13"/>
+      <c r="AF124" s="13"/>
+      <c r="AG124" s="13"/>
+      <c r="AH124" s="13"/>
+      <c r="AI124" s="13"/>
+      <c r="AJ124" s="13"/>
+      <c r="AK124" s="13"/>
+      <c r="AL124" s="13"/>
+      <c r="AM124" s="13"/>
+      <c r="AN124" s="13"/>
+      <c r="AO124" s="13"/>
+      <c r="AP124" s="13"/>
+      <c r="AQ124" s="13"/>
+      <c r="AR124" s="13"/>
+      <c r="AS124" s="13"/>
+      <c r="AT124" s="13"/>
+      <c r="AU124" s="13"/>
+      <c r="AV124" s="13"/>
+      <c r="AW124" s="13"/>
+      <c r="AX124" s="13"/>
+      <c r="AY124" s="13"/>
+      <c r="AZ124" s="13"/>
+      <c r="BA124" s="13"/>
+      <c r="BB124" s="13"/>
+      <c r="BC124" s="13"/>
+      <c r="BD124" s="13"/>
+      <c r="BE124" s="13"/>
+      <c r="BF124" s="13"/>
+      <c r="BG124" s="13"/>
+      <c r="BH124" s="13"/>
+      <c r="BI124" s="13"/>
+      <c r="BJ124" s="13"/>
+      <c r="BK124" s="13"/>
+      <c r="BL124" s="13"/>
+      <c r="BM124" s="13"/>
+      <c r="BN124" s="13"/>
+      <c r="BO124" s="13"/>
+      <c r="BP124" s="13"/>
+      <c r="BQ124" s="13"/>
+      <c r="BR124" s="13"/>
+      <c r="BS124" s="13"/>
+      <c r="BT124" s="13"/>
+      <c r="BU124" s="13"/>
+      <c r="BV124" s="13"/>
+      <c r="BW124" s="13"/>
+      <c r="BX124" s="13"/>
+      <c r="BY124" s="13"/>
+      <c r="BZ124" s="13"/>
+      <c r="CA124" s="13"/>
+      <c r="CB124" s="13"/>
+      <c r="CC124" s="13"/>
+      <c r="CD124" s="13"/>
+      <c r="CE124" s="13"/>
+      <c r="CF124" s="13"/>
+      <c r="CG124" s="13"/>
+      <c r="CH124" s="13"/>
+      <c r="CI124" s="13"/>
+      <c r="CJ124" s="13"/>
+      <c r="CK124" s="13"/>
+      <c r="CL124" s="13"/>
+      <c r="CM124" s="13"/>
+      <c r="CN124" s="13"/>
+      <c r="CO124" s="13"/>
+      <c r="CP124" s="13"/>
+      <c r="CQ124" s="13"/>
+      <c r="CR124" s="13"/>
+      <c r="CS124" s="13"/>
+      <c r="CT124" s="13"/>
+      <c r="CU124" s="13"/>
+      <c r="CV124" s="13"/>
+      <c r="CW124" s="13"/>
+      <c r="CX124" s="13"/>
+      <c r="CY124" s="13"/>
+      <c r="CZ124" s="13"/>
+      <c r="DA124" s="13"/>
+      <c r="DB124" s="13"/>
+      <c r="DC124" s="13"/>
+      <c r="DD124" s="13"/>
+      <c r="DE124" s="13"/>
+      <c r="DF124" s="13"/>
+      <c r="DG124" s="13"/>
+      <c r="DH124" s="13"/>
+      <c r="DI124" s="13"/>
+      <c r="DJ124" s="13"/>
+      <c r="DK124" s="13"/>
+      <c r="DL124" s="13"/>
+      <c r="DM124" s="13"/>
+      <c r="DN124" s="13"/>
+      <c r="DO124" s="13"/>
+      <c r="DP124" s="13"/>
+      <c r="DQ124" s="13"/>
+      <c r="DR124" s="13"/>
+      <c r="DS124" s="13"/>
+      <c r="DT124" s="13"/>
+      <c r="DU124" s="13"/>
+      <c r="DV124" s="13"/>
+      <c r="DW124" s="13"/>
+      <c r="DX124" s="13"/>
+      <c r="DY124" s="13"/>
+      <c r="DZ124" s="13"/>
+      <c r="EA124" s="13"/>
+      <c r="EB124" s="13"/>
+      <c r="EC124" s="13"/>
+      <c r="ED124" s="13"/>
+      <c r="EE124" s="13"/>
+      <c r="EF124" s="13"/>
+      <c r="EG124" s="13"/>
+      <c r="EH124" s="13"/>
+      <c r="EI124" s="13"/>
+      <c r="EJ124" s="13"/>
+      <c r="EK124" s="13"/>
+      <c r="EL124" s="13"/>
+      <c r="EM124" s="13"/>
+      <c r="EN124" s="13"/>
+      <c r="EO124" s="13"/>
+      <c r="EP124" s="13"/>
+      <c r="EQ124" s="13"/>
+      <c r="ER124" s="13"/>
+      <c r="ES124" s="13"/>
+      <c r="ET124" s="13"/>
+      <c r="EU124" s="13"/>
+      <c r="EV124" s="13"/>
+      <c r="EW124" s="13"/>
+      <c r="EX124" s="13"/>
+      <c r="EY124" s="13"/>
+      <c r="EZ124" s="13"/>
+      <c r="FA124" s="13"/>
+      <c r="FB124" s="13"/>
+      <c r="FC124" s="13"/>
+      <c r="FD124" s="13"/>
+      <c r="FE124" s="13"/>
+      <c r="FF124" s="13"/>
+      <c r="FG124" s="13"/>
+      <c r="FH124" s="13"/>
+      <c r="FI124" s="13"/>
+      <c r="FJ124" s="13"/>
+      <c r="FK124" s="13"/>
+      <c r="FL124" s="13"/>
+      <c r="FM124" s="13"/>
+      <c r="FN124" s="13"/>
+      <c r="FO124" s="13"/>
+      <c r="FP124" s="13"/>
+      <c r="FQ124" s="13"/>
+      <c r="FR124" s="13"/>
+      <c r="FS124" s="13"/>
+      <c r="FT124" s="13"/>
+      <c r="FU124" s="13"/>
+      <c r="FV124" s="13"/>
+      <c r="FW124" s="13"/>
+      <c r="FX124" s="13"/>
+      <c r="FY124" s="13"/>
+      <c r="FZ124" s="13"/>
+      <c r="GA124" s="13"/>
+      <c r="GB124" s="13"/>
+      <c r="GC124" s="13"/>
+      <c r="GD124" s="13"/>
+      <c r="GE124" s="13"/>
+      <c r="GF124" s="13"/>
+      <c r="GG124" s="13"/>
+      <c r="GH124" s="13"/>
+      <c r="GI124" s="13"/>
+      <c r="GJ124" s="13"/>
+      <c r="GK124" s="13"/>
+      <c r="GL124" s="13"/>
+      <c r="GM124" s="13"/>
+      <c r="GN124" s="13"/>
+      <c r="GO124" s="13"/>
+      <c r="GP124" s="13"/>
+      <c r="GQ124" s="13"/>
+      <c r="GR124" s="13"/>
+      <c r="GS124" s="13"/>
+      <c r="GT124" s="13"/>
+      <c r="GU124" s="13"/>
+      <c r="GV124" s="13"/>
+      <c r="GW124" s="13"/>
+      <c r="GX124" s="13"/>
+      <c r="GY124" s="13"/>
+      <c r="GZ124" s="13"/>
+      <c r="HA124" s="13"/>
+      <c r="HB124" s="13"/>
+      <c r="HC124" s="13"/>
+      <c r="HD124" s="13"/>
+      <c r="HE124" s="13"/>
+      <c r="HF124" s="13"/>
+      <c r="HG124" s="13"/>
+      <c r="HH124" s="13"/>
+      <c r="HI124" s="13"/>
+      <c r="HJ124" s="13"/>
+      <c r="HK124" s="13"/>
+      <c r="HL124" s="13"/>
+      <c r="HM124" s="13"/>
+      <c r="HN124" s="13"/>
+      <c r="HO124" s="13"/>
+      <c r="HP124" s="13"/>
+      <c r="HQ124" s="13"/>
+      <c r="HR124" s="13"/>
+      <c r="HS124" s="13"/>
+      <c r="HT124" s="13"/>
+      <c r="HU124" s="13"/>
+      <c r="HV124" s="13"/>
+      <c r="HW124" s="13"/>
+      <c r="HX124" s="13"/>
+      <c r="HY124" s="13"/>
+      <c r="HZ124" s="13"/>
+      <c r="IA124" s="13"/>
+      <c r="IB124" s="13"/>
+      <c r="IC124" s="13"/>
+      <c r="ID124" s="13"/>
+      <c r="IE124" s="13"/>
+      <c r="IF124" s="13"/>
+      <c r="IG124" s="13"/>
+      <c r="IH124" s="13"/>
+      <c r="II124" s="13"/>
+      <c r="IJ124" s="13"/>
+      <c r="IK124" s="13"/>
+      <c r="IL124" s="13"/>
+      <c r="IM124" s="13"/>
+      <c r="IN124" s="13"/>
+      <c r="IO124" s="13"/>
+      <c r="IP124" s="13"/>
+      <c r="IQ124" s="13"/>
+      <c r="IR124" s="13"/>
+      <c r="IS124" s="13"/>
+      <c r="IT124" s="13"/>
+      <c r="IU124" s="13"/>
+      <c r="IV124" s="13"/>
+      <c r="IW124" s="13"/>
+      <c r="IX124" s="13"/>
+      <c r="IY124" s="13"/>
+      <c r="IZ124" s="13"/>
+      <c r="JA124" s="13"/>
+      <c r="JB124" s="13"/>
+      <c r="JC124" s="13"/>
+      <c r="JD124" s="13"/>
+      <c r="JE124" s="13"/>
+      <c r="JF124" s="13"/>
+      <c r="JG124" s="13"/>
+      <c r="JH124" s="13"/>
+      <c r="JI124" s="13"/>
+      <c r="JJ124" s="13"/>
+      <c r="JK124" s="13"/>
+      <c r="JL124" s="13"/>
+      <c r="JM124" s="13"/>
+      <c r="JN124" s="13"/>
+      <c r="JO124" s="13"/>
+      <c r="JP124" s="13"/>
+      <c r="JQ124" s="13"/>
+      <c r="JR124" s="13"/>
+      <c r="JS124" s="13"/>
+      <c r="JT124" s="13"/>
+      <c r="JU124" s="13"/>
+      <c r="JV124" s="13"/>
+      <c r="JW124" s="13"/>
+      <c r="JX124" s="13"/>
+      <c r="JY124" s="13"/>
+      <c r="JZ124" s="13"/>
+      <c r="KA124" s="13"/>
+      <c r="KB124" s="13"/>
+      <c r="KC124" s="13"/>
+      <c r="KD124" s="13"/>
+      <c r="KE124" s="13"/>
+      <c r="KF124" s="13"/>
+      <c r="KG124" s="13"/>
+      <c r="KH124" s="13"/>
+      <c r="KI124" s="13"/>
+      <c r="KJ124" s="13"/>
+      <c r="KK124" s="13"/>
+      <c r="KL124" s="13"/>
+      <c r="KM124" s="13"/>
+      <c r="KN124" s="13"/>
+      <c r="KO124" s="13"/>
+      <c r="KP124" s="13"/>
+      <c r="KQ124" s="13"/>
+      <c r="KR124" s="13"/>
+      <c r="KS124" s="13"/>
+      <c r="KT124" s="13"/>
+      <c r="KU124" s="13"/>
+      <c r="KV124" s="13"/>
+      <c r="KW124" s="13"/>
+      <c r="KX124" s="13"/>
+      <c r="KY124" s="13"/>
+      <c r="KZ124" s="13"/>
+      <c r="LA124" s="13"/>
+      <c r="LB124" s="13"/>
+      <c r="LC124" s="13"/>
+      <c r="LD124" s="13"/>
+      <c r="LE124" s="13"/>
+      <c r="LF124" s="13"/>
+      <c r="LG124" s="13"/>
+      <c r="LH124" s="13"/>
+      <c r="LI124" s="13"/>
+      <c r="LJ124" s="13"/>
+      <c r="LK124" s="13"/>
+      <c r="LL124" s="13"/>
+      <c r="LM124" s="13"/>
+      <c r="LN124" s="13"/>
+      <c r="LO124" s="13"/>
+      <c r="LP124" s="13"/>
+      <c r="LQ124" s="13"/>
+      <c r="LR124" s="13"/>
+      <c r="LS124" s="13"/>
+      <c r="LT124" s="13"/>
+      <c r="LU124" s="13"/>
+      <c r="LV124" s="13"/>
+      <c r="LW124" s="13"/>
+      <c r="LX124" s="13"/>
+      <c r="LY124" s="13"/>
+      <c r="LZ124" s="13"/>
+      <c r="MA124" s="13"/>
+      <c r="MB124" s="13"/>
+      <c r="MC124" s="13"/>
+      <c r="MD124" s="13"/>
+      <c r="ME124" s="13"/>
+      <c r="MF124" s="13"/>
+      <c r="MG124" s="13"/>
+      <c r="MH124" s="13"/>
+      <c r="MI124" s="13"/>
+      <c r="MJ124" s="13"/>
+      <c r="MK124" s="13"/>
+      <c r="ML124" s="13"/>
+      <c r="MM124" s="13"/>
+      <c r="MN124" s="13"/>
+      <c r="MO124" s="13"/>
+      <c r="MP124" s="13"/>
+      <c r="MQ124" s="13"/>
+      <c r="MR124" s="13"/>
+      <c r="MS124" s="13"/>
+      <c r="MT124" s="13"/>
+      <c r="MU124" s="13"/>
+      <c r="MV124" s="13"/>
+      <c r="MW124" s="13"/>
+      <c r="MX124" s="13"/>
+      <c r="MY124" s="13"/>
+      <c r="MZ124" s="13"/>
+      <c r="NA124" s="13"/>
+      <c r="NB124" s="13"/>
+      <c r="NC124" s="13"/>
+      <c r="ND124" s="13"/>
+      <c r="NE124" s="13"/>
+      <c r="NF124" s="13"/>
+      <c r="NG124" s="13"/>
+      <c r="NH124" s="13"/>
+      <c r="NI124" s="13"/>
+      <c r="NJ124" s="13"/>
+      <c r="NK124" s="13"/>
+      <c r="NL124" s="13"/>
+      <c r="NM124" s="13"/>
+      <c r="NN124" s="13"/>
+      <c r="NO124" s="13"/>
+      <c r="NP124" s="13"/>
+      <c r="NQ124" s="13"/>
+      <c r="NR124" s="13"/>
+      <c r="NS124" s="13"/>
+      <c r="NT124" s="13"/>
+      <c r="NU124" s="13"/>
+      <c r="NV124" s="13"/>
+      <c r="NW124" s="13"/>
+      <c r="NX124" s="13"/>
+      <c r="NY124" s="13"/>
+      <c r="NZ124" s="13"/>
+      <c r="OA124" s="13"/>
+      <c r="OB124" s="13"/>
+      <c r="OC124" s="13"/>
+      <c r="OD124" s="13"/>
+      <c r="OE124" s="13"/>
+      <c r="OF124" s="13"/>
+      <c r="OG124" s="13"/>
+      <c r="OH124" s="13"/>
+      <c r="OI124" s="13"/>
+      <c r="OJ124" s="13"/>
+      <c r="OK124" s="13"/>
+      <c r="OL124" s="13"/>
+      <c r="OM124" s="13"/>
+      <c r="ON124" s="13"/>
+      <c r="OO124" s="13"/>
+      <c r="OP124" s="13"/>
+      <c r="OQ124" s="13"/>
+      <c r="OR124" s="13"/>
+      <c r="OS124" s="13"/>
+      <c r="OT124" s="13"/>
+      <c r="OU124" s="13"/>
+      <c r="OV124" s="13"/>
+      <c r="OW124" s="13"/>
+      <c r="OX124" s="13"/>
+      <c r="OY124" s="13"/>
+      <c r="OZ124" s="13"/>
+      <c r="PA124" s="13"/>
+      <c r="PB124" s="13"/>
+      <c r="PC124" s="13"/>
+      <c r="PD124" s="13"/>
+      <c r="PE124" s="13"/>
+      <c r="PF124" s="13"/>
+      <c r="PG124" s="13"/>
+      <c r="PH124" s="13"/>
+      <c r="PI124" s="13"/>
+      <c r="PJ124" s="13"/>
+      <c r="PK124" s="13"/>
+      <c r="PL124" s="13"/>
+      <c r="PM124" s="13"/>
+      <c r="PN124" s="13"/>
+      <c r="PO124" s="13"/>
+      <c r="PP124" s="13"/>
+      <c r="PQ124" s="13"/>
+      <c r="PR124" s="13"/>
+      <c r="PS124" s="13"/>
+      <c r="PT124" s="13"/>
+      <c r="PU124" s="13"/>
+      <c r="PV124" s="13"/>
+      <c r="PW124" s="13"/>
+      <c r="PX124" s="13"/>
+      <c r="PY124" s="13"/>
+      <c r="PZ124" s="13"/>
+      <c r="QA124" s="13"/>
+      <c r="QB124" s="13"/>
+      <c r="QC124" s="13"/>
+      <c r="QD124" s="13"/>
+      <c r="QE124" s="13"/>
+      <c r="QF124" s="13"/>
+      <c r="QG124" s="13"/>
+      <c r="QH124" s="13"/>
+      <c r="QI124" s="13"/>
+      <c r="QJ124" s="13"/>
+      <c r="QK124" s="13"/>
+      <c r="QL124" s="13"/>
+      <c r="QM124" s="13"/>
+      <c r="QN124" s="13"/>
+      <c r="QO124" s="13"/>
+      <c r="QP124" s="13"/>
+      <c r="QQ124" s="13"/>
+      <c r="QR124" s="13"/>
+      <c r="QS124" s="13"/>
+      <c r="QT124" s="13"/>
+      <c r="QU124" s="13"/>
+      <c r="QV124" s="13"/>
+      <c r="QW124" s="13"/>
+      <c r="QX124" s="13"/>
+      <c r="QY124" s="13"/>
+      <c r="QZ124" s="13"/>
+      <c r="RA124" s="13"/>
+      <c r="RB124" s="13"/>
+      <c r="RC124" s="13"/>
+      <c r="RD124" s="13"/>
+      <c r="RE124" s="13"/>
+      <c r="RF124" s="13"/>
+      <c r="RG124" s="13"/>
+      <c r="RH124" s="13"/>
+      <c r="RI124" s="13"/>
+      <c r="RJ124" s="13"/>
+      <c r="RK124" s="13"/>
+      <c r="RL124" s="13"/>
+      <c r="RM124" s="13"/>
+      <c r="RN124" s="13"/>
+      <c r="RO124" s="13"/>
+      <c r="RP124" s="13"/>
+      <c r="RQ124" s="13"/>
+      <c r="RR124" s="13"/>
+      <c r="RS124" s="13"/>
+      <c r="RT124" s="13"/>
+      <c r="RU124" s="13"/>
+      <c r="RV124" s="13"/>
+      <c r="RW124" s="13"/>
+      <c r="RX124" s="13"/>
+      <c r="RY124" s="13"/>
+      <c r="RZ124" s="13"/>
+      <c r="SA124" s="13"/>
+      <c r="SB124" s="13"/>
+      <c r="SC124" s="13"/>
+      <c r="SD124" s="13"/>
+      <c r="SE124" s="13"/>
+      <c r="SF124" s="13"/>
+      <c r="SG124" s="13"/>
+      <c r="SH124" s="13"/>
+      <c r="SI124" s="13"/>
+      <c r="SJ124" s="13"/>
+      <c r="SK124" s="13"/>
+      <c r="SL124" s="13"/>
+      <c r="SM124" s="13"/>
+      <c r="SN124" s="13"/>
+      <c r="SO124" s="13"/>
+      <c r="SP124" s="13"/>
+      <c r="SQ124" s="13"/>
+      <c r="SR124" s="13"/>
+      <c r="SS124" s="13"/>
+      <c r="ST124" s="13"/>
+      <c r="SU124" s="13"/>
+      <c r="SV124" s="13"/>
+      <c r="SW124" s="13"/>
+      <c r="SX124" s="13"/>
+      <c r="SY124" s="13"/>
+      <c r="SZ124" s="13"/>
+      <c r="TA124" s="13"/>
+      <c r="TB124" s="13"/>
+      <c r="TC124" s="13"/>
+      <c r="TD124" s="13"/>
+      <c r="TE124" s="13"/>
+      <c r="TF124" s="13"/>
+      <c r="TG124" s="13"/>
+      <c r="TH124" s="13"/>
+      <c r="TI124" s="13"/>
+      <c r="TJ124" s="13"/>
+      <c r="TK124" s="13"/>
+      <c r="TL124" s="13"/>
+      <c r="TM124" s="13"/>
+      <c r="TN124" s="13"/>
+      <c r="TO124" s="13"/>
+      <c r="TP124" s="13"/>
+      <c r="TQ124" s="13"/>
+      <c r="TR124" s="13"/>
+      <c r="TS124" s="13"/>
+      <c r="TT124" s="13"/>
+      <c r="TU124" s="13"/>
+      <c r="TV124" s="13"/>
+      <c r="TW124" s="13"/>
+      <c r="TX124" s="13"/>
+      <c r="TY124" s="13"/>
+      <c r="TZ124" s="13"/>
+      <c r="UA124" s="13"/>
+      <c r="UB124" s="13"/>
+      <c r="UC124" s="13"/>
+      <c r="UD124" s="13"/>
+      <c r="UE124" s="13"/>
+      <c r="UF124" s="13"/>
+      <c r="UG124" s="13"/>
+      <c r="UH124" s="13"/>
+      <c r="UI124" s="13"/>
+      <c r="UJ124" s="13"/>
+      <c r="UK124" s="13"/>
+      <c r="UL124" s="13"/>
+      <c r="UM124" s="13"/>
+      <c r="UN124" s="13"/>
+      <c r="UO124" s="13"/>
+      <c r="UP124" s="13"/>
+      <c r="UQ124" s="13"/>
+      <c r="UR124" s="13"/>
+      <c r="US124" s="13"/>
+      <c r="UT124" s="13"/>
+      <c r="UU124" s="13"/>
+      <c r="UV124" s="13"/>
+      <c r="UW124" s="13"/>
+      <c r="UX124" s="13"/>
+      <c r="UY124" s="13"/>
+      <c r="UZ124" s="13"/>
+      <c r="VA124" s="13"/>
+      <c r="VB124" s="13"/>
+      <c r="VC124" s="13"/>
+      <c r="VD124" s="13"/>
+      <c r="VE124" s="13"/>
+      <c r="VF124" s="13"/>
+      <c r="VG124" s="13"/>
+      <c r="VH124" s="13"/>
+      <c r="VI124" s="13"/>
+      <c r="VJ124" s="13"/>
+      <c r="VK124" s="13"/>
+      <c r="VL124" s="13"/>
+      <c r="VM124" s="13"/>
+      <c r="VN124" s="13"/>
+      <c r="VO124" s="13"/>
+      <c r="VP124" s="13"/>
+      <c r="VQ124" s="13"/>
+      <c r="VR124" s="13"/>
+      <c r="VS124" s="13"/>
+      <c r="VT124" s="13"/>
+      <c r="VU124" s="13"/>
+      <c r="VV124" s="13"/>
+      <c r="VW124" s="13"/>
+      <c r="VX124" s="13"/>
+      <c r="VY124" s="13"/>
+      <c r="VZ124" s="13"/>
+      <c r="WA124" s="13"/>
+      <c r="WB124" s="13"/>
+      <c r="WC124" s="13"/>
+      <c r="WD124" s="13"/>
+      <c r="WE124" s="13"/>
+      <c r="WF124" s="13"/>
+      <c r="WG124" s="13"/>
+      <c r="WH124" s="13"/>
+      <c r="WI124" s="13"/>
+      <c r="WJ124" s="13"/>
+      <c r="WK124" s="13"/>
+      <c r="WL124" s="13"/>
+      <c r="WM124" s="13"/>
+      <c r="WN124" s="13"/>
+      <c r="WO124" s="13"/>
+      <c r="WP124" s="13"/>
+      <c r="WQ124" s="13"/>
+      <c r="WR124" s="13"/>
+      <c r="WS124" s="13"/>
+      <c r="WT124" s="13"/>
+      <c r="WU124" s="13"/>
+      <c r="WV124" s="13"/>
+      <c r="WW124" s="13"/>
+      <c r="WX124" s="13"/>
+      <c r="WY124" s="13"/>
+      <c r="WZ124" s="13"/>
+      <c r="XA124" s="13"/>
+      <c r="XB124" s="13"/>
+      <c r="XC124" s="13"/>
+      <c r="XD124" s="13"/>
+      <c r="XE124" s="13"/>
+      <c r="XF124" s="13"/>
+      <c r="XG124" s="13"/>
+      <c r="XH124" s="13"/>
+      <c r="XI124" s="13"/>
+      <c r="XJ124" s="13"/>
+      <c r="XK124" s="13"/>
+      <c r="XL124" s="13"/>
+      <c r="XM124" s="13"/>
+      <c r="XN124" s="13"/>
+      <c r="XO124" s="13"/>
+      <c r="XP124" s="13"/>
+      <c r="XQ124" s="13"/>
+      <c r="XR124" s="13"/>
+      <c r="XS124" s="13"/>
+      <c r="XT124" s="13"/>
+      <c r="XU124" s="13"/>
+      <c r="XV124" s="13"/>
+      <c r="XW124" s="13"/>
+      <c r="XX124" s="13"/>
+      <c r="XY124" s="13"/>
+      <c r="XZ124" s="13"/>
+      <c r="YA124" s="13"/>
+      <c r="YB124" s="13"/>
+      <c r="YC124" s="13"/>
+      <c r="YD124" s="13"/>
+      <c r="YE124" s="13"/>
+      <c r="YF124" s="13"/>
+      <c r="YG124" s="13"/>
+      <c r="YH124" s="13"/>
+      <c r="YI124" s="13"/>
+      <c r="YJ124" s="13"/>
+      <c r="YK124" s="13"/>
+      <c r="YL124" s="13"/>
+      <c r="YM124" s="13"/>
+      <c r="YN124" s="13"/>
+      <c r="YO124" s="13"/>
+      <c r="YP124" s="13"/>
+      <c r="YQ124" s="13"/>
+      <c r="YR124" s="13"/>
+      <c r="YS124" s="13"/>
+      <c r="YT124" s="13"/>
+      <c r="YU124" s="13"/>
+      <c r="YV124" s="13"/>
+      <c r="YW124" s="13"/>
+      <c r="YX124" s="13"/>
+      <c r="YY124" s="13"/>
+      <c r="YZ124" s="13"/>
+      <c r="ZA124" s="13"/>
+      <c r="ZB124" s="13"/>
+      <c r="ZC124" s="13"/>
+      <c r="ZD124" s="13"/>
+      <c r="ZE124" s="13"/>
+      <c r="ZF124" s="13"/>
+      <c r="ZG124" s="13"/>
+      <c r="ZH124" s="13"/>
+      <c r="ZI124" s="13"/>
+      <c r="ZJ124" s="13"/>
+      <c r="ZK124" s="13"/>
+      <c r="ZL124" s="13"/>
+      <c r="ZM124" s="13"/>
+      <c r="ZN124" s="13"/>
+      <c r="ZO124" s="13"/>
+      <c r="ZP124" s="13"/>
+      <c r="ZQ124" s="13"/>
+      <c r="ZR124" s="13"/>
+      <c r="ZS124" s="13"/>
+      <c r="ZT124" s="13"/>
+      <c r="ZU124" s="13"/>
+      <c r="ZV124" s="13"/>
+      <c r="ZW124" s="13"/>
+      <c r="ZX124" s="13"/>
+      <c r="ZY124" s="13"/>
+      <c r="ZZ124" s="13"/>
+      <c r="AAA124" s="13"/>
+      <c r="AAB124" s="13"/>
+      <c r="AAC124" s="13"/>
+      <c r="AAD124" s="13"/>
+      <c r="AAE124" s="13"/>
+      <c r="AAF124" s="13"/>
+      <c r="AAG124" s="13"/>
+      <c r="AAH124" s="13"/>
+      <c r="AAI124" s="13"/>
+      <c r="AAJ124" s="13"/>
+      <c r="AAK124" s="13"/>
+      <c r="AAL124" s="13"/>
+      <c r="AAM124" s="13"/>
+      <c r="AAN124" s="13"/>
+      <c r="AAO124" s="13"/>
+      <c r="AAP124" s="13"/>
+      <c r="AAQ124" s="13"/>
+      <c r="AAR124" s="13"/>
+      <c r="AAS124" s="13"/>
+      <c r="AAT124" s="13"/>
+      <c r="AAU124" s="13"/>
+      <c r="AAV124" s="13"/>
+      <c r="AAW124" s="13"/>
+      <c r="AAX124" s="13"/>
+      <c r="AAY124" s="13"/>
+      <c r="AAZ124" s="13"/>
+      <c r="ABA124" s="13"/>
+      <c r="ABB124" s="13"/>
+      <c r="ABC124" s="13"/>
+      <c r="ABD124" s="13"/>
+      <c r="ABE124" s="13"/>
+      <c r="ABF124" s="13"/>
+      <c r="ABG124" s="13"/>
+      <c r="ABH124" s="13"/>
+      <c r="ABI124" s="13"/>
+      <c r="ABJ124" s="13"/>
+      <c r="ABK124" s="13"/>
+      <c r="ABL124" s="13"/>
+      <c r="ABM124" s="13"/>
+      <c r="ABN124" s="13"/>
+      <c r="ABO124" s="13"/>
+      <c r="ABP124" s="13"/>
+      <c r="ABQ124" s="13"/>
+      <c r="ABR124" s="13"/>
+      <c r="ABS124" s="13"/>
+      <c r="ABT124" s="13"/>
+      <c r="ABU124" s="13"/>
+      <c r="ABV124" s="13"/>
+      <c r="ABW124" s="13"/>
+      <c r="ABX124" s="13"/>
+      <c r="ABY124" s="13"/>
+      <c r="ABZ124" s="13"/>
+      <c r="ACA124" s="13"/>
+      <c r="ACB124" s="13"/>
+      <c r="ACC124" s="13"/>
+      <c r="ACD124" s="13"/>
+      <c r="ACE124" s="13"/>
+      <c r="ACF124" s="13"/>
+      <c r="ACG124" s="13"/>
+      <c r="ACH124" s="13"/>
+      <c r="ACI124" s="13"/>
+      <c r="ACJ124" s="13"/>
+      <c r="ACK124" s="13"/>
+      <c r="ACL124" s="13"/>
+      <c r="ACM124" s="13"/>
+      <c r="ACN124" s="13"/>
+      <c r="ACO124" s="13"/>
+      <c r="ACP124" s="13"/>
+      <c r="ACQ124" s="13"/>
+      <c r="ACR124" s="13"/>
+      <c r="ACS124" s="13"/>
+      <c r="ACT124" s="13"/>
+      <c r="ACU124" s="13"/>
+      <c r="ACV124" s="13"/>
+      <c r="ACW124" s="13"/>
+      <c r="ACX124" s="13"/>
+      <c r="ACY124" s="13"/>
+      <c r="ACZ124" s="13"/>
+      <c r="ADA124" s="13"/>
+      <c r="ADB124" s="13"/>
+      <c r="ADC124" s="13"/>
+      <c r="ADD124" s="13"/>
+      <c r="ADE124" s="13"/>
+      <c r="ADF124" s="13"/>
+      <c r="ADG124" s="13"/>
+      <c r="ADH124" s="13"/>
+      <c r="ADI124" s="13"/>
+      <c r="ADJ124" s="13"/>
+      <c r="ADK124" s="13"/>
+      <c r="ADL124" s="13"/>
+      <c r="ADM124" s="13"/>
+      <c r="ADN124" s="13"/>
+      <c r="ADO124" s="13"/>
+      <c r="ADP124" s="13"/>
+      <c r="ADQ124" s="13"/>
+      <c r="ADR124" s="13"/>
+      <c r="ADS124" s="13"/>
+      <c r="ADT124" s="13"/>
+      <c r="ADU124" s="13"/>
+      <c r="ADV124" s="13"/>
+      <c r="ADW124" s="13"/>
+      <c r="ADX124" s="13"/>
+      <c r="ADY124" s="13"/>
+      <c r="ADZ124" s="13"/>
+      <c r="AEA124" s="13"/>
+      <c r="AEB124" s="13"/>
+      <c r="AEC124" s="13"/>
+      <c r="AED124" s="13"/>
+      <c r="AEE124" s="13"/>
+      <c r="AEF124" s="13"/>
+      <c r="AEG124" s="13"/>
+      <c r="AEH124" s="13"/>
+      <c r="AEI124" s="13"/>
+      <c r="AEJ124" s="13"/>
+      <c r="AEK124" s="13"/>
+      <c r="AEL124" s="13"/>
+      <c r="AEM124" s="13"/>
+      <c r="AEN124" s="13"/>
+      <c r="AEO124" s="13"/>
+      <c r="AEP124" s="13"/>
+      <c r="AEQ124" s="13"/>
+      <c r="AER124" s="13"/>
+      <c r="AES124" s="13"/>
+      <c r="AET124" s="13"/>
+      <c r="AEU124" s="13"/>
+      <c r="AEV124" s="13"/>
+      <c r="AEW124" s="13"/>
+      <c r="AEX124" s="13"/>
+      <c r="AEY124" s="13"/>
+      <c r="AEZ124" s="13"/>
+      <c r="AFA124" s="13"/>
+      <c r="AFB124" s="13"/>
+      <c r="AFC124" s="13"/>
+      <c r="AFD124" s="13"/>
+      <c r="AFE124" s="13"/>
+      <c r="AFF124" s="13"/>
+      <c r="AFG124" s="13"/>
+      <c r="AFH124" s="13"/>
+      <c r="AFI124" s="13"/>
+      <c r="AFJ124" s="13"/>
+      <c r="AFK124" s="13"/>
+      <c r="AFL124" s="13"/>
+      <c r="AFM124" s="13"/>
+      <c r="AFN124" s="13"/>
+      <c r="AFO124" s="13"/>
+      <c r="AFP124" s="13"/>
+      <c r="AFQ124" s="13"/>
+      <c r="AFR124" s="13"/>
+      <c r="AFS124" s="13"/>
+      <c r="AFT124" s="13"/>
+      <c r="AFU124" s="13"/>
+      <c r="AFV124" s="13"/>
+      <c r="AFW124" s="13"/>
+      <c r="AFX124" s="13"/>
+      <c r="AFY124" s="13"/>
+      <c r="AFZ124" s="13"/>
+      <c r="AGA124" s="13"/>
+      <c r="AGB124" s="13"/>
+      <c r="AGC124" s="13"/>
+      <c r="AGD124" s="13"/>
+      <c r="AGE124" s="13"/>
+      <c r="AGF124" s="13"/>
+      <c r="AGG124" s="13"/>
+      <c r="AGH124" s="13"/>
+      <c r="AGI124" s="13"/>
+      <c r="AGJ124" s="13"/>
+      <c r="AGK124" s="13"/>
+      <c r="AGL124" s="13"/>
+      <c r="AGM124" s="13"/>
+      <c r="AGN124" s="13"/>
+      <c r="AGO124" s="13"/>
+      <c r="AGP124" s="13"/>
+      <c r="AGQ124" s="13"/>
+      <c r="AGR124" s="13"/>
+      <c r="AGS124" s="13"/>
+      <c r="AGT124" s="13"/>
+      <c r="AGU124" s="13"/>
+      <c r="AGV124" s="13"/>
+      <c r="AGW124" s="13"/>
+      <c r="AGX124" s="13"/>
+      <c r="AGY124" s="13"/>
+      <c r="AGZ124" s="13"/>
+      <c r="AHA124" s="13"/>
+      <c r="AHB124" s="13"/>
+      <c r="AHC124" s="13"/>
+      <c r="AHD124" s="13"/>
+      <c r="AHE124" s="13"/>
+      <c r="AHF124" s="13"/>
+      <c r="AHG124" s="13"/>
+      <c r="AHH124" s="13"/>
+      <c r="AHI124" s="13"/>
+      <c r="AHJ124" s="13"/>
+      <c r="AHK124" s="13"/>
+      <c r="AHL124" s="13"/>
+      <c r="AHM124" s="13"/>
+      <c r="AHN124" s="13"/>
+      <c r="AHO124" s="13"/>
+      <c r="AHP124" s="13"/>
+      <c r="AHQ124" s="13"/>
+      <c r="AHR124" s="13"/>
+      <c r="AHS124" s="13"/>
+      <c r="AHT124" s="13"/>
+      <c r="AHU124" s="13"/>
+      <c r="AHV124" s="13"/>
+      <c r="AHW124" s="13"/>
+      <c r="AHX124" s="13"/>
+      <c r="AHY124" s="13"/>
+      <c r="AHZ124" s="13"/>
+      <c r="AIA124" s="13"/>
+      <c r="AIB124" s="13"/>
+      <c r="AIC124" s="13"/>
+      <c r="AID124" s="13"/>
+      <c r="AIE124" s="13"/>
+      <c r="AIF124" s="13"/>
+      <c r="AIG124" s="13"/>
+      <c r="AIH124" s="13"/>
+      <c r="AII124" s="13"/>
+      <c r="AIJ124" s="13"/>
+      <c r="AIK124" s="13"/>
+      <c r="AIL124" s="13"/>
+      <c r="AIM124" s="13"/>
+      <c r="AIN124" s="13"/>
+      <c r="AIO124" s="13"/>
+      <c r="AIP124" s="13"/>
+      <c r="AIQ124" s="13"/>
+      <c r="AIR124" s="13"/>
+      <c r="AIS124" s="13"/>
+      <c r="AIT124" s="13"/>
+      <c r="AIU124" s="13"/>
+      <c r="AIV124" s="13"/>
+      <c r="AIW124" s="13"/>
+      <c r="AIX124" s="13"/>
+      <c r="AIY124" s="13"/>
+      <c r="AIZ124" s="13"/>
+      <c r="AJA124" s="13"/>
+      <c r="AJB124" s="13"/>
+      <c r="AJC124" s="13"/>
+      <c r="AJD124" s="13"/>
+      <c r="AJE124" s="13"/>
+      <c r="AJF124" s="13"/>
+      <c r="AJG124" s="13"/>
+      <c r="AJH124" s="13"/>
+      <c r="AJI124" s="13"/>
+      <c r="AJJ124" s="13"/>
+      <c r="AJK124" s="13"/>
+      <c r="AJL124" s="13"/>
+      <c r="AJM124" s="13"/>
+      <c r="AJN124" s="13"/>
+      <c r="AJO124" s="13"/>
+      <c r="AJP124" s="13"/>
+      <c r="AJQ124" s="13"/>
+      <c r="AJR124" s="13"/>
+      <c r="AJS124" s="13"/>
+      <c r="AJT124" s="13"/>
+      <c r="AJU124" s="13"/>
+      <c r="AJV124" s="13"/>
+      <c r="AJW124" s="13"/>
+      <c r="AJX124" s="13"/>
+      <c r="AJY124" s="13"/>
+      <c r="AJZ124" s="13"/>
+      <c r="AKA124" s="13"/>
+      <c r="AKB124" s="13"/>
+      <c r="AKC124" s="13"/>
+      <c r="AKD124" s="13"/>
+      <c r="AKE124" s="13"/>
+      <c r="AKF124" s="13"/>
+      <c r="AKG124" s="13"/>
+      <c r="AKH124" s="13"/>
+      <c r="AKI124" s="13"/>
+      <c r="AKJ124" s="13"/>
+      <c r="AKK124" s="13"/>
+      <c r="AKL124" s="13"/>
+      <c r="AKM124" s="13"/>
+      <c r="AKN124" s="13"/>
+      <c r="AKO124" s="13"/>
+      <c r="AKP124" s="13"/>
+      <c r="AKQ124" s="13"/>
+      <c r="AKR124" s="13"/>
+      <c r="AKS124" s="13"/>
+      <c r="AKT124" s="13"/>
+      <c r="AKU124" s="13"/>
+      <c r="AKV124" s="13"/>
+      <c r="AKW124" s="13"/>
+      <c r="AKX124" s="13"/>
+      <c r="AKY124" s="13"/>
+      <c r="AKZ124" s="13"/>
+      <c r="ALA124" s="13"/>
+      <c r="ALB124" s="13"/>
+      <c r="ALC124" s="13"/>
+      <c r="ALD124" s="13"/>
+      <c r="ALE124" s="13"/>
+      <c r="ALF124" s="13"/>
+      <c r="ALG124" s="13"/>
+      <c r="ALH124" s="13"/>
+      <c r="ALI124" s="13"/>
+      <c r="ALJ124" s="13"/>
+      <c r="ALK124" s="13"/>
+      <c r="ALL124" s="13"/>
+      <c r="ALM124" s="13"/>
+      <c r="ALN124" s="13"/>
+      <c r="ALO124" s="13"/>
+      <c r="ALP124" s="13"/>
+      <c r="ALQ124" s="13"/>
+      <c r="ALR124" s="13"/>
+      <c r="ALS124" s="13"/>
+      <c r="ALT124" s="13"/>
+      <c r="ALU124" s="13"/>
+      <c r="ALV124" s="13"/>
+      <c r="ALW124" s="13"/>
+      <c r="ALX124" s="13"/>
+      <c r="ALY124" s="13"/>
+      <c r="ALZ124" s="13"/>
+      <c r="AMA124" s="13"/>
+      <c r="AMB124" s="13"/>
+      <c r="AMC124" s="13"/>
+      <c r="AMD124" s="13"/>
+      <c r="AME124" s="13"/>
+      <c r="AMF124" s="13"/>
     </row>
     <row r="126" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AMG126" s="0"/>
-      <c r="AMH126" s="0"/>
-      <c r="AMI126" s="0"/>
-      <c r="AMJ126" s="0"/>
+      <c r="A126" s="5"/>
+      <c r="B126" s="5"/>
+      <c r="C126" s="5"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="5"/>
+      <c r="G126" s="5"/>
+      <c r="H126" s="5"/>
+      <c r="I126" s="5"/>
+      <c r="J126" s="5"/>
+      <c r="K126" s="5"/>
+      <c r="L126" s="5"/>
+      <c r="M126" s="5"/>
+      <c r="N126" s="5"/>
+      <c r="O126" s="5"/>
+      <c r="P126" s="5"/>
+      <c r="Q126" s="5"/>
+      <c r="R126" s="5"/>
+      <c r="S126" s="5"/>
+      <c r="T126" s="5"/>
+      <c r="U126" s="5"/>
+      <c r="V126" s="5"/>
+      <c r="W126" s="5"/>
+      <c r="X126" s="5"/>
+      <c r="Y126" s="5"/>
+      <c r="Z126" s="5"/>
+      <c r="AA126" s="5"/>
+      <c r="AB126" s="5"/>
+      <c r="AC126" s="5"/>
+      <c r="AD126" s="5"/>
+      <c r="AE126" s="5"/>
+      <c r="AF126" s="5"/>
+      <c r="AG126" s="5"/>
+      <c r="AH126" s="5"/>
+      <c r="AI126" s="5"/>
+      <c r="AJ126" s="5"/>
+      <c r="AK126" s="5"/>
+      <c r="AL126" s="5"/>
+      <c r="AM126" s="5"/>
+      <c r="AN126" s="5"/>
+      <c r="AO126" s="5"/>
+      <c r="AP126" s="5"/>
+      <c r="AQ126" s="5"/>
+      <c r="AR126" s="5"/>
+      <c r="AS126" s="5"/>
+      <c r="AT126" s="5"/>
+      <c r="AU126" s="5"/>
+      <c r="AV126" s="5"/>
+      <c r="AW126" s="5"/>
+      <c r="AX126" s="5"/>
+      <c r="AY126" s="5"/>
+      <c r="AZ126" s="5"/>
+      <c r="BA126" s="5"/>
+      <c r="BB126" s="5"/>
+      <c r="BC126" s="5"/>
+      <c r="BD126" s="5"/>
+      <c r="BE126" s="5"/>
+      <c r="BF126" s="5"/>
+      <c r="BG126" s="5"/>
+      <c r="BH126" s="5"/>
+      <c r="BI126" s="5"/>
+      <c r="BJ126" s="5"/>
+      <c r="BK126" s="5"/>
+      <c r="BL126" s="5"/>
+      <c r="BM126" s="5"/>
+      <c r="BN126" s="5"/>
+      <c r="BO126" s="5"/>
+      <c r="BP126" s="5"/>
+      <c r="BQ126" s="5"/>
+      <c r="BR126" s="5"/>
+      <c r="BS126" s="5"/>
+      <c r="BT126" s="5"/>
+      <c r="BU126" s="5"/>
+      <c r="BV126" s="5"/>
+      <c r="BW126" s="5"/>
+      <c r="BX126" s="5"/>
+      <c r="BY126" s="5"/>
+      <c r="BZ126" s="5"/>
+      <c r="CA126" s="5"/>
+      <c r="CB126" s="5"/>
+      <c r="CC126" s="5"/>
+      <c r="CD126" s="5"/>
+      <c r="CE126" s="5"/>
+      <c r="CF126" s="5"/>
+      <c r="CG126" s="5"/>
+      <c r="CH126" s="5"/>
+      <c r="CI126" s="5"/>
+      <c r="CJ126" s="5"/>
+      <c r="CK126" s="5"/>
+      <c r="CL126" s="5"/>
+      <c r="CM126" s="5"/>
+      <c r="CN126" s="5"/>
+      <c r="CO126" s="5"/>
+      <c r="CP126" s="5"/>
+      <c r="CQ126" s="5"/>
+      <c r="CR126" s="5"/>
+      <c r="CS126" s="5"/>
+      <c r="CT126" s="5"/>
+      <c r="CU126" s="5"/>
+      <c r="CV126" s="5"/>
+      <c r="CW126" s="5"/>
+      <c r="CX126" s="5"/>
+      <c r="CY126" s="5"/>
+      <c r="CZ126" s="5"/>
+      <c r="DA126" s="5"/>
+      <c r="DB126" s="5"/>
+      <c r="DC126" s="5"/>
+      <c r="DD126" s="5"/>
+      <c r="DE126" s="5"/>
+      <c r="DF126" s="5"/>
+      <c r="DG126" s="5"/>
+      <c r="DH126" s="5"/>
+      <c r="DI126" s="5"/>
+      <c r="DJ126" s="5"/>
+      <c r="DK126" s="5"/>
+      <c r="DL126" s="5"/>
+      <c r="DM126" s="5"/>
+      <c r="DN126" s="5"/>
+      <c r="DO126" s="5"/>
+      <c r="DP126" s="5"/>
+      <c r="DQ126" s="5"/>
+      <c r="DR126" s="5"/>
+      <c r="DS126" s="5"/>
+      <c r="DT126" s="5"/>
+      <c r="DU126" s="5"/>
+      <c r="DV126" s="5"/>
+      <c r="DW126" s="5"/>
+      <c r="DX126" s="5"/>
+      <c r="DY126" s="5"/>
+      <c r="DZ126" s="5"/>
+      <c r="EA126" s="5"/>
+      <c r="EB126" s="5"/>
+      <c r="EC126" s="5"/>
+      <c r="ED126" s="5"/>
+      <c r="EE126" s="5"/>
+      <c r="EF126" s="5"/>
+      <c r="EG126" s="5"/>
+      <c r="EH126" s="5"/>
+      <c r="EI126" s="5"/>
+      <c r="EJ126" s="5"/>
+      <c r="EK126" s="5"/>
+      <c r="EL126" s="5"/>
+      <c r="EM126" s="5"/>
+      <c r="EN126" s="5"/>
+      <c r="EO126" s="5"/>
+      <c r="EP126" s="5"/>
+      <c r="EQ126" s="5"/>
+      <c r="ER126" s="5"/>
+      <c r="ES126" s="5"/>
+      <c r="ET126" s="5"/>
+      <c r="EU126" s="5"/>
+      <c r="EV126" s="5"/>
+      <c r="EW126" s="5"/>
+      <c r="EX126" s="5"/>
+      <c r="EY126" s="5"/>
+      <c r="EZ126" s="5"/>
+      <c r="FA126" s="5"/>
+      <c r="FB126" s="5"/>
+      <c r="FC126" s="5"/>
+      <c r="FD126" s="5"/>
+      <c r="FE126" s="5"/>
+      <c r="FF126" s="5"/>
+      <c r="FG126" s="5"/>
+      <c r="FH126" s="5"/>
+      <c r="FI126" s="5"/>
+      <c r="FJ126" s="5"/>
+      <c r="FK126" s="5"/>
+      <c r="FL126" s="5"/>
+      <c r="FM126" s="5"/>
+      <c r="FN126" s="5"/>
+      <c r="FO126" s="5"/>
+      <c r="FP126" s="5"/>
+      <c r="FQ126" s="5"/>
+      <c r="FR126" s="5"/>
+      <c r="FS126" s="5"/>
+      <c r="FT126" s="5"/>
+      <c r="FU126" s="5"/>
+      <c r="FV126" s="5"/>
+      <c r="FW126" s="5"/>
+      <c r="FX126" s="5"/>
+      <c r="FY126" s="5"/>
+      <c r="FZ126" s="5"/>
+      <c r="GA126" s="5"/>
+      <c r="GB126" s="5"/>
+      <c r="GC126" s="5"/>
+      <c r="GD126" s="5"/>
+      <c r="GE126" s="5"/>
+      <c r="GF126" s="5"/>
+      <c r="GG126" s="5"/>
+      <c r="GH126" s="5"/>
+      <c r="GI126" s="5"/>
+      <c r="GJ126" s="5"/>
+      <c r="GK126" s="5"/>
+      <c r="GL126" s="5"/>
+      <c r="GM126" s="5"/>
+      <c r="GN126" s="5"/>
+      <c r="GO126" s="5"/>
+      <c r="GP126" s="5"/>
+      <c r="GQ126" s="5"/>
+      <c r="GR126" s="5"/>
+      <c r="GS126" s="5"/>
+      <c r="GT126" s="5"/>
+      <c r="GU126" s="5"/>
+      <c r="GV126" s="5"/>
+      <c r="GW126" s="5"/>
+      <c r="GX126" s="5"/>
+      <c r="GY126" s="5"/>
+      <c r="GZ126" s="5"/>
+      <c r="HA126" s="5"/>
+      <c r="HB126" s="5"/>
+      <c r="HC126" s="5"/>
+      <c r="HD126" s="5"/>
+      <c r="HE126" s="5"/>
+      <c r="HF126" s="5"/>
+      <c r="HG126" s="5"/>
+      <c r="HH126" s="5"/>
+      <c r="HI126" s="5"/>
+      <c r="HJ126" s="5"/>
+      <c r="HK126" s="5"/>
+      <c r="HL126" s="5"/>
+      <c r="HM126" s="5"/>
+      <c r="HN126" s="5"/>
+      <c r="HO126" s="5"/>
+      <c r="HP126" s="5"/>
+      <c r="HQ126" s="5"/>
+      <c r="HR126" s="5"/>
+      <c r="HS126" s="5"/>
+      <c r="HT126" s="5"/>
+      <c r="HU126" s="5"/>
+      <c r="HV126" s="5"/>
+      <c r="HW126" s="5"/>
+      <c r="HX126" s="5"/>
+      <c r="HY126" s="5"/>
+      <c r="HZ126" s="5"/>
+      <c r="IA126" s="5"/>
+      <c r="IB126" s="5"/>
+      <c r="IC126" s="5"/>
+      <c r="ID126" s="5"/>
+      <c r="IE126" s="5"/>
+      <c r="IF126" s="5"/>
+      <c r="IG126" s="5"/>
+      <c r="IH126" s="5"/>
+      <c r="II126" s="5"/>
+      <c r="IJ126" s="5"/>
+      <c r="IK126" s="5"/>
+      <c r="IL126" s="5"/>
+      <c r="IM126" s="5"/>
+      <c r="IN126" s="5"/>
+      <c r="IO126" s="5"/>
+      <c r="IP126" s="5"/>
+      <c r="IQ126" s="5"/>
+      <c r="IR126" s="5"/>
+      <c r="IS126" s="5"/>
+      <c r="IT126" s="5"/>
+      <c r="IU126" s="5"/>
+      <c r="IV126" s="5"/>
+      <c r="IW126" s="5"/>
+      <c r="IX126" s="5"/>
+      <c r="IY126" s="5"/>
+      <c r="IZ126" s="5"/>
+      <c r="JA126" s="5"/>
+      <c r="JB126" s="5"/>
+      <c r="JC126" s="5"/>
+      <c r="JD126" s="5"/>
+      <c r="JE126" s="5"/>
+      <c r="JF126" s="5"/>
+      <c r="JG126" s="5"/>
+      <c r="JH126" s="5"/>
+      <c r="JI126" s="5"/>
+      <c r="JJ126" s="5"/>
+      <c r="JK126" s="5"/>
+      <c r="JL126" s="5"/>
+      <c r="JM126" s="5"/>
+      <c r="JN126" s="5"/>
+      <c r="JO126" s="5"/>
+      <c r="JP126" s="5"/>
+      <c r="JQ126" s="5"/>
+      <c r="JR126" s="5"/>
+      <c r="JS126" s="5"/>
+      <c r="JT126" s="5"/>
+      <c r="JU126" s="5"/>
+      <c r="JV126" s="5"/>
+      <c r="JW126" s="5"/>
+      <c r="JX126" s="5"/>
+      <c r="JY126" s="5"/>
+      <c r="JZ126" s="5"/>
+      <c r="KA126" s="5"/>
+      <c r="KB126" s="5"/>
+      <c r="KC126" s="5"/>
+      <c r="KD126" s="5"/>
+      <c r="KE126" s="5"/>
+      <c r="KF126" s="5"/>
+      <c r="KG126" s="5"/>
+      <c r="KH126" s="5"/>
+      <c r="KI126" s="5"/>
+      <c r="KJ126" s="5"/>
+      <c r="KK126" s="5"/>
+      <c r="KL126" s="5"/>
+      <c r="KM126" s="5"/>
+      <c r="KN126" s="5"/>
+      <c r="KO126" s="5"/>
+      <c r="KP126" s="5"/>
+      <c r="KQ126" s="5"/>
+      <c r="KR126" s="5"/>
+      <c r="KS126" s="5"/>
+      <c r="KT126" s="5"/>
+      <c r="KU126" s="5"/>
+      <c r="KV126" s="5"/>
+      <c r="KW126" s="5"/>
+      <c r="KX126" s="5"/>
+      <c r="KY126" s="5"/>
+      <c r="KZ126" s="5"/>
+      <c r="LA126" s="5"/>
+      <c r="LB126" s="5"/>
+      <c r="LC126" s="5"/>
+      <c r="LD126" s="5"/>
+      <c r="LE126" s="5"/>
+      <c r="LF126" s="5"/>
+      <c r="LG126" s="5"/>
+      <c r="LH126" s="5"/>
+      <c r="LI126" s="5"/>
+      <c r="LJ126" s="5"/>
+      <c r="LK126" s="5"/>
+      <c r="LL126" s="5"/>
+      <c r="LM126" s="5"/>
+      <c r="LN126" s="5"/>
+      <c r="LO126" s="5"/>
+      <c r="LP126" s="5"/>
+      <c r="LQ126" s="5"/>
+      <c r="LR126" s="5"/>
+      <c r="LS126" s="5"/>
+      <c r="LT126" s="5"/>
+      <c r="LU126" s="5"/>
+      <c r="LV126" s="5"/>
+      <c r="LW126" s="5"/>
+      <c r="LX126" s="5"/>
+      <c r="LY126" s="5"/>
+      <c r="LZ126" s="5"/>
+      <c r="MA126" s="5"/>
+      <c r="MB126" s="5"/>
+      <c r="MC126" s="5"/>
+      <c r="MD126" s="5"/>
+      <c r="ME126" s="5"/>
+      <c r="MF126" s="5"/>
+      <c r="MG126" s="5"/>
+      <c r="MH126" s="5"/>
+      <c r="MI126" s="5"/>
+      <c r="MJ126" s="5"/>
+      <c r="MK126" s="5"/>
+      <c r="ML126" s="5"/>
+      <c r="MM126" s="5"/>
+      <c r="MN126" s="5"/>
+      <c r="MO126" s="5"/>
+      <c r="MP126" s="5"/>
+      <c r="MQ126" s="5"/>
+      <c r="MR126" s="5"/>
+      <c r="MS126" s="5"/>
+      <c r="MT126" s="5"/>
+      <c r="MU126" s="5"/>
+      <c r="MV126" s="5"/>
+      <c r="MW126" s="5"/>
+      <c r="MX126" s="5"/>
+      <c r="MY126" s="5"/>
+      <c r="MZ126" s="5"/>
+      <c r="NA126" s="5"/>
+      <c r="NB126" s="5"/>
+      <c r="NC126" s="5"/>
+      <c r="ND126" s="5"/>
+      <c r="NE126" s="5"/>
+      <c r="NF126" s="5"/>
+      <c r="NG126" s="5"/>
+      <c r="NH126" s="5"/>
+      <c r="NI126" s="5"/>
+      <c r="NJ126" s="5"/>
+      <c r="NK126" s="5"/>
+      <c r="NL126" s="5"/>
+      <c r="NM126" s="5"/>
+      <c r="NN126" s="5"/>
+      <c r="NO126" s="5"/>
+      <c r="NP126" s="5"/>
+      <c r="NQ126" s="5"/>
+      <c r="NR126" s="5"/>
+      <c r="NS126" s="5"/>
+      <c r="NT126" s="5"/>
+      <c r="NU126" s="5"/>
+      <c r="NV126" s="5"/>
+      <c r="NW126" s="5"/>
+      <c r="NX126" s="5"/>
+      <c r="NY126" s="5"/>
+      <c r="NZ126" s="5"/>
+      <c r="OA126" s="5"/>
+      <c r="OB126" s="5"/>
+      <c r="OC126" s="5"/>
+      <c r="OD126" s="5"/>
+      <c r="OE126" s="5"/>
+      <c r="OF126" s="5"/>
+      <c r="OG126" s="5"/>
+      <c r="OH126" s="5"/>
+      <c r="OI126" s="5"/>
+      <c r="OJ126" s="5"/>
+      <c r="OK126" s="5"/>
+      <c r="OL126" s="5"/>
+      <c r="OM126" s="5"/>
+      <c r="ON126" s="5"/>
+      <c r="OO126" s="5"/>
+      <c r="OP126" s="5"/>
+      <c r="OQ126" s="5"/>
+      <c r="OR126" s="5"/>
+      <c r="OS126" s="5"/>
+      <c r="OT126" s="5"/>
+      <c r="OU126" s="5"/>
+      <c r="OV126" s="5"/>
+      <c r="OW126" s="5"/>
+      <c r="OX126" s="5"/>
+      <c r="OY126" s="5"/>
+      <c r="OZ126" s="5"/>
+      <c r="PA126" s="5"/>
+      <c r="PB126" s="5"/>
+      <c r="PC126" s="5"/>
+      <c r="PD126" s="5"/>
+      <c r="PE126" s="5"/>
+      <c r="PF126" s="5"/>
+      <c r="PG126" s="5"/>
+      <c r="PH126" s="5"/>
+      <c r="PI126" s="5"/>
+      <c r="PJ126" s="5"/>
+      <c r="PK126" s="5"/>
+      <c r="PL126" s="5"/>
+      <c r="PM126" s="5"/>
+      <c r="PN126" s="5"/>
+      <c r="PO126" s="5"/>
+      <c r="PP126" s="5"/>
+      <c r="PQ126" s="5"/>
+      <c r="PR126" s="5"/>
+      <c r="PS126" s="5"/>
+      <c r="PT126" s="5"/>
+      <c r="PU126" s="5"/>
+      <c r="PV126" s="5"/>
+      <c r="PW126" s="5"/>
+      <c r="PX126" s="5"/>
+      <c r="PY126" s="5"/>
+      <c r="PZ126" s="5"/>
+      <c r="QA126" s="5"/>
+      <c r="QB126" s="5"/>
+      <c r="QC126" s="5"/>
+      <c r="QD126" s="5"/>
+      <c r="QE126" s="5"/>
+      <c r="QF126" s="5"/>
+      <c r="QG126" s="5"/>
+      <c r="QH126" s="5"/>
+      <c r="QI126" s="5"/>
+      <c r="QJ126" s="5"/>
+      <c r="QK126" s="5"/>
+      <c r="QL126" s="5"/>
+      <c r="QM126" s="5"/>
+      <c r="QN126" s="5"/>
+      <c r="QO126" s="5"/>
+      <c r="QP126" s="5"/>
+      <c r="QQ126" s="5"/>
+      <c r="QR126" s="5"/>
+      <c r="QS126" s="5"/>
+      <c r="QT126" s="5"/>
+      <c r="QU126" s="5"/>
+      <c r="QV126" s="5"/>
+      <c r="QW126" s="5"/>
+      <c r="QX126" s="5"/>
+      <c r="QY126" s="5"/>
+      <c r="QZ126" s="5"/>
+      <c r="RA126" s="5"/>
+      <c r="RB126" s="5"/>
+      <c r="RC126" s="5"/>
+      <c r="RD126" s="5"/>
+      <c r="RE126" s="5"/>
+      <c r="RF126" s="5"/>
+      <c r="RG126" s="5"/>
+      <c r="RH126" s="5"/>
+      <c r="RI126" s="5"/>
+      <c r="RJ126" s="5"/>
+      <c r="RK126" s="5"/>
+      <c r="RL126" s="5"/>
+      <c r="RM126" s="5"/>
+      <c r="RN126" s="5"/>
+      <c r="RO126" s="5"/>
+      <c r="RP126" s="5"/>
+      <c r="RQ126" s="5"/>
+      <c r="RR126" s="5"/>
+      <c r="RS126" s="5"/>
+      <c r="RT126" s="5"/>
+      <c r="RU126" s="5"/>
+      <c r="RV126" s="5"/>
+      <c r="RW126" s="5"/>
+      <c r="RX126" s="5"/>
+      <c r="RY126" s="5"/>
+      <c r="RZ126" s="5"/>
+      <c r="SA126" s="5"/>
+      <c r="SB126" s="5"/>
+      <c r="SC126" s="5"/>
+      <c r="SD126" s="5"/>
+      <c r="SE126" s="5"/>
+      <c r="SF126" s="5"/>
+      <c r="SG126" s="5"/>
+      <c r="SH126" s="5"/>
+      <c r="SI126" s="5"/>
+      <c r="SJ126" s="5"/>
+      <c r="SK126" s="5"/>
+      <c r="SL126" s="5"/>
+      <c r="SM126" s="5"/>
+      <c r="SN126" s="5"/>
+      <c r="SO126" s="5"/>
+      <c r="SP126" s="5"/>
+      <c r="SQ126" s="5"/>
+      <c r="SR126" s="5"/>
+      <c r="SS126" s="5"/>
+      <c r="ST126" s="5"/>
+      <c r="SU126" s="5"/>
+      <c r="SV126" s="5"/>
+      <c r="SW126" s="5"/>
+      <c r="SX126" s="5"/>
+      <c r="SY126" s="5"/>
+      <c r="SZ126" s="5"/>
+      <c r="TA126" s="5"/>
+      <c r="TB126" s="5"/>
+      <c r="TC126" s="5"/>
+      <c r="TD126" s="5"/>
+      <c r="TE126" s="5"/>
+      <c r="TF126" s="5"/>
+      <c r="TG126" s="5"/>
+      <c r="TH126" s="5"/>
+      <c r="TI126" s="5"/>
+      <c r="TJ126" s="5"/>
+      <c r="TK126" s="5"/>
+      <c r="TL126" s="5"/>
+      <c r="TM126" s="5"/>
+      <c r="TN126" s="5"/>
+      <c r="TO126" s="5"/>
+      <c r="TP126" s="5"/>
+      <c r="TQ126" s="5"/>
+      <c r="TR126" s="5"/>
+      <c r="TS126" s="5"/>
+      <c r="TT126" s="5"/>
+      <c r="TU126" s="5"/>
+      <c r="TV126" s="5"/>
+      <c r="TW126" s="5"/>
+      <c r="TX126" s="5"/>
+      <c r="TY126" s="5"/>
+      <c r="TZ126" s="5"/>
+      <c r="UA126" s="5"/>
+      <c r="UB126" s="5"/>
+      <c r="UC126" s="5"/>
+      <c r="UD126" s="5"/>
+      <c r="UE126" s="5"/>
+      <c r="UF126" s="5"/>
+      <c r="UG126" s="5"/>
+      <c r="UH126" s="5"/>
+      <c r="UI126" s="5"/>
+      <c r="UJ126" s="5"/>
+      <c r="UK126" s="5"/>
+      <c r="UL126" s="5"/>
+      <c r="UM126" s="5"/>
+      <c r="UN126" s="5"/>
+      <c r="UO126" s="5"/>
+      <c r="UP126" s="5"/>
+      <c r="UQ126" s="5"/>
+      <c r="UR126" s="5"/>
+      <c r="US126" s="5"/>
+      <c r="UT126" s="5"/>
+      <c r="UU126" s="5"/>
+      <c r="UV126" s="5"/>
+      <c r="UW126" s="5"/>
+      <c r="UX126" s="5"/>
+      <c r="UY126" s="5"/>
+      <c r="UZ126" s="5"/>
+      <c r="VA126" s="5"/>
+      <c r="VB126" s="5"/>
+      <c r="VC126" s="5"/>
+      <c r="VD126" s="5"/>
+      <c r="VE126" s="5"/>
+      <c r="VF126" s="5"/>
+      <c r="VG126" s="5"/>
+      <c r="VH126" s="5"/>
+      <c r="VI126" s="5"/>
+      <c r="VJ126" s="5"/>
+      <c r="VK126" s="5"/>
+      <c r="VL126" s="5"/>
+      <c r="VM126" s="5"/>
+      <c r="VN126" s="5"/>
+      <c r="VO126" s="5"/>
+      <c r="VP126" s="5"/>
+      <c r="VQ126" s="5"/>
+      <c r="VR126" s="5"/>
+      <c r="VS126" s="5"/>
+      <c r="VT126" s="5"/>
+      <c r="VU126" s="5"/>
+      <c r="VV126" s="5"/>
+      <c r="VW126" s="5"/>
+      <c r="VX126" s="5"/>
+      <c r="VY126" s="5"/>
+      <c r="VZ126" s="5"/>
+      <c r="WA126" s="5"/>
+      <c r="WB126" s="5"/>
+      <c r="WC126" s="5"/>
+      <c r="WD126" s="5"/>
+      <c r="WE126" s="5"/>
+      <c r="WF126" s="5"/>
+      <c r="WG126" s="5"/>
+      <c r="WH126" s="5"/>
+      <c r="WI126" s="5"/>
+      <c r="WJ126" s="5"/>
+      <c r="WK126" s="5"/>
+      <c r="WL126" s="5"/>
+      <c r="WM126" s="5"/>
+      <c r="WN126" s="5"/>
+      <c r="WO126" s="5"/>
+      <c r="WP126" s="5"/>
+      <c r="WQ126" s="5"/>
+      <c r="WR126" s="5"/>
+      <c r="WS126" s="5"/>
+      <c r="WT126" s="5"/>
+      <c r="WU126" s="5"/>
+      <c r="WV126" s="5"/>
+      <c r="WW126" s="5"/>
+      <c r="WX126" s="5"/>
+      <c r="WY126" s="5"/>
+      <c r="WZ126" s="5"/>
+      <c r="XA126" s="5"/>
+      <c r="XB126" s="5"/>
+      <c r="XC126" s="5"/>
+      <c r="XD126" s="5"/>
+      <c r="XE126" s="5"/>
+      <c r="XF126" s="5"/>
+      <c r="XG126" s="5"/>
+      <c r="XH126" s="5"/>
+      <c r="XI126" s="5"/>
+      <c r="XJ126" s="5"/>
+      <c r="XK126" s="5"/>
+      <c r="XL126" s="5"/>
+      <c r="XM126" s="5"/>
+      <c r="XN126" s="5"/>
+      <c r="XO126" s="5"/>
+      <c r="XP126" s="5"/>
+      <c r="XQ126" s="5"/>
+      <c r="XR126" s="5"/>
+      <c r="XS126" s="5"/>
+      <c r="XT126" s="5"/>
+      <c r="XU126" s="5"/>
+      <c r="XV126" s="5"/>
+      <c r="XW126" s="5"/>
+      <c r="XX126" s="5"/>
+      <c r="XY126" s="5"/>
+      <c r="XZ126" s="5"/>
+      <c r="YA126" s="5"/>
+      <c r="YB126" s="5"/>
+      <c r="YC126" s="5"/>
+      <c r="YD126" s="5"/>
+      <c r="YE126" s="5"/>
+      <c r="YF126" s="5"/>
+      <c r="YG126" s="5"/>
+      <c r="YH126" s="5"/>
+      <c r="YI126" s="5"/>
+      <c r="YJ126" s="5"/>
+      <c r="YK126" s="5"/>
+      <c r="YL126" s="5"/>
+      <c r="YM126" s="5"/>
+      <c r="YN126" s="5"/>
+      <c r="YO126" s="5"/>
+      <c r="YP126" s="5"/>
+      <c r="YQ126" s="5"/>
+      <c r="YR126" s="5"/>
+      <c r="YS126" s="5"/>
+      <c r="YT126" s="5"/>
+      <c r="YU126" s="5"/>
+      <c r="YV126" s="5"/>
+      <c r="YW126" s="5"/>
+      <c r="YX126" s="5"/>
+      <c r="YY126" s="5"/>
+      <c r="YZ126" s="5"/>
+      <c r="ZA126" s="5"/>
+      <c r="ZB126" s="5"/>
+      <c r="ZC126" s="5"/>
+      <c r="ZD126" s="5"/>
+      <c r="ZE126" s="5"/>
+      <c r="ZF126" s="5"/>
+      <c r="ZG126" s="5"/>
+      <c r="ZH126" s="5"/>
+      <c r="ZI126" s="5"/>
+      <c r="ZJ126" s="5"/>
+      <c r="ZK126" s="5"/>
+      <c r="ZL126" s="5"/>
+      <c r="ZM126" s="5"/>
+      <c r="ZN126" s="5"/>
+      <c r="ZO126" s="5"/>
+      <c r="ZP126" s="5"/>
+      <c r="ZQ126" s="5"/>
+      <c r="ZR126" s="5"/>
+      <c r="ZS126" s="5"/>
+      <c r="ZT126" s="5"/>
+      <c r="ZU126" s="5"/>
+      <c r="ZV126" s="5"/>
+      <c r="ZW126" s="5"/>
+      <c r="ZX126" s="5"/>
+      <c r="ZY126" s="5"/>
+      <c r="ZZ126" s="5"/>
+      <c r="AAA126" s="5"/>
+      <c r="AAB126" s="5"/>
+      <c r="AAC126" s="5"/>
+      <c r="AAD126" s="5"/>
+      <c r="AAE126" s="5"/>
+      <c r="AAF126" s="5"/>
+      <c r="AAG126" s="5"/>
+      <c r="AAH126" s="5"/>
+      <c r="AAI126" s="5"/>
+      <c r="AAJ126" s="5"/>
+      <c r="AAK126" s="5"/>
+      <c r="AAL126" s="5"/>
+      <c r="AAM126" s="5"/>
+      <c r="AAN126" s="5"/>
+      <c r="AAO126" s="5"/>
+      <c r="AAP126" s="5"/>
+      <c r="AAQ126" s="5"/>
+      <c r="AAR126" s="5"/>
+      <c r="AAS126" s="5"/>
+      <c r="AAT126" s="5"/>
+      <c r="AAU126" s="5"/>
+      <c r="AAV126" s="5"/>
+      <c r="AAW126" s="5"/>
+      <c r="AAX126" s="5"/>
+      <c r="AAY126" s="5"/>
+      <c r="AAZ126" s="5"/>
+      <c r="ABA126" s="5"/>
+      <c r="ABB126" s="5"/>
+      <c r="ABC126" s="5"/>
+      <c r="ABD126" s="5"/>
+      <c r="ABE126" s="5"/>
+      <c r="ABF126" s="5"/>
+      <c r="ABG126" s="5"/>
+      <c r="ABH126" s="5"/>
+      <c r="ABI126" s="5"/>
+      <c r="ABJ126" s="5"/>
+      <c r="ABK126" s="5"/>
+      <c r="ABL126" s="5"/>
+      <c r="ABM126" s="5"/>
+      <c r="ABN126" s="5"/>
+      <c r="ABO126" s="5"/>
+      <c r="ABP126" s="5"/>
+      <c r="ABQ126" s="5"/>
+      <c r="ABR126" s="5"/>
+      <c r="ABS126" s="5"/>
+      <c r="ABT126" s="5"/>
+      <c r="ABU126" s="5"/>
+      <c r="ABV126" s="5"/>
+      <c r="ABW126" s="5"/>
+      <c r="ABX126" s="5"/>
+      <c r="ABY126" s="5"/>
+      <c r="ABZ126" s="5"/>
+      <c r="ACA126" s="5"/>
+      <c r="ACB126" s="5"/>
+      <c r="ACC126" s="5"/>
+      <c r="ACD126" s="5"/>
+      <c r="ACE126" s="5"/>
+      <c r="ACF126" s="5"/>
+      <c r="ACG126" s="5"/>
+      <c r="ACH126" s="5"/>
+      <c r="ACI126" s="5"/>
+      <c r="ACJ126" s="5"/>
+      <c r="ACK126" s="5"/>
+      <c r="ACL126" s="5"/>
+      <c r="ACM126" s="5"/>
+      <c r="ACN126" s="5"/>
+      <c r="ACO126" s="5"/>
+      <c r="ACP126" s="5"/>
+      <c r="ACQ126" s="5"/>
+      <c r="ACR126" s="5"/>
+      <c r="ACS126" s="5"/>
+      <c r="ACT126" s="5"/>
+      <c r="ACU126" s="5"/>
+      <c r="ACV126" s="5"/>
+      <c r="ACW126" s="5"/>
+      <c r="ACX126" s="5"/>
+      <c r="ACY126" s="5"/>
+      <c r="ACZ126" s="5"/>
+      <c r="ADA126" s="5"/>
+      <c r="ADB126" s="5"/>
+      <c r="ADC126" s="5"/>
+      <c r="ADD126" s="5"/>
+      <c r="ADE126" s="5"/>
+      <c r="ADF126" s="5"/>
+      <c r="ADG126" s="5"/>
+      <c r="ADH126" s="5"/>
+      <c r="ADI126" s="5"/>
+      <c r="ADJ126" s="5"/>
+      <c r="ADK126" s="5"/>
+      <c r="ADL126" s="5"/>
+      <c r="ADM126" s="5"/>
+      <c r="ADN126" s="5"/>
+      <c r="ADO126" s="5"/>
+      <c r="ADP126" s="5"/>
+      <c r="ADQ126" s="5"/>
+      <c r="ADR126" s="5"/>
+      <c r="ADS126" s="5"/>
+      <c r="ADT126" s="5"/>
+      <c r="ADU126" s="5"/>
+      <c r="ADV126" s="5"/>
+      <c r="ADW126" s="5"/>
+      <c r="ADX126" s="5"/>
+      <c r="ADY126" s="5"/>
+      <c r="ADZ126" s="5"/>
+      <c r="AEA126" s="5"/>
+      <c r="AEB126" s="5"/>
+      <c r="AEC126" s="5"/>
+      <c r="AED126" s="5"/>
+      <c r="AEE126" s="5"/>
+      <c r="AEF126" s="5"/>
+      <c r="AEG126" s="5"/>
+      <c r="AEH126" s="5"/>
+      <c r="AEI126" s="5"/>
+      <c r="AEJ126" s="5"/>
+      <c r="AEK126" s="5"/>
+      <c r="AEL126" s="5"/>
+      <c r="AEM126" s="5"/>
+      <c r="AEN126" s="5"/>
+      <c r="AEO126" s="5"/>
+      <c r="AEP126" s="5"/>
+      <c r="AEQ126" s="5"/>
+      <c r="AER126" s="5"/>
+      <c r="AES126" s="5"/>
+      <c r="AET126" s="5"/>
+      <c r="AEU126" s="5"/>
+      <c r="AEV126" s="5"/>
+      <c r="AEW126" s="5"/>
+      <c r="AEX126" s="5"/>
+      <c r="AEY126" s="5"/>
+      <c r="AEZ126" s="5"/>
+      <c r="AFA126" s="5"/>
+      <c r="AFB126" s="5"/>
+      <c r="AFC126" s="5"/>
+      <c r="AFD126" s="5"/>
+      <c r="AFE126" s="5"/>
+      <c r="AFF126" s="5"/>
+      <c r="AFG126" s="5"/>
+      <c r="AFH126" s="5"/>
+      <c r="AFI126" s="5"/>
+      <c r="AFJ126" s="5"/>
+      <c r="AFK126" s="5"/>
+      <c r="AFL126" s="5"/>
+      <c r="AFM126" s="5"/>
+      <c r="AFN126" s="5"/>
+      <c r="AFO126" s="5"/>
+      <c r="AFP126" s="5"/>
+      <c r="AFQ126" s="5"/>
+      <c r="AFR126" s="5"/>
+      <c r="AFS126" s="5"/>
+      <c r="AFT126" s="5"/>
+      <c r="AFU126" s="5"/>
+      <c r="AFV126" s="5"/>
+      <c r="AFW126" s="5"/>
+      <c r="AFX126" s="5"/>
+      <c r="AFY126" s="5"/>
+      <c r="AFZ126" s="5"/>
+      <c r="AGA126" s="5"/>
+      <c r="AGB126" s="5"/>
+      <c r="AGC126" s="5"/>
+      <c r="AGD126" s="5"/>
+      <c r="AGE126" s="5"/>
+      <c r="AGF126" s="5"/>
+      <c r="AGG126" s="5"/>
+      <c r="AGH126" s="5"/>
+      <c r="AGI126" s="5"/>
+      <c r="AGJ126" s="5"/>
+      <c r="AGK126" s="5"/>
+      <c r="AGL126" s="5"/>
+      <c r="AGM126" s="5"/>
+      <c r="AGN126" s="5"/>
+      <c r="AGO126" s="5"/>
+      <c r="AGP126" s="5"/>
+      <c r="AGQ126" s="5"/>
+      <c r="AGR126" s="5"/>
+      <c r="AGS126" s="5"/>
+      <c r="AGT126" s="5"/>
+      <c r="AGU126" s="5"/>
+      <c r="AGV126" s="5"/>
+      <c r="AGW126" s="5"/>
+      <c r="AGX126" s="5"/>
+      <c r="AGY126" s="5"/>
+      <c r="AGZ126" s="5"/>
+      <c r="AHA126" s="5"/>
+      <c r="AHB126" s="5"/>
+      <c r="AHC126" s="5"/>
+      <c r="AHD126" s="5"/>
+      <c r="AHE126" s="5"/>
+      <c r="AHF126" s="5"/>
+      <c r="AHG126" s="5"/>
+      <c r="AHH126" s="5"/>
+      <c r="AHI126" s="5"/>
+      <c r="AHJ126" s="5"/>
+      <c r="AHK126" s="5"/>
+      <c r="AHL126" s="5"/>
+      <c r="AHM126" s="5"/>
+      <c r="AHN126" s="5"/>
+      <c r="AHO126" s="5"/>
+      <c r="AHP126" s="5"/>
+      <c r="AHQ126" s="5"/>
+      <c r="AHR126" s="5"/>
+      <c r="AHS126" s="5"/>
+      <c r="AHT126" s="5"/>
+      <c r="AHU126" s="5"/>
+      <c r="AHV126" s="5"/>
+      <c r="AHW126" s="5"/>
+      <c r="AHX126" s="5"/>
+      <c r="AHY126" s="5"/>
+      <c r="AHZ126" s="5"/>
+      <c r="AIA126" s="5"/>
+      <c r="AIB126" s="5"/>
+      <c r="AIC126" s="5"/>
+      <c r="AID126" s="5"/>
+      <c r="AIE126" s="5"/>
+      <c r="AIF126" s="5"/>
+      <c r="AIG126" s="5"/>
+      <c r="AIH126" s="5"/>
+      <c r="AII126" s="5"/>
+      <c r="AIJ126" s="5"/>
+      <c r="AIK126" s="5"/>
+      <c r="AIL126" s="5"/>
+      <c r="AIM126" s="5"/>
+      <c r="AIN126" s="5"/>
+      <c r="AIO126" s="5"/>
+      <c r="AIP126" s="5"/>
+      <c r="AIQ126" s="5"/>
+      <c r="AIR126" s="5"/>
+      <c r="AIS126" s="5"/>
+      <c r="AIT126" s="5"/>
+      <c r="AIU126" s="5"/>
+      <c r="AIV126" s="5"/>
+      <c r="AIW126" s="5"/>
+      <c r="AIX126" s="5"/>
+      <c r="AIY126" s="5"/>
+      <c r="AIZ126" s="5"/>
+      <c r="AJA126" s="5"/>
+      <c r="AJB126" s="5"/>
+      <c r="AJC126" s="5"/>
+      <c r="AJD126" s="5"/>
+      <c r="AJE126" s="5"/>
+      <c r="AJF126" s="5"/>
+      <c r="AJG126" s="5"/>
+      <c r="AJH126" s="5"/>
+      <c r="AJI126" s="5"/>
+      <c r="AJJ126" s="5"/>
+      <c r="AJK126" s="5"/>
+      <c r="AJL126" s="5"/>
+      <c r="AJM126" s="5"/>
+      <c r="AJN126" s="5"/>
+      <c r="AJO126" s="5"/>
+      <c r="AJP126" s="5"/>
+      <c r="AJQ126" s="5"/>
+      <c r="AJR126" s="5"/>
+      <c r="AJS126" s="5"/>
+      <c r="AJT126" s="5"/>
+      <c r="AJU126" s="5"/>
+      <c r="AJV126" s="5"/>
+      <c r="AJW126" s="5"/>
+      <c r="AJX126" s="5"/>
+      <c r="AJY126" s="5"/>
+      <c r="AJZ126" s="5"/>
+      <c r="AKA126" s="5"/>
+      <c r="AKB126" s="5"/>
+      <c r="AKC126" s="5"/>
+      <c r="AKD126" s="5"/>
+      <c r="AKE126" s="5"/>
+      <c r="AKF126" s="5"/>
+      <c r="AKG126" s="5"/>
+      <c r="AKH126" s="5"/>
+      <c r="AKI126" s="5"/>
+      <c r="AKJ126" s="5"/>
+      <c r="AKK126" s="5"/>
+      <c r="AKL126" s="5"/>
+      <c r="AKM126" s="5"/>
+      <c r="AKN126" s="5"/>
+      <c r="AKO126" s="5"/>
+      <c r="AKP126" s="5"/>
+      <c r="AKQ126" s="5"/>
+      <c r="AKR126" s="5"/>
+      <c r="AKS126" s="5"/>
+      <c r="AKT126" s="5"/>
+      <c r="AKU126" s="5"/>
+      <c r="AKV126" s="5"/>
+      <c r="AKW126" s="5"/>
+      <c r="AKX126" s="5"/>
+      <c r="AKY126" s="5"/>
+      <c r="AKZ126" s="5"/>
+      <c r="ALA126" s="5"/>
+      <c r="ALB126" s="5"/>
+      <c r="ALC126" s="5"/>
+      <c r="ALD126" s="5"/>
+      <c r="ALE126" s="5"/>
+      <c r="ALF126" s="5"/>
+      <c r="ALG126" s="5"/>
+      <c r="ALH126" s="5"/>
+      <c r="ALI126" s="5"/>
+      <c r="ALJ126" s="5"/>
+      <c r="ALK126" s="5"/>
+      <c r="ALL126" s="5"/>
+      <c r="ALM126" s="5"/>
+      <c r="ALN126" s="5"/>
+      <c r="ALO126" s="5"/>
+      <c r="ALP126" s="5"/>
+      <c r="ALQ126" s="5"/>
+      <c r="ALR126" s="5"/>
+      <c r="ALS126" s="5"/>
+      <c r="ALT126" s="5"/>
+      <c r="ALU126" s="5"/>
+      <c r="ALV126" s="5"/>
+      <c r="ALW126" s="5"/>
+      <c r="ALX126" s="5"/>
+      <c r="ALY126" s="5"/>
+      <c r="ALZ126" s="5"/>
+      <c r="AMA126" s="5"/>
+      <c r="AMB126" s="5"/>
+      <c r="AMC126" s="5"/>
+      <c r="AMD126" s="5"/>
+      <c r="AME126" s="5"/>
+      <c r="AMF126" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F124"/>
+  <autoFilter ref="A1:F122">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Fixed?"/>
+        <filter val="Invalid"/>
+        <filter val="Open"/>
+        <filter val="Open!"/>
+        <filter val="Open!!"/>
+        <filter val="Open+"/>
+        <filter val="Open?"/>
+        <filter val="Open~"/>
+        <filter val="Rejected"/>
+        <filter val="Resolved"/>
+        <filter val="Resolved?"/>
+        <filter val="Solved"/>
+        <filter val="Transfered"/>
+        <filter val="WIP"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" display="#1732"/>
-    <hyperlink ref="B5" r:id="rId2" display="#1731"/>
-    <hyperlink ref="B6" r:id="rId3" display="#1725"/>
-    <hyperlink ref="B7" r:id="rId4" display="#1724"/>
-    <hyperlink ref="B8" r:id="rId5" display="#1722"/>
-    <hyperlink ref="B9" r:id="rId6" display="#1226"/>
-    <hyperlink ref="B10" r:id="rId7" display="#1225"/>
-    <hyperlink ref="B11" r:id="rId8" display="#1720"/>
-    <hyperlink ref="B12" r:id="rId9" display="#1323"/>
-    <hyperlink ref="B13" r:id="rId10" display="#30"/>
-    <hyperlink ref="B14" r:id="rId11" display="#1712"/>
-    <hyperlink ref="B15" r:id="rId12" display="#1215"/>
-    <hyperlink ref="B16" r:id="rId13" display="#1214"/>
-    <hyperlink ref="B17" r:id="rId14" display="#1213"/>
-    <hyperlink ref="B18" r:id="rId15" display="#1212"/>
-    <hyperlink ref="B20" r:id="rId16" display="#1202"/>
-    <hyperlink ref="B21" r:id="rId17" display="#27"/>
-    <hyperlink ref="B22" r:id="rId18" display="#26"/>
-    <hyperlink ref="B23" r:id="rId19" display="#1201"/>
-    <hyperlink ref="B24" r:id="rId20" display="#1200"/>
-    <hyperlink ref="B25" r:id="rId21" display="#1708"/>
-    <hyperlink ref="B26" r:id="rId22" display="#1185"/>
-    <hyperlink ref="D26" r:id="rId23" display="#1226"/>
-    <hyperlink ref="B27" r:id="rId24" display="#11"/>
-    <hyperlink ref="B28" r:id="rId25" display="#1309"/>
-    <hyperlink ref="B29" r:id="rId26" display="#1176"/>
-    <hyperlink ref="B30" r:id="rId27" display="#1171"/>
-    <hyperlink ref="B31" r:id="rId28" display="#1164"/>
-    <hyperlink ref="B32" r:id="rId29" display="#9"/>
-    <hyperlink ref="B33" r:id="rId30" display="#1163"/>
-    <hyperlink ref="B34" r:id="rId31" display="#1161"/>
-    <hyperlink ref="B35" r:id="rId32" display="#1690"/>
-    <hyperlink ref="B37" r:id="rId33" display="#1155"/>
-    <hyperlink ref="B38" r:id="rId34" display="#1150"/>
-    <hyperlink ref="B39" r:id="rId35" display="#1151"/>
-    <hyperlink ref="B40" r:id="rId36" display="#1200"/>
-    <hyperlink ref="B41" r:id="rId37" display="#1681"/>
-    <hyperlink ref="B42" r:id="rId38" display="#1142"/>
-    <hyperlink ref="B43" r:id="rId39" display="#8"/>
-    <hyperlink ref="B44" r:id="rId40" display="#1674"/>
-    <hyperlink ref="B45" r:id="rId41" display="#1672"/>
-    <hyperlink ref="B46" r:id="rId42" display="#1669"/>
-    <hyperlink ref="B47" r:id="rId43" display="#1670"/>
-    <hyperlink ref="B48" r:id="rId44" display="#1184"/>
-    <hyperlink ref="B49" r:id="rId45" display="#49"/>
-    <hyperlink ref="B50" r:id="rId46" display="#1140"/>
-    <hyperlink ref="B51" r:id="rId47" display="#1132"/>
-    <hyperlink ref="B53" r:id="rId48" display="#1125"/>
-    <hyperlink ref="B54" r:id="rId49" display="#1641"/>
-    <hyperlink ref="B55" r:id="rId50" display="#1124"/>
-    <hyperlink ref="B56" r:id="rId51" display="#1122"/>
-    <hyperlink ref="B57" r:id="rId52" display="#43"/>
-    <hyperlink ref="B58" r:id="rId53" display="#1622"/>
-    <hyperlink ref="B60" r:id="rId54" display="#38"/>
-    <hyperlink ref="B61" r:id="rId55" display="#1621"/>
-    <hyperlink ref="B62" r:id="rId56" display="#1616"/>
-    <hyperlink ref="B63" r:id="rId57" display="#37"/>
-    <hyperlink ref="B64" r:id="rId58" display="#36"/>
-    <hyperlink ref="B65" r:id="rId59" display="#1101"/>
-    <hyperlink ref="B66" r:id="rId60" display="#1099"/>
-    <hyperlink ref="B67" r:id="rId61" display="#1098"/>
-    <hyperlink ref="B68" r:id="rId62" display="#1617"/>
-    <hyperlink ref="B69" r:id="rId63" display="#1092"/>
-    <hyperlink ref="B70" r:id="rId64" display="#1128"/>
-    <hyperlink ref="B71" r:id="rId65" display="#1090"/>
-    <hyperlink ref="B72" r:id="rId66" display="#1608"/>
-    <hyperlink ref="B73" r:id="rId67" display="#35"/>
-    <hyperlink ref="B75" r:id="rId68" display="#1070"/>
-    <hyperlink ref="B76" r:id="rId69" display="#1592"/>
-    <hyperlink ref="B77" r:id="rId70" display="#1591"/>
-    <hyperlink ref="B78" r:id="rId71" display="#1578"/>
-    <hyperlink ref="B79" r:id="rId72" display="#41"/>
-    <hyperlink ref="B80" r:id="rId73" display="#42"/>
-    <hyperlink ref="B81" r:id="rId74" display="#1566"/>
-    <hyperlink ref="B82" r:id="rId75" display="#1565"/>
-    <hyperlink ref="B83" r:id="rId76" display="#1046"/>
-    <hyperlink ref="B84" r:id="rId77" display="#1559"/>
-    <hyperlink ref="B85" r:id="rId78" display="#1038"/>
-    <hyperlink ref="B86" r:id="rId79" display="#1037"/>
-    <hyperlink ref="B87" r:id="rId80" display="#1020"/>
-    <hyperlink ref="B88" r:id="rId81" display="#1032"/>
-    <hyperlink ref="B89" r:id="rId82" display="#1546"/>
-    <hyperlink ref="B90" r:id="rId83" display="#1027"/>
-    <hyperlink ref="B91" r:id="rId84" display="#1529"/>
-    <hyperlink ref="B93" r:id="rId85" display="#1527"/>
-    <hyperlink ref="B94" r:id="rId86" display="#558"/>
-    <hyperlink ref="B95" r:id="rId87" display="#1005"/>
-    <hyperlink ref="B96" r:id="rId88" display="#1020"/>
-    <hyperlink ref="B97" r:id="rId89" display="#993"/>
-    <hyperlink ref="B98" r:id="rId90" display="#1520"/>
-    <hyperlink ref="B99" r:id="rId91" display="#1519"/>
-    <hyperlink ref="B100" r:id="rId92" display="#969"/>
-    <hyperlink ref="B101" r:id="rId93" display="#1003"/>
-    <hyperlink ref="B102" r:id="rId94" display="#1015"/>
-    <hyperlink ref="B103" r:id="rId95" display="#1002"/>
-    <hyperlink ref="B104" r:id="rId96" display="#1471"/>
-    <hyperlink ref="B105" r:id="rId97" display="#1497"/>
-    <hyperlink ref="B106" r:id="rId98" display="#947"/>
-    <hyperlink ref="B107" r:id="rId99" display="#933"/>
-    <hyperlink ref="B108" r:id="rId100" display="#932"/>
-    <hyperlink ref="B109" r:id="rId101" display="#931"/>
-    <hyperlink ref="B110" r:id="rId102" display="#987"/>
-    <hyperlink ref="B111" r:id="rId103" display="#988"/>
-    <hyperlink ref="B112" r:id="rId104" display="#982"/>
-    <hyperlink ref="B113" r:id="rId105" display="#979"/>
-    <hyperlink ref="B114" r:id="rId106" display="#977"/>
-    <hyperlink ref="B115" r:id="rId107" display="#975"/>
-    <hyperlink ref="B116" r:id="rId108" display="#1445"/>
-    <hyperlink ref="B117" r:id="rId109" display="#1444"/>
-    <hyperlink ref="B118" r:id="rId110" display="#1427"/>
-    <hyperlink ref="B120" r:id="rId111" display="#23"/>
-    <hyperlink ref="B121" r:id="rId112" display="#22"/>
-    <hyperlink ref="B122" r:id="rId113" display="#18"/>
-    <hyperlink ref="B123" r:id="rId114" display="#1207"/>
-    <hyperlink ref="B124" r:id="rId115" display="#245"/>
+    <hyperlink ref="B4" r:id="rId1" display="#1725"/>
+    <hyperlink ref="B5" r:id="rId2" display="#1724"/>
+    <hyperlink ref="B6" r:id="rId3" display="#1722"/>
+    <hyperlink ref="B7" r:id="rId4" display="#1226"/>
+    <hyperlink ref="B8" r:id="rId5" display="#1225"/>
+    <hyperlink ref="B9" r:id="rId6" display="#1720"/>
+    <hyperlink ref="B10" r:id="rId7" display="#1323"/>
+    <hyperlink ref="B11" r:id="rId8" display="#30"/>
+    <hyperlink ref="B12" r:id="rId9" display="#1712"/>
+    <hyperlink ref="B13" r:id="rId10" display="#1215"/>
+    <hyperlink ref="B14" r:id="rId11" display="#1214"/>
+    <hyperlink ref="B15" r:id="rId12" display="#1213"/>
+    <hyperlink ref="B16" r:id="rId13" display="#1212"/>
+    <hyperlink ref="B18" r:id="rId14" display="#1202"/>
+    <hyperlink ref="B19" r:id="rId15" display="#27"/>
+    <hyperlink ref="B20" r:id="rId16" display="#26"/>
+    <hyperlink ref="B21" r:id="rId17" display="#1201"/>
+    <hyperlink ref="B22" r:id="rId18" display="#1200"/>
+    <hyperlink ref="B23" r:id="rId19" display="#1708"/>
+    <hyperlink ref="B24" r:id="rId20" display="#1185"/>
+    <hyperlink ref="D24" r:id="rId21" display="#1226"/>
+    <hyperlink ref="B25" r:id="rId22" display="#11"/>
+    <hyperlink ref="B26" r:id="rId23" display="#1309"/>
+    <hyperlink ref="B27" r:id="rId24" display="#1176"/>
+    <hyperlink ref="B28" r:id="rId25" display="#1171"/>
+    <hyperlink ref="B29" r:id="rId26" display="#1164"/>
+    <hyperlink ref="B30" r:id="rId27" display="#9"/>
+    <hyperlink ref="B31" r:id="rId28" display="#1163"/>
+    <hyperlink ref="B32" r:id="rId29" display="#1161"/>
+    <hyperlink ref="B33" r:id="rId30" display="#1690"/>
+    <hyperlink ref="B35" r:id="rId31" display="#1155"/>
+    <hyperlink ref="B36" r:id="rId32" display="#1150"/>
+    <hyperlink ref="B37" r:id="rId33" display="#1151"/>
+    <hyperlink ref="B38" r:id="rId34" display="#1200"/>
+    <hyperlink ref="B39" r:id="rId35" display="#1681"/>
+    <hyperlink ref="B40" r:id="rId36" display="#1142"/>
+    <hyperlink ref="B41" r:id="rId37" display="#8"/>
+    <hyperlink ref="B42" r:id="rId38" display="#1674"/>
+    <hyperlink ref="B43" r:id="rId39" display="#1672"/>
+    <hyperlink ref="B44" r:id="rId40" display="#1669"/>
+    <hyperlink ref="B45" r:id="rId41" display="#1670"/>
+    <hyperlink ref="B46" r:id="rId42" display="#1184"/>
+    <hyperlink ref="B47" r:id="rId43" display="#49"/>
+    <hyperlink ref="B48" r:id="rId44" display="#1140"/>
+    <hyperlink ref="B49" r:id="rId45" display="#1132"/>
+    <hyperlink ref="B51" r:id="rId46" display="#1125"/>
+    <hyperlink ref="B52" r:id="rId47" display="#1641"/>
+    <hyperlink ref="B53" r:id="rId48" display="#1124"/>
+    <hyperlink ref="B54" r:id="rId49" display="#1122"/>
+    <hyperlink ref="B55" r:id="rId50" display="#43"/>
+    <hyperlink ref="B56" r:id="rId51" display="#1622"/>
+    <hyperlink ref="B58" r:id="rId52" display="#38"/>
+    <hyperlink ref="B59" r:id="rId53" display="#1621"/>
+    <hyperlink ref="B60" r:id="rId54" display="#1616"/>
+    <hyperlink ref="B61" r:id="rId55" display="#37"/>
+    <hyperlink ref="B62" r:id="rId56" display="#36"/>
+    <hyperlink ref="B63" r:id="rId57" display="#1101"/>
+    <hyperlink ref="B64" r:id="rId58" display="#1099"/>
+    <hyperlink ref="B65" r:id="rId59" display="#1098"/>
+    <hyperlink ref="B66" r:id="rId60" display="#1617"/>
+    <hyperlink ref="B67" r:id="rId61" display="#1092"/>
+    <hyperlink ref="B68" r:id="rId62" display="#1128"/>
+    <hyperlink ref="B69" r:id="rId63" display="#1090"/>
+    <hyperlink ref="B70" r:id="rId64" display="#1608"/>
+    <hyperlink ref="B71" r:id="rId65" display="#35"/>
+    <hyperlink ref="B73" r:id="rId66" display="#1070"/>
+    <hyperlink ref="B74" r:id="rId67" display="#1592"/>
+    <hyperlink ref="B75" r:id="rId68" display="#1591"/>
+    <hyperlink ref="B76" r:id="rId69" display="#1578"/>
+    <hyperlink ref="B77" r:id="rId70" display="#41"/>
+    <hyperlink ref="B78" r:id="rId71" display="#42"/>
+    <hyperlink ref="B79" r:id="rId72" display="#1566"/>
+    <hyperlink ref="B80" r:id="rId73" display="#1565"/>
+    <hyperlink ref="B81" r:id="rId74" display="#1046"/>
+    <hyperlink ref="B82" r:id="rId75" display="#1559"/>
+    <hyperlink ref="B83" r:id="rId76" display="#1038"/>
+    <hyperlink ref="B84" r:id="rId77" display="#1037"/>
+    <hyperlink ref="B85" r:id="rId78" display="#1020"/>
+    <hyperlink ref="B86" r:id="rId79" display="#1032"/>
+    <hyperlink ref="B87" r:id="rId80" display="#1546"/>
+    <hyperlink ref="B88" r:id="rId81" display="#1027"/>
+    <hyperlink ref="B89" r:id="rId82" display="#1529"/>
+    <hyperlink ref="B91" r:id="rId83" display="#1527"/>
+    <hyperlink ref="B92" r:id="rId84" display="#558"/>
+    <hyperlink ref="B93" r:id="rId85" display="#1005"/>
+    <hyperlink ref="B94" r:id="rId86" display="#1020"/>
+    <hyperlink ref="B95" r:id="rId87" display="#993"/>
+    <hyperlink ref="B96" r:id="rId88" display="#1520"/>
+    <hyperlink ref="B97" r:id="rId89" display="#1519"/>
+    <hyperlink ref="B98" r:id="rId90" display="#969"/>
+    <hyperlink ref="B99" r:id="rId91" display="#1003"/>
+    <hyperlink ref="B100" r:id="rId92" display="#1015"/>
+    <hyperlink ref="B101" r:id="rId93" display="#1002"/>
+    <hyperlink ref="B102" r:id="rId94" display="#1471"/>
+    <hyperlink ref="B103" r:id="rId95" display="#1497"/>
+    <hyperlink ref="B104" r:id="rId96" display="#947"/>
+    <hyperlink ref="B105" r:id="rId97" display="#933"/>
+    <hyperlink ref="B106" r:id="rId98" display="#932"/>
+    <hyperlink ref="B107" r:id="rId99" display="#931"/>
+    <hyperlink ref="B108" r:id="rId100" display="#987"/>
+    <hyperlink ref="B109" r:id="rId101" display="#988"/>
+    <hyperlink ref="B110" r:id="rId102" display="#982"/>
+    <hyperlink ref="B111" r:id="rId103" display="#979"/>
+    <hyperlink ref="B112" r:id="rId104" display="#977"/>
+    <hyperlink ref="B113" r:id="rId105" display="#975"/>
+    <hyperlink ref="B114" r:id="rId106" display="#1445"/>
+    <hyperlink ref="B115" r:id="rId107" display="#1444"/>
+    <hyperlink ref="B116" r:id="rId108" display="#1427"/>
+    <hyperlink ref="B118" r:id="rId109" display="#23"/>
+    <hyperlink ref="B119" r:id="rId110" display="#22"/>
+    <hyperlink ref="B120" r:id="rId111" display="#18"/>
+    <hyperlink ref="B121" r:id="rId112" display="#1207"/>
+    <hyperlink ref="B122" r:id="rId113" display="#245"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="1" right="1" top="1.66666666666667" bottom="1.66666666666667" header="1" footer="1"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Sans,Regular"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Sans,Regular"Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId116"/>
+  <drawing r:id="rId114"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -4233,10 +6190,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -4245,16 +6202,16 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
